--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -371,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +454,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1499,25 +1493,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -14258,13 +14252,13 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:15" ht="20">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="268" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="261">
@@ -14293,7 +14287,7 @@
       <c r="O1" s="262"/>
     </row>
     <row r="2" spans="1:15" ht="16" thickBot="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="269" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="264">
@@ -14343,196 +14337,195 @@
       <c r="A3" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="281"/>
+      <c r="B3" s="278"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="274"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="273"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="268"/>
-      <c r="I4" s="268"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="275"/>
-      <c r="O4" s="276"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="271"/>
+      <c r="N4" s="270"/>
+      <c r="O4" s="271"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="273"/>
-      <c r="C5" s="274"/>
-      <c r="D5" s="275"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="276"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="276"/>
-      <c r="N5" s="275"/>
-      <c r="O5" s="276"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="270"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="270"/>
+      <c r="O5" s="271"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="273"/>
-      <c r="C6" s="274"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="276"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="276"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="271"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="271"/>
+      <c r="N6" s="280"/>
+      <c r="O6" s="281"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="276"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="276"/>
-      <c r="N7" s="275"/>
-      <c r="O7" s="276"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="271"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="271"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="271"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="275"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="276"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="275"/>
-      <c r="O8" s="276"/>
+      <c r="B8" s="270"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="271"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="270"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="271"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="273"/>
-      <c r="C9" s="274"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="273"/>
-      <c r="O9" s="274"/>
+      <c r="B9" s="280"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="280"/>
+      <c r="O9" s="281"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="276"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="276"/>
-      <c r="N10" s="273"/>
-      <c r="O10" s="274"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="267"/>
+      <c r="J10" s="271"/>
+      <c r="K10" s="270"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="280"/>
+      <c r="O10" s="281"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="273"/>
-      <c r="C11" s="274"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="275"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="276"/>
-      <c r="K11" s="275"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="273"/>
-      <c r="O11" s="274"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="281"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="267"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="281"/>
     </row>
     <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="277"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="284"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="285"/>
-      <c r="J12" s="283"/>
-      <c r="K12" s="284"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="277"/>
-      <c r="O12" s="278"/>
+      <c r="B12" s="283"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="276"/>
+      <c r="H12" s="277"/>
+      <c r="I12" s="277"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="276"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="283"/>
+      <c r="O12" s="284"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="3" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-25440" yWindow="3140" windowWidth="22120" windowHeight="18320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rhythm Map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="102">
   <si>
     <t>Stage 1-1</t>
   </si>
@@ -166,31 +166,10 @@
     <t>2,1</t>
   </si>
   <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t>1,5,1</t>
-  </si>
-  <si>
-    <t>1,7,1</t>
-  </si>
-  <si>
-    <t>1,11,1</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>cycle</t>
   </si>
   <si>
-    <t>3,2,1</t>
-  </si>
-  <si>
     <t>1,1</t>
-  </si>
-  <si>
-    <t>1,1,1</t>
   </si>
   <si>
     <t>3,2</t>
@@ -235,22 +214,7 @@
     <t>super(8)</t>
   </si>
   <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>2,1,2</t>
-  </si>
-  <si>
-    <t>2,1,1,2</t>
-  </si>
-  <si>
-    <t>3,1,3</t>
-  </si>
-  <si>
     <t>*1*</t>
-  </si>
-  <si>
-    <t>1,9,1</t>
   </si>
   <si>
     <t>bisect unevenly(large:small)</t>
@@ -271,13 +235,7 @@
     <t>1,3,2</t>
   </si>
   <si>
-    <t>Pressure volatility</t>
-  </si>
-  <si>
     <t>Temporal density</t>
-  </si>
-  <si>
-    <t>Mean pressure</t>
   </si>
   <si>
     <t>Woodwinds</t>
@@ -287,9 +245,6 @@
   </si>
   <si>
     <t>Bowed Strings</t>
-  </si>
-  <si>
-    <t>Length volatility</t>
   </si>
   <si>
     <t>string</t>
@@ -313,16 +268,10 @@
     <t>Tempo (BPM)</t>
   </si>
   <si>
-    <t>med</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
     <t>very high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high </t>
   </si>
   <si>
     <t>temporal density</t>
@@ -332,9 +281,6 @@
   </si>
   <si>
     <t>medium</t>
-  </si>
-  <si>
-    <t>Mean resonator length</t>
   </si>
   <si>
     <t>mean events per measure?</t>
@@ -352,66 +298,6 @@
     <t>very low</t>
   </si>
   <si>
-    <t>1,-1</t>
-  </si>
-  <si>
-    <t>3,-2,3</t>
-  </si>
-  <si>
-    <t>1,-1,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1</t>
-  </si>
-  <si>
-    <t>1,1,1,-1</t>
-  </si>
-  <si>
-    <t>3,2,3</t>
-  </si>
-  <si>
-    <t>-1,1</t>
-  </si>
-  <si>
-    <t>3,3,-4</t>
-  </si>
-  <si>
-    <t>2,-1</t>
-  </si>
-  <si>
-    <t>-4,3,3</t>
-  </si>
-  <si>
-    <t>2,2,-1</t>
-  </si>
-  <si>
-    <t>-1,2,2</t>
-  </si>
-  <si>
-    <t>-1,1,1</t>
-  </si>
-  <si>
-    <t>-2,3</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>3,4,3</t>
-  </si>
-  <si>
-    <t>2,1,-2</t>
-  </si>
-  <si>
-    <t>-2,2,1</t>
-  </si>
-  <si>
-    <t>-1,1,3</t>
-  </si>
-  <si>
-    <t>1,1,1,-2</t>
-  </si>
-  <si>
     <t>sub (16)</t>
   </si>
   <si>
@@ -421,22 +307,25 @@
     <t>super</t>
   </si>
   <si>
-    <t>-1,3</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>3,-2,2</t>
-  </si>
-  <si>
-    <t>-1,2</t>
-  </si>
-  <si>
     <t>sub</t>
   </si>
   <si>
     <t>even</t>
+  </si>
+  <si>
+    <t>Pressure σ</t>
+  </si>
+  <si>
+    <t>Pressure µ</t>
+  </si>
+  <si>
+    <t>Resonator length µ</t>
+  </si>
+  <si>
+    <t>Resonator length σ</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1252,8 +1141,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1763,11 +1656,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1876,8 +1766,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1969,6 +1865,8 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2060,6 +1958,8 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2391,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U700"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="N262" sqref="N262"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="L259" sqref="L259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2537,7 +2437,7 @@
       <c r="Q3" s="30">
         <v>3</v>
       </c>
-      <c r="R3" s="299"/>
+      <c r="R3" s="296"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2594,7 +2494,7 @@
       <c r="Q4" s="33">
         <v>8</v>
       </c>
-      <c r="R4" s="299"/>
+      <c r="R4" s="296"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -4982,36 +4882,18 @@
         <v>13</v>
       </c>
       <c r="B108" s="200"/>
-      <c r="C108" s="223" t="s">
-        <v>55</v>
-      </c>
-      <c r="D108" s="223" t="s">
-        <v>111</v>
-      </c>
-      <c r="E108" s="300" t="s">
-        <v>55</v>
-      </c>
+      <c r="C108" s="223"/>
+      <c r="D108" s="223"/>
+      <c r="E108" s="297"/>
       <c r="F108" s="200"/>
-      <c r="G108" s="224" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" s="118" t="s">
-        <v>112</v>
-      </c>
+      <c r="G108" s="224"/>
+      <c r="H108" s="118"/>
       <c r="I108" s="200"/>
-      <c r="J108" s="224" t="s">
-        <v>55</v>
-      </c>
-      <c r="K108" s="224" t="s">
-        <v>113</v>
-      </c>
-      <c r="L108" s="118" t="s">
-        <v>55</v>
-      </c>
+      <c r="J108" s="224"/>
+      <c r="K108" s="224"/>
+      <c r="L108" s="118"/>
       <c r="M108" s="200"/>
-      <c r="N108" s="118" t="s">
-        <v>56</v>
-      </c>
+      <c r="N108" s="118"/>
       <c r="O108" t="s">
         <v>42</v>
       </c>
@@ -5023,36 +4905,18 @@
         <v>12</v>
       </c>
       <c r="B109" s="200"/>
-      <c r="C109" s="223" t="s">
-        <v>47</v>
-      </c>
-      <c r="D109" s="223" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" s="118" t="s">
-        <v>47</v>
-      </c>
+      <c r="C109" s="223"/>
+      <c r="D109" s="223"/>
+      <c r="E109" s="118"/>
       <c r="F109" s="200"/>
-      <c r="G109" s="224" t="s">
-        <v>47</v>
-      </c>
-      <c r="H109" s="118" t="s">
-        <v>47</v>
-      </c>
+      <c r="G109" s="224"/>
+      <c r="H109" s="118"/>
       <c r="I109" s="200"/>
-      <c r="J109" s="224" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109" s="224" t="s">
-        <v>47</v>
-      </c>
-      <c r="L109" s="118" t="s">
-        <v>48</v>
-      </c>
+      <c r="J109" s="224"/>
+      <c r="K109" s="224"/>
+      <c r="L109" s="118"/>
       <c r="M109" s="200"/>
-      <c r="N109" s="118" t="s">
-        <v>47</v>
-      </c>
+      <c r="N109" s="118"/>
       <c r="O109" t="s">
         <v>43</v>
       </c>
@@ -5066,38 +4930,20 @@
         <v>11</v>
       </c>
       <c r="B110" s="200"/>
-      <c r="C110" s="223" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="223" t="s">
-        <v>50</v>
-      </c>
-      <c r="E110" s="118" t="s">
-        <v>49</v>
-      </c>
+      <c r="C110" s="223"/>
+      <c r="D110" s="223"/>
+      <c r="E110" s="118"/>
       <c r="F110" s="200"/>
-      <c r="G110" s="224" t="s">
-        <v>49</v>
-      </c>
-      <c r="H110" s="118" t="s">
-        <v>51</v>
-      </c>
+      <c r="G110" s="224"/>
+      <c r="H110" s="118"/>
       <c r="I110" s="200"/>
-      <c r="J110" s="224" t="s">
-        <v>49</v>
-      </c>
-      <c r="K110" s="224" t="s">
-        <v>51</v>
-      </c>
-      <c r="L110" s="118" t="s">
-        <v>50</v>
-      </c>
+      <c r="J110" s="224"/>
+      <c r="K110" s="224"/>
+      <c r="L110" s="118"/>
       <c r="M110" s="200"/>
-      <c r="N110" s="118" t="s">
-        <v>51</v>
-      </c>
+      <c r="N110" s="118"/>
       <c r="O110" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="P110" t="s">
         <v>46</v>
@@ -5131,32 +4977,16 @@
       </c>
       <c r="B112" s="200"/>
       <c r="C112" s="201"/>
-      <c r="D112" s="223" t="s">
-        <v>55</v>
-      </c>
-      <c r="E112" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="F112" s="225" t="s">
-        <v>55</v>
-      </c>
+      <c r="D112" s="223"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="225"/>
       <c r="G112" s="201"/>
-      <c r="H112" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="I112" s="225" t="s">
-        <v>115</v>
-      </c>
+      <c r="H112" s="118"/>
+      <c r="I112" s="225"/>
       <c r="J112" s="201"/>
-      <c r="K112" s="224" t="s">
-        <v>56</v>
-      </c>
-      <c r="L112" s="300" t="s">
-        <v>116</v>
-      </c>
-      <c r="M112" s="225" t="s">
-        <v>55</v>
-      </c>
+      <c r="K112" s="224"/>
+      <c r="L112" s="297"/>
+      <c r="M112" s="225"/>
       <c r="N112" s="202"/>
       <c r="O112" t="s">
         <v>42</v>
@@ -5170,38 +5000,22 @@
       </c>
       <c r="B113" s="200"/>
       <c r="C113" s="201"/>
-      <c r="D113" s="223" t="s">
-        <v>52</v>
-      </c>
-      <c r="E113" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="F113" s="225" t="s">
-        <v>52</v>
-      </c>
+      <c r="D113" s="223"/>
+      <c r="E113" s="118"/>
+      <c r="F113" s="225"/>
       <c r="G113" s="201"/>
-      <c r="H113" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="I113" s="225" t="s">
-        <v>52</v>
-      </c>
+      <c r="H113" s="118"/>
+      <c r="I113" s="225"/>
       <c r="J113" s="201"/>
-      <c r="K113" s="224" t="s">
-        <v>54</v>
-      </c>
-      <c r="L113" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="M113" s="225" t="s">
-        <v>54</v>
-      </c>
+      <c r="K113" s="224"/>
+      <c r="L113" s="118"/>
+      <c r="M113" s="225"/>
       <c r="N113" s="202"/>
       <c r="O113">
         <v>6</v>
       </c>
       <c r="P113" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q113"/>
     </row>
@@ -5211,32 +5025,16 @@
       </c>
       <c r="B114" s="200"/>
       <c r="C114" s="201"/>
-      <c r="D114" s="224" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="118">
-        <v>1</v>
-      </c>
-      <c r="F114" s="225" t="s">
-        <v>55</v>
-      </c>
+      <c r="D114" s="224"/>
+      <c r="E114" s="118"/>
+      <c r="F114" s="225"/>
       <c r="G114" s="201"/>
-      <c r="H114" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I114" s="225" t="s">
-        <v>57</v>
-      </c>
+      <c r="H114" s="118"/>
+      <c r="I114" s="225"/>
       <c r="J114" s="201"/>
-      <c r="K114" s="224" t="s">
-        <v>56</v>
-      </c>
-      <c r="L114" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="M114" s="225">
-        <v>1</v>
-      </c>
+      <c r="K114" s="224"/>
+      <c r="L114" s="118"/>
+      <c r="M114" s="225"/>
       <c r="N114" s="202"/>
       <c r="O114"/>
       <c r="P114"/>
@@ -5270,32 +5068,16 @@
       <c r="B116" s="200"/>
       <c r="C116" s="201"/>
       <c r="D116" s="201"/>
-      <c r="E116" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="F116" s="225" t="s">
-        <v>111</v>
-      </c>
-      <c r="G116" s="223" t="s">
-        <v>55</v>
-      </c>
+      <c r="E116" s="118"/>
+      <c r="F116" s="225"/>
+      <c r="G116" s="223"/>
       <c r="H116" s="202"/>
-      <c r="I116" s="225" t="s">
-        <v>117</v>
-      </c>
-      <c r="J116" s="224" t="s">
-        <v>55</v>
-      </c>
+      <c r="I116" s="225"/>
+      <c r="J116" s="224"/>
       <c r="K116" s="201"/>
-      <c r="L116" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="M116" s="225" t="s">
-        <v>118</v>
-      </c>
-      <c r="N116" s="118" t="s">
-        <v>56</v>
-      </c>
+      <c r="L116" s="118"/>
+      <c r="M116" s="225"/>
+      <c r="N116" s="118"/>
       <c r="O116" t="s">
         <v>42</v>
       </c>
@@ -5309,32 +5091,16 @@
       <c r="B117" s="200"/>
       <c r="C117" s="201"/>
       <c r="D117" s="201"/>
-      <c r="E117" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="F117" s="225" t="s">
-        <v>55</v>
-      </c>
-      <c r="G117" s="223" t="s">
-        <v>55</v>
-      </c>
+      <c r="E117" s="118"/>
+      <c r="F117" s="225"/>
+      <c r="G117" s="223"/>
       <c r="H117" s="202"/>
-      <c r="I117" s="225" t="s">
-        <v>55</v>
-      </c>
-      <c r="J117" s="224" t="s">
-        <v>55</v>
-      </c>
+      <c r="I117" s="225"/>
+      <c r="J117" s="224"/>
       <c r="K117" s="201"/>
-      <c r="L117" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="M117" s="225" t="s">
-        <v>55</v>
-      </c>
-      <c r="N117" s="118" t="s">
-        <v>55</v>
-      </c>
+      <c r="L117" s="118"/>
+      <c r="M117" s="225"/>
+      <c r="N117" s="118"/>
       <c r="O117">
         <v>2</v>
       </c>
@@ -5348,37 +5114,21 @@
       <c r="B118" s="200"/>
       <c r="C118" s="201"/>
       <c r="D118" s="201"/>
-      <c r="E118" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="F118" s="225" t="s">
-        <v>72</v>
-      </c>
-      <c r="G118" s="223" t="s">
-        <v>71</v>
-      </c>
+      <c r="E118" s="118"/>
+      <c r="F118" s="225"/>
+      <c r="G118" s="223"/>
       <c r="H118" s="202"/>
-      <c r="I118" s="225" t="s">
-        <v>73</v>
-      </c>
-      <c r="J118" s="224" t="s">
-        <v>71</v>
-      </c>
+      <c r="I118" s="225"/>
+      <c r="J118" s="224"/>
       <c r="K118" s="201"/>
-      <c r="L118" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="M118" s="225" t="s">
-        <v>71</v>
-      </c>
-      <c r="N118" s="118" t="s">
-        <v>74</v>
-      </c>
+      <c r="L118" s="118"/>
+      <c r="M118" s="225"/>
+      <c r="N118" s="118"/>
       <c r="O118" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P118" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Q118"/>
     </row>
@@ -5486,10 +5236,10 @@
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123" s="221" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="S123" s="221" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -5512,11 +5262,11 @@
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124" s="221" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R124" s="5"/>
       <c r="S124" s="221" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -5539,10 +5289,10 @@
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125" s="221" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="S125" s="221" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="5" customFormat="1">
@@ -5565,11 +5315,11 @@
       <c r="O126" s="57"/>
       <c r="P126" s="57"/>
       <c r="Q126" s="221" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R126" s="1"/>
       <c r="S126" s="222" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -5595,7 +5345,7 @@
         <v>43</v>
       </c>
       <c r="S127" s="222" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -5618,7 +5368,7 @@
       <c r="O128"/>
       <c r="P128"/>
       <c r="Q128" s="221" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="S128" s="222" t="s">
         <v>44</v>
@@ -5643,10 +5393,10 @@
       <c r="N129" s="202"/>
       <c r="P129"/>
       <c r="Q129" s="221" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S129" s="222" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -5669,7 +5419,7 @@
       <c r="O130"/>
       <c r="P130"/>
       <c r="Q130" s="221" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -5692,7 +5442,7 @@
       <c r="O131"/>
       <c r="P131"/>
       <c r="Q131" s="221" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -5999,26 +5749,14 @@
         <v>13</v>
       </c>
       <c r="B159" s="232"/>
-      <c r="C159" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="D159" s="301" t="s">
-        <v>119</v>
-      </c>
+      <c r="C159" s="235"/>
+      <c r="D159" s="298"/>
       <c r="E159" s="232"/>
-      <c r="F159" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="F159" s="233"/>
       <c r="G159" s="234"/>
-      <c r="H159" s="231" t="s">
-        <v>120</v>
-      </c>
-      <c r="I159" s="231" t="s">
-        <v>120</v>
-      </c>
-      <c r="J159" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="H159" s="231"/>
+      <c r="I159" s="231"/>
+      <c r="J159" s="233"/>
       <c r="K159" t="s">
         <v>42</v>
       </c>
@@ -6030,26 +5768,14 @@
         <v>12</v>
       </c>
       <c r="B160" s="232"/>
-      <c r="C160" s="235" t="s">
-        <v>47</v>
-      </c>
-      <c r="D160" s="233" t="s">
-        <v>57</v>
-      </c>
+      <c r="C160" s="235"/>
+      <c r="D160" s="233"/>
       <c r="E160" s="232"/>
-      <c r="F160" s="233" t="s">
-        <v>48</v>
-      </c>
+      <c r="F160" s="233"/>
       <c r="G160" s="234"/>
-      <c r="H160" s="235" t="s">
-        <v>57</v>
-      </c>
-      <c r="I160" s="235" t="s">
-        <v>57</v>
-      </c>
-      <c r="J160" s="233" t="s">
-        <v>48</v>
-      </c>
+      <c r="H160" s="235"/>
+      <c r="I160" s="235"/>
+      <c r="J160" s="233"/>
       <c r="K160" t="s">
         <v>43</v>
       </c>
@@ -6063,28 +5789,16 @@
         <v>11</v>
       </c>
       <c r="B161" s="232"/>
-      <c r="C161" s="235" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="233" t="s">
-        <v>76</v>
-      </c>
+      <c r="C161" s="235"/>
+      <c r="D161" s="233"/>
       <c r="E161" s="232"/>
-      <c r="F161" s="233" t="s">
-        <v>50</v>
-      </c>
+      <c r="F161" s="233"/>
       <c r="G161" s="234"/>
-      <c r="H161" s="235" t="s">
-        <v>76</v>
-      </c>
-      <c r="I161" s="235" t="s">
-        <v>50</v>
-      </c>
-      <c r="J161" s="233" t="s">
-        <v>50</v>
-      </c>
+      <c r="H161" s="235"/>
+      <c r="I161" s="235"/>
+      <c r="J161" s="233"/>
       <c r="K161" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L161" t="s">
         <v>46</v>
@@ -6112,27 +5826,15 @@
       <c r="A163" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="239" t="s">
-        <v>55</v>
-      </c>
+      <c r="B163" s="239"/>
       <c r="C163" s="234"/>
-      <c r="D163" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" s="303" t="s">
-        <v>122</v>
-      </c>
+      <c r="D163" s="233"/>
+      <c r="E163" s="300"/>
       <c r="F163" s="240"/>
-      <c r="G163" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="G163" s="235"/>
       <c r="H163" s="234"/>
-      <c r="I163" s="302" t="s">
-        <v>121</v>
-      </c>
-      <c r="J163" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="I163" s="299"/>
+      <c r="J163" s="233"/>
       <c r="K163" t="s">
         <v>42</v>
       </c>
@@ -6143,32 +5845,20 @@
       <c r="A164" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B164" s="239" t="s">
-        <v>52</v>
-      </c>
+      <c r="B164" s="239"/>
       <c r="C164" s="234"/>
-      <c r="D164" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="E164" s="239" t="s">
-        <v>52</v>
-      </c>
+      <c r="D164" s="233"/>
+      <c r="E164" s="239"/>
       <c r="F164" s="240"/>
-      <c r="G164" s="235" t="s">
-        <v>54</v>
-      </c>
+      <c r="G164" s="235"/>
       <c r="H164" s="234"/>
-      <c r="I164" s="235" t="s">
-        <v>52</v>
-      </c>
-      <c r="J164" s="233" t="s">
-        <v>54</v>
-      </c>
+      <c r="I164" s="235"/>
+      <c r="J164" s="233"/>
       <c r="K164">
         <v>6</v>
       </c>
       <c r="L164" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M164"/>
     </row>
@@ -6176,27 +5866,15 @@
       <c r="A165" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="239" t="s">
-        <v>55</v>
-      </c>
+      <c r="B165" s="239"/>
       <c r="C165" s="234"/>
-      <c r="D165" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="E165" s="239" t="s">
-        <v>55</v>
-      </c>
+      <c r="D165" s="233"/>
+      <c r="E165" s="239"/>
       <c r="F165" s="240"/>
-      <c r="G165" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="G165" s="235"/>
       <c r="H165" s="234"/>
-      <c r="I165" s="235" t="s">
-        <v>57</v>
-      </c>
-      <c r="J165" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="I165" s="235"/>
+      <c r="J165" s="233"/>
       <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
@@ -6222,29 +5900,15 @@
       <c r="A167" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="239" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="B167" s="239"/>
+      <c r="C167" s="235"/>
       <c r="D167" s="240"/>
-      <c r="E167" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="F167" s="233" t="s">
-        <v>110</v>
-      </c>
-      <c r="G167" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="H167" s="304" t="s">
-        <v>116</v>
-      </c>
+      <c r="E167" s="239"/>
+      <c r="F167" s="233"/>
+      <c r="G167" s="231"/>
+      <c r="H167" s="301"/>
       <c r="I167" s="234"/>
-      <c r="J167" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="J167" s="233"/>
       <c r="K167" t="s">
         <v>42</v>
       </c>
@@ -6255,29 +5919,15 @@
       <c r="A168" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B168" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="C168" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="B168" s="239"/>
+      <c r="C168" s="235"/>
       <c r="D168" s="240"/>
-      <c r="E168" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="F168" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G168" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="H168" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="E168" s="239"/>
+      <c r="F168" s="233"/>
+      <c r="G168" s="235"/>
+      <c r="H168" s="235"/>
       <c r="I168" s="234"/>
-      <c r="J168" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="J168" s="233"/>
       <c r="K168">
         <v>2</v>
       </c>
@@ -6288,34 +5938,20 @@
       <c r="A169" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B169" s="239" t="s">
-        <v>72</v>
-      </c>
-      <c r="C169" s="235" t="s">
-        <v>71</v>
-      </c>
+      <c r="B169" s="239"/>
+      <c r="C169" s="235"/>
       <c r="D169" s="240"/>
-      <c r="E169" s="239" t="s">
-        <v>74</v>
-      </c>
-      <c r="F169" s="233" t="s">
-        <v>72</v>
-      </c>
-      <c r="G169" s="235" t="s">
-        <v>74</v>
-      </c>
-      <c r="H169" s="235" t="s">
-        <v>73</v>
-      </c>
+      <c r="E169" s="239"/>
+      <c r="F169" s="233"/>
+      <c r="G169" s="235"/>
+      <c r="H169" s="235"/>
       <c r="I169" s="234"/>
-      <c r="J169" s="233" t="s">
-        <v>72</v>
-      </c>
+      <c r="J169" s="233"/>
       <c r="K169" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L169" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M169"/>
     </row>
@@ -6403,32 +6039,32 @@
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174" s="221" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O174" s="221" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="319"/>
-      <c r="C175" s="320"/>
-      <c r="D175" s="321"/>
-      <c r="E175" s="319"/>
-      <c r="F175" s="321"/>
-      <c r="G175" s="320"/>
-      <c r="H175" s="320"/>
-      <c r="I175" s="320"/>
-      <c r="J175" s="321"/>
+      <c r="B175" s="316"/>
+      <c r="C175" s="317"/>
+      <c r="D175" s="318"/>
+      <c r="E175" s="316"/>
+      <c r="F175" s="318"/>
+      <c r="G175" s="317"/>
+      <c r="H175" s="317"/>
+      <c r="I175" s="317"/>
+      <c r="J175" s="318"/>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175" s="221" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O175" s="221" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -6447,10 +6083,10 @@
       <c r="K176"/>
       <c r="L176"/>
       <c r="M176" s="221" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O176" s="221" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -6469,33 +6105,33 @@
       <c r="K177" s="57"/>
       <c r="L177" s="57"/>
       <c r="M177" s="221" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N177" s="5"/>
       <c r="O177" s="222" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B178" s="319"/>
-      <c r="C178" s="320"/>
-      <c r="D178" s="321"/>
-      <c r="E178" s="319"/>
-      <c r="F178" s="321"/>
-      <c r="G178" s="320"/>
-      <c r="H178" s="320"/>
-      <c r="I178" s="320"/>
-      <c r="J178" s="321"/>
+      <c r="B178" s="316"/>
+      <c r="C178" s="317"/>
+      <c r="D178" s="318"/>
+      <c r="E178" s="316"/>
+      <c r="F178" s="318"/>
+      <c r="G178" s="317"/>
+      <c r="H178" s="317"/>
+      <c r="I178" s="317"/>
+      <c r="J178" s="318"/>
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178" s="221" t="s">
         <v>43</v>
       </c>
       <c r="O178" s="222" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -6514,7 +6150,7 @@
       <c r="K179"/>
       <c r="L179"/>
       <c r="M179" s="221" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O179" s="222" t="s">
         <v>44</v>
@@ -6536,10 +6172,10 @@
       <c r="K180"/>
       <c r="L180"/>
       <c r="M180" s="221" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O180" s="222" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -6558,7 +6194,7 @@
       <c r="K181"/>
       <c r="L181"/>
       <c r="M181" s="221" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -6577,7 +6213,7 @@
       <c r="K182"/>
       <c r="L182"/>
       <c r="M182" s="221" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -6915,45 +6551,23 @@
         <v>13</v>
       </c>
       <c r="B210" s="232"/>
-      <c r="C210" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="D210" s="301" t="s">
-        <v>123</v>
-      </c>
+      <c r="C210" s="231"/>
+      <c r="D210" s="298"/>
       <c r="E210" s="234"/>
-      <c r="F210" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="F210" s="233"/>
       <c r="G210" s="234"/>
-      <c r="H210" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="I210" s="304" t="s">
-        <v>116</v>
-      </c>
-      <c r="J210" s="233" t="s">
-        <v>124</v>
-      </c>
+      <c r="H210" s="231"/>
+      <c r="I210" s="301"/>
+      <c r="J210" s="233"/>
       <c r="K210" s="232"/>
-      <c r="L210" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="M210" s="231" t="s">
-        <v>110</v>
-      </c>
-      <c r="N210" s="233" t="s">
-        <v>125</v>
-      </c>
+      <c r="L210" s="231"/>
+      <c r="M210" s="231"/>
+      <c r="N210" s="233"/>
       <c r="O210" s="234"/>
-      <c r="P210" s="231">
-        <v>1</v>
-      </c>
-      <c r="Q210" s="233">
-        <v>1</v>
-      </c>
+      <c r="P210" s="231"/>
+      <c r="Q210" s="233"/>
       <c r="R210" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="S210"/>
       <c r="T210"/>
@@ -6963,46 +6577,24 @@
         <v>12</v>
       </c>
       <c r="B211" s="232"/>
-      <c r="C211" s="235" t="s">
-        <v>48</v>
-      </c>
-      <c r="D211" s="233" t="s">
-        <v>57</v>
-      </c>
+      <c r="C211" s="235"/>
+      <c r="D211" s="233"/>
       <c r="E211" s="234"/>
-      <c r="F211" s="233" t="s">
-        <v>57</v>
-      </c>
+      <c r="F211" s="233"/>
       <c r="G211" s="234"/>
-      <c r="H211" s="235" t="s">
-        <v>48</v>
-      </c>
-      <c r="I211" s="235" t="s">
-        <v>47</v>
-      </c>
-      <c r="J211" s="233" t="s">
-        <v>57</v>
-      </c>
+      <c r="H211" s="235"/>
+      <c r="I211" s="235"/>
+      <c r="J211" s="233"/>
       <c r="K211" s="232"/>
-      <c r="L211" s="235" t="s">
-        <v>48</v>
-      </c>
-      <c r="M211" s="235" t="s">
-        <v>47</v>
-      </c>
-      <c r="N211" s="233" t="s">
-        <v>57</v>
-      </c>
+      <c r="L211" s="235"/>
+      <c r="M211" s="235"/>
+      <c r="N211" s="233"/>
       <c r="O211" s="234"/>
-      <c r="P211" s="235" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q211" s="233" t="s">
-        <v>47</v>
-      </c>
+      <c r="P211" s="235"/>
+      <c r="Q211" s="233"/>
       <c r="R211"/>
       <c r="S211" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="T211"/>
     </row>
@@ -7011,43 +6603,21 @@
         <v>11</v>
       </c>
       <c r="B212" s="232"/>
-      <c r="C212" s="235" t="s">
-        <v>50</v>
-      </c>
-      <c r="D212" s="233" t="s">
-        <v>76</v>
-      </c>
+      <c r="C212" s="235"/>
+      <c r="D212" s="233"/>
       <c r="E212" s="234"/>
-      <c r="F212" s="233" t="s">
-        <v>76</v>
-      </c>
+      <c r="F212" s="233"/>
       <c r="G212" s="234"/>
-      <c r="H212" s="235" t="s">
-        <v>50</v>
-      </c>
-      <c r="I212" s="235" t="s">
-        <v>49</v>
-      </c>
-      <c r="J212" s="233" t="s">
-        <v>76</v>
-      </c>
+      <c r="H212" s="235"/>
+      <c r="I212" s="235"/>
+      <c r="J212" s="233"/>
       <c r="K212" s="232"/>
-      <c r="L212" s="235" t="s">
-        <v>50</v>
-      </c>
-      <c r="M212" s="235" t="s">
-        <v>49</v>
-      </c>
-      <c r="N212" s="233" t="s">
-        <v>76</v>
-      </c>
+      <c r="L212" s="235"/>
+      <c r="M212" s="235"/>
+      <c r="N212" s="233"/>
       <c r="O212" s="234"/>
-      <c r="P212" s="235" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q212" s="233" t="s">
-        <v>49</v>
-      </c>
+      <c r="P212" s="235"/>
+      <c r="Q212" s="233"/>
       <c r="R212" t="s">
         <v>42</v>
       </c>
@@ -7086,44 +6656,22 @@
       <c r="A214" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B214" s="239" t="s">
-        <v>125</v>
-      </c>
+      <c r="B214" s="239"/>
       <c r="C214" s="234"/>
-      <c r="D214" s="233" t="s">
-        <v>126</v>
-      </c>
-      <c r="E214" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="D214" s="233"/>
+      <c r="E214" s="235"/>
       <c r="F214" s="240"/>
-      <c r="G214" s="235" t="s">
-        <v>56</v>
-      </c>
+      <c r="G214" s="235"/>
       <c r="H214" s="234"/>
-      <c r="I214" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="J214" s="301" t="s">
-        <v>127</v>
-      </c>
-      <c r="K214" s="239" t="s">
-        <v>56</v>
-      </c>
+      <c r="I214" s="235"/>
+      <c r="J214" s="298"/>
+      <c r="K214" s="239"/>
       <c r="L214" s="234"/>
-      <c r="M214" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="N214" s="301" t="s">
-        <v>121</v>
-      </c>
-      <c r="O214" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="M214" s="235"/>
+      <c r="N214" s="298"/>
+      <c r="O214" s="235"/>
       <c r="P214" s="234"/>
-      <c r="Q214" s="233" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q214" s="233"/>
       <c r="R214"/>
       <c r="S214"/>
       <c r="T214"/>
@@ -7132,47 +6680,25 @@
       <c r="A215" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B215" s="254" t="s">
-        <v>52</v>
-      </c>
+      <c r="B215" s="254"/>
       <c r="C215" s="234"/>
-      <c r="D215" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="E215" s="235" t="s">
-        <v>52</v>
-      </c>
+      <c r="D215" s="233"/>
+      <c r="E215" s="235"/>
       <c r="F215" s="240"/>
-      <c r="G215" s="235" t="s">
-        <v>54</v>
-      </c>
+      <c r="G215" s="235"/>
       <c r="H215" s="234"/>
-      <c r="I215" s="235" t="s">
-        <v>52</v>
-      </c>
-      <c r="J215" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="K215" s="239" t="s">
-        <v>52</v>
-      </c>
+      <c r="I215" s="235"/>
+      <c r="J215" s="233"/>
+      <c r="K215" s="239"/>
       <c r="L215" s="234"/>
-      <c r="M215" s="235" t="s">
-        <v>54</v>
-      </c>
-      <c r="N215" s="233" t="s">
-        <v>52</v>
-      </c>
-      <c r="O215" s="235" t="s">
-        <v>54</v>
-      </c>
+      <c r="M215" s="235"/>
+      <c r="N215" s="233"/>
+      <c r="O215" s="235"/>
       <c r="P215" s="234"/>
-      <c r="Q215" s="233" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q215" s="233"/>
       <c r="R215"/>
       <c r="S215" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="T215"/>
     </row>
@@ -7180,44 +6706,22 @@
       <c r="A216" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="239" t="s">
-        <v>57</v>
-      </c>
+      <c r="B216" s="239"/>
       <c r="C216" s="234"/>
-      <c r="D216" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="E216" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="D216" s="233"/>
+      <c r="E216" s="235"/>
       <c r="F216" s="240"/>
-      <c r="G216" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="G216" s="235"/>
       <c r="H216" s="234"/>
-      <c r="I216" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="J216" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="K216" s="239" t="s">
-        <v>55</v>
-      </c>
+      <c r="I216" s="235"/>
+      <c r="J216" s="233"/>
+      <c r="K216" s="239"/>
       <c r="L216" s="234"/>
-      <c r="M216" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="N216" s="233" t="s">
-        <v>57</v>
-      </c>
-      <c r="O216" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="M216" s="235"/>
+      <c r="N216" s="233"/>
+      <c r="O216" s="235"/>
       <c r="P216" s="234"/>
-      <c r="Q216" s="233" t="s">
-        <v>55</v>
-      </c>
+      <c r="Q216" s="233"/>
       <c r="R216" t="s">
         <v>42</v>
       </c>
@@ -7254,48 +6758,24 @@
       <c r="A218" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B218" s="239" t="s">
-        <v>124</v>
-      </c>
-      <c r="C218" s="302" t="s">
-        <v>116</v>
-      </c>
+      <c r="B218" s="239"/>
+      <c r="C218" s="299"/>
       <c r="D218" s="240"/>
-      <c r="E218" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="F218" s="301" t="s">
-        <v>128</v>
-      </c>
-      <c r="G218" s="231" t="s">
-        <v>113</v>
-      </c>
-      <c r="H218" s="231" t="s">
-        <v>55</v>
-      </c>
+      <c r="E218" s="235"/>
+      <c r="F218" s="298"/>
+      <c r="G218" s="231"/>
+      <c r="H218" s="231"/>
       <c r="I218" s="234"/>
-      <c r="J218" s="233" t="s">
-        <v>120</v>
-      </c>
-      <c r="K218" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="L218" s="231" t="s">
-        <v>110</v>
-      </c>
+      <c r="J218" s="233"/>
+      <c r="K218" s="239"/>
+      <c r="L218" s="231"/>
       <c r="M218" s="234"/>
-      <c r="N218" s="233" t="s">
-        <v>129</v>
-      </c>
-      <c r="O218" s="231" t="s">
-        <v>55</v>
-      </c>
-      <c r="P218" s="231" t="s">
-        <v>112</v>
-      </c>
+      <c r="N218" s="233"/>
+      <c r="O218" s="231"/>
+      <c r="P218" s="231"/>
       <c r="Q218" s="240"/>
       <c r="R218" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="S218"/>
       <c r="T218"/>
@@ -7304,45 +6784,21 @@
       <c r="A219" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B219" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="C219" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="B219" s="239"/>
+      <c r="C219" s="235"/>
       <c r="D219" s="240"/>
-      <c r="E219" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="F219" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="G219" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="H219" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="E219" s="235"/>
+      <c r="F219" s="233"/>
+      <c r="G219" s="235"/>
+      <c r="H219" s="235"/>
       <c r="I219" s="234"/>
-      <c r="J219" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="K219" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="L219" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="J219" s="233"/>
+      <c r="K219" s="239"/>
+      <c r="L219" s="235"/>
       <c r="M219" s="234"/>
-      <c r="N219" s="233" t="s">
-        <v>55</v>
-      </c>
-      <c r="O219" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="P219" s="235" t="s">
-        <v>55</v>
-      </c>
+      <c r="N219" s="233"/>
+      <c r="O219" s="235"/>
+      <c r="P219" s="235"/>
       <c r="Q219" s="240"/>
       <c r="R219"/>
       <c r="S219"/>
@@ -7352,49 +6808,25 @@
       <c r="A220" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B220" s="239" t="s">
-        <v>73</v>
-      </c>
-      <c r="C220" s="235" t="s">
-        <v>72</v>
-      </c>
+      <c r="B220" s="239"/>
+      <c r="C220" s="235"/>
       <c r="D220" s="240"/>
-      <c r="E220" s="235" t="s">
-        <v>71</v>
-      </c>
-      <c r="F220" s="233" t="s">
-        <v>72</v>
-      </c>
-      <c r="G220" s="235" t="s">
-        <v>71</v>
-      </c>
-      <c r="H220" s="235" t="s">
-        <v>72</v>
-      </c>
+      <c r="E220" s="235"/>
+      <c r="F220" s="233"/>
+      <c r="G220" s="235"/>
+      <c r="H220" s="235"/>
       <c r="I220" s="234"/>
-      <c r="J220" s="233" t="s">
-        <v>73</v>
-      </c>
-      <c r="K220" s="239" t="s">
-        <v>72</v>
-      </c>
-      <c r="L220" s="235" t="s">
-        <v>72</v>
-      </c>
+      <c r="J220" s="233"/>
+      <c r="K220" s="239"/>
+      <c r="L220" s="235"/>
       <c r="M220" s="234"/>
-      <c r="N220" s="233" t="s">
-        <v>73</v>
-      </c>
-      <c r="O220" s="235" t="s">
-        <v>71</v>
-      </c>
-      <c r="P220" s="235" t="s">
-        <v>72</v>
-      </c>
+      <c r="N220" s="233"/>
+      <c r="O220" s="235"/>
+      <c r="P220" s="235"/>
       <c r="Q220" s="240"/>
       <c r="R220"/>
       <c r="S220" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="T220"/>
     </row>
@@ -7498,28 +6930,28 @@
       <c r="A225" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B225" s="305"/>
-      <c r="C225" s="306"/>
-      <c r="D225" s="307"/>
-      <c r="E225" s="306"/>
-      <c r="F225" s="307"/>
-      <c r="G225" s="306"/>
-      <c r="H225" s="306"/>
-      <c r="I225" s="306"/>
-      <c r="J225" s="307"/>
-      <c r="K225" s="305"/>
-      <c r="L225" s="306"/>
-      <c r="M225" s="306"/>
-      <c r="N225" s="307"/>
-      <c r="O225" s="306"/>
-      <c r="P225" s="306"/>
-      <c r="Q225" s="307"/>
+      <c r="B225" s="302"/>
+      <c r="C225" s="303"/>
+      <c r="D225" s="304"/>
+      <c r="E225" s="303"/>
+      <c r="F225" s="304"/>
+      <c r="G225" s="303"/>
+      <c r="H225" s="303"/>
+      <c r="I225" s="303"/>
+      <c r="J225" s="304"/>
+      <c r="K225" s="302"/>
+      <c r="L225" s="303"/>
+      <c r="M225" s="303"/>
+      <c r="N225" s="304"/>
+      <c r="O225" s="303"/>
+      <c r="P225" s="303"/>
+      <c r="Q225" s="304"/>
       <c r="R225"/>
       <c r="S225" s="221" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="U225" s="221" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:21">
@@ -7544,10 +6976,10 @@
       <c r="Q226" s="24"/>
       <c r="R226" s="57"/>
       <c r="S226" s="221" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U226" s="221" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:21">
@@ -7572,39 +7004,39 @@
       <c r="Q227" s="23"/>
       <c r="R227"/>
       <c r="S227" s="221" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U227" s="221" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B228" s="305"/>
-      <c r="C228" s="306"/>
-      <c r="D228" s="307"/>
-      <c r="E228" s="306"/>
-      <c r="F228" s="307"/>
-      <c r="G228" s="306"/>
-      <c r="H228" s="306"/>
-      <c r="I228" s="306"/>
-      <c r="J228" s="307"/>
-      <c r="K228" s="305"/>
-      <c r="L228" s="306"/>
-      <c r="M228" s="306"/>
-      <c r="N228" s="307"/>
-      <c r="O228" s="306"/>
-      <c r="P228" s="306"/>
-      <c r="Q228" s="307"/>
+      <c r="B228" s="302"/>
+      <c r="C228" s="303"/>
+      <c r="D228" s="304"/>
+      <c r="E228" s="303"/>
+      <c r="F228" s="304"/>
+      <c r="G228" s="303"/>
+      <c r="H228" s="303"/>
+      <c r="I228" s="303"/>
+      <c r="J228" s="304"/>
+      <c r="K228" s="302"/>
+      <c r="L228" s="303"/>
+      <c r="M228" s="303"/>
+      <c r="N228" s="304"/>
+      <c r="O228" s="303"/>
+      <c r="P228" s="303"/>
+      <c r="Q228" s="304"/>
       <c r="R228"/>
       <c r="S228" s="221" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T228" s="5"/>
       <c r="U228" s="222" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:21">
@@ -7632,7 +7064,7 @@
         <v>43</v>
       </c>
       <c r="U229" s="222" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:21">
@@ -7657,7 +7089,7 @@
       <c r="Q230" s="23"/>
       <c r="R230"/>
       <c r="S230" s="221" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="U230" s="222" t="s">
         <v>44</v>
@@ -7684,17 +7116,17 @@
         <v>1</v>
       </c>
       <c r="P231" s="25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q231" s="24" t="s">
         <v>47</v>
       </c>
       <c r="R231"/>
       <c r="S231" s="221" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="U231" s="222" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="232" spans="1:21">
@@ -7718,13 +7150,13 @@
         <v>1</v>
       </c>
       <c r="P232" s="25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Q232" s="24" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="S232" s="221" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:21">
@@ -7748,7 +7180,7 @@
       <c r="P233" s="22"/>
       <c r="Q233" s="23"/>
       <c r="S233" s="221" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:21">
@@ -7773,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="Q234" s="24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:21">
@@ -7798,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="Q235" s="24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236" spans="1:21">
@@ -8122,25 +7554,17 @@
       <c r="A261" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B261" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C261" s="335" t="s">
-        <v>136</v>
-      </c>
-      <c r="D261" s="334" t="s">
-        <v>133</v>
-      </c>
+      <c r="B261" s="40"/>
+      <c r="C261" s="332"/>
+      <c r="D261" s="331"/>
       <c r="E261" s="205"/>
       <c r="F261" s="206"/>
-      <c r="G261" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="G261" s="25"/>
       <c r="H261" s="205"/>
       <c r="I261" s="205"/>
       <c r="J261" s="206"/>
       <c r="K261" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="L261"/>
       <c r="M261"/>
@@ -8163,7 +7587,7 @@
       <c r="I262" s="205"/>
       <c r="J262" s="206"/>
       <c r="K262" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="L262"/>
       <c r="M262"/>
@@ -8186,7 +7610,7 @@
       <c r="I263" s="205"/>
       <c r="J263" s="206"/>
       <c r="K263" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L263"/>
       <c r="M263"/>
@@ -8304,7 +7728,7 @@
       <c r="A269" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B269" s="305"/>
+      <c r="B269" s="302"/>
       <c r="C269" s="25"/>
       <c r="D269" s="24"/>
       <c r="E269" s="205"/>
@@ -8325,7 +7749,7 @@
       <c r="A270" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B270" s="305"/>
+      <c r="B270" s="302"/>
       <c r="C270" s="25"/>
       <c r="D270" s="24"/>
       <c r="E270" s="205"/>
@@ -8346,7 +7770,7 @@
       <c r="A271" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="305"/>
+      <c r="B271" s="302"/>
       <c r="C271" s="25"/>
       <c r="D271" s="24"/>
       <c r="E271" s="205"/>
@@ -8451,15 +7875,15 @@
       <c r="A276" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B276" s="305"/>
-      <c r="C276" s="306"/>
-      <c r="D276" s="307"/>
-      <c r="E276" s="306"/>
-      <c r="F276" s="307"/>
-      <c r="G276" s="306"/>
-      <c r="H276" s="306"/>
-      <c r="I276" s="306"/>
-      <c r="J276" s="307"/>
+      <c r="B276" s="302"/>
+      <c r="C276" s="303"/>
+      <c r="D276" s="304"/>
+      <c r="E276" s="303"/>
+      <c r="F276" s="304"/>
+      <c r="G276" s="303"/>
+      <c r="H276" s="303"/>
+      <c r="I276" s="303"/>
+      <c r="J276" s="304"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
@@ -8582,10 +8006,10 @@
       <c r="D282" s="206"/>
       <c r="E282" s="205"/>
       <c r="F282" s="206"/>
-      <c r="G282" s="306"/>
-      <c r="H282" s="306"/>
-      <c r="I282" s="306"/>
-      <c r="J282" s="307"/>
+      <c r="G282" s="303"/>
+      <c r="H282" s="303"/>
+      <c r="I282" s="303"/>
+      <c r="J282" s="304"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
@@ -8603,10 +8027,10 @@
       <c r="D283" s="206"/>
       <c r="E283" s="205"/>
       <c r="F283" s="206"/>
-      <c r="G283" s="306"/>
-      <c r="H283" s="306"/>
-      <c r="I283" s="306"/>
-      <c r="J283" s="307"/>
+      <c r="G283" s="303"/>
+      <c r="H283" s="303"/>
+      <c r="I283" s="303"/>
+      <c r="J283" s="304"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
@@ -8645,10 +8069,10 @@
       <c r="D285" s="206"/>
       <c r="E285" s="205"/>
       <c r="F285" s="206"/>
-      <c r="G285" s="306"/>
-      <c r="H285" s="306"/>
-      <c r="I285" s="306"/>
-      <c r="J285" s="307"/>
+      <c r="G285" s="303"/>
+      <c r="H285" s="303"/>
+      <c r="I285" s="303"/>
+      <c r="J285" s="304"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
@@ -8666,10 +8090,10 @@
       <c r="D286" s="206"/>
       <c r="E286" s="205"/>
       <c r="F286" s="206"/>
-      <c r="G286" s="306"/>
-      <c r="H286" s="306"/>
-      <c r="I286" s="306"/>
-      <c r="J286" s="307"/>
+      <c r="G286" s="303"/>
+      <c r="H286" s="303"/>
+      <c r="I286" s="303"/>
+      <c r="J286" s="304"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
@@ -8708,10 +8132,10 @@
       <c r="D288" s="206"/>
       <c r="E288" s="205"/>
       <c r="F288" s="206"/>
-      <c r="G288" s="306"/>
-      <c r="H288" s="306"/>
-      <c r="I288" s="306"/>
-      <c r="J288" s="307"/>
+      <c r="G288" s="303"/>
+      <c r="H288" s="303"/>
+      <c r="I288" s="303"/>
+      <c r="J288" s="304"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
@@ -8729,10 +8153,10 @@
       <c r="D289" s="206"/>
       <c r="E289" s="205"/>
       <c r="F289" s="206"/>
-      <c r="G289" s="306"/>
-      <c r="H289" s="306"/>
-      <c r="I289" s="306"/>
-      <c r="J289" s="307"/>
+      <c r="G289" s="303"/>
+      <c r="H289" s="303"/>
+      <c r="I289" s="303"/>
+      <c r="J289" s="304"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
@@ -8771,10 +8195,10 @@
       <c r="D291" s="206"/>
       <c r="E291" s="205"/>
       <c r="F291" s="206"/>
-      <c r="G291" s="306"/>
-      <c r="H291" s="306"/>
-      <c r="I291" s="306"/>
-      <c r="J291" s="307"/>
+      <c r="G291" s="303"/>
+      <c r="H291" s="303"/>
+      <c r="I291" s="303"/>
+      <c r="J291" s="304"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
@@ -8792,10 +8216,10 @@
       <c r="D292" s="213"/>
       <c r="E292" s="212"/>
       <c r="F292" s="213"/>
-      <c r="G292" s="332"/>
-      <c r="H292" s="332"/>
-      <c r="I292" s="332"/>
-      <c r="J292" s="333"/>
+      <c r="G292" s="329"/>
+      <c r="H292" s="329"/>
+      <c r="I292" s="329"/>
+      <c r="J292" s="330"/>
       <c r="K292"/>
       <c r="L292"/>
       <c r="M292"/>
@@ -8993,14 +8417,14 @@
       <c r="B312" s="67"/>
       <c r="C312" s="68"/>
       <c r="D312" s="68"/>
-      <c r="E312" s="311"/>
+      <c r="E312" s="308"/>
       <c r="F312" s="67"/>
       <c r="G312" s="68"/>
       <c r="H312" s="69"/>
-      <c r="I312" s="312"/>
-      <c r="J312" s="310"/>
-      <c r="K312" s="310"/>
-      <c r="L312" s="311"/>
+      <c r="I312" s="309"/>
+      <c r="J312" s="307"/>
+      <c r="K312" s="307"/>
+      <c r="L312" s="308"/>
       <c r="M312" s="67"/>
       <c r="N312" s="69"/>
     </row>
@@ -9011,14 +8435,14 @@
       <c r="B313" s="67"/>
       <c r="C313" s="68"/>
       <c r="D313" s="68"/>
-      <c r="E313" s="311"/>
+      <c r="E313" s="308"/>
       <c r="F313" s="67"/>
       <c r="G313" s="68"/>
       <c r="H313" s="69"/>
-      <c r="I313" s="312"/>
-      <c r="J313" s="310"/>
-      <c r="K313" s="310"/>
-      <c r="L313" s="311"/>
+      <c r="I313" s="309"/>
+      <c r="J313" s="307"/>
+      <c r="K313" s="307"/>
+      <c r="L313" s="308"/>
       <c r="M313" s="67"/>
       <c r="N313" s="69"/>
     </row>
@@ -9029,14 +8453,14 @@
       <c r="B314" s="67"/>
       <c r="C314" s="68"/>
       <c r="D314" s="68"/>
-      <c r="E314" s="311"/>
+      <c r="E314" s="308"/>
       <c r="F314" s="67"/>
       <c r="G314" s="68"/>
       <c r="H314" s="69"/>
-      <c r="I314" s="312"/>
-      <c r="J314" s="310"/>
-      <c r="K314" s="310"/>
-      <c r="L314" s="311"/>
+      <c r="I314" s="309"/>
+      <c r="J314" s="307"/>
+      <c r="K314" s="307"/>
+      <c r="L314" s="308"/>
       <c r="M314" s="67"/>
       <c r="N314" s="69"/>
     </row>
@@ -9064,15 +8488,15 @@
       </c>
       <c r="B316" s="67"/>
       <c r="C316" s="68"/>
-      <c r="D316" s="310"/>
-      <c r="E316" s="311"/>
+      <c r="D316" s="307"/>
+      <c r="E316" s="308"/>
       <c r="F316" s="67"/>
       <c r="G316" s="68"/>
       <c r="H316" s="69"/>
-      <c r="I316" s="312"/>
-      <c r="J316" s="310"/>
-      <c r="K316" s="310"/>
-      <c r="L316" s="311"/>
+      <c r="I316" s="309"/>
+      <c r="J316" s="307"/>
+      <c r="K316" s="307"/>
+      <c r="L316" s="308"/>
       <c r="M316" s="67"/>
       <c r="N316" s="69"/>
     </row>
@@ -9082,15 +8506,15 @@
       </c>
       <c r="B317" s="67"/>
       <c r="C317" s="68"/>
-      <c r="D317" s="310"/>
-      <c r="E317" s="311"/>
+      <c r="D317" s="307"/>
+      <c r="E317" s="308"/>
       <c r="F317" s="67"/>
       <c r="G317" s="68"/>
       <c r="H317" s="69"/>
-      <c r="I317" s="312"/>
-      <c r="J317" s="310"/>
-      <c r="K317" s="310"/>
-      <c r="L317" s="311"/>
+      <c r="I317" s="309"/>
+      <c r="J317" s="307"/>
+      <c r="K317" s="307"/>
+      <c r="L317" s="308"/>
       <c r="M317" s="67"/>
       <c r="N317" s="69"/>
     </row>
@@ -9100,15 +8524,15 @@
       </c>
       <c r="B318" s="67"/>
       <c r="C318" s="68"/>
-      <c r="D318" s="310"/>
-      <c r="E318" s="311"/>
+      <c r="D318" s="307"/>
+      <c r="E318" s="308"/>
       <c r="F318" s="67"/>
       <c r="G318" s="68"/>
       <c r="H318" s="69"/>
-      <c r="I318" s="312"/>
-      <c r="J318" s="310"/>
-      <c r="K318" s="310"/>
-      <c r="L318" s="311"/>
+      <c r="I318" s="309"/>
+      <c r="J318" s="307"/>
+      <c r="K318" s="307"/>
+      <c r="L318" s="308"/>
       <c r="M318" s="67"/>
       <c r="N318" s="69"/>
     </row>
@@ -9135,16 +8559,16 @@
         <v>13</v>
       </c>
       <c r="B320" s="67"/>
-      <c r="C320" s="310"/>
-      <c r="D320" s="310"/>
-      <c r="E320" s="311"/>
+      <c r="C320" s="307"/>
+      <c r="D320" s="307"/>
+      <c r="E320" s="308"/>
       <c r="F320" s="67"/>
       <c r="G320" s="68"/>
       <c r="H320" s="69"/>
-      <c r="I320" s="312"/>
-      <c r="J320" s="310"/>
-      <c r="K320" s="310"/>
-      <c r="L320" s="311"/>
+      <c r="I320" s="309"/>
+      <c r="J320" s="307"/>
+      <c r="K320" s="307"/>
+      <c r="L320" s="308"/>
       <c r="M320" s="49"/>
       <c r="N320" s="50"/>
     </row>
@@ -9153,16 +8577,16 @@
         <v>12</v>
       </c>
       <c r="B321" s="67"/>
-      <c r="C321" s="310"/>
-      <c r="D321" s="310"/>
-      <c r="E321" s="311"/>
+      <c r="C321" s="307"/>
+      <c r="D321" s="307"/>
+      <c r="E321" s="308"/>
       <c r="F321" s="67"/>
       <c r="G321" s="68"/>
       <c r="H321" s="69"/>
-      <c r="I321" s="312"/>
-      <c r="J321" s="310"/>
-      <c r="K321" s="310"/>
-      <c r="L321" s="311"/>
+      <c r="I321" s="309"/>
+      <c r="J321" s="307"/>
+      <c r="K321" s="307"/>
+      <c r="L321" s="308"/>
       <c r="M321" s="49"/>
       <c r="N321" s="50"/>
     </row>
@@ -9171,16 +8595,16 @@
         <v>11</v>
       </c>
       <c r="B322" s="67"/>
-      <c r="C322" s="310"/>
-      <c r="D322" s="310"/>
-      <c r="E322" s="311"/>
+      <c r="C322" s="307"/>
+      <c r="D322" s="307"/>
+      <c r="E322" s="308"/>
       <c r="F322" s="67"/>
       <c r="G322" s="68"/>
       <c r="H322" s="69"/>
-      <c r="I322" s="312"/>
-      <c r="J322" s="310"/>
-      <c r="K322" s="310"/>
-      <c r="L322" s="311"/>
+      <c r="I322" s="309"/>
+      <c r="J322" s="307"/>
+      <c r="K322" s="307"/>
+      <c r="L322" s="308"/>
       <c r="M322" s="49"/>
       <c r="N322" s="50"/>
     </row>
@@ -9206,36 +8630,36 @@
       <c r="A324" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B324" s="312"/>
+      <c r="B324" s="309"/>
       <c r="C324" s="68"/>
       <c r="D324" s="68"/>
       <c r="E324" s="69"/>
-      <c r="F324" s="312"/>
+      <c r="F324" s="309"/>
       <c r="G324" s="68"/>
       <c r="H324" s="69"/>
-      <c r="I324" s="312"/>
+      <c r="I324" s="309"/>
       <c r="J324" s="68"/>
       <c r="K324" s="68"/>
       <c r="L324" s="69"/>
-      <c r="M324" s="312"/>
+      <c r="M324" s="309"/>
       <c r="N324" s="69"/>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B325" s="312"/>
+      <c r="B325" s="309"/>
       <c r="C325" s="68"/>
       <c r="D325" s="68"/>
       <c r="E325" s="69"/>
-      <c r="F325" s="312"/>
+      <c r="F325" s="309"/>
       <c r="G325" s="68"/>
       <c r="H325" s="69"/>
-      <c r="I325" s="312"/>
+      <c r="I325" s="309"/>
       <c r="J325" s="68"/>
       <c r="K325" s="68"/>
       <c r="L325" s="69"/>
-      <c r="M325" s="312"/>
+      <c r="M325" s="309"/>
       <c r="N325" s="69"/>
     </row>
     <row r="326" spans="1:14">
@@ -9368,17 +8792,17 @@
       <c r="A333" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B333" s="312"/>
-      <c r="C333" s="310"/>
-      <c r="D333" s="310"/>
-      <c r="E333" s="311"/>
-      <c r="F333" s="312"/>
-      <c r="G333" s="310"/>
-      <c r="H333" s="311"/>
-      <c r="I333" s="312"/>
-      <c r="J333" s="310"/>
-      <c r="K333" s="310"/>
-      <c r="L333" s="311"/>
+      <c r="B333" s="309"/>
+      <c r="C333" s="307"/>
+      <c r="D333" s="307"/>
+      <c r="E333" s="308"/>
+      <c r="F333" s="309"/>
+      <c r="G333" s="307"/>
+      <c r="H333" s="308"/>
+      <c r="I333" s="309"/>
+      <c r="J333" s="307"/>
+      <c r="K333" s="307"/>
+      <c r="L333" s="308"/>
       <c r="M333" s="49"/>
       <c r="N333" s="50"/>
     </row>
@@ -9386,17 +8810,17 @@
       <c r="A334" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B334" s="312"/>
-      <c r="C334" s="310"/>
-      <c r="D334" s="310"/>
-      <c r="E334" s="311"/>
-      <c r="F334" s="312"/>
-      <c r="G334" s="310"/>
-      <c r="H334" s="311"/>
-      <c r="I334" s="312"/>
-      <c r="J334" s="310"/>
-      <c r="K334" s="310"/>
-      <c r="L334" s="311"/>
+      <c r="B334" s="309"/>
+      <c r="C334" s="307"/>
+      <c r="D334" s="307"/>
+      <c r="E334" s="308"/>
+      <c r="F334" s="309"/>
+      <c r="G334" s="307"/>
+      <c r="H334" s="308"/>
+      <c r="I334" s="309"/>
+      <c r="J334" s="307"/>
+      <c r="K334" s="307"/>
+      <c r="L334" s="308"/>
       <c r="M334" s="49"/>
       <c r="N334" s="50"/>
     </row>
@@ -9422,17 +8846,17 @@
       <c r="A336" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B336" s="312"/>
-      <c r="C336" s="310"/>
-      <c r="D336" s="310"/>
-      <c r="E336" s="311"/>
-      <c r="F336" s="312"/>
-      <c r="G336" s="310"/>
-      <c r="H336" s="311"/>
-      <c r="I336" s="312"/>
-      <c r="J336" s="310"/>
-      <c r="K336" s="310"/>
-      <c r="L336" s="311"/>
+      <c r="B336" s="309"/>
+      <c r="C336" s="307"/>
+      <c r="D336" s="307"/>
+      <c r="E336" s="308"/>
+      <c r="F336" s="309"/>
+      <c r="G336" s="307"/>
+      <c r="H336" s="308"/>
+      <c r="I336" s="309"/>
+      <c r="J336" s="307"/>
+      <c r="K336" s="307"/>
+      <c r="L336" s="308"/>
       <c r="M336" s="49"/>
       <c r="N336" s="50"/>
     </row>
@@ -9440,17 +8864,17 @@
       <c r="A337" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B337" s="312"/>
-      <c r="C337" s="310"/>
-      <c r="D337" s="310"/>
-      <c r="E337" s="311"/>
-      <c r="F337" s="312"/>
-      <c r="G337" s="310"/>
-      <c r="H337" s="311"/>
-      <c r="I337" s="312"/>
-      <c r="J337" s="310"/>
-      <c r="K337" s="310"/>
-      <c r="L337" s="311"/>
+      <c r="B337" s="309"/>
+      <c r="C337" s="307"/>
+      <c r="D337" s="307"/>
+      <c r="E337" s="308"/>
+      <c r="F337" s="309"/>
+      <c r="G337" s="307"/>
+      <c r="H337" s="308"/>
+      <c r="I337" s="309"/>
+      <c r="J337" s="307"/>
+      <c r="K337" s="307"/>
+      <c r="L337" s="308"/>
       <c r="M337" s="49"/>
       <c r="N337" s="50"/>
     </row>
@@ -9476,17 +8900,17 @@
       <c r="A339" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B339" s="312"/>
-      <c r="C339" s="310"/>
-      <c r="D339" s="310"/>
-      <c r="E339" s="311"/>
-      <c r="F339" s="312"/>
-      <c r="G339" s="310"/>
-      <c r="H339" s="311"/>
-      <c r="I339" s="312"/>
-      <c r="J339" s="310"/>
-      <c r="K339" s="310"/>
-      <c r="L339" s="311"/>
+      <c r="B339" s="309"/>
+      <c r="C339" s="307"/>
+      <c r="D339" s="307"/>
+      <c r="E339" s="308"/>
+      <c r="F339" s="309"/>
+      <c r="G339" s="307"/>
+      <c r="H339" s="308"/>
+      <c r="I339" s="309"/>
+      <c r="J339" s="307"/>
+      <c r="K339" s="307"/>
+      <c r="L339" s="308"/>
       <c r="M339" s="67"/>
       <c r="N339" s="69"/>
     </row>
@@ -9494,17 +8918,17 @@
       <c r="A340" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B340" s="312"/>
-      <c r="C340" s="310"/>
-      <c r="D340" s="310"/>
-      <c r="E340" s="311"/>
-      <c r="F340" s="312"/>
-      <c r="G340" s="310"/>
-      <c r="H340" s="311"/>
-      <c r="I340" s="312"/>
-      <c r="J340" s="310"/>
-      <c r="K340" s="310"/>
-      <c r="L340" s="311"/>
+      <c r="B340" s="309"/>
+      <c r="C340" s="307"/>
+      <c r="D340" s="307"/>
+      <c r="E340" s="308"/>
+      <c r="F340" s="309"/>
+      <c r="G340" s="307"/>
+      <c r="H340" s="308"/>
+      <c r="I340" s="309"/>
+      <c r="J340" s="307"/>
+      <c r="K340" s="307"/>
+      <c r="L340" s="308"/>
       <c r="M340" s="67"/>
       <c r="N340" s="69"/>
     </row>
@@ -9530,17 +8954,17 @@
       <c r="A342" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B342" s="312"/>
-      <c r="C342" s="310"/>
-      <c r="D342" s="310"/>
-      <c r="E342" s="311"/>
-      <c r="F342" s="312"/>
-      <c r="G342" s="310"/>
-      <c r="H342" s="311"/>
-      <c r="I342" s="312"/>
-      <c r="J342" s="310"/>
-      <c r="K342" s="310"/>
-      <c r="L342" s="311"/>
+      <c r="B342" s="309"/>
+      <c r="C342" s="307"/>
+      <c r="D342" s="307"/>
+      <c r="E342" s="308"/>
+      <c r="F342" s="309"/>
+      <c r="G342" s="307"/>
+      <c r="H342" s="308"/>
+      <c r="I342" s="309"/>
+      <c r="J342" s="307"/>
+      <c r="K342" s="307"/>
+      <c r="L342" s="308"/>
       <c r="M342" s="67"/>
       <c r="N342" s="69"/>
     </row>
@@ -9548,17 +8972,17 @@
       <c r="A343" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B343" s="323"/>
-      <c r="C343" s="324"/>
-      <c r="D343" s="324"/>
-      <c r="E343" s="325"/>
-      <c r="F343" s="323"/>
-      <c r="G343" s="324"/>
-      <c r="H343" s="325"/>
-      <c r="I343" s="323"/>
-      <c r="J343" s="324"/>
-      <c r="K343" s="324"/>
-      <c r="L343" s="325"/>
+      <c r="B343" s="320"/>
+      <c r="C343" s="321"/>
+      <c r="D343" s="321"/>
+      <c r="E343" s="322"/>
+      <c r="F343" s="320"/>
+      <c r="G343" s="321"/>
+      <c r="H343" s="322"/>
+      <c r="I343" s="320"/>
+      <c r="J343" s="321"/>
+      <c r="K343" s="321"/>
+      <c r="L343" s="322"/>
       <c r="M343" s="114"/>
       <c r="N343" s="116"/>
     </row>
@@ -9732,17 +9156,17 @@
         <v>13</v>
       </c>
       <c r="B363" s="142"/>
-      <c r="C363" s="313"/>
-      <c r="D363" s="313"/>
-      <c r="E363" s="314"/>
+      <c r="C363" s="310"/>
+      <c r="D363" s="310"/>
+      <c r="E363" s="311"/>
       <c r="F363" s="143"/>
-      <c r="G363" s="313"/>
-      <c r="H363" s="314"/>
+      <c r="G363" s="310"/>
+      <c r="H363" s="311"/>
       <c r="I363" s="142"/>
       <c r="J363" s="143"/>
       <c r="K363" s="144"/>
-      <c r="L363" s="313"/>
-      <c r="M363" s="314"/>
+      <c r="L363" s="310"/>
+      <c r="M363" s="311"/>
       <c r="N363"/>
     </row>
     <row r="364" spans="1:14">
@@ -9750,17 +9174,17 @@
         <v>12</v>
       </c>
       <c r="B364" s="142"/>
-      <c r="C364" s="313"/>
-      <c r="D364" s="313"/>
-      <c r="E364" s="314"/>
+      <c r="C364" s="310"/>
+      <c r="D364" s="310"/>
+      <c r="E364" s="311"/>
       <c r="F364" s="143"/>
-      <c r="G364" s="313"/>
-      <c r="H364" s="314"/>
+      <c r="G364" s="310"/>
+      <c r="H364" s="311"/>
       <c r="I364" s="142"/>
       <c r="J364" s="143"/>
       <c r="K364" s="144"/>
-      <c r="L364" s="313"/>
-      <c r="M364" s="314"/>
+      <c r="L364" s="310"/>
+      <c r="M364" s="311"/>
       <c r="N364"/>
     </row>
     <row r="365" spans="1:14">
@@ -9768,17 +9192,17 @@
         <v>11</v>
       </c>
       <c r="B365" s="142"/>
-      <c r="C365" s="313"/>
-      <c r="D365" s="313"/>
-      <c r="E365" s="314"/>
+      <c r="C365" s="310"/>
+      <c r="D365" s="310"/>
+      <c r="E365" s="311"/>
       <c r="F365" s="143"/>
-      <c r="G365" s="313"/>
-      <c r="H365" s="314"/>
+      <c r="G365" s="310"/>
+      <c r="H365" s="311"/>
       <c r="I365" s="142"/>
       <c r="J365" s="143"/>
       <c r="K365" s="144"/>
-      <c r="L365" s="313"/>
-      <c r="M365" s="314"/>
+      <c r="L365" s="310"/>
+      <c r="M365" s="311"/>
       <c r="N365"/>
     </row>
     <row r="366" spans="1:14">
@@ -9805,16 +9229,16 @@
       </c>
       <c r="B367" s="142"/>
       <c r="C367" s="143"/>
-      <c r="D367" s="313"/>
-      <c r="E367" s="314"/>
-      <c r="F367" s="313"/>
+      <c r="D367" s="310"/>
+      <c r="E367" s="311"/>
+      <c r="F367" s="310"/>
       <c r="G367" s="143"/>
-      <c r="H367" s="314"/>
+      <c r="H367" s="311"/>
       <c r="I367" s="142"/>
       <c r="J367" s="143"/>
       <c r="K367" s="123"/>
-      <c r="L367" s="313"/>
-      <c r="M367" s="314"/>
+      <c r="L367" s="310"/>
+      <c r="M367" s="311"/>
       <c r="N367"/>
     </row>
     <row r="368" spans="1:14">
@@ -9823,16 +9247,16 @@
       </c>
       <c r="B368" s="142"/>
       <c r="C368" s="143"/>
-      <c r="D368" s="313"/>
-      <c r="E368" s="314"/>
-      <c r="F368" s="313"/>
+      <c r="D368" s="310"/>
+      <c r="E368" s="311"/>
+      <c r="F368" s="310"/>
       <c r="G368" s="143"/>
-      <c r="H368" s="314"/>
+      <c r="H368" s="311"/>
       <c r="I368" s="142"/>
       <c r="J368" s="143"/>
       <c r="K368" s="123"/>
-      <c r="L368" s="313"/>
-      <c r="M368" s="314"/>
+      <c r="L368" s="310"/>
+      <c r="M368" s="311"/>
       <c r="N368"/>
     </row>
     <row r="369" spans="1:14">
@@ -9841,16 +9265,16 @@
       </c>
       <c r="B369" s="142"/>
       <c r="C369" s="143"/>
-      <c r="D369" s="313"/>
-      <c r="E369" s="314"/>
-      <c r="F369" s="313"/>
+      <c r="D369" s="310"/>
+      <c r="E369" s="311"/>
+      <c r="F369" s="310"/>
       <c r="G369" s="143"/>
-      <c r="H369" s="314"/>
+      <c r="H369" s="311"/>
       <c r="I369" s="142"/>
       <c r="J369" s="143"/>
       <c r="K369" s="123"/>
-      <c r="L369" s="313"/>
-      <c r="M369" s="314"/>
+      <c r="L369" s="310"/>
+      <c r="M369" s="311"/>
       <c r="N369"/>
     </row>
     <row r="370" spans="1:14">
@@ -9878,15 +9302,15 @@
       <c r="B371" s="142"/>
       <c r="C371" s="143"/>
       <c r="D371" s="143"/>
-      <c r="E371" s="314"/>
-      <c r="F371" s="313"/>
-      <c r="G371" s="313"/>
+      <c r="E371" s="311"/>
+      <c r="F371" s="310"/>
+      <c r="G371" s="310"/>
       <c r="H371" s="144"/>
       <c r="I371" s="142"/>
       <c r="J371" s="143"/>
       <c r="K371" s="144"/>
-      <c r="L371" s="313"/>
-      <c r="M371" s="314"/>
+      <c r="L371" s="310"/>
+      <c r="M371" s="311"/>
       <c r="N371"/>
     </row>
     <row r="372" spans="1:14">
@@ -9896,15 +9320,15 @@
       <c r="B372" s="142"/>
       <c r="C372" s="143"/>
       <c r="D372" s="143"/>
-      <c r="E372" s="314"/>
-      <c r="F372" s="313"/>
-      <c r="G372" s="313"/>
+      <c r="E372" s="311"/>
+      <c r="F372" s="310"/>
+      <c r="G372" s="310"/>
       <c r="H372" s="144"/>
       <c r="I372" s="142"/>
       <c r="J372" s="143"/>
       <c r="K372" s="144"/>
-      <c r="L372" s="313"/>
-      <c r="M372" s="314"/>
+      <c r="L372" s="310"/>
+      <c r="M372" s="311"/>
       <c r="N372"/>
     </row>
     <row r="373" spans="1:14">
@@ -9914,15 +9338,15 @@
       <c r="B373" s="142"/>
       <c r="C373" s="143"/>
       <c r="D373" s="143"/>
-      <c r="E373" s="314"/>
-      <c r="F373" s="313"/>
-      <c r="G373" s="313"/>
+      <c r="E373" s="311"/>
+      <c r="F373" s="310"/>
+      <c r="G373" s="310"/>
       <c r="H373" s="144"/>
       <c r="I373" s="142"/>
       <c r="J373" s="143"/>
       <c r="K373" s="144"/>
-      <c r="L373" s="313"/>
-      <c r="M373" s="314"/>
+      <c r="L373" s="310"/>
+      <c r="M373" s="311"/>
       <c r="N373"/>
     </row>
     <row r="374" spans="1:14">
@@ -9947,17 +9371,17 @@
       <c r="A375" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B375" s="322"/>
+      <c r="B375" s="319"/>
       <c r="C375" s="143"/>
       <c r="D375" s="143"/>
       <c r="E375" s="144"/>
-      <c r="F375" s="313"/>
+      <c r="F375" s="310"/>
       <c r="G375" s="143"/>
       <c r="H375" s="144"/>
-      <c r="I375" s="322"/>
+      <c r="I375" s="319"/>
       <c r="J375" s="143"/>
       <c r="K375" s="144"/>
-      <c r="L375" s="313"/>
+      <c r="L375" s="310"/>
       <c r="M375" s="144"/>
       <c r="N375"/>
     </row>
@@ -9965,17 +9389,17 @@
       <c r="A376" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B376" s="322"/>
+      <c r="B376" s="319"/>
       <c r="C376" s="143"/>
       <c r="D376" s="143"/>
       <c r="E376" s="144"/>
-      <c r="F376" s="313"/>
+      <c r="F376" s="310"/>
       <c r="G376" s="143"/>
       <c r="H376" s="144"/>
-      <c r="I376" s="322"/>
+      <c r="I376" s="319"/>
       <c r="J376" s="143"/>
       <c r="K376" s="144"/>
-      <c r="L376" s="313"/>
+      <c r="L376" s="310"/>
       <c r="M376" s="144"/>
       <c r="N376"/>
     </row>
@@ -10109,16 +9533,16 @@
       <c r="A384" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B384" s="322"/>
-      <c r="C384" s="313"/>
-      <c r="D384" s="313"/>
-      <c r="E384" s="314"/>
-      <c r="F384" s="313"/>
-      <c r="G384" s="313"/>
-      <c r="H384" s="314"/>
-      <c r="I384" s="322"/>
-      <c r="J384" s="313"/>
-      <c r="K384" s="314"/>
+      <c r="B384" s="319"/>
+      <c r="C384" s="310"/>
+      <c r="D384" s="310"/>
+      <c r="E384" s="311"/>
+      <c r="F384" s="310"/>
+      <c r="G384" s="310"/>
+      <c r="H384" s="311"/>
+      <c r="I384" s="319"/>
+      <c r="J384" s="310"/>
+      <c r="K384" s="311"/>
       <c r="L384" s="132"/>
       <c r="M384" s="123"/>
       <c r="N384"/>
@@ -10127,16 +9551,16 @@
       <c r="A385" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B385" s="322"/>
-      <c r="C385" s="313"/>
-      <c r="D385" s="313"/>
-      <c r="E385" s="314"/>
-      <c r="F385" s="313"/>
-      <c r="G385" s="313"/>
-      <c r="H385" s="314"/>
-      <c r="I385" s="322"/>
-      <c r="J385" s="313"/>
-      <c r="K385" s="314"/>
+      <c r="B385" s="319"/>
+      <c r="C385" s="310"/>
+      <c r="D385" s="310"/>
+      <c r="E385" s="311"/>
+      <c r="F385" s="310"/>
+      <c r="G385" s="310"/>
+      <c r="H385" s="311"/>
+      <c r="I385" s="319"/>
+      <c r="J385" s="310"/>
+      <c r="K385" s="311"/>
       <c r="L385" s="132"/>
       <c r="M385" s="123"/>
       <c r="N385"/>
@@ -10163,16 +9587,16 @@
       <c r="A387" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B387" s="322"/>
-      <c r="C387" s="313"/>
-      <c r="D387" s="313"/>
-      <c r="E387" s="314"/>
-      <c r="F387" s="313"/>
-      <c r="G387" s="313"/>
-      <c r="H387" s="314"/>
-      <c r="I387" s="322"/>
-      <c r="J387" s="313"/>
-      <c r="K387" s="314"/>
+      <c r="B387" s="319"/>
+      <c r="C387" s="310"/>
+      <c r="D387" s="310"/>
+      <c r="E387" s="311"/>
+      <c r="F387" s="310"/>
+      <c r="G387" s="310"/>
+      <c r="H387" s="311"/>
+      <c r="I387" s="319"/>
+      <c r="J387" s="310"/>
+      <c r="K387" s="311"/>
       <c r="L387" s="132"/>
       <c r="M387" s="123"/>
       <c r="N387"/>
@@ -10181,16 +9605,16 @@
       <c r="A388" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B388" s="322"/>
-      <c r="C388" s="313"/>
-      <c r="D388" s="313"/>
-      <c r="E388" s="314"/>
-      <c r="F388" s="313"/>
-      <c r="G388" s="313"/>
-      <c r="H388" s="314"/>
-      <c r="I388" s="322"/>
-      <c r="J388" s="313"/>
-      <c r="K388" s="314"/>
+      <c r="B388" s="319"/>
+      <c r="C388" s="310"/>
+      <c r="D388" s="310"/>
+      <c r="E388" s="311"/>
+      <c r="F388" s="310"/>
+      <c r="G388" s="310"/>
+      <c r="H388" s="311"/>
+      <c r="I388" s="319"/>
+      <c r="J388" s="310"/>
+      <c r="K388" s="311"/>
       <c r="L388" s="132"/>
       <c r="M388" s="123"/>
       <c r="N388"/>
@@ -10217,16 +9641,16 @@
       <c r="A390" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B390" s="322"/>
-      <c r="C390" s="313"/>
-      <c r="D390" s="313"/>
-      <c r="E390" s="314"/>
-      <c r="F390" s="313"/>
-      <c r="G390" s="313"/>
-      <c r="H390" s="314"/>
-      <c r="I390" s="322"/>
-      <c r="J390" s="313"/>
-      <c r="K390" s="314"/>
+      <c r="B390" s="319"/>
+      <c r="C390" s="310"/>
+      <c r="D390" s="310"/>
+      <c r="E390" s="311"/>
+      <c r="F390" s="310"/>
+      <c r="G390" s="310"/>
+      <c r="H390" s="311"/>
+      <c r="I390" s="319"/>
+      <c r="J390" s="310"/>
+      <c r="K390" s="311"/>
       <c r="L390" s="143"/>
       <c r="M390" s="144"/>
       <c r="N390"/>
@@ -10235,16 +9659,16 @@
       <c r="A391" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B391" s="322"/>
-      <c r="C391" s="313"/>
-      <c r="D391" s="313"/>
-      <c r="E391" s="314"/>
-      <c r="F391" s="313"/>
-      <c r="G391" s="313"/>
-      <c r="H391" s="314"/>
-      <c r="I391" s="322"/>
-      <c r="J391" s="313"/>
-      <c r="K391" s="314"/>
+      <c r="B391" s="319"/>
+      <c r="C391" s="310"/>
+      <c r="D391" s="310"/>
+      <c r="E391" s="311"/>
+      <c r="F391" s="310"/>
+      <c r="G391" s="310"/>
+      <c r="H391" s="311"/>
+      <c r="I391" s="319"/>
+      <c r="J391" s="310"/>
+      <c r="K391" s="311"/>
       <c r="L391" s="143"/>
       <c r="M391" s="144"/>
       <c r="N391"/>
@@ -10271,16 +9695,16 @@
       <c r="A393" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B393" s="322"/>
-      <c r="C393" s="313"/>
-      <c r="D393" s="313"/>
-      <c r="E393" s="314"/>
-      <c r="F393" s="313"/>
-      <c r="G393" s="313"/>
-      <c r="H393" s="314"/>
-      <c r="I393" s="322"/>
-      <c r="J393" s="313"/>
-      <c r="K393" s="314"/>
+      <c r="B393" s="319"/>
+      <c r="C393" s="310"/>
+      <c r="D393" s="310"/>
+      <c r="E393" s="311"/>
+      <c r="F393" s="310"/>
+      <c r="G393" s="310"/>
+      <c r="H393" s="311"/>
+      <c r="I393" s="319"/>
+      <c r="J393" s="310"/>
+      <c r="K393" s="311"/>
       <c r="L393" s="143"/>
       <c r="M393" s="144"/>
       <c r="N393"/>
@@ -10289,16 +9713,16 @@
       <c r="A394" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B394" s="326"/>
-      <c r="C394" s="327"/>
-      <c r="D394" s="327"/>
-      <c r="E394" s="328"/>
-      <c r="F394" s="327"/>
-      <c r="G394" s="327"/>
-      <c r="H394" s="328"/>
-      <c r="I394" s="326"/>
-      <c r="J394" s="327"/>
-      <c r="K394" s="328"/>
+      <c r="B394" s="323"/>
+      <c r="C394" s="324"/>
+      <c r="D394" s="324"/>
+      <c r="E394" s="325"/>
+      <c r="F394" s="324"/>
+      <c r="G394" s="324"/>
+      <c r="H394" s="325"/>
+      <c r="I394" s="323"/>
+      <c r="J394" s="324"/>
+      <c r="K394" s="325"/>
       <c r="L394" s="145"/>
       <c r="M394" s="146"/>
       <c r="N394"/>
@@ -10478,55 +9902,55 @@
       <c r="A414" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B414" s="312"/>
-      <c r="C414" s="310"/>
-      <c r="D414" s="310"/>
-      <c r="E414" s="311"/>
-      <c r="F414" s="312"/>
-      <c r="G414" s="310"/>
-      <c r="H414" s="311"/>
-      <c r="I414" s="312"/>
-      <c r="J414" s="310"/>
-      <c r="K414" s="310"/>
-      <c r="L414" s="311"/>
-      <c r="M414" s="312"/>
-      <c r="N414" s="311"/>
+      <c r="B414" s="309"/>
+      <c r="C414" s="307"/>
+      <c r="D414" s="307"/>
+      <c r="E414" s="308"/>
+      <c r="F414" s="309"/>
+      <c r="G414" s="307"/>
+      <c r="H414" s="308"/>
+      <c r="I414" s="309"/>
+      <c r="J414" s="307"/>
+      <c r="K414" s="307"/>
+      <c r="L414" s="308"/>
+      <c r="M414" s="309"/>
+      <c r="N414" s="308"/>
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B415" s="312"/>
-      <c r="C415" s="310"/>
-      <c r="D415" s="310"/>
-      <c r="E415" s="311"/>
-      <c r="F415" s="312"/>
-      <c r="G415" s="310"/>
-      <c r="H415" s="311"/>
-      <c r="I415" s="312"/>
-      <c r="J415" s="310"/>
-      <c r="K415" s="310"/>
-      <c r="L415" s="311"/>
-      <c r="M415" s="312"/>
-      <c r="N415" s="311"/>
+      <c r="B415" s="309"/>
+      <c r="C415" s="307"/>
+      <c r="D415" s="307"/>
+      <c r="E415" s="308"/>
+      <c r="F415" s="309"/>
+      <c r="G415" s="307"/>
+      <c r="H415" s="308"/>
+      <c r="I415" s="309"/>
+      <c r="J415" s="307"/>
+      <c r="K415" s="307"/>
+      <c r="L415" s="308"/>
+      <c r="M415" s="309"/>
+      <c r="N415" s="308"/>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B416" s="312"/>
-      <c r="C416" s="310"/>
-      <c r="D416" s="310"/>
-      <c r="E416" s="311"/>
-      <c r="F416" s="312"/>
-      <c r="G416" s="310"/>
-      <c r="H416" s="311"/>
-      <c r="I416" s="312"/>
-      <c r="J416" s="310"/>
-      <c r="K416" s="310"/>
-      <c r="L416" s="311"/>
-      <c r="M416" s="312"/>
-      <c r="N416" s="311"/>
+      <c r="B416" s="309"/>
+      <c r="C416" s="307"/>
+      <c r="D416" s="307"/>
+      <c r="E416" s="308"/>
+      <c r="F416" s="309"/>
+      <c r="G416" s="307"/>
+      <c r="H416" s="308"/>
+      <c r="I416" s="309"/>
+      <c r="J416" s="307"/>
+      <c r="K416" s="307"/>
+      <c r="L416" s="308"/>
+      <c r="M416" s="309"/>
+      <c r="N416" s="308"/>
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="9" t="s">
@@ -10550,55 +9974,55 @@
       <c r="A418" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B418" s="312"/>
-      <c r="C418" s="310"/>
-      <c r="D418" s="310"/>
-      <c r="E418" s="311"/>
-      <c r="F418" s="312"/>
-      <c r="G418" s="310"/>
-      <c r="H418" s="311"/>
-      <c r="I418" s="312"/>
-      <c r="J418" s="310"/>
-      <c r="K418" s="310"/>
-      <c r="L418" s="311"/>
-      <c r="M418" s="312"/>
-      <c r="N418" s="311"/>
+      <c r="B418" s="309"/>
+      <c r="C418" s="307"/>
+      <c r="D418" s="307"/>
+      <c r="E418" s="308"/>
+      <c r="F418" s="309"/>
+      <c r="G418" s="307"/>
+      <c r="H418" s="308"/>
+      <c r="I418" s="309"/>
+      <c r="J418" s="307"/>
+      <c r="K418" s="307"/>
+      <c r="L418" s="308"/>
+      <c r="M418" s="309"/>
+      <c r="N418" s="308"/>
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B419" s="312"/>
-      <c r="C419" s="310"/>
-      <c r="D419" s="310"/>
-      <c r="E419" s="311"/>
-      <c r="F419" s="312"/>
-      <c r="G419" s="310"/>
-      <c r="H419" s="311"/>
-      <c r="I419" s="312"/>
-      <c r="J419" s="310"/>
-      <c r="K419" s="310"/>
-      <c r="L419" s="311"/>
-      <c r="M419" s="312"/>
-      <c r="N419" s="311"/>
+      <c r="B419" s="309"/>
+      <c r="C419" s="307"/>
+      <c r="D419" s="307"/>
+      <c r="E419" s="308"/>
+      <c r="F419" s="309"/>
+      <c r="G419" s="307"/>
+      <c r="H419" s="308"/>
+      <c r="I419" s="309"/>
+      <c r="J419" s="307"/>
+      <c r="K419" s="307"/>
+      <c r="L419" s="308"/>
+      <c r="M419" s="309"/>
+      <c r="N419" s="308"/>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B420" s="312"/>
-      <c r="C420" s="310"/>
-      <c r="D420" s="310"/>
-      <c r="E420" s="311"/>
-      <c r="F420" s="312"/>
-      <c r="G420" s="310"/>
-      <c r="H420" s="311"/>
-      <c r="I420" s="312"/>
-      <c r="J420" s="310"/>
-      <c r="K420" s="310"/>
-      <c r="L420" s="311"/>
-      <c r="M420" s="312"/>
-      <c r="N420" s="311"/>
+      <c r="B420" s="309"/>
+      <c r="C420" s="307"/>
+      <c r="D420" s="307"/>
+      <c r="E420" s="308"/>
+      <c r="F420" s="309"/>
+      <c r="G420" s="307"/>
+      <c r="H420" s="308"/>
+      <c r="I420" s="309"/>
+      <c r="J420" s="307"/>
+      <c r="K420" s="307"/>
+      <c r="L420" s="308"/>
+      <c r="M420" s="309"/>
+      <c r="N420" s="308"/>
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="9" t="s">
@@ -10622,55 +10046,55 @@
       <c r="A422" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B422" s="312"/>
-      <c r="C422" s="310"/>
-      <c r="D422" s="310"/>
-      <c r="E422" s="311"/>
-      <c r="F422" s="312"/>
-      <c r="G422" s="310"/>
-      <c r="H422" s="311"/>
-      <c r="I422" s="312"/>
-      <c r="J422" s="310"/>
-      <c r="K422" s="310"/>
-      <c r="L422" s="311"/>
-      <c r="M422" s="312"/>
-      <c r="N422" s="311"/>
+      <c r="B422" s="309"/>
+      <c r="C422" s="307"/>
+      <c r="D422" s="307"/>
+      <c r="E422" s="308"/>
+      <c r="F422" s="309"/>
+      <c r="G422" s="307"/>
+      <c r="H422" s="308"/>
+      <c r="I422" s="309"/>
+      <c r="J422" s="307"/>
+      <c r="K422" s="307"/>
+      <c r="L422" s="308"/>
+      <c r="M422" s="309"/>
+      <c r="N422" s="308"/>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B423" s="312"/>
-      <c r="C423" s="310"/>
-      <c r="D423" s="310"/>
-      <c r="E423" s="311"/>
-      <c r="F423" s="312"/>
-      <c r="G423" s="310"/>
-      <c r="H423" s="311"/>
-      <c r="I423" s="312"/>
-      <c r="J423" s="310"/>
-      <c r="K423" s="310"/>
-      <c r="L423" s="311"/>
-      <c r="M423" s="312"/>
-      <c r="N423" s="311"/>
+      <c r="B423" s="309"/>
+      <c r="C423" s="307"/>
+      <c r="D423" s="307"/>
+      <c r="E423" s="308"/>
+      <c r="F423" s="309"/>
+      <c r="G423" s="307"/>
+      <c r="H423" s="308"/>
+      <c r="I423" s="309"/>
+      <c r="J423" s="307"/>
+      <c r="K423" s="307"/>
+      <c r="L423" s="308"/>
+      <c r="M423" s="309"/>
+      <c r="N423" s="308"/>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B424" s="312"/>
-      <c r="C424" s="310"/>
-      <c r="D424" s="310"/>
-      <c r="E424" s="311"/>
-      <c r="F424" s="312"/>
-      <c r="G424" s="310"/>
-      <c r="H424" s="311"/>
-      <c r="I424" s="312"/>
-      <c r="J424" s="310"/>
-      <c r="K424" s="310"/>
-      <c r="L424" s="311"/>
-      <c r="M424" s="312"/>
-      <c r="N424" s="311"/>
+      <c r="B424" s="309"/>
+      <c r="C424" s="307"/>
+      <c r="D424" s="307"/>
+      <c r="E424" s="308"/>
+      <c r="F424" s="309"/>
+      <c r="G424" s="307"/>
+      <c r="H424" s="308"/>
+      <c r="I424" s="309"/>
+      <c r="J424" s="307"/>
+      <c r="K424" s="307"/>
+      <c r="L424" s="308"/>
+      <c r="M424" s="309"/>
+      <c r="N424" s="308"/>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="59" t="s">
@@ -10694,36 +10118,36 @@
       <c r="A426" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B426" s="312"/>
+      <c r="B426" s="309"/>
       <c r="C426" s="68"/>
       <c r="D426" s="68"/>
       <c r="E426" s="69"/>
-      <c r="F426" s="312"/>
+      <c r="F426" s="309"/>
       <c r="G426" s="68"/>
       <c r="H426" s="69"/>
-      <c r="I426" s="312"/>
+      <c r="I426" s="309"/>
       <c r="J426" s="68"/>
       <c r="K426" s="68"/>
       <c r="L426" s="69"/>
-      <c r="M426" s="312"/>
+      <c r="M426" s="309"/>
       <c r="N426" s="69"/>
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B427" s="312"/>
+      <c r="B427" s="309"/>
       <c r="C427" s="68"/>
       <c r="D427" s="68"/>
       <c r="E427" s="69"/>
-      <c r="F427" s="312"/>
+      <c r="F427" s="309"/>
       <c r="G427" s="68"/>
       <c r="H427" s="69"/>
-      <c r="I427" s="312"/>
+      <c r="I427" s="309"/>
       <c r="J427" s="68"/>
       <c r="K427" s="68"/>
       <c r="L427" s="69"/>
-      <c r="M427" s="312"/>
+      <c r="M427" s="309"/>
       <c r="N427" s="69"/>
     </row>
     <row r="428" spans="1:14">
@@ -10856,17 +10280,17 @@
       <c r="A435" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B435" s="312"/>
-      <c r="C435" s="310"/>
-      <c r="D435" s="310"/>
-      <c r="E435" s="311"/>
-      <c r="F435" s="312"/>
-      <c r="G435" s="310"/>
-      <c r="H435" s="311"/>
-      <c r="I435" s="312"/>
-      <c r="J435" s="310"/>
-      <c r="K435" s="310"/>
-      <c r="L435" s="311"/>
+      <c r="B435" s="309"/>
+      <c r="C435" s="307"/>
+      <c r="D435" s="307"/>
+      <c r="E435" s="308"/>
+      <c r="F435" s="309"/>
+      <c r="G435" s="307"/>
+      <c r="H435" s="308"/>
+      <c r="I435" s="309"/>
+      <c r="J435" s="307"/>
+      <c r="K435" s="307"/>
+      <c r="L435" s="308"/>
       <c r="M435" s="49"/>
       <c r="N435" s="50"/>
     </row>
@@ -10874,17 +10298,17 @@
       <c r="A436" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B436" s="312"/>
-      <c r="C436" s="310"/>
-      <c r="D436" s="310"/>
-      <c r="E436" s="311"/>
-      <c r="F436" s="312"/>
-      <c r="G436" s="310"/>
-      <c r="H436" s="311"/>
-      <c r="I436" s="312"/>
-      <c r="J436" s="310"/>
-      <c r="K436" s="310"/>
-      <c r="L436" s="311"/>
+      <c r="B436" s="309"/>
+      <c r="C436" s="307"/>
+      <c r="D436" s="307"/>
+      <c r="E436" s="308"/>
+      <c r="F436" s="309"/>
+      <c r="G436" s="307"/>
+      <c r="H436" s="308"/>
+      <c r="I436" s="309"/>
+      <c r="J436" s="307"/>
+      <c r="K436" s="307"/>
+      <c r="L436" s="308"/>
       <c r="M436" s="49"/>
       <c r="N436" s="50"/>
     </row>
@@ -10910,17 +10334,17 @@
       <c r="A438" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B438" s="312"/>
-      <c r="C438" s="310"/>
-      <c r="D438" s="310"/>
-      <c r="E438" s="311"/>
-      <c r="F438" s="312"/>
-      <c r="G438" s="310"/>
-      <c r="H438" s="311"/>
-      <c r="I438" s="312"/>
-      <c r="J438" s="310"/>
-      <c r="K438" s="310"/>
-      <c r="L438" s="311"/>
+      <c r="B438" s="309"/>
+      <c r="C438" s="307"/>
+      <c r="D438" s="307"/>
+      <c r="E438" s="308"/>
+      <c r="F438" s="309"/>
+      <c r="G438" s="307"/>
+      <c r="H438" s="308"/>
+      <c r="I438" s="309"/>
+      <c r="J438" s="307"/>
+      <c r="K438" s="307"/>
+      <c r="L438" s="308"/>
       <c r="M438" s="49"/>
       <c r="N438" s="50"/>
     </row>
@@ -10928,17 +10352,17 @@
       <c r="A439" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B439" s="312"/>
-      <c r="C439" s="310"/>
-      <c r="D439" s="310"/>
-      <c r="E439" s="311"/>
-      <c r="F439" s="312"/>
-      <c r="G439" s="310"/>
-      <c r="H439" s="311"/>
-      <c r="I439" s="312"/>
-      <c r="J439" s="310"/>
-      <c r="K439" s="310"/>
-      <c r="L439" s="311"/>
+      <c r="B439" s="309"/>
+      <c r="C439" s="307"/>
+      <c r="D439" s="307"/>
+      <c r="E439" s="308"/>
+      <c r="F439" s="309"/>
+      <c r="G439" s="307"/>
+      <c r="H439" s="308"/>
+      <c r="I439" s="309"/>
+      <c r="J439" s="307"/>
+      <c r="K439" s="307"/>
+      <c r="L439" s="308"/>
       <c r="M439" s="49"/>
       <c r="N439" s="50"/>
     </row>
@@ -10964,17 +10388,17 @@
       <c r="A441" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B441" s="312"/>
-      <c r="C441" s="310"/>
-      <c r="D441" s="310"/>
-      <c r="E441" s="311"/>
-      <c r="F441" s="312"/>
-      <c r="G441" s="310"/>
-      <c r="H441" s="311"/>
-      <c r="I441" s="312"/>
-      <c r="J441" s="310"/>
-      <c r="K441" s="310"/>
-      <c r="L441" s="311"/>
+      <c r="B441" s="309"/>
+      <c r="C441" s="307"/>
+      <c r="D441" s="307"/>
+      <c r="E441" s="308"/>
+      <c r="F441" s="309"/>
+      <c r="G441" s="307"/>
+      <c r="H441" s="308"/>
+      <c r="I441" s="309"/>
+      <c r="J441" s="307"/>
+      <c r="K441" s="307"/>
+      <c r="L441" s="308"/>
       <c r="M441" s="67"/>
       <c r="N441" s="69"/>
     </row>
@@ -10982,17 +10406,17 @@
       <c r="A442" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B442" s="312"/>
-      <c r="C442" s="310"/>
-      <c r="D442" s="310"/>
-      <c r="E442" s="311"/>
-      <c r="F442" s="312"/>
-      <c r="G442" s="310"/>
-      <c r="H442" s="311"/>
-      <c r="I442" s="312"/>
-      <c r="J442" s="310"/>
-      <c r="K442" s="310"/>
-      <c r="L442" s="311"/>
+      <c r="B442" s="309"/>
+      <c r="C442" s="307"/>
+      <c r="D442" s="307"/>
+      <c r="E442" s="308"/>
+      <c r="F442" s="309"/>
+      <c r="G442" s="307"/>
+      <c r="H442" s="308"/>
+      <c r="I442" s="309"/>
+      <c r="J442" s="307"/>
+      <c r="K442" s="307"/>
+      <c r="L442" s="308"/>
       <c r="M442" s="67"/>
       <c r="N442" s="69"/>
     </row>
@@ -11018,17 +10442,17 @@
       <c r="A444" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B444" s="312"/>
-      <c r="C444" s="310"/>
-      <c r="D444" s="310"/>
-      <c r="E444" s="311"/>
-      <c r="F444" s="312"/>
-      <c r="G444" s="310"/>
-      <c r="H444" s="311"/>
-      <c r="I444" s="312"/>
-      <c r="J444" s="310"/>
-      <c r="K444" s="310"/>
-      <c r="L444" s="311"/>
+      <c r="B444" s="309"/>
+      <c r="C444" s="307"/>
+      <c r="D444" s="307"/>
+      <c r="E444" s="308"/>
+      <c r="F444" s="309"/>
+      <c r="G444" s="307"/>
+      <c r="H444" s="308"/>
+      <c r="I444" s="309"/>
+      <c r="J444" s="307"/>
+      <c r="K444" s="307"/>
+      <c r="L444" s="308"/>
       <c r="M444" s="67"/>
       <c r="N444" s="69"/>
     </row>
@@ -11036,17 +10460,17 @@
       <c r="A445" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B445" s="323"/>
-      <c r="C445" s="324"/>
-      <c r="D445" s="324"/>
-      <c r="E445" s="325"/>
-      <c r="F445" s="323"/>
-      <c r="G445" s="324"/>
-      <c r="H445" s="325"/>
-      <c r="I445" s="323"/>
-      <c r="J445" s="324"/>
-      <c r="K445" s="324"/>
-      <c r="L445" s="325"/>
+      <c r="B445" s="320"/>
+      <c r="C445" s="321"/>
+      <c r="D445" s="321"/>
+      <c r="E445" s="322"/>
+      <c r="F445" s="320"/>
+      <c r="G445" s="321"/>
+      <c r="H445" s="322"/>
+      <c r="I445" s="320"/>
+      <c r="J445" s="321"/>
+      <c r="K445" s="321"/>
+      <c r="L445" s="322"/>
       <c r="M445" s="114"/>
       <c r="N445" s="116"/>
     </row>
@@ -11237,9 +10661,9 @@
       <c r="A469" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B469" s="315"/>
-      <c r="C469" s="308"/>
-      <c r="D469" s="309"/>
+      <c r="B469" s="312"/>
+      <c r="C469" s="305"/>
+      <c r="D469" s="306"/>
       <c r="E469" s="111"/>
       <c r="F469" s="112"/>
       <c r="G469" s="111"/>
@@ -11251,9 +10675,9 @@
       <c r="A470" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B470" s="315"/>
-      <c r="C470" s="308"/>
-      <c r="D470" s="309"/>
+      <c r="B470" s="312"/>
+      <c r="C470" s="305"/>
+      <c r="D470" s="306"/>
       <c r="E470" s="111"/>
       <c r="F470" s="112"/>
       <c r="G470" s="111"/>
@@ -11265,9 +10689,9 @@
       <c r="A471" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B471" s="315"/>
-      <c r="C471" s="308"/>
-      <c r="D471" s="309"/>
+      <c r="B471" s="312"/>
+      <c r="C471" s="305"/>
+      <c r="D471" s="306"/>
       <c r="E471" s="111"/>
       <c r="F471" s="112"/>
       <c r="G471" s="111"/>
@@ -11293,11 +10717,11 @@
       <c r="A473" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B473" s="315"/>
-      <c r="C473" s="308"/>
-      <c r="D473" s="309"/>
-      <c r="E473" s="308"/>
-      <c r="F473" s="309"/>
+      <c r="B473" s="312"/>
+      <c r="C473" s="305"/>
+      <c r="D473" s="306"/>
+      <c r="E473" s="305"/>
+      <c r="F473" s="306"/>
       <c r="G473" s="111"/>
       <c r="H473" s="111"/>
       <c r="I473" s="111"/>
@@ -11307,11 +10731,11 @@
       <c r="A474" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B474" s="315"/>
-      <c r="C474" s="308"/>
-      <c r="D474" s="309"/>
-      <c r="E474" s="308"/>
-      <c r="F474" s="309"/>
+      <c r="B474" s="312"/>
+      <c r="C474" s="305"/>
+      <c r="D474" s="306"/>
+      <c r="E474" s="305"/>
+      <c r="F474" s="306"/>
       <c r="G474" s="111"/>
       <c r="H474" s="111"/>
       <c r="I474" s="111"/>
@@ -11321,11 +10745,11 @@
       <c r="A475" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B475" s="315"/>
-      <c r="C475" s="308"/>
-      <c r="D475" s="309"/>
-      <c r="E475" s="308"/>
-      <c r="F475" s="309"/>
+      <c r="B475" s="312"/>
+      <c r="C475" s="305"/>
+      <c r="D475" s="306"/>
+      <c r="E475" s="305"/>
+      <c r="F475" s="306"/>
       <c r="G475" s="111"/>
       <c r="H475" s="111"/>
       <c r="I475" s="111"/>
@@ -11349,29 +10773,29 @@
       <c r="A477" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B477" s="315"/>
-      <c r="C477" s="308"/>
-      <c r="D477" s="309"/>
-      <c r="E477" s="308"/>
-      <c r="F477" s="309"/>
-      <c r="G477" s="308"/>
-      <c r="H477" s="308"/>
-      <c r="I477" s="308"/>
-      <c r="J477" s="309"/>
+      <c r="B477" s="312"/>
+      <c r="C477" s="305"/>
+      <c r="D477" s="306"/>
+      <c r="E477" s="305"/>
+      <c r="F477" s="306"/>
+      <c r="G477" s="305"/>
+      <c r="H477" s="305"/>
+      <c r="I477" s="305"/>
+      <c r="J477" s="306"/>
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B478" s="315"/>
-      <c r="C478" s="308"/>
-      <c r="D478" s="309"/>
-      <c r="E478" s="308"/>
-      <c r="F478" s="309"/>
-      <c r="G478" s="308"/>
-      <c r="H478" s="308"/>
-      <c r="I478" s="308"/>
-      <c r="J478" s="309"/>
+      <c r="B478" s="312"/>
+      <c r="C478" s="305"/>
+      <c r="D478" s="306"/>
+      <c r="E478" s="305"/>
+      <c r="F478" s="306"/>
+      <c r="G478" s="305"/>
+      <c r="H478" s="305"/>
+      <c r="I478" s="305"/>
+      <c r="J478" s="306"/>
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="9" t="s">
@@ -11615,15 +11039,15 @@
       <c r="A496" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B496" s="329"/>
-      <c r="C496" s="330"/>
-      <c r="D496" s="331"/>
-      <c r="E496" s="330"/>
-      <c r="F496" s="331"/>
-      <c r="G496" s="330"/>
-      <c r="H496" s="330"/>
-      <c r="I496" s="330"/>
-      <c r="J496" s="331"/>
+      <c r="B496" s="326"/>
+      <c r="C496" s="327"/>
+      <c r="D496" s="328"/>
+      <c r="E496" s="327"/>
+      <c r="F496" s="328"/>
+      <c r="G496" s="327"/>
+      <c r="H496" s="327"/>
+      <c r="I496" s="327"/>
+      <c r="J496" s="328"/>
     </row>
     <row r="510" spans="1:14" ht="16" thickBot="1"/>
     <row r="511" spans="1:14" ht="24" thickBot="1">
@@ -11800,55 +11224,55 @@
       <c r="A516" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B516" s="312"/>
-      <c r="C516" s="310"/>
-      <c r="D516" s="310"/>
-      <c r="E516" s="311"/>
-      <c r="F516" s="312"/>
-      <c r="G516" s="310"/>
-      <c r="H516" s="311"/>
+      <c r="B516" s="309"/>
+      <c r="C516" s="307"/>
+      <c r="D516" s="307"/>
+      <c r="E516" s="308"/>
+      <c r="F516" s="309"/>
+      <c r="G516" s="307"/>
+      <c r="H516" s="308"/>
       <c r="I516" s="67"/>
       <c r="J516" s="68"/>
       <c r="K516" s="68"/>
       <c r="L516" s="69"/>
-      <c r="M516" s="312"/>
-      <c r="N516" s="311"/>
+      <c r="M516" s="309"/>
+      <c r="N516" s="308"/>
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B517" s="312"/>
-      <c r="C517" s="310"/>
-      <c r="D517" s="310"/>
-      <c r="E517" s="311"/>
-      <c r="F517" s="312"/>
-      <c r="G517" s="310"/>
-      <c r="H517" s="311"/>
+      <c r="B517" s="309"/>
+      <c r="C517" s="307"/>
+      <c r="D517" s="307"/>
+      <c r="E517" s="308"/>
+      <c r="F517" s="309"/>
+      <c r="G517" s="307"/>
+      <c r="H517" s="308"/>
       <c r="I517" s="67"/>
       <c r="J517" s="68"/>
       <c r="K517" s="68"/>
       <c r="L517" s="69"/>
-      <c r="M517" s="312"/>
-      <c r="N517" s="311"/>
+      <c r="M517" s="309"/>
+      <c r="N517" s="308"/>
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B518" s="312"/>
-      <c r="C518" s="310"/>
-      <c r="D518" s="310"/>
-      <c r="E518" s="311"/>
-      <c r="F518" s="312"/>
-      <c r="G518" s="310"/>
-      <c r="H518" s="311"/>
+      <c r="B518" s="309"/>
+      <c r="C518" s="307"/>
+      <c r="D518" s="307"/>
+      <c r="E518" s="308"/>
+      <c r="F518" s="309"/>
+      <c r="G518" s="307"/>
+      <c r="H518" s="308"/>
       <c r="I518" s="67"/>
       <c r="J518" s="68"/>
       <c r="K518" s="68"/>
       <c r="L518" s="69"/>
-      <c r="M518" s="312"/>
-      <c r="N518" s="311"/>
+      <c r="M518" s="309"/>
+      <c r="N518" s="308"/>
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="9" t="s">
@@ -11883,8 +11307,8 @@
       <c r="J520" s="68"/>
       <c r="K520" s="68"/>
       <c r="L520" s="69"/>
-      <c r="M520" s="312"/>
-      <c r="N520" s="311"/>
+      <c r="M520" s="309"/>
+      <c r="N520" s="308"/>
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="7" t="s">
@@ -11901,8 +11325,8 @@
       <c r="J521" s="68"/>
       <c r="K521" s="68"/>
       <c r="L521" s="69"/>
-      <c r="M521" s="312"/>
-      <c r="N521" s="311"/>
+      <c r="M521" s="309"/>
+      <c r="N521" s="308"/>
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="8" t="s">
@@ -11919,8 +11343,8 @@
       <c r="J522" s="68"/>
       <c r="K522" s="68"/>
       <c r="L522" s="69"/>
-      <c r="M522" s="312"/>
-      <c r="N522" s="311"/>
+      <c r="M522" s="309"/>
+      <c r="N522" s="308"/>
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="9" t="s">
@@ -11944,10 +11368,10 @@
       <c r="A524" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B524" s="312"/>
-      <c r="C524" s="310"/>
-      <c r="D524" s="310"/>
-      <c r="E524" s="311"/>
+      <c r="B524" s="309"/>
+      <c r="C524" s="307"/>
+      <c r="D524" s="307"/>
+      <c r="E524" s="308"/>
       <c r="F524" s="67"/>
       <c r="G524" s="68"/>
       <c r="H524" s="69"/>
@@ -11955,17 +11379,17 @@
       <c r="J524" s="68"/>
       <c r="K524" s="68"/>
       <c r="L524" s="50"/>
-      <c r="M524" s="312"/>
-      <c r="N524" s="311"/>
+      <c r="M524" s="309"/>
+      <c r="N524" s="308"/>
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B525" s="312"/>
-      <c r="C525" s="310"/>
-      <c r="D525" s="310"/>
-      <c r="E525" s="311"/>
+      <c r="B525" s="309"/>
+      <c r="C525" s="307"/>
+      <c r="D525" s="307"/>
+      <c r="E525" s="308"/>
       <c r="F525" s="67"/>
       <c r="G525" s="68"/>
       <c r="H525" s="69"/>
@@ -11973,17 +11397,17 @@
       <c r="J525" s="68"/>
       <c r="K525" s="68"/>
       <c r="L525" s="50"/>
-      <c r="M525" s="312"/>
-      <c r="N525" s="311"/>
+      <c r="M525" s="309"/>
+      <c r="N525" s="308"/>
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B526" s="312"/>
-      <c r="C526" s="310"/>
-      <c r="D526" s="310"/>
-      <c r="E526" s="311"/>
+      <c r="B526" s="309"/>
+      <c r="C526" s="307"/>
+      <c r="D526" s="307"/>
+      <c r="E526" s="308"/>
       <c r="F526" s="67"/>
       <c r="G526" s="68"/>
       <c r="H526" s="69"/>
@@ -11991,8 +11415,8 @@
       <c r="J526" s="68"/>
       <c r="K526" s="68"/>
       <c r="L526" s="50"/>
-      <c r="M526" s="312"/>
-      <c r="N526" s="311"/>
+      <c r="M526" s="309"/>
+      <c r="N526" s="308"/>
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="59" t="s">
@@ -12016,37 +11440,37 @@
       <c r="A528" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B528" s="312"/>
-      <c r="C528" s="310"/>
-      <c r="D528" s="310"/>
-      <c r="E528" s="311"/>
-      <c r="F528" s="312"/>
-      <c r="G528" s="310"/>
-      <c r="H528" s="311"/>
-      <c r="I528" s="312"/>
-      <c r="J528" s="310"/>
-      <c r="K528" s="310"/>
-      <c r="L528" s="311"/>
-      <c r="M528" s="312"/>
-      <c r="N528" s="311"/>
+      <c r="B528" s="309"/>
+      <c r="C528" s="307"/>
+      <c r="D528" s="307"/>
+      <c r="E528" s="308"/>
+      <c r="F528" s="309"/>
+      <c r="G528" s="307"/>
+      <c r="H528" s="308"/>
+      <c r="I528" s="309"/>
+      <c r="J528" s="307"/>
+      <c r="K528" s="307"/>
+      <c r="L528" s="308"/>
+      <c r="M528" s="309"/>
+      <c r="N528" s="308"/>
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B529" s="312"/>
-      <c r="C529" s="310"/>
-      <c r="D529" s="310"/>
-      <c r="E529" s="311"/>
-      <c r="F529" s="312"/>
-      <c r="G529" s="310"/>
-      <c r="H529" s="311"/>
-      <c r="I529" s="312"/>
-      <c r="J529" s="310"/>
-      <c r="K529" s="310"/>
-      <c r="L529" s="311"/>
-      <c r="M529" s="312"/>
-      <c r="N529" s="311"/>
+      <c r="B529" s="309"/>
+      <c r="C529" s="307"/>
+      <c r="D529" s="307"/>
+      <c r="E529" s="308"/>
+      <c r="F529" s="309"/>
+      <c r="G529" s="307"/>
+      <c r="H529" s="308"/>
+      <c r="I529" s="309"/>
+      <c r="J529" s="307"/>
+      <c r="K529" s="307"/>
+      <c r="L529" s="308"/>
+      <c r="M529" s="309"/>
+      <c r="N529" s="308"/>
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="9" t="s">
@@ -12491,40 +11915,40 @@
       <c r="A567" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B567" s="312"/>
-      <c r="C567" s="310"/>
-      <c r="D567" s="311"/>
-      <c r="E567" s="310"/>
-      <c r="F567" s="311"/>
-      <c r="G567" s="310"/>
-      <c r="H567" s="310"/>
-      <c r="I567" s="311"/>
+      <c r="B567" s="309"/>
+      <c r="C567" s="307"/>
+      <c r="D567" s="308"/>
+      <c r="E567" s="307"/>
+      <c r="F567" s="308"/>
+      <c r="G567" s="307"/>
+      <c r="H567" s="307"/>
+      <c r="I567" s="308"/>
     </row>
     <row r="568" spans="1:9">
       <c r="A568" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B568" s="312"/>
-      <c r="C568" s="310"/>
-      <c r="D568" s="311"/>
-      <c r="E568" s="310"/>
-      <c r="F568" s="311"/>
-      <c r="G568" s="310"/>
-      <c r="H568" s="310"/>
-      <c r="I568" s="311"/>
+      <c r="B568" s="309"/>
+      <c r="C568" s="307"/>
+      <c r="D568" s="308"/>
+      <c r="E568" s="307"/>
+      <c r="F568" s="308"/>
+      <c r="G568" s="307"/>
+      <c r="H568" s="307"/>
+      <c r="I568" s="308"/>
     </row>
     <row r="569" spans="1:9">
       <c r="A569" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B569" s="312"/>
-      <c r="C569" s="310"/>
-      <c r="D569" s="311"/>
-      <c r="E569" s="310"/>
-      <c r="F569" s="311"/>
-      <c r="G569" s="310"/>
-      <c r="H569" s="310"/>
-      <c r="I569" s="311"/>
+      <c r="B569" s="309"/>
+      <c r="C569" s="307"/>
+      <c r="D569" s="308"/>
+      <c r="E569" s="307"/>
+      <c r="F569" s="308"/>
+      <c r="G569" s="307"/>
+      <c r="H569" s="307"/>
+      <c r="I569" s="308"/>
     </row>
     <row r="570" spans="1:9">
       <c r="A570" s="182" t="s">
@@ -12543,40 +11967,40 @@
       <c r="A571" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B571" s="312"/>
-      <c r="C571" s="310"/>
-      <c r="D571" s="311"/>
-      <c r="E571" s="310"/>
-      <c r="F571" s="311"/>
-      <c r="G571" s="310"/>
-      <c r="H571" s="310"/>
-      <c r="I571" s="311"/>
+      <c r="B571" s="309"/>
+      <c r="C571" s="307"/>
+      <c r="D571" s="308"/>
+      <c r="E571" s="307"/>
+      <c r="F571" s="308"/>
+      <c r="G571" s="307"/>
+      <c r="H571" s="307"/>
+      <c r="I571" s="308"/>
     </row>
     <row r="572" spans="1:9">
       <c r="A572" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B572" s="312"/>
-      <c r="C572" s="310"/>
-      <c r="D572" s="311"/>
-      <c r="E572" s="310"/>
-      <c r="F572" s="311"/>
-      <c r="G572" s="310"/>
-      <c r="H572" s="310"/>
-      <c r="I572" s="311"/>
+      <c r="B572" s="309"/>
+      <c r="C572" s="307"/>
+      <c r="D572" s="308"/>
+      <c r="E572" s="307"/>
+      <c r="F572" s="308"/>
+      <c r="G572" s="307"/>
+      <c r="H572" s="307"/>
+      <c r="I572" s="308"/>
     </row>
     <row r="573" spans="1:9">
       <c r="A573" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B573" s="312"/>
-      <c r="C573" s="310"/>
-      <c r="D573" s="311"/>
-      <c r="E573" s="310"/>
-      <c r="F573" s="311"/>
-      <c r="G573" s="310"/>
-      <c r="H573" s="310"/>
-      <c r="I573" s="311"/>
+      <c r="B573" s="309"/>
+      <c r="C573" s="307"/>
+      <c r="D573" s="308"/>
+      <c r="E573" s="307"/>
+      <c r="F573" s="308"/>
+      <c r="G573" s="307"/>
+      <c r="H573" s="307"/>
+      <c r="I573" s="308"/>
     </row>
     <row r="574" spans="1:9">
       <c r="A574" s="182" t="s">
@@ -12595,40 +12019,40 @@
       <c r="A575" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B575" s="312"/>
-      <c r="C575" s="310"/>
-      <c r="D575" s="311"/>
-      <c r="E575" s="310"/>
-      <c r="F575" s="311"/>
-      <c r="G575" s="310"/>
-      <c r="H575" s="310"/>
-      <c r="I575" s="311"/>
+      <c r="B575" s="309"/>
+      <c r="C575" s="307"/>
+      <c r="D575" s="308"/>
+      <c r="E575" s="307"/>
+      <c r="F575" s="308"/>
+      <c r="G575" s="307"/>
+      <c r="H575" s="307"/>
+      <c r="I575" s="308"/>
     </row>
     <row r="576" spans="1:9">
       <c r="A576" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B576" s="312"/>
-      <c r="C576" s="310"/>
-      <c r="D576" s="311"/>
-      <c r="E576" s="310"/>
-      <c r="F576" s="311"/>
-      <c r="G576" s="310"/>
-      <c r="H576" s="310"/>
-      <c r="I576" s="311"/>
+      <c r="B576" s="309"/>
+      <c r="C576" s="307"/>
+      <c r="D576" s="308"/>
+      <c r="E576" s="307"/>
+      <c r="F576" s="308"/>
+      <c r="G576" s="307"/>
+      <c r="H576" s="307"/>
+      <c r="I576" s="308"/>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B577" s="312"/>
-      <c r="C577" s="310"/>
-      <c r="D577" s="311"/>
-      <c r="E577" s="310"/>
-      <c r="F577" s="311"/>
-      <c r="G577" s="310"/>
-      <c r="H577" s="310"/>
-      <c r="I577" s="311"/>
+      <c r="B577" s="309"/>
+      <c r="C577" s="307"/>
+      <c r="D577" s="308"/>
+      <c r="E577" s="307"/>
+      <c r="F577" s="308"/>
+      <c r="G577" s="307"/>
+      <c r="H577" s="307"/>
+      <c r="I577" s="308"/>
     </row>
     <row r="578" spans="1:9">
       <c r="A578" s="183" t="s">
@@ -12647,27 +12071,27 @@
       <c r="A579" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B579" s="312"/>
-      <c r="C579" s="310"/>
-      <c r="D579" s="311"/>
-      <c r="E579" s="310"/>
-      <c r="F579" s="311"/>
-      <c r="G579" s="310"/>
-      <c r="H579" s="310"/>
-      <c r="I579" s="311"/>
+      <c r="B579" s="309"/>
+      <c r="C579" s="307"/>
+      <c r="D579" s="308"/>
+      <c r="E579" s="307"/>
+      <c r="F579" s="308"/>
+      <c r="G579" s="307"/>
+      <c r="H579" s="307"/>
+      <c r="I579" s="308"/>
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B580" s="312"/>
-      <c r="C580" s="310"/>
-      <c r="D580" s="311"/>
-      <c r="E580" s="310"/>
-      <c r="F580" s="311"/>
-      <c r="G580" s="310"/>
-      <c r="H580" s="310"/>
-      <c r="I580" s="311"/>
+      <c r="B580" s="309"/>
+      <c r="C580" s="307"/>
+      <c r="D580" s="308"/>
+      <c r="E580" s="307"/>
+      <c r="F580" s="308"/>
+      <c r="G580" s="307"/>
+      <c r="H580" s="307"/>
+      <c r="I580" s="308"/>
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="182" t="s">
@@ -12699,14 +12123,14 @@
       <c r="A583" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B583" s="312"/>
-      <c r="C583" s="310"/>
-      <c r="D583" s="311"/>
-      <c r="E583" s="310"/>
-      <c r="F583" s="311"/>
-      <c r="G583" s="310"/>
-      <c r="H583" s="310"/>
-      <c r="I583" s="311"/>
+      <c r="B583" s="309"/>
+      <c r="C583" s="307"/>
+      <c r="D583" s="308"/>
+      <c r="E583" s="307"/>
+      <c r="F583" s="308"/>
+      <c r="G583" s="307"/>
+      <c r="H583" s="307"/>
+      <c r="I583" s="308"/>
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="182" t="s">
@@ -12738,14 +12162,14 @@
       <c r="A586" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B586" s="312"/>
-      <c r="C586" s="310"/>
-      <c r="D586" s="311"/>
-      <c r="E586" s="310"/>
-      <c r="F586" s="311"/>
-      <c r="G586" s="310"/>
-      <c r="H586" s="310"/>
-      <c r="I586" s="311"/>
+      <c r="B586" s="309"/>
+      <c r="C586" s="307"/>
+      <c r="D586" s="308"/>
+      <c r="E586" s="307"/>
+      <c r="F586" s="308"/>
+      <c r="G586" s="307"/>
+      <c r="H586" s="307"/>
+      <c r="I586" s="308"/>
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="182" t="s">
@@ -13124,21 +12548,21 @@
       </c>
       <c r="B618" s="110"/>
       <c r="C618" s="111"/>
-      <c r="D618" s="309"/>
+      <c r="D618" s="306"/>
       <c r="E618" s="111"/>
-      <c r="F618" s="309"/>
+      <c r="F618" s="306"/>
       <c r="G618" s="111"/>
       <c r="H618" s="111"/>
       <c r="I618" s="111"/>
-      <c r="J618" s="309"/>
+      <c r="J618" s="306"/>
       <c r="K618" s="110"/>
       <c r="L618" s="111"/>
       <c r="M618" s="112"/>
       <c r="N618" s="111"/>
-      <c r="O618" s="309"/>
+      <c r="O618" s="306"/>
       <c r="P618" s="111"/>
       <c r="Q618" s="111"/>
-      <c r="R618" s="309"/>
+      <c r="R618" s="306"/>
     </row>
     <row r="619" spans="1:18">
       <c r="A619" s="180" t="s">
@@ -13146,21 +12570,21 @@
       </c>
       <c r="B619" s="110"/>
       <c r="C619" s="111"/>
-      <c r="D619" s="309"/>
+      <c r="D619" s="306"/>
       <c r="E619" s="111"/>
-      <c r="F619" s="309"/>
+      <c r="F619" s="306"/>
       <c r="G619" s="111"/>
       <c r="H619" s="111"/>
       <c r="I619" s="111"/>
-      <c r="J619" s="309"/>
+      <c r="J619" s="306"/>
       <c r="K619" s="110"/>
       <c r="L619" s="111"/>
       <c r="M619" s="112"/>
       <c r="N619" s="111"/>
-      <c r="O619" s="309"/>
+      <c r="O619" s="306"/>
       <c r="P619" s="111"/>
       <c r="Q619" s="111"/>
-      <c r="R619" s="309"/>
+      <c r="R619" s="306"/>
     </row>
     <row r="620" spans="1:18">
       <c r="A620" s="181" t="s">
@@ -13168,21 +12592,21 @@
       </c>
       <c r="B620" s="110"/>
       <c r="C620" s="111"/>
-      <c r="D620" s="309"/>
+      <c r="D620" s="306"/>
       <c r="E620" s="111"/>
-      <c r="F620" s="309"/>
+      <c r="F620" s="306"/>
       <c r="G620" s="111"/>
       <c r="H620" s="111"/>
       <c r="I620" s="111"/>
-      <c r="J620" s="309"/>
+      <c r="J620" s="306"/>
       <c r="K620" s="110"/>
       <c r="L620" s="111"/>
       <c r="M620" s="112"/>
       <c r="N620" s="111"/>
-      <c r="O620" s="309"/>
+      <c r="O620" s="306"/>
       <c r="P620" s="111"/>
       <c r="Q620" s="111"/>
-      <c r="R620" s="309"/>
+      <c r="R620" s="306"/>
     </row>
     <row r="621" spans="1:18">
       <c r="A621" s="182" t="s">
@@ -13210,21 +12634,21 @@
       <c r="A622" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B622" s="315"/>
+      <c r="B622" s="312"/>
       <c r="C622" s="111"/>
       <c r="D622" s="112"/>
-      <c r="E622" s="308"/>
+      <c r="E622" s="305"/>
       <c r="F622" s="112"/>
-      <c r="G622" s="308"/>
+      <c r="G622" s="305"/>
       <c r="H622" s="111"/>
       <c r="I622" s="111"/>
       <c r="J622" s="112"/>
-      <c r="K622" s="315"/>
+      <c r="K622" s="312"/>
       <c r="L622" s="111"/>
       <c r="M622" s="112"/>
-      <c r="N622" s="308"/>
+      <c r="N622" s="305"/>
       <c r="O622" s="112"/>
-      <c r="P622" s="308"/>
+      <c r="P622" s="305"/>
       <c r="Q622" s="111"/>
       <c r="R622" s="103"/>
     </row>
@@ -13232,21 +12656,21 @@
       <c r="A623" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B623" s="315"/>
+      <c r="B623" s="312"/>
       <c r="C623" s="111"/>
       <c r="D623" s="112"/>
-      <c r="E623" s="308"/>
+      <c r="E623" s="305"/>
       <c r="F623" s="112"/>
-      <c r="G623" s="308"/>
+      <c r="G623" s="305"/>
       <c r="H623" s="111"/>
       <c r="I623" s="111"/>
       <c r="J623" s="112"/>
-      <c r="K623" s="315"/>
+      <c r="K623" s="312"/>
       <c r="L623" s="111"/>
       <c r="M623" s="112"/>
-      <c r="N623" s="308"/>
+      <c r="N623" s="305"/>
       <c r="O623" s="112"/>
-      <c r="P623" s="308"/>
+      <c r="P623" s="305"/>
       <c r="Q623" s="111"/>
       <c r="R623" s="103"/>
     </row>
@@ -13254,21 +12678,21 @@
       <c r="A624" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B624" s="315"/>
+      <c r="B624" s="312"/>
       <c r="C624" s="111"/>
       <c r="D624" s="112"/>
-      <c r="E624" s="308"/>
+      <c r="E624" s="305"/>
       <c r="F624" s="112"/>
-      <c r="G624" s="308"/>
+      <c r="G624" s="305"/>
       <c r="H624" s="111"/>
       <c r="I624" s="111"/>
       <c r="J624" s="112"/>
-      <c r="K624" s="315"/>
+      <c r="K624" s="312"/>
       <c r="L624" s="111"/>
       <c r="M624" s="112"/>
-      <c r="N624" s="308"/>
+      <c r="N624" s="305"/>
       <c r="O624" s="112"/>
-      <c r="P624" s="308"/>
+      <c r="P624" s="305"/>
       <c r="Q624" s="111"/>
       <c r="R624" s="103"/>
     </row>
@@ -13299,21 +12723,21 @@
         <v>13</v>
       </c>
       <c r="B626" s="110"/>
-      <c r="C626" s="308"/>
+      <c r="C626" s="305"/>
       <c r="D626" s="112"/>
       <c r="E626" s="111"/>
       <c r="F626" s="112"/>
       <c r="G626" s="111"/>
-      <c r="H626" s="308"/>
-      <c r="I626" s="308"/>
+      <c r="H626" s="305"/>
+      <c r="I626" s="305"/>
       <c r="J626" s="112"/>
       <c r="K626" s="110"/>
-      <c r="L626" s="308"/>
+      <c r="L626" s="305"/>
       <c r="M626" s="112"/>
       <c r="N626" s="111"/>
       <c r="O626" s="112"/>
       <c r="P626" s="111"/>
-      <c r="Q626" s="308"/>
+      <c r="Q626" s="305"/>
       <c r="R626" s="103"/>
     </row>
     <row r="627" spans="1:18">
@@ -13321,21 +12745,21 @@
         <v>12</v>
       </c>
       <c r="B627" s="110"/>
-      <c r="C627" s="308"/>
+      <c r="C627" s="305"/>
       <c r="D627" s="112"/>
       <c r="E627" s="111"/>
       <c r="F627" s="112"/>
       <c r="G627" s="111"/>
-      <c r="H627" s="308"/>
-      <c r="I627" s="308"/>
+      <c r="H627" s="305"/>
+      <c r="I627" s="305"/>
       <c r="J627" s="112"/>
       <c r="K627" s="110"/>
-      <c r="L627" s="308"/>
+      <c r="L627" s="305"/>
       <c r="M627" s="112"/>
       <c r="N627" s="111"/>
       <c r="O627" s="112"/>
       <c r="P627" s="111"/>
-      <c r="Q627" s="308"/>
+      <c r="Q627" s="305"/>
       <c r="R627" s="103"/>
     </row>
     <row r="628" spans="1:18">
@@ -13343,21 +12767,21 @@
         <v>11</v>
       </c>
       <c r="B628" s="110"/>
-      <c r="C628" s="308"/>
+      <c r="C628" s="305"/>
       <c r="D628" s="112"/>
       <c r="E628" s="111"/>
       <c r="F628" s="112"/>
       <c r="G628" s="111"/>
-      <c r="H628" s="308"/>
-      <c r="I628" s="308"/>
+      <c r="H628" s="305"/>
+      <c r="I628" s="305"/>
       <c r="J628" s="112"/>
       <c r="K628" s="110"/>
-      <c r="L628" s="308"/>
+      <c r="L628" s="305"/>
       <c r="M628" s="112"/>
       <c r="N628" s="111"/>
       <c r="O628" s="112"/>
       <c r="P628" s="111"/>
-      <c r="Q628" s="308"/>
+      <c r="Q628" s="305"/>
       <c r="R628" s="103"/>
     </row>
     <row r="629" spans="1:18">
@@ -13386,45 +12810,45 @@
       <c r="A630" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B630" s="315"/>
-      <c r="C630" s="308"/>
-      <c r="D630" s="309"/>
-      <c r="E630" s="308"/>
-      <c r="F630" s="309"/>
-      <c r="G630" s="308"/>
-      <c r="H630" s="308"/>
-      <c r="I630" s="308"/>
-      <c r="J630" s="309"/>
-      <c r="K630" s="315"/>
-      <c r="L630" s="308"/>
-      <c r="M630" s="309"/>
-      <c r="N630" s="308"/>
-      <c r="O630" s="309"/>
-      <c r="P630" s="308"/>
-      <c r="Q630" s="308"/>
-      <c r="R630" s="309"/>
+      <c r="B630" s="312"/>
+      <c r="C630" s="305"/>
+      <c r="D630" s="306"/>
+      <c r="E630" s="305"/>
+      <c r="F630" s="306"/>
+      <c r="G630" s="305"/>
+      <c r="H630" s="305"/>
+      <c r="I630" s="305"/>
+      <c r="J630" s="306"/>
+      <c r="K630" s="312"/>
+      <c r="L630" s="305"/>
+      <c r="M630" s="306"/>
+      <c r="N630" s="305"/>
+      <c r="O630" s="306"/>
+      <c r="P630" s="305"/>
+      <c r="Q630" s="305"/>
+      <c r="R630" s="306"/>
     </row>
     <row r="631" spans="1:18">
       <c r="A631" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B631" s="315"/>
-      <c r="C631" s="308"/>
-      <c r="D631" s="309"/>
-      <c r="E631" s="308"/>
-      <c r="F631" s="309"/>
-      <c r="G631" s="308"/>
-      <c r="H631" s="308"/>
-      <c r="I631" s="308"/>
-      <c r="J631" s="309"/>
-      <c r="K631" s="315"/>
-      <c r="L631" s="308"/>
-      <c r="M631" s="309"/>
-      <c r="N631" s="308"/>
-      <c r="O631" s="309"/>
-      <c r="P631" s="308"/>
-      <c r="Q631" s="308"/>
-      <c r="R631" s="309"/>
+      <c r="B631" s="312"/>
+      <c r="C631" s="305"/>
+      <c r="D631" s="306"/>
+      <c r="E631" s="305"/>
+      <c r="F631" s="306"/>
+      <c r="G631" s="305"/>
+      <c r="H631" s="305"/>
+      <c r="I631" s="305"/>
+      <c r="J631" s="306"/>
+      <c r="K631" s="312"/>
+      <c r="L631" s="305"/>
+      <c r="M631" s="306"/>
+      <c r="N631" s="305"/>
+      <c r="O631" s="306"/>
+      <c r="P631" s="305"/>
+      <c r="Q631" s="305"/>
+      <c r="R631" s="306"/>
     </row>
     <row r="632" spans="1:18">
       <c r="A632" s="182" t="s">
@@ -13584,45 +13008,45 @@
       <c r="A639" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B639" s="315"/>
-      <c r="C639" s="308"/>
-      <c r="D639" s="309"/>
-      <c r="E639" s="308"/>
-      <c r="F639" s="309"/>
-      <c r="G639" s="308"/>
-      <c r="H639" s="308"/>
-      <c r="I639" s="308"/>
-      <c r="J639" s="309"/>
-      <c r="K639" s="315"/>
-      <c r="L639" s="308"/>
-      <c r="M639" s="309"/>
-      <c r="N639" s="308"/>
-      <c r="O639" s="309"/>
-      <c r="P639" s="308"/>
-      <c r="Q639" s="308"/>
-      <c r="R639" s="309"/>
+      <c r="B639" s="312"/>
+      <c r="C639" s="305"/>
+      <c r="D639" s="306"/>
+      <c r="E639" s="305"/>
+      <c r="F639" s="306"/>
+      <c r="G639" s="305"/>
+      <c r="H639" s="305"/>
+      <c r="I639" s="305"/>
+      <c r="J639" s="306"/>
+      <c r="K639" s="312"/>
+      <c r="L639" s="305"/>
+      <c r="M639" s="306"/>
+      <c r="N639" s="305"/>
+      <c r="O639" s="306"/>
+      <c r="P639" s="305"/>
+      <c r="Q639" s="305"/>
+      <c r="R639" s="306"/>
     </row>
     <row r="640" spans="1:18">
       <c r="A640" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B640" s="315"/>
-      <c r="C640" s="308"/>
-      <c r="D640" s="309"/>
-      <c r="E640" s="308"/>
-      <c r="F640" s="309"/>
-      <c r="G640" s="308"/>
-      <c r="H640" s="308"/>
-      <c r="I640" s="308"/>
-      <c r="J640" s="309"/>
-      <c r="K640" s="315"/>
-      <c r="L640" s="308"/>
-      <c r="M640" s="309"/>
-      <c r="N640" s="308"/>
-      <c r="O640" s="309"/>
-      <c r="P640" s="308"/>
-      <c r="Q640" s="308"/>
-      <c r="R640" s="309"/>
+      <c r="B640" s="312"/>
+      <c r="C640" s="305"/>
+      <c r="D640" s="306"/>
+      <c r="E640" s="305"/>
+      <c r="F640" s="306"/>
+      <c r="G640" s="305"/>
+      <c r="H640" s="305"/>
+      <c r="I640" s="305"/>
+      <c r="J640" s="306"/>
+      <c r="K640" s="312"/>
+      <c r="L640" s="305"/>
+      <c r="M640" s="306"/>
+      <c r="N640" s="305"/>
+      <c r="O640" s="306"/>
+      <c r="P640" s="305"/>
+      <c r="Q640" s="305"/>
+      <c r="R640" s="306"/>
     </row>
     <row r="641" spans="1:18">
       <c r="A641" s="182" t="s">
@@ -13650,45 +13074,45 @@
       <c r="A642" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B642" s="315"/>
-      <c r="C642" s="308"/>
-      <c r="D642" s="309"/>
-      <c r="E642" s="308"/>
-      <c r="F642" s="309"/>
-      <c r="G642" s="308"/>
-      <c r="H642" s="308"/>
-      <c r="I642" s="308"/>
-      <c r="J642" s="309"/>
-      <c r="K642" s="315"/>
-      <c r="L642" s="308"/>
-      <c r="M642" s="309"/>
-      <c r="N642" s="308"/>
-      <c r="O642" s="309"/>
-      <c r="P642" s="308"/>
-      <c r="Q642" s="308"/>
-      <c r="R642" s="309"/>
+      <c r="B642" s="312"/>
+      <c r="C642" s="305"/>
+      <c r="D642" s="306"/>
+      <c r="E642" s="305"/>
+      <c r="F642" s="306"/>
+      <c r="G642" s="305"/>
+      <c r="H642" s="305"/>
+      <c r="I642" s="305"/>
+      <c r="J642" s="306"/>
+      <c r="K642" s="312"/>
+      <c r="L642" s="305"/>
+      <c r="M642" s="306"/>
+      <c r="N642" s="305"/>
+      <c r="O642" s="306"/>
+      <c r="P642" s="305"/>
+      <c r="Q642" s="305"/>
+      <c r="R642" s="306"/>
     </row>
     <row r="643" spans="1:18">
       <c r="A643" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B643" s="315"/>
-      <c r="C643" s="308"/>
-      <c r="D643" s="309"/>
-      <c r="E643" s="308"/>
-      <c r="F643" s="309"/>
-      <c r="G643" s="308"/>
-      <c r="H643" s="308"/>
-      <c r="I643" s="308"/>
-      <c r="J643" s="309"/>
-      <c r="K643" s="315"/>
-      <c r="L643" s="308"/>
-      <c r="M643" s="309"/>
-      <c r="N643" s="308"/>
-      <c r="O643" s="309"/>
-      <c r="P643" s="308"/>
-      <c r="Q643" s="308"/>
-      <c r="R643" s="309"/>
+      <c r="B643" s="312"/>
+      <c r="C643" s="305"/>
+      <c r="D643" s="306"/>
+      <c r="E643" s="305"/>
+      <c r="F643" s="306"/>
+      <c r="G643" s="305"/>
+      <c r="H643" s="305"/>
+      <c r="I643" s="305"/>
+      <c r="J643" s="306"/>
+      <c r="K643" s="312"/>
+      <c r="L643" s="305"/>
+      <c r="M643" s="306"/>
+      <c r="N643" s="305"/>
+      <c r="O643" s="306"/>
+      <c r="P643" s="305"/>
+      <c r="Q643" s="305"/>
+      <c r="R643" s="306"/>
     </row>
     <row r="644" spans="1:18">
       <c r="A644" s="182" t="s">
@@ -13716,45 +13140,45 @@
       <c r="A645" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B645" s="315"/>
-      <c r="C645" s="308"/>
-      <c r="D645" s="309"/>
-      <c r="E645" s="308"/>
-      <c r="F645" s="309"/>
-      <c r="G645" s="308"/>
-      <c r="H645" s="308"/>
-      <c r="I645" s="308"/>
-      <c r="J645" s="309"/>
-      <c r="K645" s="315"/>
-      <c r="L645" s="308"/>
-      <c r="M645" s="309"/>
-      <c r="N645" s="308"/>
-      <c r="O645" s="309"/>
-      <c r="P645" s="308"/>
-      <c r="Q645" s="308"/>
-      <c r="R645" s="309"/>
+      <c r="B645" s="312"/>
+      <c r="C645" s="305"/>
+      <c r="D645" s="306"/>
+      <c r="E645" s="305"/>
+      <c r="F645" s="306"/>
+      <c r="G645" s="305"/>
+      <c r="H645" s="305"/>
+      <c r="I645" s="305"/>
+      <c r="J645" s="306"/>
+      <c r="K645" s="312"/>
+      <c r="L645" s="305"/>
+      <c r="M645" s="306"/>
+      <c r="N645" s="305"/>
+      <c r="O645" s="306"/>
+      <c r="P645" s="305"/>
+      <c r="Q645" s="305"/>
+      <c r="R645" s="306"/>
     </row>
     <row r="646" spans="1:18">
       <c r="A646" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B646" s="315"/>
-      <c r="C646" s="308"/>
-      <c r="D646" s="309"/>
-      <c r="E646" s="308"/>
-      <c r="F646" s="309"/>
-      <c r="G646" s="308"/>
-      <c r="H646" s="308"/>
-      <c r="I646" s="308"/>
-      <c r="J646" s="309"/>
-      <c r="K646" s="315"/>
-      <c r="L646" s="308"/>
-      <c r="M646" s="309"/>
-      <c r="N646" s="308"/>
-      <c r="O646" s="309"/>
-      <c r="P646" s="308"/>
-      <c r="Q646" s="308"/>
-      <c r="R646" s="309"/>
+      <c r="B646" s="312"/>
+      <c r="C646" s="305"/>
+      <c r="D646" s="306"/>
+      <c r="E646" s="305"/>
+      <c r="F646" s="306"/>
+      <c r="G646" s="305"/>
+      <c r="H646" s="305"/>
+      <c r="I646" s="305"/>
+      <c r="J646" s="306"/>
+      <c r="K646" s="312"/>
+      <c r="L646" s="305"/>
+      <c r="M646" s="306"/>
+      <c r="N646" s="305"/>
+      <c r="O646" s="306"/>
+      <c r="P646" s="305"/>
+      <c r="Q646" s="305"/>
+      <c r="R646" s="306"/>
     </row>
     <row r="647" spans="1:18">
       <c r="A647" s="182" t="s">
@@ -13782,45 +13206,45 @@
       <c r="A648" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B648" s="315"/>
-      <c r="C648" s="308"/>
-      <c r="D648" s="309"/>
-      <c r="E648" s="308"/>
-      <c r="F648" s="309"/>
-      <c r="G648" s="308"/>
-      <c r="H648" s="308"/>
-      <c r="I648" s="308"/>
-      <c r="J648" s="309"/>
-      <c r="K648" s="315"/>
-      <c r="L648" s="308"/>
-      <c r="M648" s="309"/>
-      <c r="N648" s="308"/>
-      <c r="O648" s="309"/>
-      <c r="P648" s="308"/>
-      <c r="Q648" s="308"/>
-      <c r="R648" s="309"/>
+      <c r="B648" s="312"/>
+      <c r="C648" s="305"/>
+      <c r="D648" s="306"/>
+      <c r="E648" s="305"/>
+      <c r="F648" s="306"/>
+      <c r="G648" s="305"/>
+      <c r="H648" s="305"/>
+      <c r="I648" s="305"/>
+      <c r="J648" s="306"/>
+      <c r="K648" s="312"/>
+      <c r="L648" s="305"/>
+      <c r="M648" s="306"/>
+      <c r="N648" s="305"/>
+      <c r="O648" s="306"/>
+      <c r="P648" s="305"/>
+      <c r="Q648" s="305"/>
+      <c r="R648" s="306"/>
     </row>
     <row r="649" spans="1:18" ht="16" thickBot="1">
       <c r="A649" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B649" s="316"/>
-      <c r="C649" s="317"/>
-      <c r="D649" s="318"/>
-      <c r="E649" s="317"/>
-      <c r="F649" s="318"/>
-      <c r="G649" s="317"/>
-      <c r="H649" s="317"/>
-      <c r="I649" s="317"/>
-      <c r="J649" s="318"/>
-      <c r="K649" s="316"/>
-      <c r="L649" s="317"/>
-      <c r="M649" s="318"/>
-      <c r="N649" s="317"/>
-      <c r="O649" s="318"/>
-      <c r="P649" s="317"/>
-      <c r="Q649" s="317"/>
-      <c r="R649" s="318"/>
+      <c r="B649" s="313"/>
+      <c r="C649" s="314"/>
+      <c r="D649" s="315"/>
+      <c r="E649" s="314"/>
+      <c r="F649" s="315"/>
+      <c r="G649" s="314"/>
+      <c r="H649" s="314"/>
+      <c r="I649" s="314"/>
+      <c r="J649" s="315"/>
+      <c r="K649" s="313"/>
+      <c r="L649" s="314"/>
+      <c r="M649" s="315"/>
+      <c r="N649" s="314"/>
+      <c r="O649" s="315"/>
+      <c r="P649" s="314"/>
+      <c r="Q649" s="314"/>
+      <c r="R649" s="315"/>
     </row>
     <row r="663" spans="1:17" ht="16" thickBot="1"/>
     <row r="664" spans="1:17" ht="24" thickBot="1">
@@ -14032,20 +13456,20 @@
       </c>
       <c r="B669" s="110"/>
       <c r="C669" s="111"/>
-      <c r="D669" s="309"/>
+      <c r="D669" s="306"/>
       <c r="E669" s="111"/>
-      <c r="F669" s="309"/>
+      <c r="F669" s="306"/>
       <c r="G669" s="111"/>
       <c r="H669" s="111"/>
       <c r="I669" s="111"/>
-      <c r="J669" s="309"/>
+      <c r="J669" s="306"/>
       <c r="K669" s="110"/>
       <c r="L669" s="111"/>
       <c r="M669" s="111"/>
-      <c r="N669" s="309"/>
+      <c r="N669" s="306"/>
       <c r="O669" s="111"/>
       <c r="P669" s="111"/>
-      <c r="Q669" s="309"/>
+      <c r="Q669" s="306"/>
     </row>
     <row r="670" spans="1:17">
       <c r="A670" s="7" t="s">
@@ -14053,20 +13477,20 @@
       </c>
       <c r="B670" s="110"/>
       <c r="C670" s="111"/>
-      <c r="D670" s="309"/>
+      <c r="D670" s="306"/>
       <c r="E670" s="111"/>
-      <c r="F670" s="309"/>
+      <c r="F670" s="306"/>
       <c r="G670" s="111"/>
       <c r="H670" s="111"/>
       <c r="I670" s="111"/>
-      <c r="J670" s="309"/>
+      <c r="J670" s="306"/>
       <c r="K670" s="110"/>
       <c r="L670" s="111"/>
       <c r="M670" s="111"/>
-      <c r="N670" s="309"/>
+      <c r="N670" s="306"/>
       <c r="O670" s="111"/>
       <c r="P670" s="111"/>
-      <c r="Q670" s="309"/>
+      <c r="Q670" s="306"/>
     </row>
     <row r="671" spans="1:17">
       <c r="A671" s="8" t="s">
@@ -14074,20 +13498,20 @@
       </c>
       <c r="B671" s="110"/>
       <c r="C671" s="111"/>
-      <c r="D671" s="309"/>
+      <c r="D671" s="306"/>
       <c r="E671" s="111"/>
-      <c r="F671" s="309"/>
+      <c r="F671" s="306"/>
       <c r="G671" s="111"/>
       <c r="H671" s="111"/>
       <c r="I671" s="111"/>
-      <c r="J671" s="309"/>
+      <c r="J671" s="306"/>
       <c r="K671" s="110"/>
       <c r="L671" s="111"/>
       <c r="M671" s="111"/>
-      <c r="N671" s="309"/>
+      <c r="N671" s="306"/>
       <c r="O671" s="111"/>
       <c r="P671" s="111"/>
-      <c r="Q671" s="309"/>
+      <c r="Q671" s="306"/>
     </row>
     <row r="672" spans="1:17">
       <c r="A672" s="9" t="s">
@@ -14114,20 +13538,20 @@
       <c r="A673" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B673" s="315"/>
+      <c r="B673" s="312"/>
       <c r="C673" s="111"/>
       <c r="D673" s="112"/>
-      <c r="E673" s="308"/>
+      <c r="E673" s="305"/>
       <c r="F673" s="112"/>
-      <c r="G673" s="308"/>
+      <c r="G673" s="305"/>
       <c r="H673" s="111"/>
       <c r="I673" s="111"/>
       <c r="J673" s="112"/>
-      <c r="K673" s="315"/>
+      <c r="K673" s="312"/>
       <c r="L673" s="111"/>
       <c r="M673" s="111"/>
       <c r="N673" s="112"/>
-      <c r="O673" s="308"/>
+      <c r="O673" s="305"/>
       <c r="P673" s="111"/>
       <c r="Q673" s="103"/>
     </row>
@@ -14135,20 +13559,20 @@
       <c r="A674" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B674" s="315"/>
+      <c r="B674" s="312"/>
       <c r="C674" s="111"/>
       <c r="D674" s="112"/>
-      <c r="E674" s="308"/>
+      <c r="E674" s="305"/>
       <c r="F674" s="112"/>
-      <c r="G674" s="308"/>
+      <c r="G674" s="305"/>
       <c r="H674" s="111"/>
       <c r="I674" s="111"/>
       <c r="J674" s="112"/>
-      <c r="K674" s="315"/>
+      <c r="K674" s="312"/>
       <c r="L674" s="111"/>
       <c r="M674" s="111"/>
       <c r="N674" s="112"/>
-      <c r="O674" s="308"/>
+      <c r="O674" s="305"/>
       <c r="P674" s="111"/>
       <c r="Q674" s="103"/>
     </row>
@@ -14156,20 +13580,20 @@
       <c r="A675" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B675" s="315"/>
+      <c r="B675" s="312"/>
       <c r="C675" s="111"/>
       <c r="D675" s="112"/>
-      <c r="E675" s="308"/>
+      <c r="E675" s="305"/>
       <c r="F675" s="112"/>
-      <c r="G675" s="308"/>
+      <c r="G675" s="305"/>
       <c r="H675" s="111"/>
       <c r="I675" s="111"/>
       <c r="J675" s="112"/>
-      <c r="K675" s="315"/>
+      <c r="K675" s="312"/>
       <c r="L675" s="111"/>
       <c r="M675" s="111"/>
       <c r="N675" s="112"/>
-      <c r="O675" s="308"/>
+      <c r="O675" s="305"/>
       <c r="P675" s="111"/>
       <c r="Q675" s="103"/>
     </row>
@@ -14199,20 +13623,20 @@
         <v>13</v>
       </c>
       <c r="B677" s="101"/>
-      <c r="C677" s="308"/>
+      <c r="C677" s="305"/>
       <c r="D677" s="112"/>
       <c r="E677" s="111"/>
       <c r="F677" s="112"/>
       <c r="G677" s="111"/>
-      <c r="H677" s="308"/>
-      <c r="I677" s="308"/>
+      <c r="H677" s="305"/>
+      <c r="I677" s="305"/>
       <c r="J677" s="112"/>
       <c r="K677" s="110"/>
-      <c r="L677" s="308"/>
-      <c r="M677" s="308"/>
+      <c r="L677" s="305"/>
+      <c r="M677" s="305"/>
       <c r="N677" s="112"/>
       <c r="O677" s="111"/>
-      <c r="P677" s="308"/>
+      <c r="P677" s="305"/>
       <c r="Q677" s="112"/>
     </row>
     <row r="678" spans="1:17">
@@ -14220,20 +13644,20 @@
         <v>12</v>
       </c>
       <c r="B678" s="101"/>
-      <c r="C678" s="308"/>
+      <c r="C678" s="305"/>
       <c r="D678" s="112"/>
       <c r="E678" s="111"/>
       <c r="F678" s="112"/>
       <c r="G678" s="111"/>
-      <c r="H678" s="308"/>
-      <c r="I678" s="308"/>
+      <c r="H678" s="305"/>
+      <c r="I678" s="305"/>
       <c r="J678" s="112"/>
       <c r="K678" s="110"/>
-      <c r="L678" s="308"/>
-      <c r="M678" s="308"/>
+      <c r="L678" s="305"/>
+      <c r="M678" s="305"/>
       <c r="N678" s="112"/>
       <c r="O678" s="111"/>
-      <c r="P678" s="308"/>
+      <c r="P678" s="305"/>
       <c r="Q678" s="112"/>
     </row>
     <row r="679" spans="1:17">
@@ -14241,20 +13665,20 @@
         <v>11</v>
       </c>
       <c r="B679" s="101"/>
-      <c r="C679" s="308"/>
+      <c r="C679" s="305"/>
       <c r="D679" s="112"/>
       <c r="E679" s="111"/>
       <c r="F679" s="112"/>
       <c r="G679" s="111"/>
-      <c r="H679" s="308"/>
-      <c r="I679" s="308"/>
+      <c r="H679" s="305"/>
+      <c r="I679" s="305"/>
       <c r="J679" s="112"/>
       <c r="K679" s="110"/>
-      <c r="L679" s="308"/>
-      <c r="M679" s="308"/>
+      <c r="L679" s="305"/>
+      <c r="M679" s="305"/>
       <c r="N679" s="112"/>
       <c r="O679" s="111"/>
-      <c r="P679" s="308"/>
+      <c r="P679" s="305"/>
       <c r="Q679" s="112"/>
     </row>
     <row r="680" spans="1:17">
@@ -14282,43 +13706,43 @@
       <c r="A681" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B681" s="315"/>
-      <c r="C681" s="308"/>
-      <c r="D681" s="309"/>
-      <c r="E681" s="308"/>
-      <c r="F681" s="309"/>
-      <c r="G681" s="308"/>
-      <c r="H681" s="308"/>
-      <c r="I681" s="308"/>
-      <c r="J681" s="309"/>
-      <c r="K681" s="315"/>
-      <c r="L681" s="308"/>
-      <c r="M681" s="308"/>
-      <c r="N681" s="309"/>
-      <c r="O681" s="308"/>
-      <c r="P681" s="308"/>
-      <c r="Q681" s="309"/>
+      <c r="B681" s="312"/>
+      <c r="C681" s="305"/>
+      <c r="D681" s="306"/>
+      <c r="E681" s="305"/>
+      <c r="F681" s="306"/>
+      <c r="G681" s="305"/>
+      <c r="H681" s="305"/>
+      <c r="I681" s="305"/>
+      <c r="J681" s="306"/>
+      <c r="K681" s="312"/>
+      <c r="L681" s="305"/>
+      <c r="M681" s="305"/>
+      <c r="N681" s="306"/>
+      <c r="O681" s="305"/>
+      <c r="P681" s="305"/>
+      <c r="Q681" s="306"/>
     </row>
     <row r="682" spans="1:17">
       <c r="A682" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B682" s="315"/>
-      <c r="C682" s="308"/>
-      <c r="D682" s="309"/>
-      <c r="E682" s="308"/>
-      <c r="F682" s="309"/>
-      <c r="G682" s="308"/>
-      <c r="H682" s="308"/>
-      <c r="I682" s="308"/>
-      <c r="J682" s="309"/>
-      <c r="K682" s="315"/>
-      <c r="L682" s="308"/>
-      <c r="M682" s="308"/>
-      <c r="N682" s="309"/>
-      <c r="O682" s="308"/>
-      <c r="P682" s="308"/>
-      <c r="Q682" s="309"/>
+      <c r="B682" s="312"/>
+      <c r="C682" s="305"/>
+      <c r="D682" s="306"/>
+      <c r="E682" s="305"/>
+      <c r="F682" s="306"/>
+      <c r="G682" s="305"/>
+      <c r="H682" s="305"/>
+      <c r="I682" s="305"/>
+      <c r="J682" s="306"/>
+      <c r="K682" s="312"/>
+      <c r="L682" s="305"/>
+      <c r="M682" s="305"/>
+      <c r="N682" s="306"/>
+      <c r="O682" s="305"/>
+      <c r="P682" s="305"/>
+      <c r="Q682" s="306"/>
     </row>
     <row r="683" spans="1:17">
       <c r="A683" s="9" t="s">
@@ -14366,22 +13790,22 @@
       <c r="A685" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B685" s="315"/>
-      <c r="C685" s="308"/>
-      <c r="D685" s="309"/>
-      <c r="E685" s="308"/>
-      <c r="F685" s="309"/>
-      <c r="G685" s="308"/>
-      <c r="H685" s="308"/>
-      <c r="I685" s="308"/>
-      <c r="J685" s="309"/>
-      <c r="K685" s="315"/>
-      <c r="L685" s="308"/>
-      <c r="M685" s="308"/>
-      <c r="N685" s="309"/>
-      <c r="O685" s="308"/>
-      <c r="P685" s="308"/>
-      <c r="Q685" s="309"/>
+      <c r="B685" s="312"/>
+      <c r="C685" s="305"/>
+      <c r="D685" s="306"/>
+      <c r="E685" s="305"/>
+      <c r="F685" s="306"/>
+      <c r="G685" s="305"/>
+      <c r="H685" s="305"/>
+      <c r="I685" s="305"/>
+      <c r="J685" s="306"/>
+      <c r="K685" s="312"/>
+      <c r="L685" s="305"/>
+      <c r="M685" s="305"/>
+      <c r="N685" s="306"/>
+      <c r="O685" s="305"/>
+      <c r="P685" s="305"/>
+      <c r="Q685" s="306"/>
     </row>
     <row r="686" spans="1:17">
       <c r="A686" s="9" t="s">
@@ -14429,22 +13853,22 @@
       <c r="A688" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B688" s="315"/>
-      <c r="C688" s="308"/>
-      <c r="D688" s="309"/>
-      <c r="E688" s="308"/>
-      <c r="F688" s="309"/>
-      <c r="G688" s="308"/>
-      <c r="H688" s="308"/>
-      <c r="I688" s="308"/>
-      <c r="J688" s="309"/>
-      <c r="K688" s="315"/>
-      <c r="L688" s="308"/>
-      <c r="M688" s="308"/>
-      <c r="N688" s="309"/>
-      <c r="O688" s="308"/>
-      <c r="P688" s="308"/>
-      <c r="Q688" s="309"/>
+      <c r="B688" s="312"/>
+      <c r="C688" s="305"/>
+      <c r="D688" s="306"/>
+      <c r="E688" s="305"/>
+      <c r="F688" s="306"/>
+      <c r="G688" s="305"/>
+      <c r="H688" s="305"/>
+      <c r="I688" s="305"/>
+      <c r="J688" s="306"/>
+      <c r="K688" s="312"/>
+      <c r="L688" s="305"/>
+      <c r="M688" s="305"/>
+      <c r="N688" s="306"/>
+      <c r="O688" s="305"/>
+      <c r="P688" s="305"/>
+      <c r="Q688" s="306"/>
     </row>
     <row r="689" spans="1:17">
       <c r="A689" s="9" t="s">
@@ -14471,43 +13895,43 @@
       <c r="A690" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B690" s="315"/>
-      <c r="C690" s="308"/>
-      <c r="D690" s="309"/>
-      <c r="E690" s="308"/>
-      <c r="F690" s="309"/>
-      <c r="G690" s="308"/>
-      <c r="H690" s="308"/>
-      <c r="I690" s="308"/>
-      <c r="J690" s="309"/>
-      <c r="K690" s="315"/>
-      <c r="L690" s="308"/>
-      <c r="M690" s="308"/>
-      <c r="N690" s="309"/>
-      <c r="O690" s="308"/>
-      <c r="P690" s="308"/>
-      <c r="Q690" s="309"/>
+      <c r="B690" s="312"/>
+      <c r="C690" s="305"/>
+      <c r="D690" s="306"/>
+      <c r="E690" s="305"/>
+      <c r="F690" s="306"/>
+      <c r="G690" s="305"/>
+      <c r="H690" s="305"/>
+      <c r="I690" s="305"/>
+      <c r="J690" s="306"/>
+      <c r="K690" s="312"/>
+      <c r="L690" s="305"/>
+      <c r="M690" s="305"/>
+      <c r="N690" s="306"/>
+      <c r="O690" s="305"/>
+      <c r="P690" s="305"/>
+      <c r="Q690" s="306"/>
     </row>
     <row r="691" spans="1:17">
       <c r="A691" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B691" s="315"/>
-      <c r="C691" s="308"/>
-      <c r="D691" s="309"/>
-      <c r="E691" s="308"/>
-      <c r="F691" s="309"/>
-      <c r="G691" s="308"/>
-      <c r="H691" s="308"/>
-      <c r="I691" s="308"/>
-      <c r="J691" s="309"/>
-      <c r="K691" s="315"/>
-      <c r="L691" s="308"/>
-      <c r="M691" s="308"/>
-      <c r="N691" s="309"/>
-      <c r="O691" s="308"/>
-      <c r="P691" s="308"/>
-      <c r="Q691" s="309"/>
+      <c r="B691" s="312"/>
+      <c r="C691" s="305"/>
+      <c r="D691" s="306"/>
+      <c r="E691" s="305"/>
+      <c r="F691" s="306"/>
+      <c r="G691" s="305"/>
+      <c r="H691" s="305"/>
+      <c r="I691" s="305"/>
+      <c r="J691" s="306"/>
+      <c r="K691" s="312"/>
+      <c r="L691" s="305"/>
+      <c r="M691" s="305"/>
+      <c r="N691" s="306"/>
+      <c r="O691" s="305"/>
+      <c r="P691" s="305"/>
+      <c r="Q691" s="306"/>
     </row>
     <row r="692" spans="1:17">
       <c r="A692" s="9" t="s">
@@ -14534,43 +13958,43 @@
       <c r="A693" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B693" s="315"/>
-      <c r="C693" s="308"/>
-      <c r="D693" s="309"/>
-      <c r="E693" s="308"/>
-      <c r="F693" s="309"/>
-      <c r="G693" s="308"/>
-      <c r="H693" s="308"/>
-      <c r="I693" s="308"/>
-      <c r="J693" s="309"/>
-      <c r="K693" s="315"/>
-      <c r="L693" s="308"/>
-      <c r="M693" s="308"/>
-      <c r="N693" s="309"/>
-      <c r="O693" s="308"/>
-      <c r="P693" s="308"/>
-      <c r="Q693" s="309"/>
+      <c r="B693" s="312"/>
+      <c r="C693" s="305"/>
+      <c r="D693" s="306"/>
+      <c r="E693" s="305"/>
+      <c r="F693" s="306"/>
+      <c r="G693" s="305"/>
+      <c r="H693" s="305"/>
+      <c r="I693" s="305"/>
+      <c r="J693" s="306"/>
+      <c r="K693" s="312"/>
+      <c r="L693" s="305"/>
+      <c r="M693" s="305"/>
+      <c r="N693" s="306"/>
+      <c r="O693" s="305"/>
+      <c r="P693" s="305"/>
+      <c r="Q693" s="306"/>
     </row>
     <row r="694" spans="1:17">
       <c r="A694" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B694" s="315"/>
-      <c r="C694" s="308"/>
-      <c r="D694" s="309"/>
-      <c r="E694" s="308"/>
-      <c r="F694" s="309"/>
-      <c r="G694" s="308"/>
-      <c r="H694" s="308"/>
-      <c r="I694" s="308"/>
-      <c r="J694" s="309"/>
-      <c r="K694" s="315"/>
-      <c r="L694" s="308"/>
-      <c r="M694" s="308"/>
-      <c r="N694" s="309"/>
-      <c r="O694" s="308"/>
-      <c r="P694" s="308"/>
-      <c r="Q694" s="309"/>
+      <c r="B694" s="312"/>
+      <c r="C694" s="305"/>
+      <c r="D694" s="306"/>
+      <c r="E694" s="305"/>
+      <c r="F694" s="306"/>
+      <c r="G694" s="305"/>
+      <c r="H694" s="305"/>
+      <c r="I694" s="305"/>
+      <c r="J694" s="306"/>
+      <c r="K694" s="312"/>
+      <c r="L694" s="305"/>
+      <c r="M694" s="305"/>
+      <c r="N694" s="306"/>
+      <c r="O694" s="305"/>
+      <c r="P694" s="305"/>
+      <c r="Q694" s="306"/>
     </row>
     <row r="695" spans="1:17">
       <c r="A695" s="9" t="s">
@@ -14597,43 +14021,43 @@
       <c r="A696" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B696" s="315"/>
-      <c r="C696" s="308"/>
-      <c r="D696" s="309"/>
-      <c r="E696" s="308"/>
-      <c r="F696" s="309"/>
-      <c r="G696" s="308"/>
-      <c r="H696" s="308"/>
-      <c r="I696" s="308"/>
-      <c r="J696" s="309"/>
-      <c r="K696" s="315"/>
-      <c r="L696" s="308"/>
-      <c r="M696" s="308"/>
-      <c r="N696" s="309"/>
-      <c r="O696" s="308"/>
-      <c r="P696" s="308"/>
-      <c r="Q696" s="309"/>
+      <c r="B696" s="312"/>
+      <c r="C696" s="305"/>
+      <c r="D696" s="306"/>
+      <c r="E696" s="305"/>
+      <c r="F696" s="306"/>
+      <c r="G696" s="305"/>
+      <c r="H696" s="305"/>
+      <c r="I696" s="305"/>
+      <c r="J696" s="306"/>
+      <c r="K696" s="312"/>
+      <c r="L696" s="305"/>
+      <c r="M696" s="305"/>
+      <c r="N696" s="306"/>
+      <c r="O696" s="305"/>
+      <c r="P696" s="305"/>
+      <c r="Q696" s="306"/>
     </row>
     <row r="697" spans="1:17">
       <c r="A697" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B697" s="315"/>
-      <c r="C697" s="308"/>
-      <c r="D697" s="309"/>
-      <c r="E697" s="308"/>
-      <c r="F697" s="309"/>
-      <c r="G697" s="308"/>
-      <c r="H697" s="308"/>
-      <c r="I697" s="308"/>
-      <c r="J697" s="309"/>
-      <c r="K697" s="315"/>
-      <c r="L697" s="308"/>
-      <c r="M697" s="308"/>
-      <c r="N697" s="309"/>
-      <c r="O697" s="308"/>
-      <c r="P697" s="308"/>
-      <c r="Q697" s="309"/>
+      <c r="B697" s="312"/>
+      <c r="C697" s="305"/>
+      <c r="D697" s="306"/>
+      <c r="E697" s="305"/>
+      <c r="F697" s="306"/>
+      <c r="G697" s="305"/>
+      <c r="H697" s="305"/>
+      <c r="I697" s="305"/>
+      <c r="J697" s="306"/>
+      <c r="K697" s="312"/>
+      <c r="L697" s="305"/>
+      <c r="M697" s="305"/>
+      <c r="N697" s="306"/>
+      <c r="O697" s="305"/>
+      <c r="P697" s="305"/>
+      <c r="Q697" s="306"/>
     </row>
     <row r="698" spans="1:17">
       <c r="A698" s="9" t="s">
@@ -14660,43 +14084,43 @@
       <c r="A699" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B699" s="315"/>
-      <c r="C699" s="308"/>
-      <c r="D699" s="309"/>
-      <c r="E699" s="308"/>
-      <c r="F699" s="309"/>
-      <c r="G699" s="308"/>
-      <c r="H699" s="308"/>
-      <c r="I699" s="308"/>
-      <c r="J699" s="309"/>
-      <c r="K699" s="315"/>
-      <c r="L699" s="308"/>
-      <c r="M699" s="308"/>
-      <c r="N699" s="309"/>
-      <c r="O699" s="308"/>
-      <c r="P699" s="308"/>
-      <c r="Q699" s="309"/>
+      <c r="B699" s="312"/>
+      <c r="C699" s="305"/>
+      <c r="D699" s="306"/>
+      <c r="E699" s="305"/>
+      <c r="F699" s="306"/>
+      <c r="G699" s="305"/>
+      <c r="H699" s="305"/>
+      <c r="I699" s="305"/>
+      <c r="J699" s="306"/>
+      <c r="K699" s="312"/>
+      <c r="L699" s="305"/>
+      <c r="M699" s="305"/>
+      <c r="N699" s="306"/>
+      <c r="O699" s="305"/>
+      <c r="P699" s="305"/>
+      <c r="Q699" s="306"/>
     </row>
     <row r="700" spans="1:17" ht="16" thickBot="1">
       <c r="A700" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B700" s="316"/>
-      <c r="C700" s="317"/>
-      <c r="D700" s="318"/>
-      <c r="E700" s="317"/>
-      <c r="F700" s="318"/>
-      <c r="G700" s="317"/>
-      <c r="H700" s="317"/>
-      <c r="I700" s="317"/>
-      <c r="J700" s="318"/>
-      <c r="K700" s="316"/>
-      <c r="L700" s="317"/>
-      <c r="M700" s="317"/>
-      <c r="N700" s="318"/>
-      <c r="O700" s="317"/>
-      <c r="P700" s="317"/>
-      <c r="Q700" s="318"/>
+      <c r="B700" s="313"/>
+      <c r="C700" s="314"/>
+      <c r="D700" s="315"/>
+      <c r="E700" s="314"/>
+      <c r="F700" s="315"/>
+      <c r="G700" s="314"/>
+      <c r="H700" s="314"/>
+      <c r="I700" s="314"/>
+      <c r="J700" s="315"/>
+      <c r="K700" s="313"/>
+      <c r="L700" s="314"/>
+      <c r="M700" s="314"/>
+      <c r="N700" s="315"/>
+      <c r="O700" s="314"/>
+      <c r="P700" s="314"/>
+      <c r="Q700" s="315"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -14714,8 +14138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14725,249 +14149,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" thickBot="1">
-      <c r="A1" s="277" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="278">
+      <c r="A1" s="274" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="275">
         <v>1</v>
       </c>
-      <c r="C1" s="279"/>
-      <c r="D1" s="278">
+      <c r="C1" s="276"/>
+      <c r="D1" s="275">
         <v>2</v>
       </c>
-      <c r="E1" s="280"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="278">
+      <c r="E1" s="277"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="275">
         <v>3</v>
       </c>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="278">
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="275">
         <v>4</v>
       </c>
-      <c r="L1" s="280"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="280">
+      <c r="L1" s="277"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277">
         <v>5</v>
       </c>
-      <c r="O1" s="279"/>
+      <c r="O1" s="276"/>
     </row>
     <row r="2" spans="1:18" ht="19" thickBot="1">
-      <c r="A2" s="281" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="282">
+      <c r="A2" s="278" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="279">
         <v>1</v>
       </c>
-      <c r="C2" s="283">
+      <c r="C2" s="280">
         <v>2</v>
       </c>
-      <c r="D2" s="282">
+      <c r="D2" s="279">
         <v>1</v>
       </c>
-      <c r="E2" s="284">
+      <c r="E2" s="281">
         <v>2</v>
       </c>
-      <c r="F2" s="283">
+      <c r="F2" s="280">
         <v>3</v>
       </c>
-      <c r="G2" s="282">
+      <c r="G2" s="279">
         <v>1</v>
       </c>
-      <c r="H2" s="284">
+      <c r="H2" s="281">
         <v>2</v>
       </c>
-      <c r="I2" s="284">
+      <c r="I2" s="281">
         <v>3</v>
       </c>
-      <c r="J2" s="283">
+      <c r="J2" s="280">
         <v>4</v>
       </c>
-      <c r="K2" s="282">
+      <c r="K2" s="279">
         <v>1</v>
       </c>
-      <c r="L2" s="284">
+      <c r="L2" s="281">
         <v>2</v>
       </c>
-      <c r="M2" s="283">
+      <c r="M2" s="280">
         <v>3</v>
       </c>
-      <c r="N2" s="284">
+      <c r="N2" s="281">
         <v>1</v>
       </c>
-      <c r="O2" s="283">
+      <c r="O2" s="280">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="19" thickBot="1">
-      <c r="A3" s="285" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="286">
+      <c r="A3" s="282" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="283">
         <v>54</v>
       </c>
-      <c r="C3" s="287">
+      <c r="C3" s="284">
         <v>81</v>
       </c>
-      <c r="D3" s="286">
+      <c r="D3" s="283">
         <v>68</v>
       </c>
-      <c r="E3" s="288">
+      <c r="E3" s="285">
         <v>54</v>
       </c>
-      <c r="F3" s="287">
+      <c r="F3" s="284">
         <v>81</v>
       </c>
-      <c r="G3" s="286">
+      <c r="G3" s="283">
         <v>68</v>
       </c>
-      <c r="H3" s="288">
+      <c r="H3" s="285">
         <v>47</v>
       </c>
-      <c r="I3" s="288">
+      <c r="I3" s="285">
         <v>81</v>
       </c>
-      <c r="J3" s="287">
+      <c r="J3" s="284">
         <v>72</v>
       </c>
-      <c r="K3" s="286">
+      <c r="K3" s="283">
         <v>54</v>
       </c>
-      <c r="L3" s="288">
+      <c r="L3" s="285">
         <v>68</v>
       </c>
-      <c r="M3" s="287">
+      <c r="M3" s="284">
         <v>81</v>
       </c>
-      <c r="N3" s="288">
+      <c r="N3" s="285">
         <v>68</v>
       </c>
-      <c r="O3" s="287">
+      <c r="O3" s="284">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16" thickBot="1">
-      <c r="A4" s="276" t="s">
+      <c r="A4" s="273" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="271"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="334" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="292"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="264" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="256" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="275"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="275"/>
-      <c r="M4" s="275"/>
-      <c r="N4" s="275"/>
-      <c r="O4" s="274"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="259" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="289"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="264" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="256" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="265" t="s">
-        <v>97</v>
-      </c>
       <c r="G5" s="264" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H5" s="256" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I5" s="256" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="290"/>
+        <v>83</v>
+      </c>
+      <c r="J5" s="287"/>
       <c r="K5" s="264" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="L5" s="256" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M5" s="265" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="N5" s="266" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="290"/>
+        <v>86</v>
+      </c>
+      <c r="O5" s="287"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="259" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="290"/>
+        <v>90</v>
+      </c>
+      <c r="B6" s="292"/>
+      <c r="C6" s="287"/>
       <c r="D6" s="264" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E6" s="256" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F6" s="265" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G6" s="264" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H6" s="256" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I6" s="256" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="290"/>
+        <v>91</v>
+      </c>
+      <c r="J6" s="287"/>
       <c r="K6" s="264" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L6" s="256" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="M6" s="265" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="N6" s="266" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="290"/>
+        <v>86</v>
+      </c>
+      <c r="O6" s="287"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="259" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="248"/>
+        <v>98</v>
+      </c>
+      <c r="B7" s="293"/>
       <c r="C7" s="249"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
+      <c r="D7" s="333" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="242" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="244" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="243" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="242" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="242" t="s">
+        <v>82</v>
+      </c>
       <c r="J7" s="249"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="244"/>
-      <c r="N7" s="258"/>
+      <c r="K7" s="243" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="242" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="244" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="258" t="s">
+        <v>86</v>
+      </c>
       <c r="O7" s="249"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="259" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="248"/>
+        <v>97</v>
+      </c>
+      <c r="B8" s="293"/>
       <c r="C8" s="249"/>
       <c r="D8" s="243"/>
       <c r="E8" s="242"/>
@@ -14984,9 +14428,9 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="259" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="248"/>
+        <v>99</v>
+      </c>
+      <c r="B9" s="293"/>
       <c r="C9" s="249"/>
       <c r="D9" s="243"/>
       <c r="E9" s="242"/>
@@ -15003,31 +14447,31 @@
     </row>
     <row r="10" spans="1:18" ht="16" thickBot="1">
       <c r="A10" s="259" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="292"/>
+        <v>100</v>
+      </c>
+      <c r="B10" s="295"/>
+      <c r="C10" s="289"/>
       <c r="D10" s="261"/>
       <c r="E10" s="257"/>
       <c r="F10" s="262"/>
       <c r="G10" s="261"/>
       <c r="H10" s="257"/>
       <c r="I10" s="257"/>
-      <c r="J10" s="292"/>
+      <c r="J10" s="289"/>
       <c r="K10" s="261"/>
       <c r="L10" s="257"/>
       <c r="M10" s="262"/>
       <c r="N10" s="263"/>
-      <c r="O10" s="292"/>
+      <c r="O10" s="289"/>
       <c r="Q10" s="255" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="R10" s="255" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16" thickBot="1">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="335" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="47"/>
@@ -15045,93 +14489,93 @@
       <c r="N11" s="47"/>
       <c r="O11" s="48"/>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="259" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="289"/>
-      <c r="C12" s="290"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="293"/>
-      <c r="F12" s="290"/>
+        <v>71</v>
+      </c>
+      <c r="B12" s="292"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="287"/>
       <c r="G12" s="264" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H12" s="256" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I12" s="256" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J12" s="265" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K12" s="264" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="L12" s="256" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M12" s="265" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="295"/>
-      <c r="O12" s="290"/>
+        <v>86</v>
+      </c>
+      <c r="N12" s="292"/>
+      <c r="O12" s="287"/>
       <c r="Q12" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="259" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="289"/>
-      <c r="C13" s="290"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="293"/>
-      <c r="F13" s="290"/>
+        <v>90</v>
+      </c>
+      <c r="B13" s="292"/>
+      <c r="C13" s="287"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="287"/>
       <c r="G13" s="264" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H13" s="256" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I13" s="256" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J13" s="265" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K13" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="L13" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M13" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="295"/>
-      <c r="O13" s="290"/>
+        <v>82</v>
+      </c>
+      <c r="N13" s="292"/>
+      <c r="O13" s="287"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="259" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="289"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="293"/>
-      <c r="F14" s="290"/>
+        <v>98</v>
+      </c>
+      <c r="B14" s="292"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="286"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="287"/>
       <c r="G14" s="264"/>
       <c r="H14" s="256"/>
       <c r="I14" s="256"/>
@@ -15139,21 +14583,21 @@
       <c r="K14" s="264"/>
       <c r="L14" s="256"/>
       <c r="M14" s="265"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="290"/>
+      <c r="N14" s="292"/>
+      <c r="O14" s="287"/>
       <c r="Q14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="259" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="289"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="293"/>
-      <c r="F15" s="290"/>
+        <v>97</v>
+      </c>
+      <c r="B15" s="292"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="286"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="287"/>
       <c r="G15" s="264"/>
       <c r="H15" s="256"/>
       <c r="I15" s="256"/>
@@ -15161,14 +14605,14 @@
       <c r="K15" s="264"/>
       <c r="L15" s="256"/>
       <c r="M15" s="265"/>
-      <c r="N15" s="295"/>
-      <c r="O15" s="290"/>
+      <c r="N15" s="292"/>
+      <c r="O15" s="287"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="248"/>
+      <c r="A16" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="293"/>
       <c r="C16" s="249"/>
       <c r="D16" s="248"/>
       <c r="E16" s="250"/>
@@ -15180,18 +14624,18 @@
       <c r="K16" s="243"/>
       <c r="L16" s="242"/>
       <c r="M16" s="244"/>
-      <c r="N16" s="296"/>
+      <c r="N16" s="293"/>
       <c r="O16" s="249"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
-      <c r="A17" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="291"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="292"/>
+      <c r="A17" s="259" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="295"/>
+      <c r="C17" s="289"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="289"/>
       <c r="G17" s="261"/>
       <c r="H17" s="257"/>
       <c r="I17" s="257"/>
@@ -15199,127 +14643,127 @@
       <c r="K17" s="261"/>
       <c r="L17" s="257"/>
       <c r="M17" s="262"/>
-      <c r="N17" s="298"/>
-      <c r="O17" s="292"/>
+      <c r="N17" s="295"/>
+      <c r="O17" s="289"/>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
-      <c r="A18" s="268" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269"/>
-      <c r="J18" s="269"/>
-      <c r="K18" s="269"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="269"/>
-      <c r="N18" s="269"/>
-      <c r="O18" s="270"/>
+      <c r="A18" s="337" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="267"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="267"/>
+      <c r="N18" s="267"/>
+      <c r="O18" s="268"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="259" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="264" t="s">
-        <v>103</v>
+        <v>71</v>
+      </c>
+      <c r="B19" s="266" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D19" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E19" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F19" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G19" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H19" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I19" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J19" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K19" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="L19" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M19" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="N19" s="266" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O19" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="259" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="264" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="B20" s="266" t="s">
+        <v>86</v>
       </c>
       <c r="C20" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D20" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E20" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F20" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G20" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H20" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I20" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J20" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K20" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="L20" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M20" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="N20" s="266" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O20" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="259" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="243"/>
+        <v>98</v>
+      </c>
+      <c r="B21" s="258"/>
       <c r="C21" s="244"/>
       <c r="D21" s="243"/>
       <c r="E21" s="242"/>
@@ -15336,9 +14780,9 @@
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="259" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="261"/>
+        <v>97</v>
+      </c>
+      <c r="B22" s="263"/>
       <c r="C22" s="262"/>
       <c r="D22" s="261"/>
       <c r="E22" s="257"/>
@@ -15354,102 +14798,102 @@
       <c r="O22" s="262"/>
     </row>
     <row r="23" spans="1:15" ht="16" thickBot="1">
-      <c r="A23" s="271" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="272"/>
-      <c r="C23" s="272"/>
-      <c r="D23" s="272"/>
-      <c r="E23" s="272"/>
-      <c r="F23" s="272"/>
-      <c r="G23" s="272"/>
-      <c r="H23" s="272"/>
-      <c r="I23" s="272"/>
-      <c r="J23" s="272"/>
-      <c r="K23" s="272"/>
-      <c r="L23" s="272"/>
-      <c r="M23" s="272"/>
-      <c r="N23" s="272"/>
-      <c r="O23" s="273"/>
+      <c r="A23" s="338" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="269"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="269"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="269"/>
+      <c r="H23" s="269"/>
+      <c r="I23" s="269"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="269"/>
+      <c r="L23" s="269"/>
+      <c r="M23" s="269"/>
+      <c r="N23" s="269"/>
+      <c r="O23" s="270"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="259" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="289"/>
-      <c r="C24" s="290"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="293"/>
+        <v>71</v>
+      </c>
+      <c r="B24" s="292"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="290"/>
       <c r="F24" s="265" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G24" s="264" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H24" s="256" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I24" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J24" s="265" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K24" s="264" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="L24" s="256" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M24" s="265" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="295"/>
-      <c r="O24" s="290"/>
+        <v>82</v>
+      </c>
+      <c r="N24" s="292"/>
+      <c r="O24" s="287"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="259" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="289"/>
-      <c r="C25" s="290"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="293"/>
+        <v>90</v>
+      </c>
+      <c r="B25" s="292"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="290"/>
       <c r="F25" s="265" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G25" s="264" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H25" s="256" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="I25" s="256" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J25" s="265" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K25" s="264" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="L25" s="256" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M25" s="265" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="295"/>
-      <c r="O25" s="290"/>
+        <v>86</v>
+      </c>
+      <c r="N25" s="292"/>
+      <c r="O25" s="287"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="259" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="289"/>
-      <c r="C26" s="290"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="293"/>
+        <v>98</v>
+      </c>
+      <c r="B26" s="292"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="290"/>
       <c r="F26" s="265"/>
       <c r="G26" s="264"/>
       <c r="H26" s="256"/>
@@ -15458,17 +14902,17 @@
       <c r="K26" s="264"/>
       <c r="L26" s="256"/>
       <c r="M26" s="265"/>
-      <c r="N26" s="295"/>
-      <c r="O26" s="290"/>
+      <c r="N26" s="292"/>
+      <c r="O26" s="287"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="259" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="289"/>
-      <c r="C27" s="290"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="293"/>
+        <v>97</v>
+      </c>
+      <c r="B27" s="292"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="290"/>
       <c r="F27" s="265"/>
       <c r="G27" s="264"/>
       <c r="H27" s="256"/>
@@ -15477,14 +14921,14 @@
       <c r="K27" s="264"/>
       <c r="L27" s="256"/>
       <c r="M27" s="265"/>
-      <c r="N27" s="295"/>
-      <c r="O27" s="290"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="287"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="259" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="248"/>
+        <v>99</v>
+      </c>
+      <c r="B28" s="293"/>
       <c r="C28" s="249"/>
       <c r="D28" s="248"/>
       <c r="E28" s="250"/>
@@ -15496,14 +14940,14 @@
       <c r="K28" s="243"/>
       <c r="L28" s="242"/>
       <c r="M28" s="244"/>
-      <c r="N28" s="296"/>
+      <c r="N28" s="293"/>
       <c r="O28" s="249"/>
     </row>
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="260" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="251"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="294"/>
       <c r="C29" s="252"/>
       <c r="D29" s="251"/>
       <c r="E29" s="253"/>
@@ -15515,23 +14959,24 @@
       <c r="K29" s="246"/>
       <c r="L29" s="247"/>
       <c r="M29" s="245"/>
-      <c r="N29" s="297"/>
+      <c r="N29" s="294"/>
       <c r="O29" s="252"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="3140" windowWidth="22120" windowHeight="18320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Rhythm Map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="99">
   <si>
     <t>Stage 1-1</t>
   </si>
@@ -302,15 +302,6 @@
   </si>
   <si>
     <t>subparticular</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>even</t>
   </si>
   <si>
     <t>Pressure σ</t>
@@ -2291,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U700"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="L259" sqref="L259"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="L263" sqref="L263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7563,9 +7554,7 @@
       <c r="H261" s="205"/>
       <c r="I261" s="205"/>
       <c r="J261" s="206"/>
-      <c r="K261" t="s">
-        <v>94</v>
-      </c>
+      <c r="K261"/>
       <c r="L261"/>
       <c r="M261"/>
       <c r="N261"/>
@@ -7586,9 +7575,7 @@
       <c r="H262" s="205"/>
       <c r="I262" s="205"/>
       <c r="J262" s="206"/>
-      <c r="K262" t="s">
-        <v>96</v>
-      </c>
+      <c r="K262"/>
       <c r="L262"/>
       <c r="M262"/>
       <c r="N262"/>
@@ -7609,9 +7596,7 @@
       <c r="H263" s="205"/>
       <c r="I263" s="205"/>
       <c r="J263" s="206"/>
-      <c r="K263" t="s">
-        <v>95</v>
-      </c>
+      <c r="K263"/>
       <c r="L263"/>
       <c r="M263"/>
       <c r="N263"/>
@@ -9157,14 +9142,14 @@
       </c>
       <c r="B363" s="142"/>
       <c r="C363" s="310"/>
-      <c r="D363" s="310"/>
+      <c r="D363" s="143"/>
       <c r="E363" s="311"/>
       <c r="F363" s="143"/>
       <c r="G363" s="310"/>
-      <c r="H363" s="311"/>
-      <c r="I363" s="142"/>
+      <c r="H363" s="144"/>
+      <c r="I363" s="319"/>
       <c r="J363" s="143"/>
-      <c r="K363" s="144"/>
+      <c r="K363" s="311"/>
       <c r="L363" s="310"/>
       <c r="M363" s="311"/>
       <c r="N363"/>
@@ -9175,14 +9160,14 @@
       </c>
       <c r="B364" s="142"/>
       <c r="C364" s="310"/>
-      <c r="D364" s="310"/>
+      <c r="D364" s="143"/>
       <c r="E364" s="311"/>
       <c r="F364" s="143"/>
       <c r="G364" s="310"/>
-      <c r="H364" s="311"/>
-      <c r="I364" s="142"/>
+      <c r="H364" s="144"/>
+      <c r="I364" s="319"/>
       <c r="J364" s="143"/>
-      <c r="K364" s="144"/>
+      <c r="K364" s="311"/>
       <c r="L364" s="310"/>
       <c r="M364" s="311"/>
       <c r="N364"/>
@@ -9193,14 +9178,14 @@
       </c>
       <c r="B365" s="142"/>
       <c r="C365" s="310"/>
-      <c r="D365" s="310"/>
+      <c r="D365" s="143"/>
       <c r="E365" s="311"/>
       <c r="F365" s="143"/>
       <c r="G365" s="310"/>
-      <c r="H365" s="311"/>
-      <c r="I365" s="142"/>
+      <c r="H365" s="144"/>
+      <c r="I365" s="319"/>
       <c r="J365" s="143"/>
-      <c r="K365" s="144"/>
+      <c r="K365" s="311"/>
       <c r="L365" s="310"/>
       <c r="M365" s="311"/>
       <c r="N365"/>
@@ -9227,16 +9212,16 @@
       <c r="A367" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B367" s="142"/>
+      <c r="B367" s="319"/>
       <c r="C367" s="143"/>
       <c r="D367" s="310"/>
-      <c r="E367" s="311"/>
+      <c r="E367" s="144"/>
       <c r="F367" s="310"/>
       <c r="G367" s="143"/>
       <c r="H367" s="311"/>
       <c r="I367" s="142"/>
-      <c r="J367" s="143"/>
-      <c r="K367" s="123"/>
+      <c r="J367" s="310"/>
+      <c r="K367" s="144"/>
       <c r="L367" s="310"/>
       <c r="M367" s="311"/>
       <c r="N367"/>
@@ -9245,16 +9230,16 @@
       <c r="A368" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="142"/>
+      <c r="B368" s="319"/>
       <c r="C368" s="143"/>
       <c r="D368" s="310"/>
-      <c r="E368" s="311"/>
+      <c r="E368" s="144"/>
       <c r="F368" s="310"/>
       <c r="G368" s="143"/>
       <c r="H368" s="311"/>
       <c r="I368" s="142"/>
-      <c r="J368" s="143"/>
-      <c r="K368" s="123"/>
+      <c r="J368" s="310"/>
+      <c r="K368" s="144"/>
       <c r="L368" s="310"/>
       <c r="M368" s="311"/>
       <c r="N368"/>
@@ -9263,16 +9248,16 @@
       <c r="A369" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B369" s="142"/>
+      <c r="B369" s="319"/>
       <c r="C369" s="143"/>
       <c r="D369" s="310"/>
-      <c r="E369" s="311"/>
+      <c r="E369" s="144"/>
       <c r="F369" s="310"/>
       <c r="G369" s="143"/>
       <c r="H369" s="311"/>
       <c r="I369" s="142"/>
-      <c r="J369" s="143"/>
-      <c r="K369" s="123"/>
+      <c r="J369" s="310"/>
+      <c r="K369" s="144"/>
       <c r="L369" s="310"/>
       <c r="M369" s="311"/>
       <c r="N369"/>
@@ -9301,12 +9286,12 @@
       </c>
       <c r="B371" s="142"/>
       <c r="C371" s="143"/>
-      <c r="D371" s="143"/>
+      <c r="D371" s="310"/>
       <c r="E371" s="311"/>
-      <c r="F371" s="310"/>
-      <c r="G371" s="310"/>
-      <c r="H371" s="144"/>
-      <c r="I371" s="142"/>
+      <c r="F371" s="143"/>
+      <c r="G371" s="143"/>
+      <c r="H371" s="311"/>
+      <c r="I371" s="319"/>
       <c r="J371" s="143"/>
       <c r="K371" s="144"/>
       <c r="L371" s="310"/>
@@ -9319,12 +9304,12 @@
       </c>
       <c r="B372" s="142"/>
       <c r="C372" s="143"/>
-      <c r="D372" s="143"/>
+      <c r="D372" s="310"/>
       <c r="E372" s="311"/>
-      <c r="F372" s="310"/>
-      <c r="G372" s="310"/>
-      <c r="H372" s="144"/>
-      <c r="I372" s="142"/>
+      <c r="F372" s="143"/>
+      <c r="G372" s="143"/>
+      <c r="H372" s="311"/>
+      <c r="I372" s="319"/>
       <c r="J372" s="143"/>
       <c r="K372" s="144"/>
       <c r="L372" s="310"/>
@@ -9337,12 +9322,12 @@
       </c>
       <c r="B373" s="142"/>
       <c r="C373" s="143"/>
-      <c r="D373" s="143"/>
+      <c r="D373" s="310"/>
       <c r="E373" s="311"/>
-      <c r="F373" s="310"/>
-      <c r="G373" s="310"/>
-      <c r="H373" s="144"/>
-      <c r="I373" s="142"/>
+      <c r="F373" s="143"/>
+      <c r="G373" s="143"/>
+      <c r="H373" s="311"/>
+      <c r="I373" s="319"/>
       <c r="J373" s="143"/>
       <c r="K373" s="144"/>
       <c r="L373" s="310"/>
@@ -11917,12 +11902,12 @@
       </c>
       <c r="B567" s="309"/>
       <c r="C567" s="307"/>
-      <c r="D567" s="308"/>
-      <c r="E567" s="307"/>
+      <c r="D567" s="69"/>
+      <c r="E567" s="68"/>
       <c r="F567" s="308"/>
       <c r="G567" s="307"/>
-      <c r="H567" s="307"/>
-      <c r="I567" s="308"/>
+      <c r="H567" s="68"/>
+      <c r="I567" s="69"/>
     </row>
     <row r="568" spans="1:9">
       <c r="A568" s="180" t="s">
@@ -11930,12 +11915,12 @@
       </c>
       <c r="B568" s="309"/>
       <c r="C568" s="307"/>
-      <c r="D568" s="308"/>
-      <c r="E568" s="307"/>
+      <c r="D568" s="69"/>
+      <c r="E568" s="68"/>
       <c r="F568" s="308"/>
       <c r="G568" s="307"/>
-      <c r="H568" s="307"/>
-      <c r="I568" s="308"/>
+      <c r="H568" s="68"/>
+      <c r="I568" s="69"/>
     </row>
     <row r="569" spans="1:9">
       <c r="A569" s="181" t="s">
@@ -11943,12 +11928,12 @@
       </c>
       <c r="B569" s="309"/>
       <c r="C569" s="307"/>
-      <c r="D569" s="308"/>
-      <c r="E569" s="307"/>
+      <c r="D569" s="69"/>
+      <c r="E569" s="68"/>
       <c r="F569" s="308"/>
       <c r="G569" s="307"/>
-      <c r="H569" s="307"/>
-      <c r="I569" s="308"/>
+      <c r="H569" s="68"/>
+      <c r="I569" s="69"/>
     </row>
     <row r="570" spans="1:9">
       <c r="A570" s="182" t="s">
@@ -11967,39 +11952,39 @@
       <c r="A571" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B571" s="309"/>
+      <c r="B571" s="67"/>
       <c r="C571" s="307"/>
-      <c r="D571" s="308"/>
+      <c r="D571" s="69"/>
       <c r="E571" s="307"/>
-      <c r="F571" s="308"/>
+      <c r="F571" s="69"/>
       <c r="G571" s="307"/>
-      <c r="H571" s="307"/>
+      <c r="H571" s="68"/>
       <c r="I571" s="308"/>
     </row>
     <row r="572" spans="1:9">
       <c r="A572" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B572" s="309"/>
+      <c r="B572" s="67"/>
       <c r="C572" s="307"/>
-      <c r="D572" s="308"/>
+      <c r="D572" s="69"/>
       <c r="E572" s="307"/>
-      <c r="F572" s="308"/>
+      <c r="F572" s="69"/>
       <c r="G572" s="307"/>
-      <c r="H572" s="307"/>
+      <c r="H572" s="68"/>
       <c r="I572" s="308"/>
     </row>
     <row r="573" spans="1:9">
       <c r="A573" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B573" s="309"/>
+      <c r="B573" s="67"/>
       <c r="C573" s="307"/>
-      <c r="D573" s="308"/>
+      <c r="D573" s="69"/>
       <c r="E573" s="307"/>
-      <c r="F573" s="308"/>
+      <c r="F573" s="69"/>
       <c r="G573" s="307"/>
-      <c r="H573" s="307"/>
+      <c r="H573" s="68"/>
       <c r="I573" s="308"/>
     </row>
     <row r="574" spans="1:9">
@@ -12020,39 +12005,39 @@
         <v>13</v>
       </c>
       <c r="B575" s="309"/>
-      <c r="C575" s="307"/>
+      <c r="C575" s="68"/>
       <c r="D575" s="308"/>
-      <c r="E575" s="307"/>
+      <c r="E575" s="68"/>
       <c r="F575" s="308"/>
-      <c r="G575" s="307"/>
+      <c r="G575" s="68"/>
       <c r="H575" s="307"/>
-      <c r="I575" s="308"/>
+      <c r="I575" s="69"/>
     </row>
     <row r="576" spans="1:9">
       <c r="A576" s="180" t="s">
         <v>12</v>
       </c>
       <c r="B576" s="309"/>
-      <c r="C576" s="307"/>
+      <c r="C576" s="68"/>
       <c r="D576" s="308"/>
-      <c r="E576" s="307"/>
+      <c r="E576" s="68"/>
       <c r="F576" s="308"/>
-      <c r="G576" s="307"/>
+      <c r="G576" s="68"/>
       <c r="H576" s="307"/>
-      <c r="I576" s="308"/>
+      <c r="I576" s="69"/>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="181" t="s">
         <v>11</v>
       </c>
       <c r="B577" s="309"/>
-      <c r="C577" s="307"/>
+      <c r="C577" s="68"/>
       <c r="D577" s="308"/>
-      <c r="E577" s="307"/>
+      <c r="E577" s="68"/>
       <c r="F577" s="308"/>
-      <c r="G577" s="307"/>
+      <c r="G577" s="68"/>
       <c r="H577" s="307"/>
-      <c r="I577" s="308"/>
+      <c r="I577" s="69"/>
     </row>
     <row r="578" spans="1:9">
       <c r="A578" s="183" t="s">
@@ -13454,63 +13439,63 @@
       <c r="A669" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B669" s="110"/>
-      <c r="C669" s="111"/>
+      <c r="B669" s="312"/>
+      <c r="C669" s="305"/>
       <c r="D669" s="306"/>
-      <c r="E669" s="111"/>
+      <c r="E669" s="305"/>
       <c r="F669" s="306"/>
-      <c r="G669" s="111"/>
-      <c r="H669" s="111"/>
-      <c r="I669" s="111"/>
+      <c r="G669" s="305"/>
+      <c r="H669" s="305"/>
+      <c r="I669" s="305"/>
       <c r="J669" s="306"/>
-      <c r="K669" s="110"/>
-      <c r="L669" s="111"/>
-      <c r="M669" s="111"/>
+      <c r="K669" s="312"/>
+      <c r="L669" s="305"/>
+      <c r="M669" s="305"/>
       <c r="N669" s="306"/>
-      <c r="O669" s="111"/>
-      <c r="P669" s="111"/>
+      <c r="O669" s="305"/>
+      <c r="P669" s="305"/>
       <c r="Q669" s="306"/>
     </row>
     <row r="670" spans="1:17">
       <c r="A670" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B670" s="110"/>
-      <c r="C670" s="111"/>
+      <c r="B670" s="312"/>
+      <c r="C670" s="305"/>
       <c r="D670" s="306"/>
-      <c r="E670" s="111"/>
+      <c r="E670" s="305"/>
       <c r="F670" s="306"/>
-      <c r="G670" s="111"/>
-      <c r="H670" s="111"/>
-      <c r="I670" s="111"/>
+      <c r="G670" s="305"/>
+      <c r="H670" s="305"/>
+      <c r="I670" s="305"/>
       <c r="J670" s="306"/>
-      <c r="K670" s="110"/>
-      <c r="L670" s="111"/>
-      <c r="M670" s="111"/>
+      <c r="K670" s="312"/>
+      <c r="L670" s="305"/>
+      <c r="M670" s="305"/>
       <c r="N670" s="306"/>
-      <c r="O670" s="111"/>
-      <c r="P670" s="111"/>
+      <c r="O670" s="305"/>
+      <c r="P670" s="305"/>
       <c r="Q670" s="306"/>
     </row>
     <row r="671" spans="1:17">
       <c r="A671" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B671" s="110"/>
-      <c r="C671" s="111"/>
+      <c r="B671" s="312"/>
+      <c r="C671" s="305"/>
       <c r="D671" s="306"/>
-      <c r="E671" s="111"/>
+      <c r="E671" s="305"/>
       <c r="F671" s="306"/>
-      <c r="G671" s="111"/>
-      <c r="H671" s="111"/>
-      <c r="I671" s="111"/>
+      <c r="G671" s="305"/>
+      <c r="H671" s="305"/>
+      <c r="I671" s="305"/>
       <c r="J671" s="306"/>
-      <c r="K671" s="110"/>
-      <c r="L671" s="111"/>
-      <c r="M671" s="111"/>
+      <c r="K671" s="312"/>
+      <c r="L671" s="305"/>
+      <c r="M671" s="305"/>
       <c r="N671" s="306"/>
-      <c r="O671" s="111"/>
-      <c r="P671" s="111"/>
+      <c r="O671" s="305"/>
+      <c r="P671" s="305"/>
       <c r="Q671" s="306"/>
     </row>
     <row r="672" spans="1:17">
@@ -13539,63 +13524,63 @@
         <v>13</v>
       </c>
       <c r="B673" s="312"/>
-      <c r="C673" s="111"/>
-      <c r="D673" s="112"/>
+      <c r="C673" s="305"/>
+      <c r="D673" s="306"/>
       <c r="E673" s="305"/>
-      <c r="F673" s="112"/>
+      <c r="F673" s="306"/>
       <c r="G673" s="305"/>
-      <c r="H673" s="111"/>
-      <c r="I673" s="111"/>
-      <c r="J673" s="112"/>
+      <c r="H673" s="305"/>
+      <c r="I673" s="305"/>
+      <c r="J673" s="306"/>
       <c r="K673" s="312"/>
-      <c r="L673" s="111"/>
-      <c r="M673" s="111"/>
-      <c r="N673" s="112"/>
+      <c r="L673" s="305"/>
+      <c r="M673" s="305"/>
+      <c r="N673" s="306"/>
       <c r="O673" s="305"/>
-      <c r="P673" s="111"/>
-      <c r="Q673" s="103"/>
+      <c r="P673" s="305"/>
+      <c r="Q673" s="306"/>
     </row>
     <row r="674" spans="1:17">
       <c r="A674" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B674" s="312"/>
-      <c r="C674" s="111"/>
-      <c r="D674" s="112"/>
+      <c r="C674" s="305"/>
+      <c r="D674" s="306"/>
       <c r="E674" s="305"/>
-      <c r="F674" s="112"/>
+      <c r="F674" s="306"/>
       <c r="G674" s="305"/>
-      <c r="H674" s="111"/>
-      <c r="I674" s="111"/>
-      <c r="J674" s="112"/>
+      <c r="H674" s="305"/>
+      <c r="I674" s="305"/>
+      <c r="J674" s="306"/>
       <c r="K674" s="312"/>
-      <c r="L674" s="111"/>
-      <c r="M674" s="111"/>
-      <c r="N674" s="112"/>
+      <c r="L674" s="305"/>
+      <c r="M674" s="305"/>
+      <c r="N674" s="306"/>
       <c r="O674" s="305"/>
-      <c r="P674" s="111"/>
-      <c r="Q674" s="103"/>
+      <c r="P674" s="305"/>
+      <c r="Q674" s="306"/>
     </row>
     <row r="675" spans="1:17">
       <c r="A675" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B675" s="312"/>
-      <c r="C675" s="111"/>
-      <c r="D675" s="112"/>
+      <c r="C675" s="305"/>
+      <c r="D675" s="306"/>
       <c r="E675" s="305"/>
-      <c r="F675" s="112"/>
+      <c r="F675" s="306"/>
       <c r="G675" s="305"/>
-      <c r="H675" s="111"/>
-      <c r="I675" s="111"/>
-      <c r="J675" s="112"/>
+      <c r="H675" s="305"/>
+      <c r="I675" s="305"/>
+      <c r="J675" s="306"/>
       <c r="K675" s="312"/>
-      <c r="L675" s="111"/>
-      <c r="M675" s="111"/>
-      <c r="N675" s="112"/>
+      <c r="L675" s="305"/>
+      <c r="M675" s="305"/>
+      <c r="N675" s="306"/>
       <c r="O675" s="305"/>
-      <c r="P675" s="111"/>
-      <c r="Q675" s="103"/>
+      <c r="P675" s="305"/>
+      <c r="Q675" s="306"/>
     </row>
     <row r="676" spans="1:17">
       <c r="A676" s="9" t="s">
@@ -13622,64 +13607,64 @@
       <c r="A677" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B677" s="101"/>
+      <c r="B677" s="312"/>
       <c r="C677" s="305"/>
-      <c r="D677" s="112"/>
-      <c r="E677" s="111"/>
-      <c r="F677" s="112"/>
-      <c r="G677" s="111"/>
+      <c r="D677" s="306"/>
+      <c r="E677" s="305"/>
+      <c r="F677" s="306"/>
+      <c r="G677" s="305"/>
       <c r="H677" s="305"/>
       <c r="I677" s="305"/>
-      <c r="J677" s="112"/>
-      <c r="K677" s="110"/>
+      <c r="J677" s="306"/>
+      <c r="K677" s="312"/>
       <c r="L677" s="305"/>
       <c r="M677" s="305"/>
-      <c r="N677" s="112"/>
-      <c r="O677" s="111"/>
+      <c r="N677" s="306"/>
+      <c r="O677" s="305"/>
       <c r="P677" s="305"/>
-      <c r="Q677" s="112"/>
+      <c r="Q677" s="306"/>
     </row>
     <row r="678" spans="1:17">
       <c r="A678" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B678" s="101"/>
+      <c r="B678" s="312"/>
       <c r="C678" s="305"/>
-      <c r="D678" s="112"/>
-      <c r="E678" s="111"/>
-      <c r="F678" s="112"/>
-      <c r="G678" s="111"/>
+      <c r="D678" s="306"/>
+      <c r="E678" s="305"/>
+      <c r="F678" s="306"/>
+      <c r="G678" s="305"/>
       <c r="H678" s="305"/>
       <c r="I678" s="305"/>
-      <c r="J678" s="112"/>
-      <c r="K678" s="110"/>
+      <c r="J678" s="306"/>
+      <c r="K678" s="312"/>
       <c r="L678" s="305"/>
       <c r="M678" s="305"/>
-      <c r="N678" s="112"/>
-      <c r="O678" s="111"/>
+      <c r="N678" s="306"/>
+      <c r="O678" s="305"/>
       <c r="P678" s="305"/>
-      <c r="Q678" s="112"/>
+      <c r="Q678" s="306"/>
     </row>
     <row r="679" spans="1:17">
       <c r="A679" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B679" s="101"/>
+      <c r="B679" s="312"/>
       <c r="C679" s="305"/>
-      <c r="D679" s="112"/>
-      <c r="E679" s="111"/>
-      <c r="F679" s="112"/>
-      <c r="G679" s="111"/>
+      <c r="D679" s="306"/>
+      <c r="E679" s="305"/>
+      <c r="F679" s="306"/>
+      <c r="G679" s="305"/>
       <c r="H679" s="305"/>
       <c r="I679" s="305"/>
-      <c r="J679" s="112"/>
-      <c r="K679" s="110"/>
+      <c r="J679" s="306"/>
+      <c r="K679" s="312"/>
       <c r="L679" s="305"/>
       <c r="M679" s="305"/>
-      <c r="N679" s="112"/>
-      <c r="O679" s="111"/>
+      <c r="N679" s="306"/>
+      <c r="O679" s="305"/>
       <c r="P679" s="305"/>
-      <c r="Q679" s="112"/>
+      <c r="Q679" s="306"/>
     </row>
     <row r="680" spans="1:17">
       <c r="A680" s="59" t="s">
@@ -14138,7 +14123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -14336,7 +14321,7 @@
       <c r="B6" s="292"/>
       <c r="C6" s="287"/>
       <c r="D6" s="264" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="256" t="s">
         <v>91</v>
@@ -14370,7 +14355,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="259" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="293"/>
       <c r="C7" s="249"/>
@@ -14409,7 +14394,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="259" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="293"/>
       <c r="C8" s="249"/>
@@ -14428,7 +14413,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="259" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="293"/>
       <c r="C9" s="249"/>
@@ -14447,7 +14432,7 @@
     </row>
     <row r="10" spans="1:18" ht="16" thickBot="1">
       <c r="A10" s="259" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B10" s="295"/>
       <c r="C10" s="289"/>
@@ -14569,7 +14554,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="259" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" s="292"/>
       <c r="C14" s="287"/>
@@ -14591,7 +14576,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="259" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B15" s="292"/>
       <c r="C15" s="287"/>
@@ -14610,7 +14595,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="336" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" s="293"/>
       <c r="C16" s="249"/>
@@ -14629,7 +14614,7 @@
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="259" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="295"/>
       <c r="C17" s="289"/>
@@ -14761,7 +14746,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="259" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="258"/>
       <c r="C21" s="244"/>
@@ -14780,7 +14765,7 @@
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="259" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" s="263"/>
       <c r="C22" s="262"/>
@@ -14888,7 +14873,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="259" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B26" s="292"/>
       <c r="C26" s="287"/>
@@ -14907,7 +14892,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="259" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" s="292"/>
       <c r="C27" s="287"/>
@@ -14926,7 +14911,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="259" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28" s="293"/>
       <c r="C28" s="249"/>
@@ -14945,7 +14930,7 @@
     </row>
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="260" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="294"/>
       <c r="C29" s="252"/>
@@ -14976,7 +14961,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-23640" yWindow="5560" windowWidth="18060" windowHeight="13160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Rhythm Map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="85">
   <si>
     <t>Stage 1-1</t>
   </si>
@@ -247,24 +247,6 @@
     <t>Bowed Strings</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>resonator</t>
-  </si>
-  <si>
-    <t>excitator</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>embouchure</t>
-  </si>
-  <si>
-    <t>finger</t>
-  </si>
-  <si>
     <t>Tempo (BPM)</t>
   </si>
   <si>
@@ -274,19 +256,7 @@
     <t>very high</t>
   </si>
   <si>
-    <t>temporal density</t>
-  </si>
-  <si>
-    <t>mean events per second</t>
-  </si>
-  <si>
     <t>medium</t>
-  </si>
-  <si>
-    <t>mean events per measure?</t>
-  </si>
-  <si>
-    <t>tube</t>
   </si>
   <si>
     <t>low</t>
@@ -304,19 +274,7 @@
     <t>subparticular</t>
   </si>
   <si>
-    <t>Pressure σ</t>
-  </si>
-  <si>
     <t>Pressure µ</t>
-  </si>
-  <si>
-    <t>Resonator length µ</t>
-  </si>
-  <si>
-    <t>Resonator length σ</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
 </sst>
 </file>
@@ -790,51 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -845,69 +758,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -943,6 +793,114 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1137,7 +1095,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1623,30 +1581,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1684,16 +1629,11 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,9 +1700,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2282,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U700"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="L263" sqref="L263"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A674" workbookViewId="0">
+      <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2428,7 +2381,7 @@
       <c r="Q3" s="30">
         <v>3</v>
       </c>
-      <c r="R3" s="296"/>
+      <c r="R3" s="278"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2485,7 +2438,7 @@
       <c r="Q4" s="33">
         <v>8</v>
       </c>
-      <c r="R4" s="296"/>
+      <c r="R4" s="278"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -4875,7 +4828,7 @@
       <c r="B108" s="200"/>
       <c r="C108" s="223"/>
       <c r="D108" s="223"/>
-      <c r="E108" s="297"/>
+      <c r="E108" s="279"/>
       <c r="F108" s="200"/>
       <c r="G108" s="224"/>
       <c r="H108" s="118"/>
@@ -4934,7 +4887,7 @@
       <c r="M110" s="200"/>
       <c r="N110" s="118"/>
       <c r="O110" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P110" t="s">
         <v>46</v>
@@ -4976,7 +4929,7 @@
       <c r="I112" s="225"/>
       <c r="J112" s="201"/>
       <c r="K112" s="224"/>
-      <c r="L112" s="297"/>
+      <c r="L112" s="279"/>
       <c r="M112" s="225"/>
       <c r="N112" s="202"/>
       <c r="O112" t="s">
@@ -5410,7 +5363,7 @@
       <c r="O130"/>
       <c r="P130"/>
       <c r="Q130" s="221" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -5741,7 +5694,7 @@
       </c>
       <c r="B159" s="232"/>
       <c r="C159" s="235"/>
-      <c r="D159" s="298"/>
+      <c r="D159" s="280"/>
       <c r="E159" s="232"/>
       <c r="F159" s="233"/>
       <c r="G159" s="234"/>
@@ -5789,7 +5742,7 @@
       <c r="I161" s="235"/>
       <c r="J161" s="233"/>
       <c r="K161" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L161" t="s">
         <v>46</v>
@@ -5820,11 +5773,11 @@
       <c r="B163" s="239"/>
       <c r="C163" s="234"/>
       <c r="D163" s="233"/>
-      <c r="E163" s="300"/>
+      <c r="E163" s="282"/>
       <c r="F163" s="240"/>
       <c r="G163" s="235"/>
       <c r="H163" s="234"/>
-      <c r="I163" s="299"/>
+      <c r="I163" s="281"/>
       <c r="J163" s="233"/>
       <c r="K163" t="s">
         <v>42</v>
@@ -5897,7 +5850,7 @@
       <c r="E167" s="239"/>
       <c r="F167" s="233"/>
       <c r="G167" s="231"/>
-      <c r="H167" s="301"/>
+      <c r="H167" s="283"/>
       <c r="I167" s="234"/>
       <c r="J167" s="233"/>
       <c r="K167" t="s">
@@ -6040,15 +5993,15 @@
       <c r="A175" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="316"/>
-      <c r="C175" s="317"/>
-      <c r="D175" s="318"/>
-      <c r="E175" s="316"/>
-      <c r="F175" s="318"/>
-      <c r="G175" s="317"/>
-      <c r="H175" s="317"/>
-      <c r="I175" s="317"/>
-      <c r="J175" s="318"/>
+      <c r="B175" s="298"/>
+      <c r="C175" s="299"/>
+      <c r="D175" s="300"/>
+      <c r="E175" s="298"/>
+      <c r="F175" s="300"/>
+      <c r="G175" s="299"/>
+      <c r="H175" s="299"/>
+      <c r="I175" s="299"/>
+      <c r="J175" s="300"/>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175" s="221" t="s">
@@ -6107,15 +6060,15 @@
       <c r="A178" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B178" s="316"/>
-      <c r="C178" s="317"/>
-      <c r="D178" s="318"/>
-      <c r="E178" s="316"/>
-      <c r="F178" s="318"/>
-      <c r="G178" s="317"/>
-      <c r="H178" s="317"/>
-      <c r="I178" s="317"/>
-      <c r="J178" s="318"/>
+      <c r="B178" s="298"/>
+      <c r="C178" s="299"/>
+      <c r="D178" s="300"/>
+      <c r="E178" s="298"/>
+      <c r="F178" s="300"/>
+      <c r="G178" s="299"/>
+      <c r="H178" s="299"/>
+      <c r="I178" s="299"/>
+      <c r="J178" s="300"/>
       <c r="K178"/>
       <c r="L178"/>
       <c r="M178" s="221" t="s">
@@ -6185,7 +6138,7 @@
       <c r="K181"/>
       <c r="L181"/>
       <c r="M181" s="221" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -6543,12 +6496,12 @@
       </c>
       <c r="B210" s="232"/>
       <c r="C210" s="231"/>
-      <c r="D210" s="298"/>
+      <c r="D210" s="280"/>
       <c r="E210" s="234"/>
       <c r="F210" s="233"/>
       <c r="G210" s="234"/>
       <c r="H210" s="231"/>
-      <c r="I210" s="301"/>
+      <c r="I210" s="283"/>
       <c r="J210" s="233"/>
       <c r="K210" s="232"/>
       <c r="L210" s="231"/>
@@ -6558,7 +6511,7 @@
       <c r="P210" s="231"/>
       <c r="Q210" s="233"/>
       <c r="R210" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="S210"/>
       <c r="T210"/>
@@ -6655,11 +6608,11 @@
       <c r="G214" s="235"/>
       <c r="H214" s="234"/>
       <c r="I214" s="235"/>
-      <c r="J214" s="298"/>
+      <c r="J214" s="280"/>
       <c r="K214" s="239"/>
       <c r="L214" s="234"/>
       <c r="M214" s="235"/>
-      <c r="N214" s="298"/>
+      <c r="N214" s="280"/>
       <c r="O214" s="235"/>
       <c r="P214" s="234"/>
       <c r="Q214" s="233"/>
@@ -6671,7 +6624,7 @@
       <c r="A215" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B215" s="254"/>
+      <c r="B215" s="246"/>
       <c r="C215" s="234"/>
       <c r="D215" s="233"/>
       <c r="E215" s="235"/>
@@ -6750,10 +6703,10 @@
         <v>13</v>
       </c>
       <c r="B218" s="239"/>
-      <c r="C218" s="299"/>
+      <c r="C218" s="281"/>
       <c r="D218" s="240"/>
       <c r="E218" s="235"/>
-      <c r="F218" s="298"/>
+      <c r="F218" s="280"/>
       <c r="G218" s="231"/>
       <c r="H218" s="231"/>
       <c r="I218" s="234"/>
@@ -6921,22 +6874,22 @@
       <c r="A225" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B225" s="302"/>
-      <c r="C225" s="303"/>
-      <c r="D225" s="304"/>
-      <c r="E225" s="303"/>
-      <c r="F225" s="304"/>
-      <c r="G225" s="303"/>
-      <c r="H225" s="303"/>
-      <c r="I225" s="303"/>
-      <c r="J225" s="304"/>
-      <c r="K225" s="302"/>
-      <c r="L225" s="303"/>
-      <c r="M225" s="303"/>
-      <c r="N225" s="304"/>
-      <c r="O225" s="303"/>
-      <c r="P225" s="303"/>
-      <c r="Q225" s="304"/>
+      <c r="B225" s="284"/>
+      <c r="C225" s="285"/>
+      <c r="D225" s="286"/>
+      <c r="E225" s="285"/>
+      <c r="F225" s="286"/>
+      <c r="G225" s="285"/>
+      <c r="H225" s="285"/>
+      <c r="I225" s="285"/>
+      <c r="J225" s="286"/>
+      <c r="K225" s="284"/>
+      <c r="L225" s="285"/>
+      <c r="M225" s="285"/>
+      <c r="N225" s="286"/>
+      <c r="O225" s="285"/>
+      <c r="P225" s="285"/>
+      <c r="Q225" s="286"/>
       <c r="R225"/>
       <c r="S225" s="221" t="s">
         <v>52</v>
@@ -7005,22 +6958,22 @@
       <c r="A228" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B228" s="302"/>
-      <c r="C228" s="303"/>
-      <c r="D228" s="304"/>
-      <c r="E228" s="303"/>
-      <c r="F228" s="304"/>
-      <c r="G228" s="303"/>
-      <c r="H228" s="303"/>
-      <c r="I228" s="303"/>
-      <c r="J228" s="304"/>
-      <c r="K228" s="302"/>
-      <c r="L228" s="303"/>
-      <c r="M228" s="303"/>
-      <c r="N228" s="304"/>
-      <c r="O228" s="303"/>
-      <c r="P228" s="303"/>
-      <c r="Q228" s="304"/>
+      <c r="B228" s="284"/>
+      <c r="C228" s="285"/>
+      <c r="D228" s="286"/>
+      <c r="E228" s="285"/>
+      <c r="F228" s="286"/>
+      <c r="G228" s="285"/>
+      <c r="H228" s="285"/>
+      <c r="I228" s="285"/>
+      <c r="J228" s="286"/>
+      <c r="K228" s="284"/>
+      <c r="L228" s="285"/>
+      <c r="M228" s="285"/>
+      <c r="N228" s="286"/>
+      <c r="O228" s="285"/>
+      <c r="P228" s="285"/>
+      <c r="Q228" s="286"/>
       <c r="R228"/>
       <c r="S228" s="221" t="s">
         <v>54</v>
@@ -7147,7 +7100,7 @@
         <v>69</v>
       </c>
       <c r="S232" s="221" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="233" spans="1:21">
@@ -7546,8 +7499,8 @@
         <v>13</v>
       </c>
       <c r="B261" s="40"/>
-      <c r="C261" s="332"/>
-      <c r="D261" s="331"/>
+      <c r="C261" s="314"/>
+      <c r="D261" s="313"/>
       <c r="E261" s="205"/>
       <c r="F261" s="206"/>
       <c r="G261" s="25"/>
@@ -7713,7 +7666,7 @@
       <c r="A269" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B269" s="302"/>
+      <c r="B269" s="284"/>
       <c r="C269" s="25"/>
       <c r="D269" s="24"/>
       <c r="E269" s="205"/>
@@ -7734,7 +7687,7 @@
       <c r="A270" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B270" s="302"/>
+      <c r="B270" s="284"/>
       <c r="C270" s="25"/>
       <c r="D270" s="24"/>
       <c r="E270" s="205"/>
@@ -7755,7 +7708,7 @@
       <c r="A271" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="302"/>
+      <c r="B271" s="284"/>
       <c r="C271" s="25"/>
       <c r="D271" s="24"/>
       <c r="E271" s="205"/>
@@ -7860,15 +7813,15 @@
       <c r="A276" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B276" s="302"/>
-      <c r="C276" s="303"/>
-      <c r="D276" s="304"/>
-      <c r="E276" s="303"/>
-      <c r="F276" s="304"/>
-      <c r="G276" s="303"/>
-      <c r="H276" s="303"/>
-      <c r="I276" s="303"/>
-      <c r="J276" s="304"/>
+      <c r="B276" s="284"/>
+      <c r="C276" s="285"/>
+      <c r="D276" s="286"/>
+      <c r="E276" s="285"/>
+      <c r="F276" s="286"/>
+      <c r="G276" s="285"/>
+      <c r="H276" s="285"/>
+      <c r="I276" s="285"/>
+      <c r="J276" s="286"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
@@ -7991,10 +7944,10 @@
       <c r="D282" s="206"/>
       <c r="E282" s="205"/>
       <c r="F282" s="206"/>
-      <c r="G282" s="303"/>
-      <c r="H282" s="303"/>
-      <c r="I282" s="303"/>
-      <c r="J282" s="304"/>
+      <c r="G282" s="285"/>
+      <c r="H282" s="285"/>
+      <c r="I282" s="285"/>
+      <c r="J282" s="286"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
@@ -8012,10 +7965,10 @@
       <c r="D283" s="206"/>
       <c r="E283" s="205"/>
       <c r="F283" s="206"/>
-      <c r="G283" s="303"/>
-      <c r="H283" s="303"/>
-      <c r="I283" s="303"/>
-      <c r="J283" s="304"/>
+      <c r="G283" s="285"/>
+      <c r="H283" s="285"/>
+      <c r="I283" s="285"/>
+      <c r="J283" s="286"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
@@ -8054,10 +8007,10 @@
       <c r="D285" s="206"/>
       <c r="E285" s="205"/>
       <c r="F285" s="206"/>
-      <c r="G285" s="303"/>
-      <c r="H285" s="303"/>
-      <c r="I285" s="303"/>
-      <c r="J285" s="304"/>
+      <c r="G285" s="285"/>
+      <c r="H285" s="285"/>
+      <c r="I285" s="285"/>
+      <c r="J285" s="286"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
@@ -8075,10 +8028,10 @@
       <c r="D286" s="206"/>
       <c r="E286" s="205"/>
       <c r="F286" s="206"/>
-      <c r="G286" s="303"/>
-      <c r="H286" s="303"/>
-      <c r="I286" s="303"/>
-      <c r="J286" s="304"/>
+      <c r="G286" s="285"/>
+      <c r="H286" s="285"/>
+      <c r="I286" s="285"/>
+      <c r="J286" s="286"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
@@ -8117,10 +8070,10 @@
       <c r="D288" s="206"/>
       <c r="E288" s="205"/>
       <c r="F288" s="206"/>
-      <c r="G288" s="303"/>
-      <c r="H288" s="303"/>
-      <c r="I288" s="303"/>
-      <c r="J288" s="304"/>
+      <c r="G288" s="285"/>
+      <c r="H288" s="285"/>
+      <c r="I288" s="285"/>
+      <c r="J288" s="286"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
@@ -8138,10 +8091,10 @@
       <c r="D289" s="206"/>
       <c r="E289" s="205"/>
       <c r="F289" s="206"/>
-      <c r="G289" s="303"/>
-      <c r="H289" s="303"/>
-      <c r="I289" s="303"/>
-      <c r="J289" s="304"/>
+      <c r="G289" s="285"/>
+      <c r="H289" s="285"/>
+      <c r="I289" s="285"/>
+      <c r="J289" s="286"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
@@ -8180,10 +8133,10 @@
       <c r="D291" s="206"/>
       <c r="E291" s="205"/>
       <c r="F291" s="206"/>
-      <c r="G291" s="303"/>
-      <c r="H291" s="303"/>
-      <c r="I291" s="303"/>
-      <c r="J291" s="304"/>
+      <c r="G291" s="285"/>
+      <c r="H291" s="285"/>
+      <c r="I291" s="285"/>
+      <c r="J291" s="286"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
@@ -8201,10 +8154,10 @@
       <c r="D292" s="213"/>
       <c r="E292" s="212"/>
       <c r="F292" s="213"/>
-      <c r="G292" s="329"/>
-      <c r="H292" s="329"/>
-      <c r="I292" s="329"/>
-      <c r="J292" s="330"/>
+      <c r="G292" s="311"/>
+      <c r="H292" s="311"/>
+      <c r="I292" s="311"/>
+      <c r="J292" s="312"/>
       <c r="K292"/>
       <c r="L292"/>
       <c r="M292"/>
@@ -8214,15 +8167,15 @@
       <c r="Q292"/>
     </row>
     <row r="293" spans="1:17">
-      <c r="B293" s="254"/>
-      <c r="C293" s="254"/>
-      <c r="D293" s="254"/>
-      <c r="E293" s="254"/>
-      <c r="F293" s="254"/>
-      <c r="G293" s="254"/>
-      <c r="H293" s="254"/>
-      <c r="I293" s="254"/>
-      <c r="J293" s="254"/>
+      <c r="B293" s="246"/>
+      <c r="C293" s="246"/>
+      <c r="D293" s="246"/>
+      <c r="E293" s="246"/>
+      <c r="F293" s="246"/>
+      <c r="G293" s="246"/>
+      <c r="H293" s="246"/>
+      <c r="I293" s="246"/>
+      <c r="J293" s="246"/>
     </row>
     <row r="306" spans="1:14" ht="16" thickBot="1"/>
     <row r="307" spans="1:14" ht="24" thickBot="1">
@@ -8402,14 +8355,14 @@
       <c r="B312" s="67"/>
       <c r="C312" s="68"/>
       <c r="D312" s="68"/>
-      <c r="E312" s="308"/>
+      <c r="E312" s="290"/>
       <c r="F312" s="67"/>
       <c r="G312" s="68"/>
       <c r="H312" s="69"/>
-      <c r="I312" s="309"/>
-      <c r="J312" s="307"/>
-      <c r="K312" s="307"/>
-      <c r="L312" s="308"/>
+      <c r="I312" s="291"/>
+      <c r="J312" s="289"/>
+      <c r="K312" s="289"/>
+      <c r="L312" s="290"/>
       <c r="M312" s="67"/>
       <c r="N312" s="69"/>
     </row>
@@ -8420,14 +8373,14 @@
       <c r="B313" s="67"/>
       <c r="C313" s="68"/>
       <c r="D313" s="68"/>
-      <c r="E313" s="308"/>
+      <c r="E313" s="290"/>
       <c r="F313" s="67"/>
       <c r="G313" s="68"/>
       <c r="H313" s="69"/>
-      <c r="I313" s="309"/>
-      <c r="J313" s="307"/>
-      <c r="K313" s="307"/>
-      <c r="L313" s="308"/>
+      <c r="I313" s="291"/>
+      <c r="J313" s="289"/>
+      <c r="K313" s="289"/>
+      <c r="L313" s="290"/>
       <c r="M313" s="67"/>
       <c r="N313" s="69"/>
     </row>
@@ -8438,14 +8391,14 @@
       <c r="B314" s="67"/>
       <c r="C314" s="68"/>
       <c r="D314" s="68"/>
-      <c r="E314" s="308"/>
+      <c r="E314" s="290"/>
       <c r="F314" s="67"/>
       <c r="G314" s="68"/>
       <c r="H314" s="69"/>
-      <c r="I314" s="309"/>
-      <c r="J314" s="307"/>
-      <c r="K314" s="307"/>
-      <c r="L314" s="308"/>
+      <c r="I314" s="291"/>
+      <c r="J314" s="289"/>
+      <c r="K314" s="289"/>
+      <c r="L314" s="290"/>
       <c r="M314" s="67"/>
       <c r="N314" s="69"/>
     </row>
@@ -8473,15 +8426,15 @@
       </c>
       <c r="B316" s="67"/>
       <c r="C316" s="68"/>
-      <c r="D316" s="307"/>
-      <c r="E316" s="308"/>
+      <c r="D316" s="289"/>
+      <c r="E316" s="290"/>
       <c r="F316" s="67"/>
       <c r="G316" s="68"/>
       <c r="H316" s="69"/>
-      <c r="I316" s="309"/>
-      <c r="J316" s="307"/>
-      <c r="K316" s="307"/>
-      <c r="L316" s="308"/>
+      <c r="I316" s="291"/>
+      <c r="J316" s="289"/>
+      <c r="K316" s="289"/>
+      <c r="L316" s="290"/>
       <c r="M316" s="67"/>
       <c r="N316" s="69"/>
     </row>
@@ -8491,15 +8444,15 @@
       </c>
       <c r="B317" s="67"/>
       <c r="C317" s="68"/>
-      <c r="D317" s="307"/>
-      <c r="E317" s="308"/>
+      <c r="D317" s="289"/>
+      <c r="E317" s="290"/>
       <c r="F317" s="67"/>
       <c r="G317" s="68"/>
       <c r="H317" s="69"/>
-      <c r="I317" s="309"/>
-      <c r="J317" s="307"/>
-      <c r="K317" s="307"/>
-      <c r="L317" s="308"/>
+      <c r="I317" s="291"/>
+      <c r="J317" s="289"/>
+      <c r="K317" s="289"/>
+      <c r="L317" s="290"/>
       <c r="M317" s="67"/>
       <c r="N317" s="69"/>
     </row>
@@ -8509,15 +8462,15 @@
       </c>
       <c r="B318" s="67"/>
       <c r="C318" s="68"/>
-      <c r="D318" s="307"/>
-      <c r="E318" s="308"/>
+      <c r="D318" s="289"/>
+      <c r="E318" s="290"/>
       <c r="F318" s="67"/>
       <c r="G318" s="68"/>
       <c r="H318" s="69"/>
-      <c r="I318" s="309"/>
-      <c r="J318" s="307"/>
-      <c r="K318" s="307"/>
-      <c r="L318" s="308"/>
+      <c r="I318" s="291"/>
+      <c r="J318" s="289"/>
+      <c r="K318" s="289"/>
+      <c r="L318" s="290"/>
       <c r="M318" s="67"/>
       <c r="N318" s="69"/>
     </row>
@@ -8544,16 +8497,16 @@
         <v>13</v>
       </c>
       <c r="B320" s="67"/>
-      <c r="C320" s="307"/>
-      <c r="D320" s="307"/>
-      <c r="E320" s="308"/>
+      <c r="C320" s="289"/>
+      <c r="D320" s="289"/>
+      <c r="E320" s="290"/>
       <c r="F320" s="67"/>
       <c r="G320" s="68"/>
       <c r="H320" s="69"/>
-      <c r="I320" s="309"/>
-      <c r="J320" s="307"/>
-      <c r="K320" s="307"/>
-      <c r="L320" s="308"/>
+      <c r="I320" s="291"/>
+      <c r="J320" s="289"/>
+      <c r="K320" s="289"/>
+      <c r="L320" s="290"/>
       <c r="M320" s="49"/>
       <c r="N320" s="50"/>
     </row>
@@ -8562,16 +8515,16 @@
         <v>12</v>
       </c>
       <c r="B321" s="67"/>
-      <c r="C321" s="307"/>
-      <c r="D321" s="307"/>
-      <c r="E321" s="308"/>
+      <c r="C321" s="289"/>
+      <c r="D321" s="289"/>
+      <c r="E321" s="290"/>
       <c r="F321" s="67"/>
       <c r="G321" s="68"/>
       <c r="H321" s="69"/>
-      <c r="I321" s="309"/>
-      <c r="J321" s="307"/>
-      <c r="K321" s="307"/>
-      <c r="L321" s="308"/>
+      <c r="I321" s="291"/>
+      <c r="J321" s="289"/>
+      <c r="K321" s="289"/>
+      <c r="L321" s="290"/>
       <c r="M321" s="49"/>
       <c r="N321" s="50"/>
     </row>
@@ -8580,16 +8533,16 @@
         <v>11</v>
       </c>
       <c r="B322" s="67"/>
-      <c r="C322" s="307"/>
-      <c r="D322" s="307"/>
-      <c r="E322" s="308"/>
+      <c r="C322" s="289"/>
+      <c r="D322" s="289"/>
+      <c r="E322" s="290"/>
       <c r="F322" s="67"/>
       <c r="G322" s="68"/>
       <c r="H322" s="69"/>
-      <c r="I322" s="309"/>
-      <c r="J322" s="307"/>
-      <c r="K322" s="307"/>
-      <c r="L322" s="308"/>
+      <c r="I322" s="291"/>
+      <c r="J322" s="289"/>
+      <c r="K322" s="289"/>
+      <c r="L322" s="290"/>
       <c r="M322" s="49"/>
       <c r="N322" s="50"/>
     </row>
@@ -8615,36 +8568,36 @@
       <c r="A324" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B324" s="309"/>
+      <c r="B324" s="291"/>
       <c r="C324" s="68"/>
       <c r="D324" s="68"/>
       <c r="E324" s="69"/>
-      <c r="F324" s="309"/>
+      <c r="F324" s="291"/>
       <c r="G324" s="68"/>
       <c r="H324" s="69"/>
-      <c r="I324" s="309"/>
+      <c r="I324" s="291"/>
       <c r="J324" s="68"/>
       <c r="K324" s="68"/>
       <c r="L324" s="69"/>
-      <c r="M324" s="309"/>
+      <c r="M324" s="291"/>
       <c r="N324" s="69"/>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B325" s="309"/>
+      <c r="B325" s="291"/>
       <c r="C325" s="68"/>
       <c r="D325" s="68"/>
       <c r="E325" s="69"/>
-      <c r="F325" s="309"/>
+      <c r="F325" s="291"/>
       <c r="G325" s="68"/>
       <c r="H325" s="69"/>
-      <c r="I325" s="309"/>
+      <c r="I325" s="291"/>
       <c r="J325" s="68"/>
       <c r="K325" s="68"/>
       <c r="L325" s="69"/>
-      <c r="M325" s="309"/>
+      <c r="M325" s="291"/>
       <c r="N325" s="69"/>
     </row>
     <row r="326" spans="1:14">
@@ -8777,17 +8730,17 @@
       <c r="A333" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B333" s="309"/>
-      <c r="C333" s="307"/>
-      <c r="D333" s="307"/>
-      <c r="E333" s="308"/>
-      <c r="F333" s="309"/>
-      <c r="G333" s="307"/>
-      <c r="H333" s="308"/>
-      <c r="I333" s="309"/>
-      <c r="J333" s="307"/>
-      <c r="K333" s="307"/>
-      <c r="L333" s="308"/>
+      <c r="B333" s="291"/>
+      <c r="C333" s="289"/>
+      <c r="D333" s="289"/>
+      <c r="E333" s="290"/>
+      <c r="F333" s="291"/>
+      <c r="G333" s="289"/>
+      <c r="H333" s="290"/>
+      <c r="I333" s="291"/>
+      <c r="J333" s="289"/>
+      <c r="K333" s="289"/>
+      <c r="L333" s="290"/>
       <c r="M333" s="49"/>
       <c r="N333" s="50"/>
     </row>
@@ -8795,17 +8748,17 @@
       <c r="A334" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B334" s="309"/>
-      <c r="C334" s="307"/>
-      <c r="D334" s="307"/>
-      <c r="E334" s="308"/>
-      <c r="F334" s="309"/>
-      <c r="G334" s="307"/>
-      <c r="H334" s="308"/>
-      <c r="I334" s="309"/>
-      <c r="J334" s="307"/>
-      <c r="K334" s="307"/>
-      <c r="L334" s="308"/>
+      <c r="B334" s="291"/>
+      <c r="C334" s="289"/>
+      <c r="D334" s="289"/>
+      <c r="E334" s="290"/>
+      <c r="F334" s="291"/>
+      <c r="G334" s="289"/>
+      <c r="H334" s="290"/>
+      <c r="I334" s="291"/>
+      <c r="J334" s="289"/>
+      <c r="K334" s="289"/>
+      <c r="L334" s="290"/>
       <c r="M334" s="49"/>
       <c r="N334" s="50"/>
     </row>
@@ -8831,17 +8784,17 @@
       <c r="A336" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B336" s="309"/>
-      <c r="C336" s="307"/>
-      <c r="D336" s="307"/>
-      <c r="E336" s="308"/>
-      <c r="F336" s="309"/>
-      <c r="G336" s="307"/>
-      <c r="H336" s="308"/>
-      <c r="I336" s="309"/>
-      <c r="J336" s="307"/>
-      <c r="K336" s="307"/>
-      <c r="L336" s="308"/>
+      <c r="B336" s="291"/>
+      <c r="C336" s="289"/>
+      <c r="D336" s="289"/>
+      <c r="E336" s="290"/>
+      <c r="F336" s="291"/>
+      <c r="G336" s="289"/>
+      <c r="H336" s="290"/>
+      <c r="I336" s="291"/>
+      <c r="J336" s="289"/>
+      <c r="K336" s="289"/>
+      <c r="L336" s="290"/>
       <c r="M336" s="49"/>
       <c r="N336" s="50"/>
     </row>
@@ -8849,17 +8802,17 @@
       <c r="A337" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B337" s="309"/>
-      <c r="C337" s="307"/>
-      <c r="D337" s="307"/>
-      <c r="E337" s="308"/>
-      <c r="F337" s="309"/>
-      <c r="G337" s="307"/>
-      <c r="H337" s="308"/>
-      <c r="I337" s="309"/>
-      <c r="J337" s="307"/>
-      <c r="K337" s="307"/>
-      <c r="L337" s="308"/>
+      <c r="B337" s="291"/>
+      <c r="C337" s="289"/>
+      <c r="D337" s="289"/>
+      <c r="E337" s="290"/>
+      <c r="F337" s="291"/>
+      <c r="G337" s="289"/>
+      <c r="H337" s="290"/>
+      <c r="I337" s="291"/>
+      <c r="J337" s="289"/>
+      <c r="K337" s="289"/>
+      <c r="L337" s="290"/>
       <c r="M337" s="49"/>
       <c r="N337" s="50"/>
     </row>
@@ -8885,17 +8838,17 @@
       <c r="A339" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B339" s="309"/>
-      <c r="C339" s="307"/>
-      <c r="D339" s="307"/>
-      <c r="E339" s="308"/>
-      <c r="F339" s="309"/>
-      <c r="G339" s="307"/>
-      <c r="H339" s="308"/>
-      <c r="I339" s="309"/>
-      <c r="J339" s="307"/>
-      <c r="K339" s="307"/>
-      <c r="L339" s="308"/>
+      <c r="B339" s="291"/>
+      <c r="C339" s="289"/>
+      <c r="D339" s="289"/>
+      <c r="E339" s="290"/>
+      <c r="F339" s="291"/>
+      <c r="G339" s="289"/>
+      <c r="H339" s="290"/>
+      <c r="I339" s="291"/>
+      <c r="J339" s="289"/>
+      <c r="K339" s="289"/>
+      <c r="L339" s="290"/>
       <c r="M339" s="67"/>
       <c r="N339" s="69"/>
     </row>
@@ -8903,17 +8856,17 @@
       <c r="A340" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B340" s="309"/>
-      <c r="C340" s="307"/>
-      <c r="D340" s="307"/>
-      <c r="E340" s="308"/>
-      <c r="F340" s="309"/>
-      <c r="G340" s="307"/>
-      <c r="H340" s="308"/>
-      <c r="I340" s="309"/>
-      <c r="J340" s="307"/>
-      <c r="K340" s="307"/>
-      <c r="L340" s="308"/>
+      <c r="B340" s="291"/>
+      <c r="C340" s="289"/>
+      <c r="D340" s="289"/>
+      <c r="E340" s="290"/>
+      <c r="F340" s="291"/>
+      <c r="G340" s="289"/>
+      <c r="H340" s="290"/>
+      <c r="I340" s="291"/>
+      <c r="J340" s="289"/>
+      <c r="K340" s="289"/>
+      <c r="L340" s="290"/>
       <c r="M340" s="67"/>
       <c r="N340" s="69"/>
     </row>
@@ -8939,17 +8892,17 @@
       <c r="A342" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B342" s="309"/>
-      <c r="C342" s="307"/>
-      <c r="D342" s="307"/>
-      <c r="E342" s="308"/>
-      <c r="F342" s="309"/>
-      <c r="G342" s="307"/>
-      <c r="H342" s="308"/>
-      <c r="I342" s="309"/>
-      <c r="J342" s="307"/>
-      <c r="K342" s="307"/>
-      <c r="L342" s="308"/>
+      <c r="B342" s="291"/>
+      <c r="C342" s="289"/>
+      <c r="D342" s="289"/>
+      <c r="E342" s="290"/>
+      <c r="F342" s="291"/>
+      <c r="G342" s="289"/>
+      <c r="H342" s="290"/>
+      <c r="I342" s="291"/>
+      <c r="J342" s="289"/>
+      <c r="K342" s="289"/>
+      <c r="L342" s="290"/>
       <c r="M342" s="67"/>
       <c r="N342" s="69"/>
     </row>
@@ -8957,17 +8910,17 @@
       <c r="A343" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B343" s="320"/>
-      <c r="C343" s="321"/>
-      <c r="D343" s="321"/>
-      <c r="E343" s="322"/>
-      <c r="F343" s="320"/>
-      <c r="G343" s="321"/>
-      <c r="H343" s="322"/>
-      <c r="I343" s="320"/>
-      <c r="J343" s="321"/>
-      <c r="K343" s="321"/>
-      <c r="L343" s="322"/>
+      <c r="B343" s="302"/>
+      <c r="C343" s="303"/>
+      <c r="D343" s="303"/>
+      <c r="E343" s="304"/>
+      <c r="F343" s="302"/>
+      <c r="G343" s="303"/>
+      <c r="H343" s="304"/>
+      <c r="I343" s="302"/>
+      <c r="J343" s="303"/>
+      <c r="K343" s="303"/>
+      <c r="L343" s="304"/>
       <c r="M343" s="114"/>
       <c r="N343" s="116"/>
     </row>
@@ -9141,17 +9094,17 @@
         <v>13</v>
       </c>
       <c r="B363" s="142"/>
-      <c r="C363" s="310"/>
+      <c r="C363" s="292"/>
       <c r="D363" s="143"/>
-      <c r="E363" s="311"/>
+      <c r="E363" s="293"/>
       <c r="F363" s="143"/>
-      <c r="G363" s="310"/>
+      <c r="G363" s="292"/>
       <c r="H363" s="144"/>
-      <c r="I363" s="319"/>
+      <c r="I363" s="301"/>
       <c r="J363" s="143"/>
-      <c r="K363" s="311"/>
-      <c r="L363" s="310"/>
-      <c r="M363" s="311"/>
+      <c r="K363" s="293"/>
+      <c r="L363" s="292"/>
+      <c r="M363" s="293"/>
       <c r="N363"/>
     </row>
     <row r="364" spans="1:14">
@@ -9159,17 +9112,17 @@
         <v>12</v>
       </c>
       <c r="B364" s="142"/>
-      <c r="C364" s="310"/>
+      <c r="C364" s="292"/>
       <c r="D364" s="143"/>
-      <c r="E364" s="311"/>
+      <c r="E364" s="293"/>
       <c r="F364" s="143"/>
-      <c r="G364" s="310"/>
+      <c r="G364" s="292"/>
       <c r="H364" s="144"/>
-      <c r="I364" s="319"/>
+      <c r="I364" s="301"/>
       <c r="J364" s="143"/>
-      <c r="K364" s="311"/>
-      <c r="L364" s="310"/>
-      <c r="M364" s="311"/>
+      <c r="K364" s="293"/>
+      <c r="L364" s="292"/>
+      <c r="M364" s="293"/>
       <c r="N364"/>
     </row>
     <row r="365" spans="1:14">
@@ -9177,17 +9130,17 @@
         <v>11</v>
       </c>
       <c r="B365" s="142"/>
-      <c r="C365" s="310"/>
+      <c r="C365" s="292"/>
       <c r="D365" s="143"/>
-      <c r="E365" s="311"/>
+      <c r="E365" s="293"/>
       <c r="F365" s="143"/>
-      <c r="G365" s="310"/>
+      <c r="G365" s="292"/>
       <c r="H365" s="144"/>
-      <c r="I365" s="319"/>
+      <c r="I365" s="301"/>
       <c r="J365" s="143"/>
-      <c r="K365" s="311"/>
-      <c r="L365" s="310"/>
-      <c r="M365" s="311"/>
+      <c r="K365" s="293"/>
+      <c r="L365" s="292"/>
+      <c r="M365" s="293"/>
       <c r="N365"/>
     </row>
     <row r="366" spans="1:14">
@@ -9212,54 +9165,54 @@
       <c r="A367" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B367" s="319"/>
+      <c r="B367" s="301"/>
       <c r="C367" s="143"/>
-      <c r="D367" s="310"/>
+      <c r="D367" s="292"/>
       <c r="E367" s="144"/>
-      <c r="F367" s="310"/>
+      <c r="F367" s="292"/>
       <c r="G367" s="143"/>
-      <c r="H367" s="311"/>
+      <c r="H367" s="293"/>
       <c r="I367" s="142"/>
-      <c r="J367" s="310"/>
+      <c r="J367" s="292"/>
       <c r="K367" s="144"/>
-      <c r="L367" s="310"/>
-      <c r="M367" s="311"/>
+      <c r="L367" s="292"/>
+      <c r="M367" s="293"/>
       <c r="N367"/>
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="319"/>
+      <c r="B368" s="301"/>
       <c r="C368" s="143"/>
-      <c r="D368" s="310"/>
+      <c r="D368" s="292"/>
       <c r="E368" s="144"/>
-      <c r="F368" s="310"/>
+      <c r="F368" s="292"/>
       <c r="G368" s="143"/>
-      <c r="H368" s="311"/>
+      <c r="H368" s="293"/>
       <c r="I368" s="142"/>
-      <c r="J368" s="310"/>
+      <c r="J368" s="292"/>
       <c r="K368" s="144"/>
-      <c r="L368" s="310"/>
-      <c r="M368" s="311"/>
+      <c r="L368" s="292"/>
+      <c r="M368" s="293"/>
       <c r="N368"/>
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B369" s="319"/>
+      <c r="B369" s="301"/>
       <c r="C369" s="143"/>
-      <c r="D369" s="310"/>
+      <c r="D369" s="292"/>
       <c r="E369" s="144"/>
-      <c r="F369" s="310"/>
+      <c r="F369" s="292"/>
       <c r="G369" s="143"/>
-      <c r="H369" s="311"/>
+      <c r="H369" s="293"/>
       <c r="I369" s="142"/>
-      <c r="J369" s="310"/>
+      <c r="J369" s="292"/>
       <c r="K369" s="144"/>
-      <c r="L369" s="310"/>
-      <c r="M369" s="311"/>
+      <c r="L369" s="292"/>
+      <c r="M369" s="293"/>
       <c r="N369"/>
     </row>
     <row r="370" spans="1:14">
@@ -9286,16 +9239,16 @@
       </c>
       <c r="B371" s="142"/>
       <c r="C371" s="143"/>
-      <c r="D371" s="310"/>
-      <c r="E371" s="311"/>
+      <c r="D371" s="292"/>
+      <c r="E371" s="293"/>
       <c r="F371" s="143"/>
       <c r="G371" s="143"/>
-      <c r="H371" s="311"/>
-      <c r="I371" s="319"/>
+      <c r="H371" s="293"/>
+      <c r="I371" s="301"/>
       <c r="J371" s="143"/>
       <c r="K371" s="144"/>
-      <c r="L371" s="310"/>
-      <c r="M371" s="311"/>
+      <c r="L371" s="292"/>
+      <c r="M371" s="293"/>
       <c r="N371"/>
     </row>
     <row r="372" spans="1:14">
@@ -9304,16 +9257,16 @@
       </c>
       <c r="B372" s="142"/>
       <c r="C372" s="143"/>
-      <c r="D372" s="310"/>
-      <c r="E372" s="311"/>
+      <c r="D372" s="292"/>
+      <c r="E372" s="293"/>
       <c r="F372" s="143"/>
       <c r="G372" s="143"/>
-      <c r="H372" s="311"/>
-      <c r="I372" s="319"/>
+      <c r="H372" s="293"/>
+      <c r="I372" s="301"/>
       <c r="J372" s="143"/>
       <c r="K372" s="144"/>
-      <c r="L372" s="310"/>
-      <c r="M372" s="311"/>
+      <c r="L372" s="292"/>
+      <c r="M372" s="293"/>
       <c r="N372"/>
     </row>
     <row r="373" spans="1:14">
@@ -9322,16 +9275,16 @@
       </c>
       <c r="B373" s="142"/>
       <c r="C373" s="143"/>
-      <c r="D373" s="310"/>
-      <c r="E373" s="311"/>
+      <c r="D373" s="292"/>
+      <c r="E373" s="293"/>
       <c r="F373" s="143"/>
       <c r="G373" s="143"/>
-      <c r="H373" s="311"/>
-      <c r="I373" s="319"/>
+      <c r="H373" s="293"/>
+      <c r="I373" s="301"/>
       <c r="J373" s="143"/>
       <c r="K373" s="144"/>
-      <c r="L373" s="310"/>
-      <c r="M373" s="311"/>
+      <c r="L373" s="292"/>
+      <c r="M373" s="293"/>
       <c r="N373"/>
     </row>
     <row r="374" spans="1:14">
@@ -9356,17 +9309,17 @@
       <c r="A375" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B375" s="319"/>
+      <c r="B375" s="301"/>
       <c r="C375" s="143"/>
       <c r="D375" s="143"/>
       <c r="E375" s="144"/>
-      <c r="F375" s="310"/>
+      <c r="F375" s="292"/>
       <c r="G375" s="143"/>
       <c r="H375" s="144"/>
-      <c r="I375" s="319"/>
+      <c r="I375" s="301"/>
       <c r="J375" s="143"/>
       <c r="K375" s="144"/>
-      <c r="L375" s="310"/>
+      <c r="L375" s="292"/>
       <c r="M375" s="144"/>
       <c r="N375"/>
     </row>
@@ -9374,17 +9327,17 @@
       <c r="A376" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B376" s="319"/>
+      <c r="B376" s="301"/>
       <c r="C376" s="143"/>
       <c r="D376" s="143"/>
       <c r="E376" s="144"/>
-      <c r="F376" s="310"/>
+      <c r="F376" s="292"/>
       <c r="G376" s="143"/>
       <c r="H376" s="144"/>
-      <c r="I376" s="319"/>
+      <c r="I376" s="301"/>
       <c r="J376" s="143"/>
       <c r="K376" s="144"/>
-      <c r="L376" s="310"/>
+      <c r="L376" s="292"/>
       <c r="M376" s="144"/>
       <c r="N376"/>
     </row>
@@ -9518,16 +9471,16 @@
       <c r="A384" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B384" s="319"/>
-      <c r="C384" s="310"/>
-      <c r="D384" s="310"/>
-      <c r="E384" s="311"/>
-      <c r="F384" s="310"/>
-      <c r="G384" s="310"/>
-      <c r="H384" s="311"/>
-      <c r="I384" s="319"/>
-      <c r="J384" s="310"/>
-      <c r="K384" s="311"/>
+      <c r="B384" s="301"/>
+      <c r="C384" s="292"/>
+      <c r="D384" s="292"/>
+      <c r="E384" s="293"/>
+      <c r="F384" s="292"/>
+      <c r="G384" s="292"/>
+      <c r="H384" s="293"/>
+      <c r="I384" s="301"/>
+      <c r="J384" s="292"/>
+      <c r="K384" s="293"/>
       <c r="L384" s="132"/>
       <c r="M384" s="123"/>
       <c r="N384"/>
@@ -9536,16 +9489,16 @@
       <c r="A385" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B385" s="319"/>
-      <c r="C385" s="310"/>
-      <c r="D385" s="310"/>
-      <c r="E385" s="311"/>
-      <c r="F385" s="310"/>
-      <c r="G385" s="310"/>
-      <c r="H385" s="311"/>
-      <c r="I385" s="319"/>
-      <c r="J385" s="310"/>
-      <c r="K385" s="311"/>
+      <c r="B385" s="301"/>
+      <c r="C385" s="292"/>
+      <c r="D385" s="292"/>
+      <c r="E385" s="293"/>
+      <c r="F385" s="292"/>
+      <c r="G385" s="292"/>
+      <c r="H385" s="293"/>
+      <c r="I385" s="301"/>
+      <c r="J385" s="292"/>
+      <c r="K385" s="293"/>
       <c r="L385" s="132"/>
       <c r="M385" s="123"/>
       <c r="N385"/>
@@ -9572,16 +9525,16 @@
       <c r="A387" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B387" s="319"/>
-      <c r="C387" s="310"/>
-      <c r="D387" s="310"/>
-      <c r="E387" s="311"/>
-      <c r="F387" s="310"/>
-      <c r="G387" s="310"/>
-      <c r="H387" s="311"/>
-      <c r="I387" s="319"/>
-      <c r="J387" s="310"/>
-      <c r="K387" s="311"/>
+      <c r="B387" s="301"/>
+      <c r="C387" s="292"/>
+      <c r="D387" s="292"/>
+      <c r="E387" s="293"/>
+      <c r="F387" s="292"/>
+      <c r="G387" s="292"/>
+      <c r="H387" s="293"/>
+      <c r="I387" s="301"/>
+      <c r="J387" s="292"/>
+      <c r="K387" s="293"/>
       <c r="L387" s="132"/>
       <c r="M387" s="123"/>
       <c r="N387"/>
@@ -9590,16 +9543,16 @@
       <c r="A388" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B388" s="319"/>
-      <c r="C388" s="310"/>
-      <c r="D388" s="310"/>
-      <c r="E388" s="311"/>
-      <c r="F388" s="310"/>
-      <c r="G388" s="310"/>
-      <c r="H388" s="311"/>
-      <c r="I388" s="319"/>
-      <c r="J388" s="310"/>
-      <c r="K388" s="311"/>
+      <c r="B388" s="301"/>
+      <c r="C388" s="292"/>
+      <c r="D388" s="292"/>
+      <c r="E388" s="293"/>
+      <c r="F388" s="292"/>
+      <c r="G388" s="292"/>
+      <c r="H388" s="293"/>
+      <c r="I388" s="301"/>
+      <c r="J388" s="292"/>
+      <c r="K388" s="293"/>
       <c r="L388" s="132"/>
       <c r="M388" s="123"/>
       <c r="N388"/>
@@ -9626,16 +9579,16 @@
       <c r="A390" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B390" s="319"/>
-      <c r="C390" s="310"/>
-      <c r="D390" s="310"/>
-      <c r="E390" s="311"/>
-      <c r="F390" s="310"/>
-      <c r="G390" s="310"/>
-      <c r="H390" s="311"/>
-      <c r="I390" s="319"/>
-      <c r="J390" s="310"/>
-      <c r="K390" s="311"/>
+      <c r="B390" s="301"/>
+      <c r="C390" s="292"/>
+      <c r="D390" s="292"/>
+      <c r="E390" s="293"/>
+      <c r="F390" s="292"/>
+      <c r="G390" s="292"/>
+      <c r="H390" s="293"/>
+      <c r="I390" s="301"/>
+      <c r="J390" s="292"/>
+      <c r="K390" s="293"/>
       <c r="L390" s="143"/>
       <c r="M390" s="144"/>
       <c r="N390"/>
@@ -9644,16 +9597,16 @@
       <c r="A391" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B391" s="319"/>
-      <c r="C391" s="310"/>
-      <c r="D391" s="310"/>
-      <c r="E391" s="311"/>
-      <c r="F391" s="310"/>
-      <c r="G391" s="310"/>
-      <c r="H391" s="311"/>
-      <c r="I391" s="319"/>
-      <c r="J391" s="310"/>
-      <c r="K391" s="311"/>
+      <c r="B391" s="301"/>
+      <c r="C391" s="292"/>
+      <c r="D391" s="292"/>
+      <c r="E391" s="293"/>
+      <c r="F391" s="292"/>
+      <c r="G391" s="292"/>
+      <c r="H391" s="293"/>
+      <c r="I391" s="301"/>
+      <c r="J391" s="292"/>
+      <c r="K391" s="293"/>
       <c r="L391" s="143"/>
       <c r="M391" s="144"/>
       <c r="N391"/>
@@ -9680,16 +9633,16 @@
       <c r="A393" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B393" s="319"/>
-      <c r="C393" s="310"/>
-      <c r="D393" s="310"/>
-      <c r="E393" s="311"/>
-      <c r="F393" s="310"/>
-      <c r="G393" s="310"/>
-      <c r="H393" s="311"/>
-      <c r="I393" s="319"/>
-      <c r="J393" s="310"/>
-      <c r="K393" s="311"/>
+      <c r="B393" s="301"/>
+      <c r="C393" s="292"/>
+      <c r="D393" s="292"/>
+      <c r="E393" s="293"/>
+      <c r="F393" s="292"/>
+      <c r="G393" s="292"/>
+      <c r="H393" s="293"/>
+      <c r="I393" s="301"/>
+      <c r="J393" s="292"/>
+      <c r="K393" s="293"/>
       <c r="L393" s="143"/>
       <c r="M393" s="144"/>
       <c r="N393"/>
@@ -9698,16 +9651,16 @@
       <c r="A394" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B394" s="323"/>
-      <c r="C394" s="324"/>
-      <c r="D394" s="324"/>
-      <c r="E394" s="325"/>
-      <c r="F394" s="324"/>
-      <c r="G394" s="324"/>
-      <c r="H394" s="325"/>
-      <c r="I394" s="323"/>
-      <c r="J394" s="324"/>
-      <c r="K394" s="325"/>
+      <c r="B394" s="305"/>
+      <c r="C394" s="306"/>
+      <c r="D394" s="306"/>
+      <c r="E394" s="307"/>
+      <c r="F394" s="306"/>
+      <c r="G394" s="306"/>
+      <c r="H394" s="307"/>
+      <c r="I394" s="305"/>
+      <c r="J394" s="306"/>
+      <c r="K394" s="307"/>
       <c r="L394" s="145"/>
       <c r="M394" s="146"/>
       <c r="N394"/>
@@ -9887,55 +9840,55 @@
       <c r="A414" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B414" s="309"/>
-      <c r="C414" s="307"/>
-      <c r="D414" s="307"/>
-      <c r="E414" s="308"/>
-      <c r="F414" s="309"/>
-      <c r="G414" s="307"/>
-      <c r="H414" s="308"/>
-      <c r="I414" s="309"/>
-      <c r="J414" s="307"/>
-      <c r="K414" s="307"/>
-      <c r="L414" s="308"/>
-      <c r="M414" s="309"/>
-      <c r="N414" s="308"/>
+      <c r="B414" s="291"/>
+      <c r="C414" s="289"/>
+      <c r="D414" s="289"/>
+      <c r="E414" s="290"/>
+      <c r="F414" s="291"/>
+      <c r="G414" s="289"/>
+      <c r="H414" s="290"/>
+      <c r="I414" s="291"/>
+      <c r="J414" s="289"/>
+      <c r="K414" s="289"/>
+      <c r="L414" s="290"/>
+      <c r="M414" s="291"/>
+      <c r="N414" s="290"/>
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B415" s="309"/>
-      <c r="C415" s="307"/>
-      <c r="D415" s="307"/>
-      <c r="E415" s="308"/>
-      <c r="F415" s="309"/>
-      <c r="G415" s="307"/>
-      <c r="H415" s="308"/>
-      <c r="I415" s="309"/>
-      <c r="J415" s="307"/>
-      <c r="K415" s="307"/>
-      <c r="L415" s="308"/>
-      <c r="M415" s="309"/>
-      <c r="N415" s="308"/>
+      <c r="B415" s="291"/>
+      <c r="C415" s="289"/>
+      <c r="D415" s="289"/>
+      <c r="E415" s="290"/>
+      <c r="F415" s="291"/>
+      <c r="G415" s="289"/>
+      <c r="H415" s="290"/>
+      <c r="I415" s="291"/>
+      <c r="J415" s="289"/>
+      <c r="K415" s="289"/>
+      <c r="L415" s="290"/>
+      <c r="M415" s="291"/>
+      <c r="N415" s="290"/>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B416" s="309"/>
-      <c r="C416" s="307"/>
-      <c r="D416" s="307"/>
-      <c r="E416" s="308"/>
-      <c r="F416" s="309"/>
-      <c r="G416" s="307"/>
-      <c r="H416" s="308"/>
-      <c r="I416" s="309"/>
-      <c r="J416" s="307"/>
-      <c r="K416" s="307"/>
-      <c r="L416" s="308"/>
-      <c r="M416" s="309"/>
-      <c r="N416" s="308"/>
+      <c r="B416" s="291"/>
+      <c r="C416" s="289"/>
+      <c r="D416" s="289"/>
+      <c r="E416" s="290"/>
+      <c r="F416" s="291"/>
+      <c r="G416" s="289"/>
+      <c r="H416" s="290"/>
+      <c r="I416" s="291"/>
+      <c r="J416" s="289"/>
+      <c r="K416" s="289"/>
+      <c r="L416" s="290"/>
+      <c r="M416" s="291"/>
+      <c r="N416" s="290"/>
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="9" t="s">
@@ -9959,55 +9912,55 @@
       <c r="A418" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B418" s="309"/>
-      <c r="C418" s="307"/>
-      <c r="D418" s="307"/>
-      <c r="E418" s="308"/>
-      <c r="F418" s="309"/>
-      <c r="G418" s="307"/>
-      <c r="H418" s="308"/>
-      <c r="I418" s="309"/>
-      <c r="J418" s="307"/>
-      <c r="K418" s="307"/>
-      <c r="L418" s="308"/>
-      <c r="M418" s="309"/>
-      <c r="N418" s="308"/>
+      <c r="B418" s="291"/>
+      <c r="C418" s="289"/>
+      <c r="D418" s="289"/>
+      <c r="E418" s="290"/>
+      <c r="F418" s="291"/>
+      <c r="G418" s="289"/>
+      <c r="H418" s="290"/>
+      <c r="I418" s="291"/>
+      <c r="J418" s="289"/>
+      <c r="K418" s="289"/>
+      <c r="L418" s="290"/>
+      <c r="M418" s="291"/>
+      <c r="N418" s="290"/>
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B419" s="309"/>
-      <c r="C419" s="307"/>
-      <c r="D419" s="307"/>
-      <c r="E419" s="308"/>
-      <c r="F419" s="309"/>
-      <c r="G419" s="307"/>
-      <c r="H419" s="308"/>
-      <c r="I419" s="309"/>
-      <c r="J419" s="307"/>
-      <c r="K419" s="307"/>
-      <c r="L419" s="308"/>
-      <c r="M419" s="309"/>
-      <c r="N419" s="308"/>
+      <c r="B419" s="291"/>
+      <c r="C419" s="289"/>
+      <c r="D419" s="289"/>
+      <c r="E419" s="290"/>
+      <c r="F419" s="291"/>
+      <c r="G419" s="289"/>
+      <c r="H419" s="290"/>
+      <c r="I419" s="291"/>
+      <c r="J419" s="289"/>
+      <c r="K419" s="289"/>
+      <c r="L419" s="290"/>
+      <c r="M419" s="291"/>
+      <c r="N419" s="290"/>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B420" s="309"/>
-      <c r="C420" s="307"/>
-      <c r="D420" s="307"/>
-      <c r="E420" s="308"/>
-      <c r="F420" s="309"/>
-      <c r="G420" s="307"/>
-      <c r="H420" s="308"/>
-      <c r="I420" s="309"/>
-      <c r="J420" s="307"/>
-      <c r="K420" s="307"/>
-      <c r="L420" s="308"/>
-      <c r="M420" s="309"/>
-      <c r="N420" s="308"/>
+      <c r="B420" s="291"/>
+      <c r="C420" s="289"/>
+      <c r="D420" s="289"/>
+      <c r="E420" s="290"/>
+      <c r="F420" s="291"/>
+      <c r="G420" s="289"/>
+      <c r="H420" s="290"/>
+      <c r="I420" s="291"/>
+      <c r="J420" s="289"/>
+      <c r="K420" s="289"/>
+      <c r="L420" s="290"/>
+      <c r="M420" s="291"/>
+      <c r="N420" s="290"/>
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="9" t="s">
@@ -10031,55 +9984,55 @@
       <c r="A422" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B422" s="309"/>
-      <c r="C422" s="307"/>
-      <c r="D422" s="307"/>
-      <c r="E422" s="308"/>
-      <c r="F422" s="309"/>
-      <c r="G422" s="307"/>
-      <c r="H422" s="308"/>
-      <c r="I422" s="309"/>
-      <c r="J422" s="307"/>
-      <c r="K422" s="307"/>
-      <c r="L422" s="308"/>
-      <c r="M422" s="309"/>
-      <c r="N422" s="308"/>
+      <c r="B422" s="291"/>
+      <c r="C422" s="289"/>
+      <c r="D422" s="289"/>
+      <c r="E422" s="290"/>
+      <c r="F422" s="291"/>
+      <c r="G422" s="289"/>
+      <c r="H422" s="290"/>
+      <c r="I422" s="291"/>
+      <c r="J422" s="289"/>
+      <c r="K422" s="289"/>
+      <c r="L422" s="290"/>
+      <c r="M422" s="291"/>
+      <c r="N422" s="290"/>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B423" s="309"/>
-      <c r="C423" s="307"/>
-      <c r="D423" s="307"/>
-      <c r="E423" s="308"/>
-      <c r="F423" s="309"/>
-      <c r="G423" s="307"/>
-      <c r="H423" s="308"/>
-      <c r="I423" s="309"/>
-      <c r="J423" s="307"/>
-      <c r="K423" s="307"/>
-      <c r="L423" s="308"/>
-      <c r="M423" s="309"/>
-      <c r="N423" s="308"/>
+      <c r="B423" s="291"/>
+      <c r="C423" s="289"/>
+      <c r="D423" s="289"/>
+      <c r="E423" s="290"/>
+      <c r="F423" s="291"/>
+      <c r="G423" s="289"/>
+      <c r="H423" s="290"/>
+      <c r="I423" s="291"/>
+      <c r="J423" s="289"/>
+      <c r="K423" s="289"/>
+      <c r="L423" s="290"/>
+      <c r="M423" s="291"/>
+      <c r="N423" s="290"/>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B424" s="309"/>
-      <c r="C424" s="307"/>
-      <c r="D424" s="307"/>
-      <c r="E424" s="308"/>
-      <c r="F424" s="309"/>
-      <c r="G424" s="307"/>
-      <c r="H424" s="308"/>
-      <c r="I424" s="309"/>
-      <c r="J424" s="307"/>
-      <c r="K424" s="307"/>
-      <c r="L424" s="308"/>
-      <c r="M424" s="309"/>
-      <c r="N424" s="308"/>
+      <c r="B424" s="291"/>
+      <c r="C424" s="289"/>
+      <c r="D424" s="289"/>
+      <c r="E424" s="290"/>
+      <c r="F424" s="291"/>
+      <c r="G424" s="289"/>
+      <c r="H424" s="290"/>
+      <c r="I424" s="291"/>
+      <c r="J424" s="289"/>
+      <c r="K424" s="289"/>
+      <c r="L424" s="290"/>
+      <c r="M424" s="291"/>
+      <c r="N424" s="290"/>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="59" t="s">
@@ -10103,36 +10056,36 @@
       <c r="A426" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B426" s="309"/>
+      <c r="B426" s="291"/>
       <c r="C426" s="68"/>
       <c r="D426" s="68"/>
       <c r="E426" s="69"/>
-      <c r="F426" s="309"/>
+      <c r="F426" s="291"/>
       <c r="G426" s="68"/>
       <c r="H426" s="69"/>
-      <c r="I426" s="309"/>
+      <c r="I426" s="291"/>
       <c r="J426" s="68"/>
       <c r="K426" s="68"/>
       <c r="L426" s="69"/>
-      <c r="M426" s="309"/>
+      <c r="M426" s="291"/>
       <c r="N426" s="69"/>
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B427" s="309"/>
+      <c r="B427" s="291"/>
       <c r="C427" s="68"/>
       <c r="D427" s="68"/>
       <c r="E427" s="69"/>
-      <c r="F427" s="309"/>
+      <c r="F427" s="291"/>
       <c r="G427" s="68"/>
       <c r="H427" s="69"/>
-      <c r="I427" s="309"/>
+      <c r="I427" s="291"/>
       <c r="J427" s="68"/>
       <c r="K427" s="68"/>
       <c r="L427" s="69"/>
-      <c r="M427" s="309"/>
+      <c r="M427" s="291"/>
       <c r="N427" s="69"/>
     </row>
     <row r="428" spans="1:14">
@@ -10265,17 +10218,17 @@
       <c r="A435" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B435" s="309"/>
-      <c r="C435" s="307"/>
-      <c r="D435" s="307"/>
-      <c r="E435" s="308"/>
-      <c r="F435" s="309"/>
-      <c r="G435" s="307"/>
-      <c r="H435" s="308"/>
-      <c r="I435" s="309"/>
-      <c r="J435" s="307"/>
-      <c r="K435" s="307"/>
-      <c r="L435" s="308"/>
+      <c r="B435" s="291"/>
+      <c r="C435" s="289"/>
+      <c r="D435" s="289"/>
+      <c r="E435" s="290"/>
+      <c r="F435" s="291"/>
+      <c r="G435" s="289"/>
+      <c r="H435" s="290"/>
+      <c r="I435" s="291"/>
+      <c r="J435" s="289"/>
+      <c r="K435" s="289"/>
+      <c r="L435" s="290"/>
       <c r="M435" s="49"/>
       <c r="N435" s="50"/>
     </row>
@@ -10283,17 +10236,17 @@
       <c r="A436" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B436" s="309"/>
-      <c r="C436" s="307"/>
-      <c r="D436" s="307"/>
-      <c r="E436" s="308"/>
-      <c r="F436" s="309"/>
-      <c r="G436" s="307"/>
-      <c r="H436" s="308"/>
-      <c r="I436" s="309"/>
-      <c r="J436" s="307"/>
-      <c r="K436" s="307"/>
-      <c r="L436" s="308"/>
+      <c r="B436" s="291"/>
+      <c r="C436" s="289"/>
+      <c r="D436" s="289"/>
+      <c r="E436" s="290"/>
+      <c r="F436" s="291"/>
+      <c r="G436" s="289"/>
+      <c r="H436" s="290"/>
+      <c r="I436" s="291"/>
+      <c r="J436" s="289"/>
+      <c r="K436" s="289"/>
+      <c r="L436" s="290"/>
       <c r="M436" s="49"/>
       <c r="N436" s="50"/>
     </row>
@@ -10319,17 +10272,17 @@
       <c r="A438" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B438" s="309"/>
-      <c r="C438" s="307"/>
-      <c r="D438" s="307"/>
-      <c r="E438" s="308"/>
-      <c r="F438" s="309"/>
-      <c r="G438" s="307"/>
-      <c r="H438" s="308"/>
-      <c r="I438" s="309"/>
-      <c r="J438" s="307"/>
-      <c r="K438" s="307"/>
-      <c r="L438" s="308"/>
+      <c r="B438" s="291"/>
+      <c r="C438" s="289"/>
+      <c r="D438" s="289"/>
+      <c r="E438" s="290"/>
+      <c r="F438" s="291"/>
+      <c r="G438" s="289"/>
+      <c r="H438" s="290"/>
+      <c r="I438" s="291"/>
+      <c r="J438" s="289"/>
+      <c r="K438" s="289"/>
+      <c r="L438" s="290"/>
       <c r="M438" s="49"/>
       <c r="N438" s="50"/>
     </row>
@@ -10337,17 +10290,17 @@
       <c r="A439" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B439" s="309"/>
-      <c r="C439" s="307"/>
-      <c r="D439" s="307"/>
-      <c r="E439" s="308"/>
-      <c r="F439" s="309"/>
-      <c r="G439" s="307"/>
-      <c r="H439" s="308"/>
-      <c r="I439" s="309"/>
-      <c r="J439" s="307"/>
-      <c r="K439" s="307"/>
-      <c r="L439" s="308"/>
+      <c r="B439" s="291"/>
+      <c r="C439" s="289"/>
+      <c r="D439" s="289"/>
+      <c r="E439" s="290"/>
+      <c r="F439" s="291"/>
+      <c r="G439" s="289"/>
+      <c r="H439" s="290"/>
+      <c r="I439" s="291"/>
+      <c r="J439" s="289"/>
+      <c r="K439" s="289"/>
+      <c r="L439" s="290"/>
       <c r="M439" s="49"/>
       <c r="N439" s="50"/>
     </row>
@@ -10373,17 +10326,17 @@
       <c r="A441" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B441" s="309"/>
-      <c r="C441" s="307"/>
-      <c r="D441" s="307"/>
-      <c r="E441" s="308"/>
-      <c r="F441" s="309"/>
-      <c r="G441" s="307"/>
-      <c r="H441" s="308"/>
-      <c r="I441" s="309"/>
-      <c r="J441" s="307"/>
-      <c r="K441" s="307"/>
-      <c r="L441" s="308"/>
+      <c r="B441" s="291"/>
+      <c r="C441" s="289"/>
+      <c r="D441" s="289"/>
+      <c r="E441" s="290"/>
+      <c r="F441" s="291"/>
+      <c r="G441" s="289"/>
+      <c r="H441" s="290"/>
+      <c r="I441" s="291"/>
+      <c r="J441" s="289"/>
+      <c r="K441" s="289"/>
+      <c r="L441" s="290"/>
       <c r="M441" s="67"/>
       <c r="N441" s="69"/>
     </row>
@@ -10391,17 +10344,17 @@
       <c r="A442" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B442" s="309"/>
-      <c r="C442" s="307"/>
-      <c r="D442" s="307"/>
-      <c r="E442" s="308"/>
-      <c r="F442" s="309"/>
-      <c r="G442" s="307"/>
-      <c r="H442" s="308"/>
-      <c r="I442" s="309"/>
-      <c r="J442" s="307"/>
-      <c r="K442" s="307"/>
-      <c r="L442" s="308"/>
+      <c r="B442" s="291"/>
+      <c r="C442" s="289"/>
+      <c r="D442" s="289"/>
+      <c r="E442" s="290"/>
+      <c r="F442" s="291"/>
+      <c r="G442" s="289"/>
+      <c r="H442" s="290"/>
+      <c r="I442" s="291"/>
+      <c r="J442" s="289"/>
+      <c r="K442" s="289"/>
+      <c r="L442" s="290"/>
       <c r="M442" s="67"/>
       <c r="N442" s="69"/>
     </row>
@@ -10427,17 +10380,17 @@
       <c r="A444" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B444" s="309"/>
-      <c r="C444" s="307"/>
-      <c r="D444" s="307"/>
-      <c r="E444" s="308"/>
-      <c r="F444" s="309"/>
-      <c r="G444" s="307"/>
-      <c r="H444" s="308"/>
-      <c r="I444" s="309"/>
-      <c r="J444" s="307"/>
-      <c r="K444" s="307"/>
-      <c r="L444" s="308"/>
+      <c r="B444" s="291"/>
+      <c r="C444" s="289"/>
+      <c r="D444" s="289"/>
+      <c r="E444" s="290"/>
+      <c r="F444" s="291"/>
+      <c r="G444" s="289"/>
+      <c r="H444" s="290"/>
+      <c r="I444" s="291"/>
+      <c r="J444" s="289"/>
+      <c r="K444" s="289"/>
+      <c r="L444" s="290"/>
       <c r="M444" s="67"/>
       <c r="N444" s="69"/>
     </row>
@@ -10445,17 +10398,17 @@
       <c r="A445" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B445" s="320"/>
-      <c r="C445" s="321"/>
-      <c r="D445" s="321"/>
-      <c r="E445" s="322"/>
-      <c r="F445" s="320"/>
-      <c r="G445" s="321"/>
-      <c r="H445" s="322"/>
-      <c r="I445" s="320"/>
-      <c r="J445" s="321"/>
-      <c r="K445" s="321"/>
-      <c r="L445" s="322"/>
+      <c r="B445" s="302"/>
+      <c r="C445" s="303"/>
+      <c r="D445" s="303"/>
+      <c r="E445" s="304"/>
+      <c r="F445" s="302"/>
+      <c r="G445" s="303"/>
+      <c r="H445" s="304"/>
+      <c r="I445" s="302"/>
+      <c r="J445" s="303"/>
+      <c r="K445" s="303"/>
+      <c r="L445" s="304"/>
       <c r="M445" s="114"/>
       <c r="N445" s="116"/>
     </row>
@@ -10646,9 +10599,9 @@
       <c r="A469" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B469" s="312"/>
-      <c r="C469" s="305"/>
-      <c r="D469" s="306"/>
+      <c r="B469" s="294"/>
+      <c r="C469" s="287"/>
+      <c r="D469" s="288"/>
       <c r="E469" s="111"/>
       <c r="F469" s="112"/>
       <c r="G469" s="111"/>
@@ -10660,9 +10613,9 @@
       <c r="A470" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B470" s="312"/>
-      <c r="C470" s="305"/>
-      <c r="D470" s="306"/>
+      <c r="B470" s="294"/>
+      <c r="C470" s="287"/>
+      <c r="D470" s="288"/>
       <c r="E470" s="111"/>
       <c r="F470" s="112"/>
       <c r="G470" s="111"/>
@@ -10674,9 +10627,9 @@
       <c r="A471" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B471" s="312"/>
-      <c r="C471" s="305"/>
-      <c r="D471" s="306"/>
+      <c r="B471" s="294"/>
+      <c r="C471" s="287"/>
+      <c r="D471" s="288"/>
       <c r="E471" s="111"/>
       <c r="F471" s="112"/>
       <c r="G471" s="111"/>
@@ -10702,11 +10655,11 @@
       <c r="A473" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B473" s="312"/>
-      <c r="C473" s="305"/>
-      <c r="D473" s="306"/>
-      <c r="E473" s="305"/>
-      <c r="F473" s="306"/>
+      <c r="B473" s="294"/>
+      <c r="C473" s="287"/>
+      <c r="D473" s="288"/>
+      <c r="E473" s="287"/>
+      <c r="F473" s="288"/>
       <c r="G473" s="111"/>
       <c r="H473" s="111"/>
       <c r="I473" s="111"/>
@@ -10716,11 +10669,11 @@
       <c r="A474" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B474" s="312"/>
-      <c r="C474" s="305"/>
-      <c r="D474" s="306"/>
-      <c r="E474" s="305"/>
-      <c r="F474" s="306"/>
+      <c r="B474" s="294"/>
+      <c r="C474" s="287"/>
+      <c r="D474" s="288"/>
+      <c r="E474" s="287"/>
+      <c r="F474" s="288"/>
       <c r="G474" s="111"/>
       <c r="H474" s="111"/>
       <c r="I474" s="111"/>
@@ -10730,11 +10683,11 @@
       <c r="A475" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B475" s="312"/>
-      <c r="C475" s="305"/>
-      <c r="D475" s="306"/>
-      <c r="E475" s="305"/>
-      <c r="F475" s="306"/>
+      <c r="B475" s="294"/>
+      <c r="C475" s="287"/>
+      <c r="D475" s="288"/>
+      <c r="E475" s="287"/>
+      <c r="F475" s="288"/>
       <c r="G475" s="111"/>
       <c r="H475" s="111"/>
       <c r="I475" s="111"/>
@@ -10758,29 +10711,29 @@
       <c r="A477" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B477" s="312"/>
-      <c r="C477" s="305"/>
-      <c r="D477" s="306"/>
-      <c r="E477" s="305"/>
-      <c r="F477" s="306"/>
-      <c r="G477" s="305"/>
-      <c r="H477" s="305"/>
-      <c r="I477" s="305"/>
-      <c r="J477" s="306"/>
+      <c r="B477" s="294"/>
+      <c r="C477" s="287"/>
+      <c r="D477" s="288"/>
+      <c r="E477" s="287"/>
+      <c r="F477" s="288"/>
+      <c r="G477" s="287"/>
+      <c r="H477" s="287"/>
+      <c r="I477" s="287"/>
+      <c r="J477" s="288"/>
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B478" s="312"/>
-      <c r="C478" s="305"/>
-      <c r="D478" s="306"/>
-      <c r="E478" s="305"/>
-      <c r="F478" s="306"/>
-      <c r="G478" s="305"/>
-      <c r="H478" s="305"/>
-      <c r="I478" s="305"/>
-      <c r="J478" s="306"/>
+      <c r="B478" s="294"/>
+      <c r="C478" s="287"/>
+      <c r="D478" s="288"/>
+      <c r="E478" s="287"/>
+      <c r="F478" s="288"/>
+      <c r="G478" s="287"/>
+      <c r="H478" s="287"/>
+      <c r="I478" s="287"/>
+      <c r="J478" s="288"/>
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="9" t="s">
@@ -11024,15 +10977,15 @@
       <c r="A496" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B496" s="326"/>
-      <c r="C496" s="327"/>
-      <c r="D496" s="328"/>
-      <c r="E496" s="327"/>
-      <c r="F496" s="328"/>
-      <c r="G496" s="327"/>
-      <c r="H496" s="327"/>
-      <c r="I496" s="327"/>
-      <c r="J496" s="328"/>
+      <c r="B496" s="308"/>
+      <c r="C496" s="309"/>
+      <c r="D496" s="310"/>
+      <c r="E496" s="309"/>
+      <c r="F496" s="310"/>
+      <c r="G496" s="309"/>
+      <c r="H496" s="309"/>
+      <c r="I496" s="309"/>
+      <c r="J496" s="310"/>
     </row>
     <row r="510" spans="1:14" ht="16" thickBot="1"/>
     <row r="511" spans="1:14" ht="24" thickBot="1">
@@ -11209,55 +11162,55 @@
       <c r="A516" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B516" s="309"/>
-      <c r="C516" s="307"/>
-      <c r="D516" s="307"/>
-      <c r="E516" s="308"/>
-      <c r="F516" s="309"/>
-      <c r="G516" s="307"/>
-      <c r="H516" s="308"/>
+      <c r="B516" s="291"/>
+      <c r="C516" s="289"/>
+      <c r="D516" s="289"/>
+      <c r="E516" s="290"/>
+      <c r="F516" s="291"/>
+      <c r="G516" s="289"/>
+      <c r="H516" s="290"/>
       <c r="I516" s="67"/>
       <c r="J516" s="68"/>
       <c r="K516" s="68"/>
       <c r="L516" s="69"/>
-      <c r="M516" s="309"/>
-      <c r="N516" s="308"/>
+      <c r="M516" s="291"/>
+      <c r="N516" s="290"/>
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B517" s="309"/>
-      <c r="C517" s="307"/>
-      <c r="D517" s="307"/>
-      <c r="E517" s="308"/>
-      <c r="F517" s="309"/>
-      <c r="G517" s="307"/>
-      <c r="H517" s="308"/>
+      <c r="B517" s="291"/>
+      <c r="C517" s="289"/>
+      <c r="D517" s="289"/>
+      <c r="E517" s="290"/>
+      <c r="F517" s="291"/>
+      <c r="G517" s="289"/>
+      <c r="H517" s="290"/>
       <c r="I517" s="67"/>
       <c r="J517" s="68"/>
       <c r="K517" s="68"/>
       <c r="L517" s="69"/>
-      <c r="M517" s="309"/>
-      <c r="N517" s="308"/>
+      <c r="M517" s="291"/>
+      <c r="N517" s="290"/>
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B518" s="309"/>
-      <c r="C518" s="307"/>
-      <c r="D518" s="307"/>
-      <c r="E518" s="308"/>
-      <c r="F518" s="309"/>
-      <c r="G518" s="307"/>
-      <c r="H518" s="308"/>
+      <c r="B518" s="291"/>
+      <c r="C518" s="289"/>
+      <c r="D518" s="289"/>
+      <c r="E518" s="290"/>
+      <c r="F518" s="291"/>
+      <c r="G518" s="289"/>
+      <c r="H518" s="290"/>
       <c r="I518" s="67"/>
       <c r="J518" s="68"/>
       <c r="K518" s="68"/>
       <c r="L518" s="69"/>
-      <c r="M518" s="309"/>
-      <c r="N518" s="308"/>
+      <c r="M518" s="291"/>
+      <c r="N518" s="290"/>
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="9" t="s">
@@ -11292,8 +11245,8 @@
       <c r="J520" s="68"/>
       <c r="K520" s="68"/>
       <c r="L520" s="69"/>
-      <c r="M520" s="309"/>
-      <c r="N520" s="308"/>
+      <c r="M520" s="291"/>
+      <c r="N520" s="290"/>
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="7" t="s">
@@ -11310,8 +11263,8 @@
       <c r="J521" s="68"/>
       <c r="K521" s="68"/>
       <c r="L521" s="69"/>
-      <c r="M521" s="309"/>
-      <c r="N521" s="308"/>
+      <c r="M521" s="291"/>
+      <c r="N521" s="290"/>
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="8" t="s">
@@ -11328,8 +11281,8 @@
       <c r="J522" s="68"/>
       <c r="K522" s="68"/>
       <c r="L522" s="69"/>
-      <c r="M522" s="309"/>
-      <c r="N522" s="308"/>
+      <c r="M522" s="291"/>
+      <c r="N522" s="290"/>
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="9" t="s">
@@ -11353,10 +11306,10 @@
       <c r="A524" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B524" s="309"/>
-      <c r="C524" s="307"/>
-      <c r="D524" s="307"/>
-      <c r="E524" s="308"/>
+      <c r="B524" s="291"/>
+      <c r="C524" s="289"/>
+      <c r="D524" s="289"/>
+      <c r="E524" s="290"/>
       <c r="F524" s="67"/>
       <c r="G524" s="68"/>
       <c r="H524" s="69"/>
@@ -11364,17 +11317,17 @@
       <c r="J524" s="68"/>
       <c r="K524" s="68"/>
       <c r="L524" s="50"/>
-      <c r="M524" s="309"/>
-      <c r="N524" s="308"/>
+      <c r="M524" s="291"/>
+      <c r="N524" s="290"/>
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B525" s="309"/>
-      <c r="C525" s="307"/>
-      <c r="D525" s="307"/>
-      <c r="E525" s="308"/>
+      <c r="B525" s="291"/>
+      <c r="C525" s="289"/>
+      <c r="D525" s="289"/>
+      <c r="E525" s="290"/>
       <c r="F525" s="67"/>
       <c r="G525" s="68"/>
       <c r="H525" s="69"/>
@@ -11382,17 +11335,17 @@
       <c r="J525" s="68"/>
       <c r="K525" s="68"/>
       <c r="L525" s="50"/>
-      <c r="M525" s="309"/>
-      <c r="N525" s="308"/>
+      <c r="M525" s="291"/>
+      <c r="N525" s="290"/>
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B526" s="309"/>
-      <c r="C526" s="307"/>
-      <c r="D526" s="307"/>
-      <c r="E526" s="308"/>
+      <c r="B526" s="291"/>
+      <c r="C526" s="289"/>
+      <c r="D526" s="289"/>
+      <c r="E526" s="290"/>
       <c r="F526" s="67"/>
       <c r="G526" s="68"/>
       <c r="H526" s="69"/>
@@ -11400,8 +11353,8 @@
       <c r="J526" s="68"/>
       <c r="K526" s="68"/>
       <c r="L526" s="50"/>
-      <c r="M526" s="309"/>
-      <c r="N526" s="308"/>
+      <c r="M526" s="291"/>
+      <c r="N526" s="290"/>
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="59" t="s">
@@ -11425,37 +11378,37 @@
       <c r="A528" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B528" s="309"/>
-      <c r="C528" s="307"/>
-      <c r="D528" s="307"/>
-      <c r="E528" s="308"/>
-      <c r="F528" s="309"/>
-      <c r="G528" s="307"/>
-      <c r="H528" s="308"/>
-      <c r="I528" s="309"/>
-      <c r="J528" s="307"/>
-      <c r="K528" s="307"/>
-      <c r="L528" s="308"/>
-      <c r="M528" s="309"/>
-      <c r="N528" s="308"/>
+      <c r="B528" s="291"/>
+      <c r="C528" s="289"/>
+      <c r="D528" s="289"/>
+      <c r="E528" s="290"/>
+      <c r="F528" s="291"/>
+      <c r="G528" s="289"/>
+      <c r="H528" s="290"/>
+      <c r="I528" s="291"/>
+      <c r="J528" s="289"/>
+      <c r="K528" s="289"/>
+      <c r="L528" s="290"/>
+      <c r="M528" s="291"/>
+      <c r="N528" s="290"/>
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B529" s="309"/>
-      <c r="C529" s="307"/>
-      <c r="D529" s="307"/>
-      <c r="E529" s="308"/>
-      <c r="F529" s="309"/>
-      <c r="G529" s="307"/>
-      <c r="H529" s="308"/>
-      <c r="I529" s="309"/>
-      <c r="J529" s="307"/>
-      <c r="K529" s="307"/>
-      <c r="L529" s="308"/>
-      <c r="M529" s="309"/>
-      <c r="N529" s="308"/>
+      <c r="B529" s="291"/>
+      <c r="C529" s="289"/>
+      <c r="D529" s="289"/>
+      <c r="E529" s="290"/>
+      <c r="F529" s="291"/>
+      <c r="G529" s="289"/>
+      <c r="H529" s="290"/>
+      <c r="I529" s="291"/>
+      <c r="J529" s="289"/>
+      <c r="K529" s="289"/>
+      <c r="L529" s="290"/>
+      <c r="M529" s="291"/>
+      <c r="N529" s="290"/>
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="9" t="s">
@@ -11900,12 +11853,12 @@
       <c r="A567" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B567" s="309"/>
-      <c r="C567" s="307"/>
+      <c r="B567" s="291"/>
+      <c r="C567" s="289"/>
       <c r="D567" s="69"/>
       <c r="E567" s="68"/>
-      <c r="F567" s="308"/>
-      <c r="G567" s="307"/>
+      <c r="F567" s="290"/>
+      <c r="G567" s="289"/>
       <c r="H567" s="68"/>
       <c r="I567" s="69"/>
     </row>
@@ -11913,12 +11866,12 @@
       <c r="A568" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B568" s="309"/>
-      <c r="C568" s="307"/>
+      <c r="B568" s="291"/>
+      <c r="C568" s="289"/>
       <c r="D568" s="69"/>
       <c r="E568" s="68"/>
-      <c r="F568" s="308"/>
-      <c r="G568" s="307"/>
+      <c r="F568" s="290"/>
+      <c r="G568" s="289"/>
       <c r="H568" s="68"/>
       <c r="I568" s="69"/>
     </row>
@@ -11926,12 +11879,12 @@
       <c r="A569" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B569" s="309"/>
-      <c r="C569" s="307"/>
+      <c r="B569" s="291"/>
+      <c r="C569" s="289"/>
       <c r="D569" s="69"/>
       <c r="E569" s="68"/>
-      <c r="F569" s="308"/>
-      <c r="G569" s="307"/>
+      <c r="F569" s="290"/>
+      <c r="G569" s="289"/>
       <c r="H569" s="68"/>
       <c r="I569" s="69"/>
     </row>
@@ -11953,39 +11906,39 @@
         <v>13</v>
       </c>
       <c r="B571" s="67"/>
-      <c r="C571" s="307"/>
+      <c r="C571" s="289"/>
       <c r="D571" s="69"/>
-      <c r="E571" s="307"/>
+      <c r="E571" s="289"/>
       <c r="F571" s="69"/>
-      <c r="G571" s="307"/>
+      <c r="G571" s="289"/>
       <c r="H571" s="68"/>
-      <c r="I571" s="308"/>
+      <c r="I571" s="290"/>
     </row>
     <row r="572" spans="1:9">
       <c r="A572" s="180" t="s">
         <v>12</v>
       </c>
       <c r="B572" s="67"/>
-      <c r="C572" s="307"/>
+      <c r="C572" s="289"/>
       <c r="D572" s="69"/>
-      <c r="E572" s="307"/>
+      <c r="E572" s="289"/>
       <c r="F572" s="69"/>
-      <c r="G572" s="307"/>
+      <c r="G572" s="289"/>
       <c r="H572" s="68"/>
-      <c r="I572" s="308"/>
+      <c r="I572" s="290"/>
     </row>
     <row r="573" spans="1:9">
       <c r="A573" s="181" t="s">
         <v>11</v>
       </c>
       <c r="B573" s="67"/>
-      <c r="C573" s="307"/>
+      <c r="C573" s="289"/>
       <c r="D573" s="69"/>
-      <c r="E573" s="307"/>
+      <c r="E573" s="289"/>
       <c r="F573" s="69"/>
-      <c r="G573" s="307"/>
+      <c r="G573" s="289"/>
       <c r="H573" s="68"/>
-      <c r="I573" s="308"/>
+      <c r="I573" s="290"/>
     </row>
     <row r="574" spans="1:9">
       <c r="A574" s="182" t="s">
@@ -12004,39 +11957,39 @@
       <c r="A575" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B575" s="309"/>
+      <c r="B575" s="291"/>
       <c r="C575" s="68"/>
-      <c r="D575" s="308"/>
+      <c r="D575" s="290"/>
       <c r="E575" s="68"/>
-      <c r="F575" s="308"/>
+      <c r="F575" s="290"/>
       <c r="G575" s="68"/>
-      <c r="H575" s="307"/>
+      <c r="H575" s="289"/>
       <c r="I575" s="69"/>
     </row>
     <row r="576" spans="1:9">
       <c r="A576" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B576" s="309"/>
+      <c r="B576" s="291"/>
       <c r="C576" s="68"/>
-      <c r="D576" s="308"/>
+      <c r="D576" s="290"/>
       <c r="E576" s="68"/>
-      <c r="F576" s="308"/>
+      <c r="F576" s="290"/>
       <c r="G576" s="68"/>
-      <c r="H576" s="307"/>
+      <c r="H576" s="289"/>
       <c r="I576" s="69"/>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B577" s="309"/>
+      <c r="B577" s="291"/>
       <c r="C577" s="68"/>
-      <c r="D577" s="308"/>
+      <c r="D577" s="290"/>
       <c r="E577" s="68"/>
-      <c r="F577" s="308"/>
+      <c r="F577" s="290"/>
       <c r="G577" s="68"/>
-      <c r="H577" s="307"/>
+      <c r="H577" s="289"/>
       <c r="I577" s="69"/>
     </row>
     <row r="578" spans="1:9">
@@ -12056,27 +12009,27 @@
       <c r="A579" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B579" s="309"/>
-      <c r="C579" s="307"/>
-      <c r="D579" s="308"/>
-      <c r="E579" s="307"/>
-      <c r="F579" s="308"/>
-      <c r="G579" s="307"/>
-      <c r="H579" s="307"/>
-      <c r="I579" s="308"/>
+      <c r="B579" s="291"/>
+      <c r="C579" s="289"/>
+      <c r="D579" s="290"/>
+      <c r="E579" s="289"/>
+      <c r="F579" s="290"/>
+      <c r="G579" s="289"/>
+      <c r="H579" s="289"/>
+      <c r="I579" s="290"/>
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B580" s="309"/>
-      <c r="C580" s="307"/>
-      <c r="D580" s="308"/>
-      <c r="E580" s="307"/>
-      <c r="F580" s="308"/>
-      <c r="G580" s="307"/>
-      <c r="H580" s="307"/>
-      <c r="I580" s="308"/>
+      <c r="B580" s="291"/>
+      <c r="C580" s="289"/>
+      <c r="D580" s="290"/>
+      <c r="E580" s="289"/>
+      <c r="F580" s="290"/>
+      <c r="G580" s="289"/>
+      <c r="H580" s="289"/>
+      <c r="I580" s="290"/>
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="182" t="s">
@@ -12108,14 +12061,14 @@
       <c r="A583" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B583" s="309"/>
-      <c r="C583" s="307"/>
-      <c r="D583" s="308"/>
-      <c r="E583" s="307"/>
-      <c r="F583" s="308"/>
-      <c r="G583" s="307"/>
-      <c r="H583" s="307"/>
-      <c r="I583" s="308"/>
+      <c r="B583" s="291"/>
+      <c r="C583" s="289"/>
+      <c r="D583" s="290"/>
+      <c r="E583" s="289"/>
+      <c r="F583" s="290"/>
+      <c r="G583" s="289"/>
+      <c r="H583" s="289"/>
+      <c r="I583" s="290"/>
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="182" t="s">
@@ -12147,14 +12100,14 @@
       <c r="A586" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B586" s="309"/>
-      <c r="C586" s="307"/>
-      <c r="D586" s="308"/>
-      <c r="E586" s="307"/>
-      <c r="F586" s="308"/>
-      <c r="G586" s="307"/>
-      <c r="H586" s="307"/>
-      <c r="I586" s="308"/>
+      <c r="B586" s="291"/>
+      <c r="C586" s="289"/>
+      <c r="D586" s="290"/>
+      <c r="E586" s="289"/>
+      <c r="F586" s="290"/>
+      <c r="G586" s="289"/>
+      <c r="H586" s="289"/>
+      <c r="I586" s="290"/>
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="182" t="s">
@@ -12533,21 +12486,21 @@
       </c>
       <c r="B618" s="110"/>
       <c r="C618" s="111"/>
-      <c r="D618" s="306"/>
+      <c r="D618" s="288"/>
       <c r="E618" s="111"/>
-      <c r="F618" s="306"/>
+      <c r="F618" s="288"/>
       <c r="G618" s="111"/>
       <c r="H618" s="111"/>
       <c r="I618" s="111"/>
-      <c r="J618" s="306"/>
+      <c r="J618" s="288"/>
       <c r="K618" s="110"/>
       <c r="L618" s="111"/>
       <c r="M618" s="112"/>
       <c r="N618" s="111"/>
-      <c r="O618" s="306"/>
+      <c r="O618" s="288"/>
       <c r="P618" s="111"/>
       <c r="Q618" s="111"/>
-      <c r="R618" s="306"/>
+      <c r="R618" s="288"/>
     </row>
     <row r="619" spans="1:18">
       <c r="A619" s="180" t="s">
@@ -12555,21 +12508,21 @@
       </c>
       <c r="B619" s="110"/>
       <c r="C619" s="111"/>
-      <c r="D619" s="306"/>
+      <c r="D619" s="288"/>
       <c r="E619" s="111"/>
-      <c r="F619" s="306"/>
+      <c r="F619" s="288"/>
       <c r="G619" s="111"/>
       <c r="H619" s="111"/>
       <c r="I619" s="111"/>
-      <c r="J619" s="306"/>
+      <c r="J619" s="288"/>
       <c r="K619" s="110"/>
       <c r="L619" s="111"/>
       <c r="M619" s="112"/>
       <c r="N619" s="111"/>
-      <c r="O619" s="306"/>
+      <c r="O619" s="288"/>
       <c r="P619" s="111"/>
       <c r="Q619" s="111"/>
-      <c r="R619" s="306"/>
+      <c r="R619" s="288"/>
     </row>
     <row r="620" spans="1:18">
       <c r="A620" s="181" t="s">
@@ -12577,21 +12530,21 @@
       </c>
       <c r="B620" s="110"/>
       <c r="C620" s="111"/>
-      <c r="D620" s="306"/>
+      <c r="D620" s="288"/>
       <c r="E620" s="111"/>
-      <c r="F620" s="306"/>
+      <c r="F620" s="288"/>
       <c r="G620" s="111"/>
       <c r="H620" s="111"/>
       <c r="I620" s="111"/>
-      <c r="J620" s="306"/>
+      <c r="J620" s="288"/>
       <c r="K620" s="110"/>
       <c r="L620" s="111"/>
       <c r="M620" s="112"/>
       <c r="N620" s="111"/>
-      <c r="O620" s="306"/>
+      <c r="O620" s="288"/>
       <c r="P620" s="111"/>
       <c r="Q620" s="111"/>
-      <c r="R620" s="306"/>
+      <c r="R620" s="288"/>
     </row>
     <row r="621" spans="1:18">
       <c r="A621" s="182" t="s">
@@ -12619,21 +12572,21 @@
       <c r="A622" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B622" s="312"/>
+      <c r="B622" s="294"/>
       <c r="C622" s="111"/>
       <c r="D622" s="112"/>
-      <c r="E622" s="305"/>
+      <c r="E622" s="287"/>
       <c r="F622" s="112"/>
-      <c r="G622" s="305"/>
+      <c r="G622" s="287"/>
       <c r="H622" s="111"/>
       <c r="I622" s="111"/>
       <c r="J622" s="112"/>
-      <c r="K622" s="312"/>
+      <c r="K622" s="294"/>
       <c r="L622" s="111"/>
       <c r="M622" s="112"/>
-      <c r="N622" s="305"/>
+      <c r="N622" s="287"/>
       <c r="O622" s="112"/>
-      <c r="P622" s="305"/>
+      <c r="P622" s="287"/>
       <c r="Q622" s="111"/>
       <c r="R622" s="103"/>
     </row>
@@ -12641,21 +12594,21 @@
       <c r="A623" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B623" s="312"/>
+      <c r="B623" s="294"/>
       <c r="C623" s="111"/>
       <c r="D623" s="112"/>
-      <c r="E623" s="305"/>
+      <c r="E623" s="287"/>
       <c r="F623" s="112"/>
-      <c r="G623" s="305"/>
+      <c r="G623" s="287"/>
       <c r="H623" s="111"/>
       <c r="I623" s="111"/>
       <c r="J623" s="112"/>
-      <c r="K623" s="312"/>
+      <c r="K623" s="294"/>
       <c r="L623" s="111"/>
       <c r="M623" s="112"/>
-      <c r="N623" s="305"/>
+      <c r="N623" s="287"/>
       <c r="O623" s="112"/>
-      <c r="P623" s="305"/>
+      <c r="P623" s="287"/>
       <c r="Q623" s="111"/>
       <c r="R623" s="103"/>
     </row>
@@ -12663,21 +12616,21 @@
       <c r="A624" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B624" s="312"/>
+      <c r="B624" s="294"/>
       <c r="C624" s="111"/>
       <c r="D624" s="112"/>
-      <c r="E624" s="305"/>
+      <c r="E624" s="287"/>
       <c r="F624" s="112"/>
-      <c r="G624" s="305"/>
+      <c r="G624" s="287"/>
       <c r="H624" s="111"/>
       <c r="I624" s="111"/>
       <c r="J624" s="112"/>
-      <c r="K624" s="312"/>
+      <c r="K624" s="294"/>
       <c r="L624" s="111"/>
       <c r="M624" s="112"/>
-      <c r="N624" s="305"/>
+      <c r="N624" s="287"/>
       <c r="O624" s="112"/>
-      <c r="P624" s="305"/>
+      <c r="P624" s="287"/>
       <c r="Q624" s="111"/>
       <c r="R624" s="103"/>
     </row>
@@ -12708,21 +12661,21 @@
         <v>13</v>
       </c>
       <c r="B626" s="110"/>
-      <c r="C626" s="305"/>
+      <c r="C626" s="287"/>
       <c r="D626" s="112"/>
       <c r="E626" s="111"/>
       <c r="F626" s="112"/>
       <c r="G626" s="111"/>
-      <c r="H626" s="305"/>
-      <c r="I626" s="305"/>
+      <c r="H626" s="287"/>
+      <c r="I626" s="287"/>
       <c r="J626" s="112"/>
       <c r="K626" s="110"/>
-      <c r="L626" s="305"/>
+      <c r="L626" s="287"/>
       <c r="M626" s="112"/>
       <c r="N626" s="111"/>
       <c r="O626" s="112"/>
       <c r="P626" s="111"/>
-      <c r="Q626" s="305"/>
+      <c r="Q626" s="287"/>
       <c r="R626" s="103"/>
     </row>
     <row r="627" spans="1:18">
@@ -12730,21 +12683,21 @@
         <v>12</v>
       </c>
       <c r="B627" s="110"/>
-      <c r="C627" s="305"/>
+      <c r="C627" s="287"/>
       <c r="D627" s="112"/>
       <c r="E627" s="111"/>
       <c r="F627" s="112"/>
       <c r="G627" s="111"/>
-      <c r="H627" s="305"/>
-      <c r="I627" s="305"/>
+      <c r="H627" s="287"/>
+      <c r="I627" s="287"/>
       <c r="J627" s="112"/>
       <c r="K627" s="110"/>
-      <c r="L627" s="305"/>
+      <c r="L627" s="287"/>
       <c r="M627" s="112"/>
       <c r="N627" s="111"/>
       <c r="O627" s="112"/>
       <c r="P627" s="111"/>
-      <c r="Q627" s="305"/>
+      <c r="Q627" s="287"/>
       <c r="R627" s="103"/>
     </row>
     <row r="628" spans="1:18">
@@ -12752,21 +12705,21 @@
         <v>11</v>
       </c>
       <c r="B628" s="110"/>
-      <c r="C628" s="305"/>
+      <c r="C628" s="287"/>
       <c r="D628" s="112"/>
       <c r="E628" s="111"/>
       <c r="F628" s="112"/>
       <c r="G628" s="111"/>
-      <c r="H628" s="305"/>
-      <c r="I628" s="305"/>
+      <c r="H628" s="287"/>
+      <c r="I628" s="287"/>
       <c r="J628" s="112"/>
       <c r="K628" s="110"/>
-      <c r="L628" s="305"/>
+      <c r="L628" s="287"/>
       <c r="M628" s="112"/>
       <c r="N628" s="111"/>
       <c r="O628" s="112"/>
       <c r="P628" s="111"/>
-      <c r="Q628" s="305"/>
+      <c r="Q628" s="287"/>
       <c r="R628" s="103"/>
     </row>
     <row r="629" spans="1:18">
@@ -12795,45 +12748,45 @@
       <c r="A630" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B630" s="312"/>
-      <c r="C630" s="305"/>
-      <c r="D630" s="306"/>
-      <c r="E630" s="305"/>
-      <c r="F630" s="306"/>
-      <c r="G630" s="305"/>
-      <c r="H630" s="305"/>
-      <c r="I630" s="305"/>
-      <c r="J630" s="306"/>
-      <c r="K630" s="312"/>
-      <c r="L630" s="305"/>
-      <c r="M630" s="306"/>
-      <c r="N630" s="305"/>
-      <c r="O630" s="306"/>
-      <c r="P630" s="305"/>
-      <c r="Q630" s="305"/>
-      <c r="R630" s="306"/>
+      <c r="B630" s="294"/>
+      <c r="C630" s="287"/>
+      <c r="D630" s="288"/>
+      <c r="E630" s="287"/>
+      <c r="F630" s="288"/>
+      <c r="G630" s="287"/>
+      <c r="H630" s="287"/>
+      <c r="I630" s="287"/>
+      <c r="J630" s="288"/>
+      <c r="K630" s="294"/>
+      <c r="L630" s="287"/>
+      <c r="M630" s="288"/>
+      <c r="N630" s="287"/>
+      <c r="O630" s="288"/>
+      <c r="P630" s="287"/>
+      <c r="Q630" s="287"/>
+      <c r="R630" s="288"/>
     </row>
     <row r="631" spans="1:18">
       <c r="A631" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B631" s="312"/>
-      <c r="C631" s="305"/>
-      <c r="D631" s="306"/>
-      <c r="E631" s="305"/>
-      <c r="F631" s="306"/>
-      <c r="G631" s="305"/>
-      <c r="H631" s="305"/>
-      <c r="I631" s="305"/>
-      <c r="J631" s="306"/>
-      <c r="K631" s="312"/>
-      <c r="L631" s="305"/>
-      <c r="M631" s="306"/>
-      <c r="N631" s="305"/>
-      <c r="O631" s="306"/>
-      <c r="P631" s="305"/>
-      <c r="Q631" s="305"/>
-      <c r="R631" s="306"/>
+      <c r="B631" s="294"/>
+      <c r="C631" s="287"/>
+      <c r="D631" s="288"/>
+      <c r="E631" s="287"/>
+      <c r="F631" s="288"/>
+      <c r="G631" s="287"/>
+      <c r="H631" s="287"/>
+      <c r="I631" s="287"/>
+      <c r="J631" s="288"/>
+      <c r="K631" s="294"/>
+      <c r="L631" s="287"/>
+      <c r="M631" s="288"/>
+      <c r="N631" s="287"/>
+      <c r="O631" s="288"/>
+      <c r="P631" s="287"/>
+      <c r="Q631" s="287"/>
+      <c r="R631" s="288"/>
     </row>
     <row r="632" spans="1:18">
       <c r="A632" s="182" t="s">
@@ -12993,45 +12946,45 @@
       <c r="A639" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B639" s="312"/>
-      <c r="C639" s="305"/>
-      <c r="D639" s="306"/>
-      <c r="E639" s="305"/>
-      <c r="F639" s="306"/>
-      <c r="G639" s="305"/>
-      <c r="H639" s="305"/>
-      <c r="I639" s="305"/>
-      <c r="J639" s="306"/>
-      <c r="K639" s="312"/>
-      <c r="L639" s="305"/>
-      <c r="M639" s="306"/>
-      <c r="N639" s="305"/>
-      <c r="O639" s="306"/>
-      <c r="P639" s="305"/>
-      <c r="Q639" s="305"/>
-      <c r="R639" s="306"/>
+      <c r="B639" s="294"/>
+      <c r="C639" s="287"/>
+      <c r="D639" s="288"/>
+      <c r="E639" s="287"/>
+      <c r="F639" s="288"/>
+      <c r="G639" s="287"/>
+      <c r="H639" s="287"/>
+      <c r="I639" s="287"/>
+      <c r="J639" s="288"/>
+      <c r="K639" s="294"/>
+      <c r="L639" s="287"/>
+      <c r="M639" s="288"/>
+      <c r="N639" s="287"/>
+      <c r="O639" s="288"/>
+      <c r="P639" s="287"/>
+      <c r="Q639" s="287"/>
+      <c r="R639" s="288"/>
     </row>
     <row r="640" spans="1:18">
       <c r="A640" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B640" s="312"/>
-      <c r="C640" s="305"/>
-      <c r="D640" s="306"/>
-      <c r="E640" s="305"/>
-      <c r="F640" s="306"/>
-      <c r="G640" s="305"/>
-      <c r="H640" s="305"/>
-      <c r="I640" s="305"/>
-      <c r="J640" s="306"/>
-      <c r="K640" s="312"/>
-      <c r="L640" s="305"/>
-      <c r="M640" s="306"/>
-      <c r="N640" s="305"/>
-      <c r="O640" s="306"/>
-      <c r="P640" s="305"/>
-      <c r="Q640" s="305"/>
-      <c r="R640" s="306"/>
+      <c r="B640" s="294"/>
+      <c r="C640" s="287"/>
+      <c r="D640" s="288"/>
+      <c r="E640" s="287"/>
+      <c r="F640" s="288"/>
+      <c r="G640" s="287"/>
+      <c r="H640" s="287"/>
+      <c r="I640" s="287"/>
+      <c r="J640" s="288"/>
+      <c r="K640" s="294"/>
+      <c r="L640" s="287"/>
+      <c r="M640" s="288"/>
+      <c r="N640" s="287"/>
+      <c r="O640" s="288"/>
+      <c r="P640" s="287"/>
+      <c r="Q640" s="287"/>
+      <c r="R640" s="288"/>
     </row>
     <row r="641" spans="1:18">
       <c r="A641" s="182" t="s">
@@ -13059,45 +13012,45 @@
       <c r="A642" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B642" s="312"/>
-      <c r="C642" s="305"/>
-      <c r="D642" s="306"/>
-      <c r="E642" s="305"/>
-      <c r="F642" s="306"/>
-      <c r="G642" s="305"/>
-      <c r="H642" s="305"/>
-      <c r="I642" s="305"/>
-      <c r="J642" s="306"/>
-      <c r="K642" s="312"/>
-      <c r="L642" s="305"/>
-      <c r="M642" s="306"/>
-      <c r="N642" s="305"/>
-      <c r="O642" s="306"/>
-      <c r="P642" s="305"/>
-      <c r="Q642" s="305"/>
-      <c r="R642" s="306"/>
+      <c r="B642" s="294"/>
+      <c r="C642" s="287"/>
+      <c r="D642" s="288"/>
+      <c r="E642" s="287"/>
+      <c r="F642" s="288"/>
+      <c r="G642" s="287"/>
+      <c r="H642" s="287"/>
+      <c r="I642" s="287"/>
+      <c r="J642" s="288"/>
+      <c r="K642" s="294"/>
+      <c r="L642" s="287"/>
+      <c r="M642" s="288"/>
+      <c r="N642" s="287"/>
+      <c r="O642" s="288"/>
+      <c r="P642" s="287"/>
+      <c r="Q642" s="287"/>
+      <c r="R642" s="288"/>
     </row>
     <row r="643" spans="1:18">
       <c r="A643" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B643" s="312"/>
-      <c r="C643" s="305"/>
-      <c r="D643" s="306"/>
-      <c r="E643" s="305"/>
-      <c r="F643" s="306"/>
-      <c r="G643" s="305"/>
-      <c r="H643" s="305"/>
-      <c r="I643" s="305"/>
-      <c r="J643" s="306"/>
-      <c r="K643" s="312"/>
-      <c r="L643" s="305"/>
-      <c r="M643" s="306"/>
-      <c r="N643" s="305"/>
-      <c r="O643" s="306"/>
-      <c r="P643" s="305"/>
-      <c r="Q643" s="305"/>
-      <c r="R643" s="306"/>
+      <c r="B643" s="294"/>
+      <c r="C643" s="287"/>
+      <c r="D643" s="288"/>
+      <c r="E643" s="287"/>
+      <c r="F643" s="288"/>
+      <c r="G643" s="287"/>
+      <c r="H643" s="287"/>
+      <c r="I643" s="287"/>
+      <c r="J643" s="288"/>
+      <c r="K643" s="294"/>
+      <c r="L643" s="287"/>
+      <c r="M643" s="288"/>
+      <c r="N643" s="287"/>
+      <c r="O643" s="288"/>
+      <c r="P643" s="287"/>
+      <c r="Q643" s="287"/>
+      <c r="R643" s="288"/>
     </row>
     <row r="644" spans="1:18">
       <c r="A644" s="182" t="s">
@@ -13125,45 +13078,45 @@
       <c r="A645" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B645" s="312"/>
-      <c r="C645" s="305"/>
-      <c r="D645" s="306"/>
-      <c r="E645" s="305"/>
-      <c r="F645" s="306"/>
-      <c r="G645" s="305"/>
-      <c r="H645" s="305"/>
-      <c r="I645" s="305"/>
-      <c r="J645" s="306"/>
-      <c r="K645" s="312"/>
-      <c r="L645" s="305"/>
-      <c r="M645" s="306"/>
-      <c r="N645" s="305"/>
-      <c r="O645" s="306"/>
-      <c r="P645" s="305"/>
-      <c r="Q645" s="305"/>
-      <c r="R645" s="306"/>
+      <c r="B645" s="294"/>
+      <c r="C645" s="287"/>
+      <c r="D645" s="288"/>
+      <c r="E645" s="287"/>
+      <c r="F645" s="288"/>
+      <c r="G645" s="287"/>
+      <c r="H645" s="287"/>
+      <c r="I645" s="287"/>
+      <c r="J645" s="288"/>
+      <c r="K645" s="294"/>
+      <c r="L645" s="287"/>
+      <c r="M645" s="288"/>
+      <c r="N645" s="287"/>
+      <c r="O645" s="288"/>
+      <c r="P645" s="287"/>
+      <c r="Q645" s="287"/>
+      <c r="R645" s="288"/>
     </row>
     <row r="646" spans="1:18">
       <c r="A646" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B646" s="312"/>
-      <c r="C646" s="305"/>
-      <c r="D646" s="306"/>
-      <c r="E646" s="305"/>
-      <c r="F646" s="306"/>
-      <c r="G646" s="305"/>
-      <c r="H646" s="305"/>
-      <c r="I646" s="305"/>
-      <c r="J646" s="306"/>
-      <c r="K646" s="312"/>
-      <c r="L646" s="305"/>
-      <c r="M646" s="306"/>
-      <c r="N646" s="305"/>
-      <c r="O646" s="306"/>
-      <c r="P646" s="305"/>
-      <c r="Q646" s="305"/>
-      <c r="R646" s="306"/>
+      <c r="B646" s="294"/>
+      <c r="C646" s="287"/>
+      <c r="D646" s="288"/>
+      <c r="E646" s="287"/>
+      <c r="F646" s="288"/>
+      <c r="G646" s="287"/>
+      <c r="H646" s="287"/>
+      <c r="I646" s="287"/>
+      <c r="J646" s="288"/>
+      <c r="K646" s="294"/>
+      <c r="L646" s="287"/>
+      <c r="M646" s="288"/>
+      <c r="N646" s="287"/>
+      <c r="O646" s="288"/>
+      <c r="P646" s="287"/>
+      <c r="Q646" s="287"/>
+      <c r="R646" s="288"/>
     </row>
     <row r="647" spans="1:18">
       <c r="A647" s="182" t="s">
@@ -13191,45 +13144,45 @@
       <c r="A648" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B648" s="312"/>
-      <c r="C648" s="305"/>
-      <c r="D648" s="306"/>
-      <c r="E648" s="305"/>
-      <c r="F648" s="306"/>
-      <c r="G648" s="305"/>
-      <c r="H648" s="305"/>
-      <c r="I648" s="305"/>
-      <c r="J648" s="306"/>
-      <c r="K648" s="312"/>
-      <c r="L648" s="305"/>
-      <c r="M648" s="306"/>
-      <c r="N648" s="305"/>
-      <c r="O648" s="306"/>
-      <c r="P648" s="305"/>
-      <c r="Q648" s="305"/>
-      <c r="R648" s="306"/>
+      <c r="B648" s="294"/>
+      <c r="C648" s="287"/>
+      <c r="D648" s="288"/>
+      <c r="E648" s="287"/>
+      <c r="F648" s="288"/>
+      <c r="G648" s="287"/>
+      <c r="H648" s="287"/>
+      <c r="I648" s="287"/>
+      <c r="J648" s="288"/>
+      <c r="K648" s="294"/>
+      <c r="L648" s="287"/>
+      <c r="M648" s="288"/>
+      <c r="N648" s="287"/>
+      <c r="O648" s="288"/>
+      <c r="P648" s="287"/>
+      <c r="Q648" s="287"/>
+      <c r="R648" s="288"/>
     </row>
     <row r="649" spans="1:18" ht="16" thickBot="1">
       <c r="A649" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B649" s="313"/>
-      <c r="C649" s="314"/>
-      <c r="D649" s="315"/>
-      <c r="E649" s="314"/>
-      <c r="F649" s="315"/>
-      <c r="G649" s="314"/>
-      <c r="H649" s="314"/>
-      <c r="I649" s="314"/>
-      <c r="J649" s="315"/>
-      <c r="K649" s="313"/>
-      <c r="L649" s="314"/>
-      <c r="M649" s="315"/>
-      <c r="N649" s="314"/>
-      <c r="O649" s="315"/>
-      <c r="P649" s="314"/>
-      <c r="Q649" s="314"/>
-      <c r="R649" s="315"/>
+      <c r="B649" s="295"/>
+      <c r="C649" s="296"/>
+      <c r="D649" s="297"/>
+      <c r="E649" s="296"/>
+      <c r="F649" s="297"/>
+      <c r="G649" s="296"/>
+      <c r="H649" s="296"/>
+      <c r="I649" s="296"/>
+      <c r="J649" s="297"/>
+      <c r="K649" s="295"/>
+      <c r="L649" s="296"/>
+      <c r="M649" s="297"/>
+      <c r="N649" s="296"/>
+      <c r="O649" s="297"/>
+      <c r="P649" s="296"/>
+      <c r="Q649" s="296"/>
+      <c r="R649" s="297"/>
     </row>
     <row r="663" spans="1:17" ht="16" thickBot="1"/>
     <row r="664" spans="1:17" ht="24" thickBot="1">
@@ -13439,64 +13392,64 @@
       <c r="A669" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B669" s="312"/>
-      <c r="C669" s="305"/>
-      <c r="D669" s="306"/>
-      <c r="E669" s="305"/>
-      <c r="F669" s="306"/>
-      <c r="G669" s="305"/>
-      <c r="H669" s="305"/>
-      <c r="I669" s="305"/>
-      <c r="J669" s="306"/>
-      <c r="K669" s="312"/>
-      <c r="L669" s="305"/>
-      <c r="M669" s="305"/>
-      <c r="N669" s="306"/>
-      <c r="O669" s="305"/>
-      <c r="P669" s="305"/>
-      <c r="Q669" s="306"/>
+      <c r="B669" s="294"/>
+      <c r="C669" s="287"/>
+      <c r="D669" s="288"/>
+      <c r="E669" s="287"/>
+      <c r="F669" s="288"/>
+      <c r="G669" s="287"/>
+      <c r="H669" s="287"/>
+      <c r="I669" s="287"/>
+      <c r="J669" s="288"/>
+      <c r="K669" s="294"/>
+      <c r="L669" s="287"/>
+      <c r="M669" s="287"/>
+      <c r="N669" s="288"/>
+      <c r="O669" s="287"/>
+      <c r="P669" s="287"/>
+      <c r="Q669" s="288"/>
     </row>
     <row r="670" spans="1:17">
       <c r="A670" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B670" s="312"/>
-      <c r="C670" s="305"/>
-      <c r="D670" s="306"/>
-      <c r="E670" s="305"/>
-      <c r="F670" s="306"/>
-      <c r="G670" s="305"/>
-      <c r="H670" s="305"/>
-      <c r="I670" s="305"/>
-      <c r="J670" s="306"/>
-      <c r="K670" s="312"/>
-      <c r="L670" s="305"/>
-      <c r="M670" s="305"/>
-      <c r="N670" s="306"/>
-      <c r="O670" s="305"/>
-      <c r="P670" s="305"/>
-      <c r="Q670" s="306"/>
+      <c r="B670" s="294"/>
+      <c r="C670" s="287"/>
+      <c r="D670" s="288"/>
+      <c r="E670" s="287"/>
+      <c r="F670" s="288"/>
+      <c r="G670" s="287"/>
+      <c r="H670" s="287"/>
+      <c r="I670" s="287"/>
+      <c r="J670" s="288"/>
+      <c r="K670" s="294"/>
+      <c r="L670" s="287"/>
+      <c r="M670" s="287"/>
+      <c r="N670" s="288"/>
+      <c r="O670" s="287"/>
+      <c r="P670" s="287"/>
+      <c r="Q670" s="288"/>
     </row>
     <row r="671" spans="1:17">
       <c r="A671" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B671" s="312"/>
-      <c r="C671" s="305"/>
-      <c r="D671" s="306"/>
-      <c r="E671" s="305"/>
-      <c r="F671" s="306"/>
-      <c r="G671" s="305"/>
-      <c r="H671" s="305"/>
-      <c r="I671" s="305"/>
-      <c r="J671" s="306"/>
-      <c r="K671" s="312"/>
-      <c r="L671" s="305"/>
-      <c r="M671" s="305"/>
-      <c r="N671" s="306"/>
-      <c r="O671" s="305"/>
-      <c r="P671" s="305"/>
-      <c r="Q671" s="306"/>
+      <c r="B671" s="294"/>
+      <c r="C671" s="287"/>
+      <c r="D671" s="288"/>
+      <c r="E671" s="287"/>
+      <c r="F671" s="288"/>
+      <c r="G671" s="287"/>
+      <c r="H671" s="287"/>
+      <c r="I671" s="287"/>
+      <c r="J671" s="288"/>
+      <c r="K671" s="294"/>
+      <c r="L671" s="287"/>
+      <c r="M671" s="287"/>
+      <c r="N671" s="288"/>
+      <c r="O671" s="287"/>
+      <c r="P671" s="287"/>
+      <c r="Q671" s="288"/>
     </row>
     <row r="672" spans="1:17">
       <c r="A672" s="9" t="s">
@@ -13523,64 +13476,64 @@
       <c r="A673" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B673" s="312"/>
-      <c r="C673" s="305"/>
-      <c r="D673" s="306"/>
-      <c r="E673" s="305"/>
-      <c r="F673" s="306"/>
-      <c r="G673" s="305"/>
-      <c r="H673" s="305"/>
-      <c r="I673" s="305"/>
-      <c r="J673" s="306"/>
-      <c r="K673" s="312"/>
-      <c r="L673" s="305"/>
-      <c r="M673" s="305"/>
-      <c r="N673" s="306"/>
-      <c r="O673" s="305"/>
-      <c r="P673" s="305"/>
-      <c r="Q673" s="306"/>
+      <c r="B673" s="294"/>
+      <c r="C673" s="287"/>
+      <c r="D673" s="288"/>
+      <c r="E673" s="287"/>
+      <c r="F673" s="288"/>
+      <c r="G673" s="287"/>
+      <c r="H673" s="287"/>
+      <c r="I673" s="287"/>
+      <c r="J673" s="288"/>
+      <c r="K673" s="294"/>
+      <c r="L673" s="287"/>
+      <c r="M673" s="287"/>
+      <c r="N673" s="288"/>
+      <c r="O673" s="287"/>
+      <c r="P673" s="287"/>
+      <c r="Q673" s="288"/>
     </row>
     <row r="674" spans="1:17">
       <c r="A674" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B674" s="312"/>
-      <c r="C674" s="305"/>
-      <c r="D674" s="306"/>
-      <c r="E674" s="305"/>
-      <c r="F674" s="306"/>
-      <c r="G674" s="305"/>
-      <c r="H674" s="305"/>
-      <c r="I674" s="305"/>
-      <c r="J674" s="306"/>
-      <c r="K674" s="312"/>
-      <c r="L674" s="305"/>
-      <c r="M674" s="305"/>
-      <c r="N674" s="306"/>
-      <c r="O674" s="305"/>
-      <c r="P674" s="305"/>
-      <c r="Q674" s="306"/>
+      <c r="B674" s="294"/>
+      <c r="C674" s="287"/>
+      <c r="D674" s="288"/>
+      <c r="E674" s="287"/>
+      <c r="F674" s="288"/>
+      <c r="G674" s="287"/>
+      <c r="H674" s="287"/>
+      <c r="I674" s="287"/>
+      <c r="J674" s="288"/>
+      <c r="K674" s="294"/>
+      <c r="L674" s="287"/>
+      <c r="M674" s="287"/>
+      <c r="N674" s="288"/>
+      <c r="O674" s="287"/>
+      <c r="P674" s="287"/>
+      <c r="Q674" s="288"/>
     </row>
     <row r="675" spans="1:17">
       <c r="A675" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B675" s="312"/>
-      <c r="C675" s="305"/>
-      <c r="D675" s="306"/>
-      <c r="E675" s="305"/>
-      <c r="F675" s="306"/>
-      <c r="G675" s="305"/>
-      <c r="H675" s="305"/>
-      <c r="I675" s="305"/>
-      <c r="J675" s="306"/>
-      <c r="K675" s="312"/>
-      <c r="L675" s="305"/>
-      <c r="M675" s="305"/>
-      <c r="N675" s="306"/>
-      <c r="O675" s="305"/>
-      <c r="P675" s="305"/>
-      <c r="Q675" s="306"/>
+      <c r="B675" s="294"/>
+      <c r="C675" s="287"/>
+      <c r="D675" s="288"/>
+      <c r="E675" s="287"/>
+      <c r="F675" s="288"/>
+      <c r="G675" s="287"/>
+      <c r="H675" s="287"/>
+      <c r="I675" s="287"/>
+      <c r="J675" s="288"/>
+      <c r="K675" s="294"/>
+      <c r="L675" s="287"/>
+      <c r="M675" s="287"/>
+      <c r="N675" s="288"/>
+      <c r="O675" s="287"/>
+      <c r="P675" s="287"/>
+      <c r="Q675" s="288"/>
     </row>
     <row r="676" spans="1:17">
       <c r="A676" s="9" t="s">
@@ -13607,64 +13560,64 @@
       <c r="A677" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B677" s="312"/>
-      <c r="C677" s="305"/>
-      <c r="D677" s="306"/>
-      <c r="E677" s="305"/>
-      <c r="F677" s="306"/>
-      <c r="G677" s="305"/>
-      <c r="H677" s="305"/>
-      <c r="I677" s="305"/>
-      <c r="J677" s="306"/>
-      <c r="K677" s="312"/>
-      <c r="L677" s="305"/>
-      <c r="M677" s="305"/>
-      <c r="N677" s="306"/>
-      <c r="O677" s="305"/>
-      <c r="P677" s="305"/>
-      <c r="Q677" s="306"/>
+      <c r="B677" s="294"/>
+      <c r="C677" s="287"/>
+      <c r="D677" s="288"/>
+      <c r="E677" s="287"/>
+      <c r="F677" s="288"/>
+      <c r="G677" s="287"/>
+      <c r="H677" s="287"/>
+      <c r="I677" s="287"/>
+      <c r="J677" s="288"/>
+      <c r="K677" s="294"/>
+      <c r="L677" s="287"/>
+      <c r="M677" s="287"/>
+      <c r="N677" s="288"/>
+      <c r="O677" s="287"/>
+      <c r="P677" s="287"/>
+      <c r="Q677" s="288"/>
     </row>
     <row r="678" spans="1:17">
       <c r="A678" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B678" s="312"/>
-      <c r="C678" s="305"/>
-      <c r="D678" s="306"/>
-      <c r="E678" s="305"/>
-      <c r="F678" s="306"/>
-      <c r="G678" s="305"/>
-      <c r="H678" s="305"/>
-      <c r="I678" s="305"/>
-      <c r="J678" s="306"/>
-      <c r="K678" s="312"/>
-      <c r="L678" s="305"/>
-      <c r="M678" s="305"/>
-      <c r="N678" s="306"/>
-      <c r="O678" s="305"/>
-      <c r="P678" s="305"/>
-      <c r="Q678" s="306"/>
+      <c r="B678" s="294"/>
+      <c r="C678" s="287"/>
+      <c r="D678" s="288"/>
+      <c r="E678" s="287"/>
+      <c r="F678" s="288"/>
+      <c r="G678" s="287"/>
+      <c r="H678" s="287"/>
+      <c r="I678" s="287"/>
+      <c r="J678" s="288"/>
+      <c r="K678" s="294"/>
+      <c r="L678" s="287"/>
+      <c r="M678" s="287"/>
+      <c r="N678" s="288"/>
+      <c r="O678" s="287"/>
+      <c r="P678" s="287"/>
+      <c r="Q678" s="288"/>
     </row>
     <row r="679" spans="1:17">
       <c r="A679" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B679" s="312"/>
-      <c r="C679" s="305"/>
-      <c r="D679" s="306"/>
-      <c r="E679" s="305"/>
-      <c r="F679" s="306"/>
-      <c r="G679" s="305"/>
-      <c r="H679" s="305"/>
-      <c r="I679" s="305"/>
-      <c r="J679" s="306"/>
-      <c r="K679" s="312"/>
-      <c r="L679" s="305"/>
-      <c r="M679" s="305"/>
-      <c r="N679" s="306"/>
-      <c r="O679" s="305"/>
-      <c r="P679" s="305"/>
-      <c r="Q679" s="306"/>
+      <c r="B679" s="294"/>
+      <c r="C679" s="287"/>
+      <c r="D679" s="288"/>
+      <c r="E679" s="287"/>
+      <c r="F679" s="288"/>
+      <c r="G679" s="287"/>
+      <c r="H679" s="287"/>
+      <c r="I679" s="287"/>
+      <c r="J679" s="288"/>
+      <c r="K679" s="294"/>
+      <c r="L679" s="287"/>
+      <c r="M679" s="287"/>
+      <c r="N679" s="288"/>
+      <c r="O679" s="287"/>
+      <c r="P679" s="287"/>
+      <c r="Q679" s="288"/>
     </row>
     <row r="680" spans="1:17">
       <c r="A680" s="59" t="s">
@@ -13691,43 +13644,43 @@
       <c r="A681" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B681" s="312"/>
-      <c r="C681" s="305"/>
-      <c r="D681" s="306"/>
-      <c r="E681" s="305"/>
-      <c r="F681" s="306"/>
-      <c r="G681" s="305"/>
-      <c r="H681" s="305"/>
-      <c r="I681" s="305"/>
-      <c r="J681" s="306"/>
-      <c r="K681" s="312"/>
-      <c r="L681" s="305"/>
-      <c r="M681" s="305"/>
-      <c r="N681" s="306"/>
-      <c r="O681" s="305"/>
-      <c r="P681" s="305"/>
-      <c r="Q681" s="306"/>
+      <c r="B681" s="294"/>
+      <c r="C681" s="287"/>
+      <c r="D681" s="288"/>
+      <c r="E681" s="287"/>
+      <c r="F681" s="288"/>
+      <c r="G681" s="287"/>
+      <c r="H681" s="287"/>
+      <c r="I681" s="287"/>
+      <c r="J681" s="288"/>
+      <c r="K681" s="294"/>
+      <c r="L681" s="287"/>
+      <c r="M681" s="287"/>
+      <c r="N681" s="288"/>
+      <c r="O681" s="287"/>
+      <c r="P681" s="287"/>
+      <c r="Q681" s="288"/>
     </row>
     <row r="682" spans="1:17">
       <c r="A682" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B682" s="312"/>
-      <c r="C682" s="305"/>
-      <c r="D682" s="306"/>
-      <c r="E682" s="305"/>
-      <c r="F682" s="306"/>
-      <c r="G682" s="305"/>
-      <c r="H682" s="305"/>
-      <c r="I682" s="305"/>
-      <c r="J682" s="306"/>
-      <c r="K682" s="312"/>
-      <c r="L682" s="305"/>
-      <c r="M682" s="305"/>
-      <c r="N682" s="306"/>
-      <c r="O682" s="305"/>
-      <c r="P682" s="305"/>
-      <c r="Q682" s="306"/>
+      <c r="B682" s="294"/>
+      <c r="C682" s="287"/>
+      <c r="D682" s="288"/>
+      <c r="E682" s="287"/>
+      <c r="F682" s="288"/>
+      <c r="G682" s="287"/>
+      <c r="H682" s="287"/>
+      <c r="I682" s="287"/>
+      <c r="J682" s="288"/>
+      <c r="K682" s="294"/>
+      <c r="L682" s="287"/>
+      <c r="M682" s="287"/>
+      <c r="N682" s="288"/>
+      <c r="O682" s="287"/>
+      <c r="P682" s="287"/>
+      <c r="Q682" s="288"/>
     </row>
     <row r="683" spans="1:17">
       <c r="A683" s="9" t="s">
@@ -13775,22 +13728,22 @@
       <c r="A685" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B685" s="312"/>
-      <c r="C685" s="305"/>
-      <c r="D685" s="306"/>
-      <c r="E685" s="305"/>
-      <c r="F685" s="306"/>
-      <c r="G685" s="305"/>
-      <c r="H685" s="305"/>
-      <c r="I685" s="305"/>
-      <c r="J685" s="306"/>
-      <c r="K685" s="312"/>
-      <c r="L685" s="305"/>
-      <c r="M685" s="305"/>
-      <c r="N685" s="306"/>
-      <c r="O685" s="305"/>
-      <c r="P685" s="305"/>
-      <c r="Q685" s="306"/>
+      <c r="B685" s="294"/>
+      <c r="C685" s="287"/>
+      <c r="D685" s="288"/>
+      <c r="E685" s="287"/>
+      <c r="F685" s="288"/>
+      <c r="G685" s="287"/>
+      <c r="H685" s="287"/>
+      <c r="I685" s="287"/>
+      <c r="J685" s="288"/>
+      <c r="K685" s="294"/>
+      <c r="L685" s="287"/>
+      <c r="M685" s="287"/>
+      <c r="N685" s="288"/>
+      <c r="O685" s="287"/>
+      <c r="P685" s="287"/>
+      <c r="Q685" s="288"/>
     </row>
     <row r="686" spans="1:17">
       <c r="A686" s="9" t="s">
@@ -13838,22 +13791,22 @@
       <c r="A688" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B688" s="312"/>
-      <c r="C688" s="305"/>
-      <c r="D688" s="306"/>
-      <c r="E688" s="305"/>
-      <c r="F688" s="306"/>
-      <c r="G688" s="305"/>
-      <c r="H688" s="305"/>
-      <c r="I688" s="305"/>
-      <c r="J688" s="306"/>
-      <c r="K688" s="312"/>
-      <c r="L688" s="305"/>
-      <c r="M688" s="305"/>
-      <c r="N688" s="306"/>
-      <c r="O688" s="305"/>
-      <c r="P688" s="305"/>
-      <c r="Q688" s="306"/>
+      <c r="B688" s="294"/>
+      <c r="C688" s="287"/>
+      <c r="D688" s="288"/>
+      <c r="E688" s="287"/>
+      <c r="F688" s="288"/>
+      <c r="G688" s="287"/>
+      <c r="H688" s="287"/>
+      <c r="I688" s="287"/>
+      <c r="J688" s="288"/>
+      <c r="K688" s="294"/>
+      <c r="L688" s="287"/>
+      <c r="M688" s="287"/>
+      <c r="N688" s="288"/>
+      <c r="O688" s="287"/>
+      <c r="P688" s="287"/>
+      <c r="Q688" s="288"/>
     </row>
     <row r="689" spans="1:17">
       <c r="A689" s="9" t="s">
@@ -13880,43 +13833,43 @@
       <c r="A690" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B690" s="312"/>
-      <c r="C690" s="305"/>
-      <c r="D690" s="306"/>
-      <c r="E690" s="305"/>
-      <c r="F690" s="306"/>
-      <c r="G690" s="305"/>
-      <c r="H690" s="305"/>
-      <c r="I690" s="305"/>
-      <c r="J690" s="306"/>
-      <c r="K690" s="312"/>
-      <c r="L690" s="305"/>
-      <c r="M690" s="305"/>
-      <c r="N690" s="306"/>
-      <c r="O690" s="305"/>
-      <c r="P690" s="305"/>
-      <c r="Q690" s="306"/>
+      <c r="B690" s="294"/>
+      <c r="C690" s="287"/>
+      <c r="D690" s="288"/>
+      <c r="E690" s="287"/>
+      <c r="F690" s="288"/>
+      <c r="G690" s="287"/>
+      <c r="H690" s="287"/>
+      <c r="I690" s="287"/>
+      <c r="J690" s="288"/>
+      <c r="K690" s="294"/>
+      <c r="L690" s="287"/>
+      <c r="M690" s="287"/>
+      <c r="N690" s="288"/>
+      <c r="O690" s="287"/>
+      <c r="P690" s="287"/>
+      <c r="Q690" s="288"/>
     </row>
     <row r="691" spans="1:17">
       <c r="A691" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B691" s="312"/>
-      <c r="C691" s="305"/>
-      <c r="D691" s="306"/>
-      <c r="E691" s="305"/>
-      <c r="F691" s="306"/>
-      <c r="G691" s="305"/>
-      <c r="H691" s="305"/>
-      <c r="I691" s="305"/>
-      <c r="J691" s="306"/>
-      <c r="K691" s="312"/>
-      <c r="L691" s="305"/>
-      <c r="M691" s="305"/>
-      <c r="N691" s="306"/>
-      <c r="O691" s="305"/>
-      <c r="P691" s="305"/>
-      <c r="Q691" s="306"/>
+      <c r="B691" s="294"/>
+      <c r="C691" s="287"/>
+      <c r="D691" s="288"/>
+      <c r="E691" s="287"/>
+      <c r="F691" s="288"/>
+      <c r="G691" s="287"/>
+      <c r="H691" s="287"/>
+      <c r="I691" s="287"/>
+      <c r="J691" s="288"/>
+      <c r="K691" s="294"/>
+      <c r="L691" s="287"/>
+      <c r="M691" s="287"/>
+      <c r="N691" s="288"/>
+      <c r="O691" s="287"/>
+      <c r="P691" s="287"/>
+      <c r="Q691" s="288"/>
     </row>
     <row r="692" spans="1:17">
       <c r="A692" s="9" t="s">
@@ -13943,43 +13896,43 @@
       <c r="A693" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B693" s="312"/>
-      <c r="C693" s="305"/>
-      <c r="D693" s="306"/>
-      <c r="E693" s="305"/>
-      <c r="F693" s="306"/>
-      <c r="G693" s="305"/>
-      <c r="H693" s="305"/>
-      <c r="I693" s="305"/>
-      <c r="J693" s="306"/>
-      <c r="K693" s="312"/>
-      <c r="L693" s="305"/>
-      <c r="M693" s="305"/>
-      <c r="N693" s="306"/>
-      <c r="O693" s="305"/>
-      <c r="P693" s="305"/>
-      <c r="Q693" s="306"/>
+      <c r="B693" s="294"/>
+      <c r="C693" s="287"/>
+      <c r="D693" s="288"/>
+      <c r="E693" s="287"/>
+      <c r="F693" s="288"/>
+      <c r="G693" s="287"/>
+      <c r="H693" s="287"/>
+      <c r="I693" s="287"/>
+      <c r="J693" s="288"/>
+      <c r="K693" s="294"/>
+      <c r="L693" s="287"/>
+      <c r="M693" s="287"/>
+      <c r="N693" s="288"/>
+      <c r="O693" s="287"/>
+      <c r="P693" s="287"/>
+      <c r="Q693" s="288"/>
     </row>
     <row r="694" spans="1:17">
       <c r="A694" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B694" s="312"/>
-      <c r="C694" s="305"/>
-      <c r="D694" s="306"/>
-      <c r="E694" s="305"/>
-      <c r="F694" s="306"/>
-      <c r="G694" s="305"/>
-      <c r="H694" s="305"/>
-      <c r="I694" s="305"/>
-      <c r="J694" s="306"/>
-      <c r="K694" s="312"/>
-      <c r="L694" s="305"/>
-      <c r="M694" s="305"/>
-      <c r="N694" s="306"/>
-      <c r="O694" s="305"/>
-      <c r="P694" s="305"/>
-      <c r="Q694" s="306"/>
+      <c r="B694" s="294"/>
+      <c r="C694" s="287"/>
+      <c r="D694" s="288"/>
+      <c r="E694" s="287"/>
+      <c r="F694" s="288"/>
+      <c r="G694" s="287"/>
+      <c r="H694" s="287"/>
+      <c r="I694" s="287"/>
+      <c r="J694" s="288"/>
+      <c r="K694" s="294"/>
+      <c r="L694" s="287"/>
+      <c r="M694" s="287"/>
+      <c r="N694" s="288"/>
+      <c r="O694" s="287"/>
+      <c r="P694" s="287"/>
+      <c r="Q694" s="288"/>
     </row>
     <row r="695" spans="1:17">
       <c r="A695" s="9" t="s">
@@ -14006,43 +13959,43 @@
       <c r="A696" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B696" s="312"/>
-      <c r="C696" s="305"/>
-      <c r="D696" s="306"/>
-      <c r="E696" s="305"/>
-      <c r="F696" s="306"/>
-      <c r="G696" s="305"/>
-      <c r="H696" s="305"/>
-      <c r="I696" s="305"/>
-      <c r="J696" s="306"/>
-      <c r="K696" s="312"/>
-      <c r="L696" s="305"/>
-      <c r="M696" s="305"/>
-      <c r="N696" s="306"/>
-      <c r="O696" s="305"/>
-      <c r="P696" s="305"/>
-      <c r="Q696" s="306"/>
+      <c r="B696" s="294"/>
+      <c r="C696" s="287"/>
+      <c r="D696" s="288"/>
+      <c r="E696" s="287"/>
+      <c r="F696" s="288"/>
+      <c r="G696" s="287"/>
+      <c r="H696" s="287"/>
+      <c r="I696" s="287"/>
+      <c r="J696" s="288"/>
+      <c r="K696" s="294"/>
+      <c r="L696" s="287"/>
+      <c r="M696" s="287"/>
+      <c r="N696" s="288"/>
+      <c r="O696" s="287"/>
+      <c r="P696" s="287"/>
+      <c r="Q696" s="288"/>
     </row>
     <row r="697" spans="1:17">
       <c r="A697" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B697" s="312"/>
-      <c r="C697" s="305"/>
-      <c r="D697" s="306"/>
-      <c r="E697" s="305"/>
-      <c r="F697" s="306"/>
-      <c r="G697" s="305"/>
-      <c r="H697" s="305"/>
-      <c r="I697" s="305"/>
-      <c r="J697" s="306"/>
-      <c r="K697" s="312"/>
-      <c r="L697" s="305"/>
-      <c r="M697" s="305"/>
-      <c r="N697" s="306"/>
-      <c r="O697" s="305"/>
-      <c r="P697" s="305"/>
-      <c r="Q697" s="306"/>
+      <c r="B697" s="294"/>
+      <c r="C697" s="287"/>
+      <c r="D697" s="288"/>
+      <c r="E697" s="287"/>
+      <c r="F697" s="288"/>
+      <c r="G697" s="287"/>
+      <c r="H697" s="287"/>
+      <c r="I697" s="287"/>
+      <c r="J697" s="288"/>
+      <c r="K697" s="294"/>
+      <c r="L697" s="287"/>
+      <c r="M697" s="287"/>
+      <c r="N697" s="288"/>
+      <c r="O697" s="287"/>
+      <c r="P697" s="287"/>
+      <c r="Q697" s="288"/>
     </row>
     <row r="698" spans="1:17">
       <c r="A698" s="9" t="s">
@@ -14069,43 +14022,43 @@
       <c r="A699" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B699" s="312"/>
-      <c r="C699" s="305"/>
-      <c r="D699" s="306"/>
-      <c r="E699" s="305"/>
-      <c r="F699" s="306"/>
-      <c r="G699" s="305"/>
-      <c r="H699" s="305"/>
-      <c r="I699" s="305"/>
-      <c r="J699" s="306"/>
-      <c r="K699" s="312"/>
-      <c r="L699" s="305"/>
-      <c r="M699" s="305"/>
-      <c r="N699" s="306"/>
-      <c r="O699" s="305"/>
-      <c r="P699" s="305"/>
-      <c r="Q699" s="306"/>
+      <c r="B699" s="294"/>
+      <c r="C699" s="287"/>
+      <c r="D699" s="288"/>
+      <c r="E699" s="287"/>
+      <c r="F699" s="288"/>
+      <c r="G699" s="287"/>
+      <c r="H699" s="287"/>
+      <c r="I699" s="287"/>
+      <c r="J699" s="288"/>
+      <c r="K699" s="294"/>
+      <c r="L699" s="287"/>
+      <c r="M699" s="287"/>
+      <c r="N699" s="288"/>
+      <c r="O699" s="287"/>
+      <c r="P699" s="287"/>
+      <c r="Q699" s="288"/>
     </row>
     <row r="700" spans="1:17" ht="16" thickBot="1">
       <c r="A700" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B700" s="313"/>
-      <c r="C700" s="314"/>
-      <c r="D700" s="315"/>
-      <c r="E700" s="314"/>
-      <c r="F700" s="315"/>
-      <c r="G700" s="314"/>
-      <c r="H700" s="314"/>
-      <c r="I700" s="314"/>
-      <c r="J700" s="315"/>
-      <c r="K700" s="313"/>
-      <c r="L700" s="314"/>
-      <c r="M700" s="314"/>
-      <c r="N700" s="315"/>
-      <c r="O700" s="314"/>
-      <c r="P700" s="314"/>
-      <c r="Q700" s="315"/>
+      <c r="B700" s="295"/>
+      <c r="C700" s="296"/>
+      <c r="D700" s="297"/>
+      <c r="E700" s="296"/>
+      <c r="F700" s="297"/>
+      <c r="G700" s="296"/>
+      <c r="H700" s="296"/>
+      <c r="I700" s="296"/>
+      <c r="J700" s="297"/>
+      <c r="K700" s="295"/>
+      <c r="L700" s="296"/>
+      <c r="M700" s="296"/>
+      <c r="N700" s="297"/>
+      <c r="O700" s="296"/>
+      <c r="P700" s="296"/>
+      <c r="Q700" s="297"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -14121,10 +14074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14133,830 +14086,622 @@
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" thickBot="1">
-      <c r="A1" s="274" t="s">
+    <row r="1" spans="1:15" ht="21" thickBot="1">
+      <c r="A1" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="275">
+      <c r="B1" s="262">
         <v>1</v>
       </c>
-      <c r="C1" s="276"/>
-      <c r="D1" s="275">
+      <c r="C1" s="263"/>
+      <c r="D1" s="262">
         <v>2</v>
       </c>
-      <c r="E1" s="277"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="275">
+      <c r="E1" s="264"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="262">
         <v>3</v>
       </c>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="275">
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="262">
         <v>4</v>
       </c>
-      <c r="L1" s="277"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="277">
+      <c r="L1" s="264"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264">
         <v>5</v>
       </c>
-      <c r="O1" s="276"/>
-    </row>
-    <row r="2" spans="1:18" ht="19" thickBot="1">
-      <c r="A2" s="278" t="s">
+      <c r="O1" s="263"/>
+    </row>
+    <row r="2" spans="1:15" ht="19" thickBot="1">
+      <c r="A2" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="279">
+      <c r="B2" s="266">
         <v>1</v>
       </c>
-      <c r="C2" s="280">
+      <c r="C2" s="267">
         <v>2</v>
       </c>
-      <c r="D2" s="279">
+      <c r="D2" s="266">
         <v>1</v>
       </c>
-      <c r="E2" s="281">
+      <c r="E2" s="268">
         <v>2</v>
       </c>
-      <c r="F2" s="280">
+      <c r="F2" s="267">
         <v>3</v>
       </c>
-      <c r="G2" s="279">
+      <c r="G2" s="266">
         <v>1</v>
       </c>
-      <c r="H2" s="281">
+      <c r="H2" s="268">
         <v>2</v>
       </c>
-      <c r="I2" s="281">
+      <c r="I2" s="268">
         <v>3</v>
       </c>
-      <c r="J2" s="280">
+      <c r="J2" s="267">
         <v>4</v>
       </c>
-      <c r="K2" s="279">
+      <c r="K2" s="266">
         <v>1</v>
       </c>
-      <c r="L2" s="281">
+      <c r="L2" s="268">
         <v>2</v>
       </c>
-      <c r="M2" s="280">
+      <c r="M2" s="267">
         <v>3</v>
       </c>
-      <c r="N2" s="281">
+      <c r="N2" s="268">
         <v>1</v>
       </c>
-      <c r="O2" s="280">
+      <c r="O2" s="267">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19" thickBot="1">
-      <c r="A3" s="282" t="s">
+    <row r="3" spans="1:15" ht="19" thickBot="1">
+      <c r="A3" s="269" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="270">
+        <v>54</v>
+      </c>
+      <c r="C3" s="271">
         <v>81</v>
       </c>
-      <c r="B3" s="283">
+      <c r="D3" s="270">
+        <v>68</v>
+      </c>
+      <c r="E3" s="272">
         <v>54</v>
       </c>
-      <c r="C3" s="284">
+      <c r="F3" s="271">
         <v>81</v>
       </c>
-      <c r="D3" s="283">
+      <c r="G3" s="270">
         <v>68</v>
       </c>
-      <c r="E3" s="285">
+      <c r="H3" s="272">
+        <v>47</v>
+      </c>
+      <c r="I3" s="272">
+        <v>81</v>
+      </c>
+      <c r="J3" s="271">
+        <v>72</v>
+      </c>
+      <c r="K3" s="270">
         <v>54</v>
       </c>
-      <c r="F3" s="284">
+      <c r="L3" s="272">
+        <v>68</v>
+      </c>
+      <c r="M3" s="271">
         <v>81</v>
       </c>
-      <c r="G3" s="283">
+      <c r="N3" s="272">
         <v>68</v>
       </c>
-      <c r="H3" s="285">
-        <v>47</v>
-      </c>
-      <c r="I3" s="285">
+      <c r="O3" s="271">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" thickBot="1">
+      <c r="A4" s="260" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="259"/>
+      <c r="J4" s="259"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="259"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="258"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="316" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="276"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="251" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="284">
-        <v>72</v>
-      </c>
-      <c r="K3" s="283">
-        <v>54</v>
-      </c>
-      <c r="L3" s="285">
-        <v>68</v>
-      </c>
-      <c r="M3" s="284">
+      <c r="E5" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="247" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="274"/>
+      <c r="K5" s="251" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="252" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="253" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="274"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="249" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="276"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="285">
-        <v>68</v>
-      </c>
-      <c r="O3" s="284">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16" thickBot="1">
-      <c r="A4" s="273" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="272"/>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="271"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="334" t="s">
+      <c r="F6" s="252" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="247" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="247" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="274"/>
+      <c r="K6" s="251" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="252" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="253" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="274"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" thickBot="1">
+      <c r="A7" s="249" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="277"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="315" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="244" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="242" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="242" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="245"/>
+      <c r="K7" s="243" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="242" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="244" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="248" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="245"/>
+    </row>
+    <row r="8" spans="1:15" ht="16" thickBot="1">
+      <c r="A8" s="317" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="292"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="264" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="256" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="264" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="256" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="256" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="287"/>
-      <c r="K5" s="264" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="256" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="265" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="266" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="287"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="259" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="292"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="264" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="256" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="265" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="264" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="256" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="256" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="287"/>
-      <c r="K6" s="264" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="256" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="265" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="266" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="287"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="259" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="293"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="333" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="242" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="244" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="243" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="242" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="242" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="249"/>
-      <c r="K7" s="243" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="242" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="244" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="258" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="249"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="259" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="293"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="244"/>
-      <c r="N8" s="258"/>
-      <c r="O8" s="249"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="259" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="293"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="242"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="249"/>
-    </row>
-    <row r="10" spans="1:18" ht="16" thickBot="1">
-      <c r="A10" s="259" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="295"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="261"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="289"/>
-      <c r="Q10" s="255" t="s">
+      <c r="B9" s="276"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="275"/>
+      <c r="F9" s="274"/>
+      <c r="G9" s="251" t="s">
         <v>77</v>
       </c>
-      <c r="R10" s="255" t="s">
+      <c r="H9" s="247" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="247" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="252" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="16" thickBot="1">
-      <c r="A11" s="335" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="Q11" t="s">
+      <c r="K9" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="R11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="259" t="s">
+      <c r="N9" s="276"/>
+      <c r="O9" s="274"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="249" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="274"/>
+      <c r="G10" s="251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="247" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="252" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="252" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="276"/>
+      <c r="O10" s="274"/>
+    </row>
+    <row r="11" spans="1:15" ht="16" thickBot="1">
+      <c r="A11" s="249" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="276"/>
+      <c r="C11" s="274"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="275"/>
+      <c r="F11" s="274"/>
+      <c r="G11" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="247" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="251" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="252" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="276"/>
+      <c r="O11" s="274"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" thickBot="1">
+      <c r="A12" s="318" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="254"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="254"/>
+      <c r="N12" s="254"/>
+      <c r="O12" s="255"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="292"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="286"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="264" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="256" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="256" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="265" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="264" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="256" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="292"/>
-      <c r="O12" s="287"/>
-      <c r="Q12" t="s">
+      <c r="B13" s="253" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="253" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="252" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="249" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="253" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="253" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="252" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="A15" s="249" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="248"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="242"/>
+      <c r="M15" s="244"/>
+      <c r="N15" s="248"/>
+      <c r="O15" s="244"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" thickBot="1">
+      <c r="A16" s="319" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="256"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="257"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="316" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="320"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="322"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="324" t="s">
         <v>79</v>
       </c>
-      <c r="R12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="259" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="292"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="264" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="256" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="256" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="265" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="265" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" s="292"/>
-      <c r="O13" s="287"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="259" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="292"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="265"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="265"/>
-      <c r="N14" s="292"/>
-      <c r="O14" s="287"/>
-      <c r="Q14" t="s">
+      <c r="G17" s="325" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="326" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="326" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="324" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="325" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="326" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="324" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="320"/>
+      <c r="O17" s="321"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="249" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="259" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="292"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="286"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="264"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="265"/>
-      <c r="K15" s="264"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="292"/>
-      <c r="O15" s="287"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="336" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="293"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="243"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="244"/>
-      <c r="N16" s="293"/>
-      <c r="O16" s="249"/>
-    </row>
-    <row r="17" spans="1:15" ht="16" thickBot="1">
-      <c r="A17" s="259" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="295"/>
-      <c r="C17" s="289"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="261"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="262"/>
-      <c r="N17" s="295"/>
-      <c r="O17" s="289"/>
-    </row>
-    <row r="18" spans="1:15" ht="16" thickBot="1">
-      <c r="A18" s="337" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="267"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="267"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="267"/>
-      <c r="K18" s="267"/>
-      <c r="L18" s="267"/>
-      <c r="M18" s="267"/>
-      <c r="N18" s="267"/>
-      <c r="O18" s="268"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="259" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="266" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="266" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="265" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="259" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="266" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" s="266" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="265" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="259" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="244"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="244"/>
-      <c r="K21" s="243"/>
-      <c r="L21" s="242"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="244"/>
-    </row>
-    <row r="22" spans="1:15" ht="16" thickBot="1">
-      <c r="A22" s="259" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="263"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="261"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="262"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="261"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="262"/>
-      <c r="N22" s="263"/>
-      <c r="O22" s="262"/>
-    </row>
-    <row r="23" spans="1:15" ht="16" thickBot="1">
-      <c r="A23" s="338" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="269"/>
-      <c r="C23" s="269"/>
-      <c r="D23" s="269"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="269"/>
-      <c r="H23" s="269"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="269"/>
-      <c r="K23" s="269"/>
-      <c r="L23" s="269"/>
-      <c r="M23" s="269"/>
-      <c r="N23" s="269"/>
-      <c r="O23" s="270"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="259" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="292"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="265" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="264" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="256" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="264" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="256" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" s="265" t="s">
-        <v>82</v>
-      </c>
-      <c r="N24" s="292"/>
-      <c r="O24" s="287"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="259" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="292"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="286"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="265" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="264" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="256" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="256" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="265" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="265" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" s="292"/>
-      <c r="O25" s="287"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="259" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="292"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="286"/>
-      <c r="E26" s="290"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="265"/>
-      <c r="K26" s="264"/>
-      <c r="L26" s="256"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="292"/>
-      <c r="O26" s="287"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="259" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="292"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="286"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="264"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="265"/>
-      <c r="K27" s="264"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="265"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="287"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="259" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="293"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="242"/>
-      <c r="J28" s="244"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="244"/>
-      <c r="N28" s="293"/>
-      <c r="O28" s="249"/>
-    </row>
-    <row r="29" spans="1:15" ht="16" thickBot="1">
-      <c r="A29" s="260" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="294"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="251"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="245"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="245"/>
-      <c r="N29" s="294"/>
-      <c r="O29" s="252"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="B18" s="276"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="275"/>
+      <c r="F18" s="252" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="252" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="247" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="252" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="276"/>
+      <c r="O18" s="274"/>
+    </row>
+    <row r="19" spans="1:15" ht="16" thickBot="1">
+      <c r="A19" s="250" t="s">
         <v>84</v>
       </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>87</v>
-      </c>
+      <c r="B19" s="327"/>
+      <c r="C19" s="328"/>
+      <c r="D19" s="329"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="331"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="333"/>
+      <c r="I19" s="333"/>
+      <c r="J19" s="331"/>
+      <c r="K19" s="332"/>
+      <c r="L19" s="333"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="327"/>
+      <c r="O19" s="328"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="56">
   <si>
     <t>Stage 1-1</t>
   </si>
@@ -148,91 +148,10 @@
     <t>Stage 5-2</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>bisect</t>
-  </si>
-  <si>
-    <t>bisect unevenly</t>
-  </si>
-  <si>
-    <t>1*1</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>cycle</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>triple</t>
-  </si>
-  <si>
-    <t>quadruple</t>
-  </si>
-  <si>
-    <t>superparticular</t>
-  </si>
-  <si>
-    <t>fill one</t>
-  </si>
-  <si>
-    <t>rondo</t>
-  </si>
-  <si>
-    <t>prefix-suffix</t>
-  </si>
-  <si>
-    <t>interpolated</t>
-  </si>
-  <si>
-    <t>palindrome</t>
-  </si>
-  <si>
-    <t>super(8)</t>
-  </si>
-  <si>
-    <t>*1*</t>
-  </si>
-  <si>
-    <t>bisect unevenly(large:small)</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
     <t>Section</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,1,3</t>
-  </si>
-  <si>
-    <t>1,3,2</t>
   </si>
   <si>
     <t>Temporal density</t>
@@ -266,12 +185,6 @@
   </si>
   <si>
     <t>very low</t>
-  </si>
-  <si>
-    <t>sub (16)</t>
-  </si>
-  <si>
-    <t>subparticular</t>
   </si>
   <si>
     <t>Pressure µ</t>
@@ -906,7 +819,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1094,8 +1007,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1519,8 +1440,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1717,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1811,6 +1730,10 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1904,6 +1827,10 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2235,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U700"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A674" workbookViewId="0">
-      <selection activeCell="K263" sqref="K263"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2381,7 +2308,7 @@
       <c r="Q3" s="30">
         <v>3</v>
       </c>
-      <c r="R3" s="278"/>
+      <c r="R3" s="276"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -2438,7 +2365,7 @@
       <c r="Q4" s="33">
         <v>8</v>
       </c>
-      <c r="R4" s="278"/>
+      <c r="R4" s="276"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -2744,7 +2671,7 @@
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="241" t="s">
+      <c r="A17" s="239" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="18"/>
@@ -4239,26 +4166,26 @@
       <c r="A73" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="226"/>
-      <c r="C73" s="224"/>
-      <c r="D73" s="224"/>
-      <c r="E73" s="227"/>
-      <c r="F73" s="226"/>
-      <c r="G73" s="227"/>
-      <c r="H73" s="226"/>
-      <c r="I73" s="224"/>
-      <c r="J73" s="227"/>
-      <c r="K73" s="226"/>
-      <c r="L73" s="227"/>
-      <c r="M73" s="226"/>
-      <c r="N73" s="224"/>
-      <c r="O73" s="227"/>
-      <c r="P73" s="226"/>
-      <c r="Q73" s="227"/>
-      <c r="R73" s="226"/>
-      <c r="S73" s="224"/>
-      <c r="T73" s="224"/>
-      <c r="U73" s="227"/>
+      <c r="B73" s="224"/>
+      <c r="C73" s="222"/>
+      <c r="D73" s="222"/>
+      <c r="E73" s="225"/>
+      <c r="F73" s="224"/>
+      <c r="G73" s="225"/>
+      <c r="H73" s="224"/>
+      <c r="I73" s="222"/>
+      <c r="J73" s="225"/>
+      <c r="K73" s="224"/>
+      <c r="L73" s="225"/>
+      <c r="M73" s="224"/>
+      <c r="N73" s="222"/>
+      <c r="O73" s="225"/>
+      <c r="P73" s="224"/>
+      <c r="Q73" s="225"/>
+      <c r="R73" s="224"/>
+      <c r="S73" s="222"/>
+      <c r="T73" s="222"/>
+      <c r="U73" s="225"/>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="9" t="s">
@@ -4314,26 +4241,26 @@
       <c r="A76" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="226"/>
-      <c r="C76" s="224"/>
-      <c r="D76" s="224"/>
-      <c r="E76" s="227"/>
-      <c r="F76" s="226"/>
-      <c r="G76" s="227"/>
-      <c r="H76" s="226"/>
-      <c r="I76" s="224"/>
-      <c r="J76" s="227"/>
-      <c r="K76" s="226"/>
-      <c r="L76" s="227"/>
-      <c r="M76" s="226"/>
-      <c r="N76" s="224"/>
-      <c r="O76" s="227"/>
-      <c r="P76" s="226"/>
-      <c r="Q76" s="227"/>
-      <c r="R76" s="226"/>
-      <c r="S76" s="224"/>
-      <c r="T76" s="224"/>
-      <c r="U76" s="227"/>
+      <c r="B76" s="224"/>
+      <c r="C76" s="222"/>
+      <c r="D76" s="222"/>
+      <c r="E76" s="225"/>
+      <c r="F76" s="224"/>
+      <c r="G76" s="225"/>
+      <c r="H76" s="224"/>
+      <c r="I76" s="222"/>
+      <c r="J76" s="225"/>
+      <c r="K76" s="224"/>
+      <c r="L76" s="225"/>
+      <c r="M76" s="224"/>
+      <c r="N76" s="222"/>
+      <c r="O76" s="225"/>
+      <c r="P76" s="224"/>
+      <c r="Q76" s="225"/>
+      <c r="R76" s="224"/>
+      <c r="S76" s="222"/>
+      <c r="T76" s="222"/>
+      <c r="U76" s="225"/>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="9" t="s">
@@ -4635,8 +4562,8 @@
       <c r="T88" s="212"/>
       <c r="U88" s="213"/>
     </row>
-    <row r="102" spans="1:17" ht="16" thickBot="1"/>
-    <row r="103" spans="1:17" ht="24" thickBot="1">
+    <row r="102" spans="1:19" ht="16" thickBot="1"/>
+    <row r="103" spans="1:19" ht="24" thickBot="1">
       <c r="A103" s="45" t="s">
         <v>20</v>
       </c>
@@ -4659,7 +4586,7 @@
       <c r="P103"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:17" ht="24" thickBot="1">
+    <row r="104" spans="1:19" ht="24" thickBot="1">
       <c r="A104" s="41" t="s">
         <v>19</v>
       </c>
@@ -4706,7 +4633,7 @@
       <c r="P104"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:17" ht="20">
+    <row r="105" spans="1:19" ht="20">
       <c r="A105" s="11" t="s">
         <v>14</v>
       </c>
@@ -4753,7 +4680,7 @@
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:17" ht="21" thickBot="1">
+    <row r="106" spans="1:19" ht="21" thickBot="1">
       <c r="A106" s="12" t="s">
         <v>15</v>
       </c>
@@ -4800,7 +4727,7 @@
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:19">
       <c r="A107" s="6" t="s">
         <v>2</v>
       </c>
@@ -4820,81 +4747,79 @@
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107"/>
+      <c r="S107"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B108" s="200"/>
-      <c r="C108" s="223"/>
-      <c r="D108" s="223"/>
-      <c r="E108" s="279"/>
+      <c r="C108" s="221"/>
+      <c r="D108" s="221"/>
+      <c r="E108" s="277"/>
       <c r="F108" s="200"/>
-      <c r="G108" s="224"/>
+      <c r="G108" s="222"/>
       <c r="H108" s="118"/>
       <c r="I108" s="200"/>
-      <c r="J108" s="224"/>
-      <c r="K108" s="224"/>
+      <c r="J108" s="222"/>
+      <c r="K108" s="222"/>
       <c r="L108" s="118"/>
       <c r="M108" s="200"/>
       <c r="N108" s="118"/>
-      <c r="O108" t="s">
-        <v>42</v>
-      </c>
+      <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108"/>
+      <c r="S108"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="200"/>
-      <c r="C109" s="223"/>
-      <c r="D109" s="223"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="221"/>
       <c r="E109" s="118"/>
       <c r="F109" s="200"/>
-      <c r="G109" s="224"/>
+      <c r="G109" s="222"/>
       <c r="H109" s="118"/>
       <c r="I109" s="200"/>
-      <c r="J109" s="224"/>
-      <c r="K109" s="224"/>
+      <c r="J109" s="222"/>
+      <c r="K109" s="222"/>
       <c r="L109" s="118"/>
       <c r="M109" s="200"/>
       <c r="N109" s="118"/>
-      <c r="O109" t="s">
-        <v>43</v>
-      </c>
-      <c r="P109" t="s">
-        <v>45</v>
-      </c>
+      <c r="O109"/>
+      <c r="P109"/>
       <c r="Q109"/>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109"/>
+      <c r="S109"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="200"/>
-      <c r="C110" s="223"/>
-      <c r="D110" s="223"/>
+      <c r="C110" s="221"/>
+      <c r="D110" s="221"/>
       <c r="E110" s="118"/>
       <c r="F110" s="200"/>
-      <c r="G110" s="224"/>
+      <c r="G110" s="222"/>
       <c r="H110" s="118"/>
       <c r="I110" s="200"/>
-      <c r="J110" s="224"/>
-      <c r="K110" s="224"/>
+      <c r="J110" s="222"/>
+      <c r="K110" s="222"/>
       <c r="L110" s="118"/>
       <c r="M110" s="200"/>
       <c r="N110" s="118"/>
-      <c r="O110" t="s">
-        <v>82</v>
-      </c>
-      <c r="P110" t="s">
-        <v>46</v>
-      </c>
+      <c r="O110"/>
+      <c r="P110"/>
       <c r="Q110"/>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110"/>
+      <c r="S110"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="9" t="s">
         <v>3</v>
       </c>
@@ -4914,29 +4839,31 @@
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111"/>
+      <c r="S111"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="200"/>
       <c r="C112" s="201"/>
-      <c r="D112" s="223"/>
+      <c r="D112" s="221"/>
       <c r="E112" s="118"/>
-      <c r="F112" s="225"/>
+      <c r="F112" s="223"/>
       <c r="G112" s="201"/>
       <c r="H112" s="118"/>
-      <c r="I112" s="225"/>
+      <c r="I112" s="223"/>
       <c r="J112" s="201"/>
-      <c r="K112" s="224"/>
-      <c r="L112" s="279"/>
-      <c r="M112" s="225"/>
+      <c r="K112" s="222"/>
+      <c r="L112" s="277"/>
+      <c r="M112" s="223"/>
       <c r="N112" s="202"/>
-      <c r="O112" t="s">
-        <v>42</v>
-      </c>
+      <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="7" t="s">
@@ -4944,24 +4871,22 @@
       </c>
       <c r="B113" s="200"/>
       <c r="C113" s="201"/>
-      <c r="D113" s="223"/>
+      <c r="D113" s="221"/>
       <c r="E113" s="118"/>
-      <c r="F113" s="225"/>
+      <c r="F113" s="223"/>
       <c r="G113" s="201"/>
       <c r="H113" s="118"/>
-      <c r="I113" s="225"/>
+      <c r="I113" s="223"/>
       <c r="J113" s="201"/>
-      <c r="K113" s="224"/>
+      <c r="K113" s="222"/>
       <c r="L113" s="118"/>
-      <c r="M113" s="225"/>
+      <c r="M113" s="223"/>
       <c r="N113" s="202"/>
-      <c r="O113">
-        <v>6</v>
-      </c>
-      <c r="P113" t="s">
-        <v>48</v>
-      </c>
+      <c r="O113"/>
+      <c r="P113"/>
       <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="8" t="s">
@@ -4969,20 +4894,22 @@
       </c>
       <c r="B114" s="200"/>
       <c r="C114" s="201"/>
-      <c r="D114" s="224"/>
+      <c r="D114" s="222"/>
       <c r="E114" s="118"/>
-      <c r="F114" s="225"/>
+      <c r="F114" s="223"/>
       <c r="G114" s="201"/>
       <c r="H114" s="118"/>
-      <c r="I114" s="225"/>
+      <c r="I114" s="223"/>
       <c r="J114" s="201"/>
-      <c r="K114" s="224"/>
+      <c r="K114" s="222"/>
       <c r="L114" s="118"/>
-      <c r="M114" s="225"/>
+      <c r="M114" s="223"/>
       <c r="N114" s="202"/>
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="9" t="s">
@@ -5004,6 +4931,8 @@
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="7" t="s">
@@ -5012,21 +4941,21 @@
       <c r="B116" s="200"/>
       <c r="C116" s="201"/>
       <c r="D116" s="201"/>
-      <c r="E116" s="118"/>
-      <c r="F116" s="225"/>
-      <c r="G116" s="223"/>
+      <c r="E116" s="221"/>
+      <c r="F116" s="223"/>
+      <c r="G116" s="221"/>
       <c r="H116" s="202"/>
-      <c r="I116" s="225"/>
-      <c r="J116" s="224"/>
+      <c r="I116" s="223"/>
+      <c r="J116" s="222"/>
       <c r="K116" s="201"/>
       <c r="L116" s="118"/>
-      <c r="M116" s="225"/>
+      <c r="M116" s="223"/>
       <c r="N116" s="118"/>
-      <c r="O116" t="s">
-        <v>42</v>
-      </c>
+      <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="7" t="s">
@@ -5036,20 +4965,20 @@
       <c r="C117" s="201"/>
       <c r="D117" s="201"/>
       <c r="E117" s="118"/>
-      <c r="F117" s="225"/>
-      <c r="G117" s="223"/>
+      <c r="F117" s="223"/>
+      <c r="G117" s="221"/>
       <c r="H117" s="202"/>
-      <c r="I117" s="225"/>
-      <c r="J117" s="224"/>
+      <c r="I117" s="223"/>
+      <c r="J117" s="222"/>
       <c r="K117" s="201"/>
       <c r="L117" s="118"/>
-      <c r="M117" s="225"/>
+      <c r="M117" s="223"/>
       <c r="N117" s="118"/>
-      <c r="O117">
-        <v>2</v>
-      </c>
+      <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="8" t="s">
@@ -5059,22 +4988,20 @@
       <c r="C118" s="201"/>
       <c r="D118" s="201"/>
       <c r="E118" s="118"/>
-      <c r="F118" s="225"/>
-      <c r="G118" s="223"/>
+      <c r="F118" s="223"/>
+      <c r="G118" s="221"/>
       <c r="H118" s="202"/>
-      <c r="I118" s="225"/>
-      <c r="J118" s="224"/>
+      <c r="I118" s="223"/>
+      <c r="J118" s="222"/>
       <c r="K118" s="201"/>
       <c r="L118" s="118"/>
-      <c r="M118" s="225"/>
+      <c r="M118" s="223"/>
       <c r="N118" s="118"/>
-      <c r="O118" t="s">
-        <v>63</v>
-      </c>
-      <c r="P118" t="s">
-        <v>64</v>
-      </c>
+      <c r="O118"/>
+      <c r="P118"/>
       <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="59" t="s">
@@ -5096,6 +5023,8 @@
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="8" t="s">
@@ -5117,6 +5046,8 @@
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="8" t="s">
@@ -5138,6 +5069,8 @@
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="9" t="s">
@@ -5159,59 +5092,54 @@
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="226"/>
-      <c r="C123" s="224"/>
-      <c r="D123" s="224"/>
-      <c r="E123" s="227"/>
-      <c r="F123" s="226"/>
-      <c r="G123" s="224"/>
-      <c r="H123" s="227"/>
-      <c r="I123" s="226"/>
-      <c r="J123" s="224"/>
-      <c r="K123" s="224"/>
-      <c r="L123" s="227"/>
-      <c r="M123" s="226"/>
-      <c r="N123" s="227"/>
+      <c r="B123" s="224"/>
+      <c r="C123" s="222"/>
+      <c r="D123" s="222"/>
+      <c r="E123" s="225"/>
+      <c r="F123" s="224"/>
+      <c r="G123" s="222"/>
+      <c r="H123" s="225"/>
+      <c r="I123" s="224"/>
+      <c r="J123" s="222"/>
+      <c r="K123" s="222"/>
+      <c r="L123" s="225"/>
+      <c r="M123" s="224"/>
+      <c r="N123" s="225"/>
       <c r="O123"/>
       <c r="P123"/>
-      <c r="Q123" s="221" t="s">
-        <v>52</v>
-      </c>
-      <c r="S123" s="221" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B124" s="226"/>
-      <c r="C124" s="224"/>
-      <c r="D124" s="224"/>
-      <c r="E124" s="227"/>
-      <c r="F124" s="226"/>
-      <c r="G124" s="224"/>
-      <c r="H124" s="227"/>
-      <c r="I124" s="226"/>
-      <c r="J124" s="224"/>
-      <c r="K124" s="224"/>
-      <c r="L124" s="227"/>
-      <c r="M124" s="226"/>
-      <c r="N124" s="227"/>
+      <c r="B124" s="224"/>
+      <c r="C124" s="222"/>
+      <c r="D124" s="222"/>
+      <c r="E124" s="225"/>
+      <c r="F124" s="224"/>
+      <c r="G124" s="222"/>
+      <c r="H124" s="225"/>
+      <c r="I124" s="224"/>
+      <c r="J124" s="222"/>
+      <c r="K124" s="222"/>
+      <c r="L124" s="225"/>
+      <c r="M124" s="224"/>
+      <c r="N124" s="225"/>
       <c r="O124"/>
       <c r="P124"/>
-      <c r="Q124" s="221" t="s">
-        <v>53</v>
-      </c>
-      <c r="R124" s="5"/>
-      <c r="S124" s="221" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="9" t="s">
@@ -5232,65 +5160,55 @@
       <c r="N125" s="20"/>
       <c r="O125"/>
       <c r="P125"/>
-      <c r="Q125" s="221" t="s">
-        <v>51</v>
-      </c>
-      <c r="S125" s="221" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
     </row>
     <row r="126" spans="1:19" s="5" customFormat="1">
       <c r="A126" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="226"/>
-      <c r="C126" s="224"/>
-      <c r="D126" s="224"/>
-      <c r="E126" s="227"/>
-      <c r="F126" s="226"/>
-      <c r="G126" s="224"/>
-      <c r="H126" s="227"/>
-      <c r="I126" s="226"/>
-      <c r="J126" s="224"/>
-      <c r="K126" s="224"/>
-      <c r="L126" s="227"/>
-      <c r="M126" s="226"/>
-      <c r="N126" s="227"/>
-      <c r="O126" s="57"/>
-      <c r="P126" s="57"/>
-      <c r="Q126" s="221" t="s">
-        <v>54</v>
-      </c>
-      <c r="R126" s="1"/>
-      <c r="S126" s="222" t="s">
-        <v>60</v>
-      </c>
+      <c r="B126" s="224"/>
+      <c r="C126" s="222"/>
+      <c r="D126" s="222"/>
+      <c r="E126" s="225"/>
+      <c r="F126" s="224"/>
+      <c r="G126" s="222"/>
+      <c r="H126" s="225"/>
+      <c r="I126" s="224"/>
+      <c r="J126" s="222"/>
+      <c r="K126" s="222"/>
+      <c r="L126" s="225"/>
+      <c r="M126" s="224"/>
+      <c r="N126" s="225"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B127" s="226"/>
-      <c r="C127" s="224"/>
-      <c r="D127" s="224"/>
-      <c r="E127" s="227"/>
-      <c r="F127" s="226"/>
-      <c r="G127" s="224"/>
-      <c r="H127" s="227"/>
-      <c r="I127" s="226"/>
-      <c r="J127" s="224"/>
-      <c r="K127" s="224"/>
-      <c r="L127" s="227"/>
-      <c r="M127" s="226"/>
-      <c r="N127" s="227"/>
+      <c r="B127" s="224"/>
+      <c r="C127" s="222"/>
+      <c r="D127" s="222"/>
+      <c r="E127" s="225"/>
+      <c r="F127" s="224"/>
+      <c r="G127" s="222"/>
+      <c r="H127" s="225"/>
+      <c r="I127" s="224"/>
+      <c r="J127" s="222"/>
+      <c r="K127" s="222"/>
+      <c r="L127" s="225"/>
+      <c r="M127" s="224"/>
+      <c r="N127" s="225"/>
       <c r="O127"/>
       <c r="P127"/>
-      <c r="Q127" s="221" t="s">
-        <v>43</v>
-      </c>
-      <c r="S127" s="222" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="9" t="s">
@@ -5311,12 +5229,9 @@
       <c r="N128" s="20"/>
       <c r="O128"/>
       <c r="P128"/>
-      <c r="Q128" s="221" t="s">
-        <v>55</v>
-      </c>
-      <c r="S128" s="222" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="7" t="s">
@@ -5335,13 +5250,11 @@
       <c r="L129" s="202"/>
       <c r="M129" s="200"/>
       <c r="N129" s="202"/>
+      <c r="O129"/>
       <c r="P129"/>
-      <c r="Q129" s="221" t="s">
-        <v>56</v>
-      </c>
-      <c r="S129" s="222" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="8" t="s">
@@ -5362,9 +5275,9 @@
       <c r="N130" s="202"/>
       <c r="O130"/>
       <c r="P130"/>
-      <c r="Q130" s="221" t="s">
-        <v>83</v>
-      </c>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="9" t="s">
@@ -5385,9 +5298,9 @@
       <c r="N131" s="20"/>
       <c r="O131"/>
       <c r="P131"/>
-      <c r="Q131" s="221" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="7" t="s">
@@ -5409,6 +5322,8 @@
       <c r="O132"/>
       <c r="P132"/>
       <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="8" t="s">
@@ -5539,25 +5454,25 @@
       <c r="A139" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B139" s="228"/>
-      <c r="C139" s="229"/>
-      <c r="D139" s="229"/>
-      <c r="E139" s="230"/>
-      <c r="F139" s="228"/>
-      <c r="G139" s="229"/>
-      <c r="H139" s="230"/>
-      <c r="I139" s="228"/>
-      <c r="J139" s="229"/>
-      <c r="K139" s="229"/>
-      <c r="L139" s="230"/>
-      <c r="M139" s="228"/>
-      <c r="N139" s="230"/>
+      <c r="B139" s="226"/>
+      <c r="C139" s="227"/>
+      <c r="D139" s="227"/>
+      <c r="E139" s="228"/>
+      <c r="F139" s="226"/>
+      <c r="G139" s="227"/>
+      <c r="H139" s="228"/>
+      <c r="I139" s="226"/>
+      <c r="J139" s="227"/>
+      <c r="K139" s="227"/>
+      <c r="L139" s="228"/>
+      <c r="M139" s="226"/>
+      <c r="N139" s="228"/>
       <c r="O139"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="153" spans="1:13" ht="16" thickBot="1"/>
-    <row r="154" spans="1:13" ht="24" thickBot="1">
+    <row r="153" spans="1:16" ht="16" thickBot="1"/>
+    <row r="154" spans="1:16" ht="24" thickBot="1">
       <c r="A154" s="70" t="s">
         <v>29</v>
       </c>
@@ -5574,7 +5489,7 @@
       <c r="J154" s="165"/>
       <c r="K154"/>
     </row>
-    <row r="155" spans="1:13" ht="24" thickBot="1">
+    <row r="155" spans="1:16" ht="24" thickBot="1">
       <c r="A155" s="157" t="s">
         <v>19</v>
       </c>
@@ -5607,7 +5522,7 @@
       </c>
       <c r="K155"/>
     </row>
-    <row r="156" spans="1:13" ht="20">
+    <row r="156" spans="1:16" ht="20">
       <c r="A156" s="11" t="s">
         <v>14</v>
       </c>
@@ -5640,7 +5555,7 @@
       </c>
       <c r="K156"/>
     </row>
-    <row r="157" spans="1:13" ht="21" thickBot="1">
+    <row r="157" spans="1:16" ht="21" thickBot="1">
       <c r="A157" s="12" t="s">
         <v>15</v>
       </c>
@@ -5672,8 +5587,13 @@
         <v>4</v>
       </c>
       <c r="K157"/>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="6" t="s">
         <v>2</v>
       </c>
@@ -5687,219 +5607,233 @@
       <c r="I158" s="75"/>
       <c r="J158" s="76"/>
       <c r="K158"/>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="232"/>
-      <c r="C159" s="235"/>
-      <c r="D159" s="280"/>
-      <c r="E159" s="232"/>
-      <c r="F159" s="233"/>
-      <c r="G159" s="234"/>
-      <c r="H159" s="231"/>
-      <c r="I159" s="231"/>
-      <c r="J159" s="233"/>
-      <c r="K159" t="s">
-        <v>42</v>
-      </c>
+      <c r="B159" s="230"/>
+      <c r="C159" s="233"/>
+      <c r="D159" s="278"/>
+      <c r="E159" s="230"/>
+      <c r="F159" s="231"/>
+      <c r="G159" s="232"/>
+      <c r="H159" s="229"/>
+      <c r="I159" s="229"/>
+      <c r="J159" s="231"/>
+      <c r="K159"/>
       <c r="L159"/>
       <c r="M159"/>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="232"/>
-      <c r="C160" s="235"/>
-      <c r="D160" s="233"/>
-      <c r="E160" s="232"/>
-      <c r="F160" s="233"/>
-      <c r="G160" s="234"/>
-      <c r="H160" s="235"/>
-      <c r="I160" s="235"/>
-      <c r="J160" s="233"/>
-      <c r="K160" t="s">
-        <v>43</v>
-      </c>
-      <c r="L160" t="s">
-        <v>45</v>
-      </c>
+      <c r="B160" s="230"/>
+      <c r="C160" s="233"/>
+      <c r="D160" s="231"/>
+      <c r="E160" s="230"/>
+      <c r="F160" s="231"/>
+      <c r="G160" s="232"/>
+      <c r="H160" s="233"/>
+      <c r="I160" s="233"/>
+      <c r="J160" s="231"/>
+      <c r="K160"/>
+      <c r="L160"/>
       <c r="M160"/>
-    </row>
-    <row r="161" spans="1:15">
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B161" s="232"/>
-      <c r="C161" s="235"/>
-      <c r="D161" s="233"/>
-      <c r="E161" s="232"/>
-      <c r="F161" s="233"/>
-      <c r="G161" s="234"/>
-      <c r="H161" s="235"/>
-      <c r="I161" s="235"/>
-      <c r="J161" s="233"/>
-      <c r="K161" t="s">
-        <v>82</v>
-      </c>
-      <c r="L161" t="s">
-        <v>46</v>
-      </c>
+      <c r="B161" s="230"/>
+      <c r="C161" s="233"/>
+      <c r="D161" s="231"/>
+      <c r="E161" s="230"/>
+      <c r="F161" s="231"/>
+      <c r="G161" s="232"/>
+      <c r="H161" s="233"/>
+      <c r="I161" s="233"/>
+      <c r="J161" s="231"/>
+      <c r="K161"/>
+      <c r="L161"/>
       <c r="M161"/>
-    </row>
-    <row r="162" spans="1:15">
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B162" s="236"/>
-      <c r="C162" s="237"/>
-      <c r="D162" s="238"/>
-      <c r="E162" s="236"/>
-      <c r="F162" s="238"/>
-      <c r="G162" s="237"/>
-      <c r="H162" s="237"/>
-      <c r="I162" s="237"/>
-      <c r="J162" s="238"/>
+      <c r="B162" s="234"/>
+      <c r="C162" s="235"/>
+      <c r="D162" s="236"/>
+      <c r="E162" s="234"/>
+      <c r="F162" s="236"/>
+      <c r="G162" s="235"/>
+      <c r="H162" s="235"/>
+      <c r="I162" s="235"/>
+      <c r="J162" s="236"/>
       <c r="K162"/>
       <c r="L162"/>
       <c r="M162"/>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="239"/>
-      <c r="C163" s="234"/>
-      <c r="D163" s="233"/>
-      <c r="E163" s="282"/>
-      <c r="F163" s="240"/>
-      <c r="G163" s="235"/>
-      <c r="H163" s="234"/>
-      <c r="I163" s="281"/>
-      <c r="J163" s="233"/>
-      <c r="K163" t="s">
-        <v>42</v>
-      </c>
+      <c r="B163" s="237"/>
+      <c r="C163" s="232"/>
+      <c r="D163" s="231"/>
+      <c r="E163" s="280"/>
+      <c r="F163" s="238"/>
+      <c r="G163" s="233"/>
+      <c r="H163" s="232"/>
+      <c r="I163" s="279"/>
+      <c r="J163" s="231"/>
+      <c r="K163"/>
       <c r="L163"/>
       <c r="M163"/>
-    </row>
-    <row r="164" spans="1:15">
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B164" s="239"/>
-      <c r="C164" s="234"/>
-      <c r="D164" s="233"/>
-      <c r="E164" s="239"/>
-      <c r="F164" s="240"/>
-      <c r="G164" s="235"/>
-      <c r="H164" s="234"/>
-      <c r="I164" s="235"/>
-      <c r="J164" s="233"/>
-      <c r="K164">
-        <v>6</v>
-      </c>
-      <c r="L164" t="s">
-        <v>48</v>
-      </c>
+      <c r="B164" s="237"/>
+      <c r="C164" s="232"/>
+      <c r="D164" s="231"/>
+      <c r="E164" s="237"/>
+      <c r="F164" s="238"/>
+      <c r="G164" s="233"/>
+      <c r="H164" s="232"/>
+      <c r="I164" s="233"/>
+      <c r="J164" s="231"/>
+      <c r="K164"/>
+      <c r="L164"/>
       <c r="M164"/>
-    </row>
-    <row r="165" spans="1:15">
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="239"/>
-      <c r="C165" s="234"/>
-      <c r="D165" s="233"/>
-      <c r="E165" s="239"/>
-      <c r="F165" s="240"/>
-      <c r="G165" s="235"/>
-      <c r="H165" s="234"/>
-      <c r="I165" s="235"/>
-      <c r="J165" s="233"/>
+      <c r="B165" s="237"/>
+      <c r="C165" s="232"/>
+      <c r="D165" s="231"/>
+      <c r="E165" s="237"/>
+      <c r="F165" s="238"/>
+      <c r="G165" s="233"/>
+      <c r="H165" s="232"/>
+      <c r="I165" s="233"/>
+      <c r="J165" s="231"/>
       <c r="K165"/>
       <c r="L165"/>
       <c r="M165"/>
-    </row>
-    <row r="166" spans="1:15">
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="236"/>
-      <c r="C166" s="237"/>
-      <c r="D166" s="238"/>
-      <c r="E166" s="236"/>
-      <c r="F166" s="238"/>
-      <c r="G166" s="237"/>
-      <c r="H166" s="237"/>
-      <c r="I166" s="237"/>
-      <c r="J166" s="238"/>
+      <c r="B166" s="234"/>
+      <c r="C166" s="235"/>
+      <c r="D166" s="236"/>
+      <c r="E166" s="234"/>
+      <c r="F166" s="236"/>
+      <c r="G166" s="235"/>
+      <c r="H166" s="235"/>
+      <c r="I166" s="235"/>
+      <c r="J166" s="236"/>
       <c r="K166"/>
       <c r="L166"/>
       <c r="M166"/>
-    </row>
-    <row r="167" spans="1:15">
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="239"/>
-      <c r="C167" s="235"/>
-      <c r="D167" s="240"/>
-      <c r="E167" s="239"/>
-      <c r="F167" s="233"/>
-      <c r="G167" s="231"/>
-      <c r="H167" s="283"/>
-      <c r="I167" s="234"/>
-      <c r="J167" s="233"/>
-      <c r="K167" t="s">
-        <v>42</v>
-      </c>
+      <c r="B167" s="237"/>
+      <c r="C167" s="233"/>
+      <c r="D167" s="238"/>
+      <c r="E167" s="237"/>
+      <c r="F167" s="231"/>
+      <c r="G167" s="229"/>
+      <c r="H167" s="281"/>
+      <c r="I167" s="232"/>
+      <c r="J167" s="231"/>
+      <c r="K167"/>
       <c r="L167"/>
       <c r="M167"/>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B168" s="239"/>
-      <c r="C168" s="235"/>
-      <c r="D168" s="240"/>
-      <c r="E168" s="239"/>
-      <c r="F168" s="233"/>
-      <c r="G168" s="235"/>
-      <c r="H168" s="235"/>
-      <c r="I168" s="234"/>
-      <c r="J168" s="233"/>
-      <c r="K168">
-        <v>2</v>
-      </c>
+      <c r="B168" s="237"/>
+      <c r="C168" s="233"/>
+      <c r="D168" s="238"/>
+      <c r="E168" s="237"/>
+      <c r="F168" s="231"/>
+      <c r="G168" s="233"/>
+      <c r="H168" s="233"/>
+      <c r="I168" s="232"/>
+      <c r="J168" s="231"/>
+      <c r="K168"/>
       <c r="L168"/>
       <c r="M168"/>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+    </row>
+    <row r="169" spans="1:16">
       <c r="A169" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B169" s="239"/>
-      <c r="C169" s="235"/>
-      <c r="D169" s="240"/>
-      <c r="E169" s="239"/>
-      <c r="F169" s="233"/>
-      <c r="G169" s="235"/>
-      <c r="H169" s="235"/>
-      <c r="I169" s="234"/>
-      <c r="J169" s="233"/>
-      <c r="K169" t="s">
-        <v>63</v>
-      </c>
-      <c r="L169" t="s">
-        <v>64</v>
-      </c>
+      <c r="B169" s="237"/>
+      <c r="C169" s="233"/>
+      <c r="D169" s="238"/>
+      <c r="E169" s="237"/>
+      <c r="F169" s="231"/>
+      <c r="G169" s="233"/>
+      <c r="H169" s="233"/>
+      <c r="I169" s="232"/>
+      <c r="J169" s="231"/>
+      <c r="K169"/>
+      <c r="L169"/>
       <c r="M169"/>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+    </row>
+    <row r="170" spans="1:16">
       <c r="A170" s="59" t="s">
         <v>24</v>
       </c>
@@ -5915,8 +5849,11 @@
       <c r="K170"/>
       <c r="L170"/>
       <c r="M170"/>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+    </row>
+    <row r="171" spans="1:16">
       <c r="A171" s="8" t="s">
         <v>28</v>
       </c>
@@ -5932,8 +5869,11 @@
       <c r="K171"/>
       <c r="L171"/>
       <c r="M171"/>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+    </row>
+    <row r="172" spans="1:16">
       <c r="A172" s="8" t="s">
         <v>25</v>
       </c>
@@ -5949,8 +5889,11 @@
       <c r="K172"/>
       <c r="L172"/>
       <c r="M172"/>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173" spans="1:16">
       <c r="A173" s="9" t="s">
         <v>22</v>
       </c>
@@ -5966,8 +5909,11 @@
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+    </row>
+    <row r="174" spans="1:16">
       <c r="A174" s="13" t="s">
         <v>26</v>
       </c>
@@ -5982,36 +5928,32 @@
       <c r="J174" s="73"/>
       <c r="K174"/>
       <c r="L174"/>
-      <c r="M174" s="221" t="s">
-        <v>52</v>
-      </c>
-      <c r="O174" s="221" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+    </row>
+    <row r="175" spans="1:16">
       <c r="A175" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="298"/>
-      <c r="C175" s="299"/>
-      <c r="D175" s="300"/>
-      <c r="E175" s="298"/>
-      <c r="F175" s="300"/>
-      <c r="G175" s="299"/>
-      <c r="H175" s="299"/>
-      <c r="I175" s="299"/>
-      <c r="J175" s="300"/>
+      <c r="B175" s="296"/>
+      <c r="C175" s="297"/>
+      <c r="D175" s="298"/>
+      <c r="E175" s="296"/>
+      <c r="F175" s="298"/>
+      <c r="G175" s="297"/>
+      <c r="H175" s="297"/>
+      <c r="I175" s="297"/>
+      <c r="J175" s="298"/>
       <c r="K175"/>
       <c r="L175"/>
-      <c r="M175" s="221" t="s">
-        <v>53</v>
-      </c>
-      <c r="O175" s="221" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+    </row>
+    <row r="176" spans="1:16">
       <c r="A176" s="9" t="s">
         <v>23</v>
       </c>
@@ -6026,14 +5968,12 @@
       <c r="J176" s="79"/>
       <c r="K176"/>
       <c r="L176"/>
-      <c r="M176" s="221" t="s">
-        <v>51</v>
-      </c>
-      <c r="O176" s="221" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+    </row>
+    <row r="177" spans="1:16">
       <c r="A177" s="13" t="s">
         <v>26</v>
       </c>
@@ -6046,39 +5986,34 @@
       <c r="H177" s="72"/>
       <c r="I177" s="72"/>
       <c r="J177" s="73"/>
-      <c r="K177" s="57"/>
-      <c r="L177" s="57"/>
-      <c r="M177" s="221" t="s">
-        <v>54</v>
-      </c>
-      <c r="N177" s="5"/>
-      <c r="O177" s="222" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+    </row>
+    <row r="178" spans="1:16">
       <c r="A178" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B178" s="298"/>
-      <c r="C178" s="299"/>
-      <c r="D178" s="300"/>
-      <c r="E178" s="298"/>
-      <c r="F178" s="300"/>
-      <c r="G178" s="299"/>
-      <c r="H178" s="299"/>
-      <c r="I178" s="299"/>
-      <c r="J178" s="300"/>
+      <c r="B178" s="296"/>
+      <c r="C178" s="297"/>
+      <c r="D178" s="298"/>
+      <c r="E178" s="296"/>
+      <c r="F178" s="298"/>
+      <c r="G178" s="297"/>
+      <c r="H178" s="297"/>
+      <c r="I178" s="297"/>
+      <c r="J178" s="298"/>
       <c r="K178"/>
       <c r="L178"/>
-      <c r="M178" s="221" t="s">
-        <v>43</v>
-      </c>
-      <c r="O178" s="222" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+    </row>
+    <row r="179" spans="1:16">
       <c r="A179" s="9" t="s">
         <v>5</v>
       </c>
@@ -6093,14 +6028,12 @@
       <c r="J179" s="79"/>
       <c r="K179"/>
       <c r="L179"/>
-      <c r="M179" s="221" t="s">
-        <v>55</v>
-      </c>
-      <c r="O179" s="222" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+    </row>
+    <row r="180" spans="1:16">
       <c r="A180" s="7" t="s">
         <v>16</v>
       </c>
@@ -6115,14 +6048,12 @@
       <c r="J180" s="217"/>
       <c r="K180"/>
       <c r="L180"/>
-      <c r="M180" s="221" t="s">
-        <v>56</v>
-      </c>
-      <c r="O180" s="222" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+    </row>
+    <row r="181" spans="1:16">
       <c r="A181" s="8" t="s">
         <v>17</v>
       </c>
@@ -6137,11 +6068,12 @@
       <c r="J181" s="217"/>
       <c r="K181"/>
       <c r="L181"/>
-      <c r="M181" s="221" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+    </row>
+    <row r="182" spans="1:16">
       <c r="A182" s="9" t="s">
         <v>6</v>
       </c>
@@ -6156,11 +6088,12 @@
       <c r="J182" s="79"/>
       <c r="K182"/>
       <c r="L182"/>
-      <c r="M182" s="221" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+    </row>
+    <row r="183" spans="1:16">
       <c r="A183" s="7" t="s">
         <v>16</v>
       </c>
@@ -6175,7 +6108,7 @@
       <c r="J183" s="217"/>
       <c r="K183"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:16">
       <c r="A184" s="8" t="s">
         <v>17</v>
       </c>
@@ -6190,7 +6123,7 @@
       <c r="J184" s="217"/>
       <c r="K184"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:16">
       <c r="A185" s="9" t="s">
         <v>7</v>
       </c>
@@ -6205,7 +6138,7 @@
       <c r="J185" s="79"/>
       <c r="K185"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:16">
       <c r="A186" s="7" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6153,7 @@
       <c r="J186" s="217"/>
       <c r="K186"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:16">
       <c r="A187" s="8" t="s">
         <v>17</v>
       </c>
@@ -6235,7 +6168,7 @@
       <c r="J187" s="217"/>
       <c r="K187"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:16">
       <c r="A188" s="9" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +6183,7 @@
       <c r="J188" s="79"/>
       <c r="K188"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:16">
       <c r="A189" s="7" t="s">
         <v>16</v>
       </c>
@@ -6265,7 +6198,7 @@
       <c r="J189" s="217"/>
       <c r="K189"/>
     </row>
-    <row r="190" spans="1:15" ht="16" thickBot="1">
+    <row r="190" spans="1:16" ht="16" thickBot="1">
       <c r="A190" s="10" t="s">
         <v>18</v>
       </c>
@@ -6280,8 +6213,8 @@
       <c r="J190" s="220"/>
       <c r="K190"/>
     </row>
-    <row r="204" spans="1:18" ht="16" thickBot="1"/>
-    <row r="205" spans="1:18" ht="24" thickBot="1">
+    <row r="204" spans="1:21" ht="16" thickBot="1"/>
+    <row r="205" spans="1:21" ht="24" thickBot="1">
       <c r="A205" s="70" t="s">
         <v>30</v>
       </c>
@@ -6304,7 +6237,7 @@
       <c r="P205" s="167"/>
       <c r="Q205" s="168"/>
     </row>
-    <row r="206" spans="1:18" ht="24" thickBot="1">
+    <row r="206" spans="1:21" ht="24" thickBot="1">
       <c r="A206" s="157" t="s">
         <v>19</v>
       </c>
@@ -6356,8 +6289,12 @@
       <c r="Q206" s="100">
         <v>74</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" ht="20">
+      <c r="R206"/>
+      <c r="S206"/>
+      <c r="T206"/>
+      <c r="U206"/>
+    </row>
+    <row r="207" spans="1:21" ht="20">
       <c r="A207" s="11" t="s">
         <v>14</v>
       </c>
@@ -6409,8 +6346,12 @@
       <c r="Q207" s="163">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" ht="21" thickBot="1">
+      <c r="R207"/>
+      <c r="S207"/>
+      <c r="T207"/>
+      <c r="U207"/>
+    </row>
+    <row r="208" spans="1:21" ht="21" thickBot="1">
       <c r="A208" s="12" t="s">
         <v>15</v>
       </c>
@@ -6462,11 +6403,12 @@
       <c r="Q208" s="88">
         <v>8</v>
       </c>
-      <c r="R208" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20">
+      <c r="R208"/>
+      <c r="S208"/>
+      <c r="T208"/>
+      <c r="U208"/>
+    </row>
+    <row r="209" spans="1:21">
       <c r="A209" s="6" t="s">
         <v>2</v>
       </c>
@@ -6486,295 +6428,287 @@
       <c r="O209" s="105"/>
       <c r="P209" s="105"/>
       <c r="Q209" s="106"/>
-      <c r="R209" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20">
+      <c r="R209"/>
+      <c r="S209"/>
+      <c r="T209"/>
+      <c r="U209"/>
+    </row>
+    <row r="210" spans="1:21">
       <c r="A210" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B210" s="232"/>
-      <c r="C210" s="231"/>
-      <c r="D210" s="280"/>
-      <c r="E210" s="234"/>
-      <c r="F210" s="233"/>
-      <c r="G210" s="234"/>
-      <c r="H210" s="231"/>
-      <c r="I210" s="283"/>
-      <c r="J210" s="233"/>
-      <c r="K210" s="232"/>
-      <c r="L210" s="231"/>
-      <c r="M210" s="231"/>
-      <c r="N210" s="233"/>
-      <c r="O210" s="234"/>
-      <c r="P210" s="231"/>
-      <c r="Q210" s="233"/>
-      <c r="R210" t="s">
-        <v>82</v>
-      </c>
+      <c r="B210" s="230"/>
+      <c r="C210" s="229"/>
+      <c r="D210" s="278"/>
+      <c r="E210" s="232"/>
+      <c r="F210" s="231"/>
+      <c r="G210" s="232"/>
+      <c r="H210" s="229"/>
+      <c r="I210" s="281"/>
+      <c r="J210" s="231"/>
+      <c r="K210" s="230"/>
+      <c r="L210" s="229"/>
+      <c r="M210" s="229"/>
+      <c r="N210" s="231"/>
+      <c r="O210" s="232"/>
+      <c r="P210" s="229"/>
+      <c r="Q210" s="231"/>
+      <c r="R210"/>
       <c r="S210"/>
       <c r="T210"/>
-    </row>
-    <row r="211" spans="1:20">
+      <c r="U210"/>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B211" s="232"/>
-      <c r="C211" s="235"/>
-      <c r="D211" s="233"/>
-      <c r="E211" s="234"/>
-      <c r="F211" s="233"/>
-      <c r="G211" s="234"/>
-      <c r="H211" s="235"/>
-      <c r="I211" s="235"/>
-      <c r="J211" s="233"/>
-      <c r="K211" s="232"/>
-      <c r="L211" s="235"/>
-      <c r="M211" s="235"/>
-      <c r="N211" s="233"/>
-      <c r="O211" s="234"/>
-      <c r="P211" s="235"/>
-      <c r="Q211" s="233"/>
+      <c r="B211" s="230"/>
+      <c r="C211" s="233"/>
+      <c r="D211" s="231"/>
+      <c r="E211" s="232"/>
+      <c r="F211" s="231"/>
+      <c r="G211" s="232"/>
+      <c r="H211" s="233"/>
+      <c r="I211" s="233"/>
+      <c r="J211" s="231"/>
+      <c r="K211" s="230"/>
+      <c r="L211" s="233"/>
+      <c r="M211" s="233"/>
+      <c r="N211" s="231"/>
+      <c r="O211" s="232"/>
+      <c r="P211" s="233"/>
+      <c r="Q211" s="231"/>
       <c r="R211"/>
-      <c r="S211" t="s">
-        <v>65</v>
-      </c>
+      <c r="S211"/>
       <c r="T211"/>
-    </row>
-    <row r="212" spans="1:20">
+      <c r="U211"/>
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B212" s="232"/>
-      <c r="C212" s="235"/>
-      <c r="D212" s="233"/>
-      <c r="E212" s="234"/>
-      <c r="F212" s="233"/>
-      <c r="G212" s="234"/>
-      <c r="H212" s="235"/>
-      <c r="I212" s="235"/>
-      <c r="J212" s="233"/>
-      <c r="K212" s="232"/>
-      <c r="L212" s="235"/>
-      <c r="M212" s="235"/>
-      <c r="N212" s="233"/>
-      <c r="O212" s="234"/>
-      <c r="P212" s="235"/>
-      <c r="Q212" s="233"/>
-      <c r="R212" t="s">
-        <v>42</v>
-      </c>
-      <c r="S212" t="s">
-        <v>46</v>
-      </c>
+      <c r="B212" s="230"/>
+      <c r="C212" s="233"/>
+      <c r="D212" s="231"/>
+      <c r="E212" s="232"/>
+      <c r="F212" s="231"/>
+      <c r="G212" s="232"/>
+      <c r="H212" s="233"/>
+      <c r="I212" s="233"/>
+      <c r="J212" s="231"/>
+      <c r="K212" s="230"/>
+      <c r="L212" s="233"/>
+      <c r="M212" s="233"/>
+      <c r="N212" s="231"/>
+      <c r="O212" s="232"/>
+      <c r="P212" s="233"/>
+      <c r="Q212" s="231"/>
+      <c r="R212"/>
+      <c r="S212"/>
       <c r="T212"/>
-    </row>
-    <row r="213" spans="1:20">
+      <c r="U212"/>
+    </row>
+    <row r="213" spans="1:21">
       <c r="A213" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="236"/>
-      <c r="C213" s="237"/>
-      <c r="D213" s="238"/>
-      <c r="E213" s="237"/>
-      <c r="F213" s="238"/>
-      <c r="G213" s="237"/>
-      <c r="H213" s="237"/>
-      <c r="I213" s="237"/>
-      <c r="J213" s="238"/>
-      <c r="K213" s="236"/>
-      <c r="L213" s="237"/>
-      <c r="M213" s="237"/>
-      <c r="N213" s="238"/>
-      <c r="O213" s="237"/>
-      <c r="P213" s="237"/>
-      <c r="Q213" s="238"/>
-      <c r="R213">
-        <v>6</v>
-      </c>
+      <c r="B213" s="234"/>
+      <c r="C213" s="235"/>
+      <c r="D213" s="236"/>
+      <c r="E213" s="235"/>
+      <c r="F213" s="236"/>
+      <c r="G213" s="235"/>
+      <c r="H213" s="235"/>
+      <c r="I213" s="235"/>
+      <c r="J213" s="236"/>
+      <c r="K213" s="234"/>
+      <c r="L213" s="235"/>
+      <c r="M213" s="235"/>
+      <c r="N213" s="236"/>
+      <c r="O213" s="235"/>
+      <c r="P213" s="235"/>
+      <c r="Q213" s="236"/>
+      <c r="R213"/>
       <c r="S213"/>
       <c r="T213"/>
-    </row>
-    <row r="214" spans="1:20">
+      <c r="U213"/>
+    </row>
+    <row r="214" spans="1:21">
       <c r="A214" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B214" s="239"/>
-      <c r="C214" s="234"/>
-      <c r="D214" s="233"/>
-      <c r="E214" s="235"/>
-      <c r="F214" s="240"/>
-      <c r="G214" s="235"/>
-      <c r="H214" s="234"/>
-      <c r="I214" s="235"/>
-      <c r="J214" s="280"/>
-      <c r="K214" s="239"/>
-      <c r="L214" s="234"/>
-      <c r="M214" s="235"/>
-      <c r="N214" s="280"/>
-      <c r="O214" s="235"/>
-      <c r="P214" s="234"/>
-      <c r="Q214" s="233"/>
+      <c r="B214" s="237"/>
+      <c r="C214" s="232"/>
+      <c r="D214" s="231"/>
+      <c r="E214" s="233"/>
+      <c r="F214" s="238"/>
+      <c r="G214" s="233"/>
+      <c r="H214" s="232"/>
+      <c r="I214" s="233"/>
+      <c r="J214" s="278"/>
+      <c r="K214" s="237"/>
+      <c r="L214" s="232"/>
+      <c r="M214" s="233"/>
+      <c r="N214" s="278"/>
+      <c r="O214" s="233"/>
+      <c r="P214" s="232"/>
+      <c r="Q214" s="231"/>
       <c r="R214"/>
       <c r="S214"/>
       <c r="T214"/>
-    </row>
-    <row r="215" spans="1:20">
+      <c r="U214"/>
+    </row>
+    <row r="215" spans="1:21">
       <c r="A215" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B215" s="246"/>
-      <c r="C215" s="234"/>
-      <c r="D215" s="233"/>
-      <c r="E215" s="235"/>
-      <c r="F215" s="240"/>
-      <c r="G215" s="235"/>
-      <c r="H215" s="234"/>
-      <c r="I215" s="235"/>
-      <c r="J215" s="233"/>
-      <c r="K215" s="239"/>
-      <c r="L215" s="234"/>
-      <c r="M215" s="235"/>
-      <c r="N215" s="233"/>
-      <c r="O215" s="235"/>
-      <c r="P215" s="234"/>
-      <c r="Q215" s="233"/>
+      <c r="B215" s="244"/>
+      <c r="C215" s="232"/>
+      <c r="D215" s="231"/>
+      <c r="E215" s="233"/>
+      <c r="F215" s="238"/>
+      <c r="G215" s="233"/>
+      <c r="H215" s="232"/>
+      <c r="I215" s="233"/>
+      <c r="J215" s="231"/>
+      <c r="K215" s="237"/>
+      <c r="L215" s="232"/>
+      <c r="M215" s="233"/>
+      <c r="N215" s="231"/>
+      <c r="O215" s="233"/>
+      <c r="P215" s="232"/>
+      <c r="Q215" s="231"/>
       <c r="R215"/>
-      <c r="S215" t="s">
-        <v>48</v>
-      </c>
+      <c r="S215"/>
       <c r="T215"/>
-    </row>
-    <row r="216" spans="1:20">
+      <c r="U215"/>
+    </row>
+    <row r="216" spans="1:21">
       <c r="A216" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="239"/>
-      <c r="C216" s="234"/>
-      <c r="D216" s="233"/>
-      <c r="E216" s="235"/>
-      <c r="F216" s="240"/>
-      <c r="G216" s="235"/>
-      <c r="H216" s="234"/>
-      <c r="I216" s="235"/>
-      <c r="J216" s="233"/>
-      <c r="K216" s="239"/>
-      <c r="L216" s="234"/>
-      <c r="M216" s="235"/>
-      <c r="N216" s="233"/>
-      <c r="O216" s="235"/>
-      <c r="P216" s="234"/>
-      <c r="Q216" s="233"/>
-      <c r="R216" t="s">
-        <v>42</v>
-      </c>
+      <c r="B216" s="237"/>
+      <c r="C216" s="232"/>
+      <c r="D216" s="231"/>
+      <c r="E216" s="233"/>
+      <c r="F216" s="238"/>
+      <c r="G216" s="233"/>
+      <c r="H216" s="232"/>
+      <c r="I216" s="233"/>
+      <c r="J216" s="231"/>
+      <c r="K216" s="237"/>
+      <c r="L216" s="232"/>
+      <c r="M216" s="233"/>
+      <c r="N216" s="231"/>
+      <c r="O216" s="233"/>
+      <c r="P216" s="232"/>
+      <c r="Q216" s="231"/>
+      <c r="R216"/>
       <c r="S216"/>
       <c r="T216"/>
-    </row>
-    <row r="217" spans="1:20">
+      <c r="U216"/>
+    </row>
+    <row r="217" spans="1:21">
       <c r="A217" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B217" s="236"/>
-      <c r="C217" s="237"/>
-      <c r="D217" s="238"/>
-      <c r="E217" s="237"/>
-      <c r="F217" s="238"/>
-      <c r="G217" s="237"/>
-      <c r="H217" s="237"/>
-      <c r="I217" s="237"/>
-      <c r="J217" s="238"/>
-      <c r="K217" s="236"/>
-      <c r="L217" s="237"/>
-      <c r="M217" s="237"/>
-      <c r="N217" s="238"/>
-      <c r="O217" s="237"/>
-      <c r="P217" s="237"/>
-      <c r="Q217" s="238"/>
-      <c r="R217">
-        <v>2</v>
-      </c>
+      <c r="B217" s="234"/>
+      <c r="C217" s="235"/>
+      <c r="D217" s="236"/>
+      <c r="E217" s="235"/>
+      <c r="F217" s="236"/>
+      <c r="G217" s="235"/>
+      <c r="H217" s="235"/>
+      <c r="I217" s="235"/>
+      <c r="J217" s="236"/>
+      <c r="K217" s="234"/>
+      <c r="L217" s="235"/>
+      <c r="M217" s="235"/>
+      <c r="N217" s="236"/>
+      <c r="O217" s="235"/>
+      <c r="P217" s="235"/>
+      <c r="Q217" s="236"/>
+      <c r="R217"/>
       <c r="S217"/>
       <c r="T217"/>
-    </row>
-    <row r="218" spans="1:20">
+      <c r="U217"/>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B218" s="239"/>
-      <c r="C218" s="281"/>
-      <c r="D218" s="240"/>
-      <c r="E218" s="235"/>
-      <c r="F218" s="280"/>
-      <c r="G218" s="231"/>
-      <c r="H218" s="231"/>
-      <c r="I218" s="234"/>
-      <c r="J218" s="233"/>
-      <c r="K218" s="239"/>
-      <c r="L218" s="231"/>
-      <c r="M218" s="234"/>
-      <c r="N218" s="233"/>
-      <c r="O218" s="231"/>
-      <c r="P218" s="231"/>
-      <c r="Q218" s="240"/>
-      <c r="R218" t="s">
-        <v>63</v>
-      </c>
+      <c r="B218" s="237"/>
+      <c r="C218" s="279"/>
+      <c r="D218" s="238"/>
+      <c r="E218" s="233"/>
+      <c r="F218" s="278"/>
+      <c r="G218" s="229"/>
+      <c r="H218" s="229"/>
+      <c r="I218" s="232"/>
+      <c r="J218" s="231"/>
+      <c r="K218" s="237"/>
+      <c r="L218" s="229"/>
+      <c r="M218" s="232"/>
+      <c r="N218" s="231"/>
+      <c r="O218" s="229"/>
+      <c r="P218" s="229"/>
+      <c r="Q218" s="238"/>
+      <c r="R218"/>
       <c r="S218"/>
       <c r="T218"/>
-    </row>
-    <row r="219" spans="1:20">
+      <c r="U218"/>
+    </row>
+    <row r="219" spans="1:21">
       <c r="A219" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B219" s="239"/>
-      <c r="C219" s="235"/>
-      <c r="D219" s="240"/>
-      <c r="E219" s="235"/>
-      <c r="F219" s="233"/>
-      <c r="G219" s="235"/>
-      <c r="H219" s="235"/>
-      <c r="I219" s="234"/>
-      <c r="J219" s="233"/>
-      <c r="K219" s="239"/>
-      <c r="L219" s="235"/>
-      <c r="M219" s="234"/>
-      <c r="N219" s="233"/>
-      <c r="O219" s="235"/>
-      <c r="P219" s="235"/>
-      <c r="Q219" s="240"/>
+      <c r="B219" s="237"/>
+      <c r="C219" s="233"/>
+      <c r="D219" s="238"/>
+      <c r="E219" s="233"/>
+      <c r="F219" s="231"/>
+      <c r="G219" s="233"/>
+      <c r="H219" s="233"/>
+      <c r="I219" s="232"/>
+      <c r="J219" s="231"/>
+      <c r="K219" s="237"/>
+      <c r="L219" s="233"/>
+      <c r="M219" s="232"/>
+      <c r="N219" s="231"/>
+      <c r="O219" s="233"/>
+      <c r="P219" s="233"/>
+      <c r="Q219" s="238"/>
       <c r="R219"/>
       <c r="S219"/>
       <c r="T219"/>
-    </row>
-    <row r="220" spans="1:20">
+      <c r="U219"/>
+    </row>
+    <row r="220" spans="1:21">
       <c r="A220" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B220" s="239"/>
-      <c r="C220" s="235"/>
-      <c r="D220" s="240"/>
-      <c r="E220" s="235"/>
-      <c r="F220" s="233"/>
-      <c r="G220" s="235"/>
-      <c r="H220" s="235"/>
-      <c r="I220" s="234"/>
-      <c r="J220" s="233"/>
-      <c r="K220" s="239"/>
-      <c r="L220" s="235"/>
-      <c r="M220" s="234"/>
-      <c r="N220" s="233"/>
-      <c r="O220" s="235"/>
-      <c r="P220" s="235"/>
-      <c r="Q220" s="240"/>
+      <c r="B220" s="237"/>
+      <c r="C220" s="233"/>
+      <c r="D220" s="238"/>
+      <c r="E220" s="233"/>
+      <c r="F220" s="231"/>
+      <c r="G220" s="233"/>
+      <c r="H220" s="233"/>
+      <c r="I220" s="232"/>
+      <c r="J220" s="231"/>
+      <c r="K220" s="237"/>
+      <c r="L220" s="233"/>
+      <c r="M220" s="232"/>
+      <c r="N220" s="231"/>
+      <c r="O220" s="233"/>
+      <c r="P220" s="233"/>
+      <c r="Q220" s="238"/>
       <c r="R220"/>
-      <c r="S220" t="s">
-        <v>64</v>
-      </c>
+      <c r="S220"/>
       <c r="T220"/>
-    </row>
-    <row r="221" spans="1:20">
+      <c r="U220"/>
+    </row>
+    <row r="221" spans="1:21">
       <c r="A221" s="59" t="s">
         <v>24</v>
       </c>
@@ -6797,8 +6731,9 @@
       <c r="R221"/>
       <c r="S221"/>
       <c r="T221"/>
-    </row>
-    <row r="222" spans="1:20">
+      <c r="U221"/>
+    </row>
+    <row r="222" spans="1:21">
       <c r="A222" s="8" t="s">
         <v>28</v>
       </c>
@@ -6821,8 +6756,9 @@
       <c r="R222"/>
       <c r="S222"/>
       <c r="T222"/>
-    </row>
-    <row r="223" spans="1:20">
+      <c r="U222"/>
+    </row>
+    <row r="223" spans="1:21">
       <c r="A223" s="8" t="s">
         <v>25</v>
       </c>
@@ -6845,8 +6781,9 @@
       <c r="R223"/>
       <c r="S223"/>
       <c r="T223"/>
-    </row>
-    <row r="224" spans="1:20">
+      <c r="U223"/>
+    </row>
+    <row r="224" spans="1:21">
       <c r="A224" s="9" t="s">
         <v>22</v>
       </c>
@@ -6869,34 +6806,32 @@
       <c r="R224"/>
       <c r="S224"/>
       <c r="T224"/>
+      <c r="U224"/>
     </row>
     <row r="225" spans="1:21">
       <c r="A225" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B225" s="284"/>
-      <c r="C225" s="285"/>
-      <c r="D225" s="286"/>
-      <c r="E225" s="285"/>
-      <c r="F225" s="286"/>
-      <c r="G225" s="285"/>
-      <c r="H225" s="285"/>
-      <c r="I225" s="285"/>
-      <c r="J225" s="286"/>
-      <c r="K225" s="284"/>
-      <c r="L225" s="285"/>
-      <c r="M225" s="285"/>
-      <c r="N225" s="286"/>
-      <c r="O225" s="285"/>
-      <c r="P225" s="285"/>
-      <c r="Q225" s="286"/>
+      <c r="B225" s="282"/>
+      <c r="C225" s="283"/>
+      <c r="D225" s="284"/>
+      <c r="E225" s="283"/>
+      <c r="F225" s="284"/>
+      <c r="G225" s="283"/>
+      <c r="H225" s="283"/>
+      <c r="I225" s="283"/>
+      <c r="J225" s="284"/>
+      <c r="K225" s="282"/>
+      <c r="L225" s="283"/>
+      <c r="M225" s="283"/>
+      <c r="N225" s="284"/>
+      <c r="O225" s="283"/>
+      <c r="P225" s="283"/>
+      <c r="Q225" s="284"/>
       <c r="R225"/>
-      <c r="S225" s="221" t="s">
-        <v>52</v>
-      </c>
-      <c r="U225" s="221" t="s">
-        <v>58</v>
-      </c>
+      <c r="S225"/>
+      <c r="T225"/>
+      <c r="U225"/>
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="58" t="s">
@@ -6918,13 +6853,10 @@
       <c r="O226" s="25"/>
       <c r="P226" s="25"/>
       <c r="Q226" s="24"/>
-      <c r="R226" s="57"/>
-      <c r="S226" s="221" t="s">
-        <v>53</v>
-      </c>
-      <c r="U226" s="221" t="s">
-        <v>48</v>
-      </c>
+      <c r="R226"/>
+      <c r="S226"/>
+      <c r="T226"/>
+      <c r="U226"/>
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="9" t="s">
@@ -6947,41 +6879,34 @@
       <c r="P227" s="22"/>
       <c r="Q227" s="23"/>
       <c r="R227"/>
-      <c r="S227" s="221" t="s">
-        <v>51</v>
-      </c>
-      <c r="U227" s="221" t="s">
-        <v>59</v>
-      </c>
+      <c r="S227"/>
+      <c r="T227"/>
+      <c r="U227"/>
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B228" s="284"/>
-      <c r="C228" s="285"/>
-      <c r="D228" s="286"/>
-      <c r="E228" s="285"/>
-      <c r="F228" s="286"/>
-      <c r="G228" s="285"/>
-      <c r="H228" s="285"/>
-      <c r="I228" s="285"/>
-      <c r="J228" s="286"/>
-      <c r="K228" s="284"/>
-      <c r="L228" s="285"/>
-      <c r="M228" s="285"/>
-      <c r="N228" s="286"/>
-      <c r="O228" s="285"/>
-      <c r="P228" s="285"/>
-      <c r="Q228" s="286"/>
+      <c r="B228" s="282"/>
+      <c r="C228" s="283"/>
+      <c r="D228" s="284"/>
+      <c r="E228" s="283"/>
+      <c r="F228" s="284"/>
+      <c r="G228" s="283"/>
+      <c r="H228" s="283"/>
+      <c r="I228" s="283"/>
+      <c r="J228" s="284"/>
+      <c r="K228" s="282"/>
+      <c r="L228" s="283"/>
+      <c r="M228" s="283"/>
+      <c r="N228" s="284"/>
+      <c r="O228" s="283"/>
+      <c r="P228" s="283"/>
+      <c r="Q228" s="284"/>
       <c r="R228"/>
-      <c r="S228" s="221" t="s">
-        <v>54</v>
-      </c>
-      <c r="T228" s="5"/>
-      <c r="U228" s="222" t="s">
-        <v>60</v>
-      </c>
+      <c r="S228"/>
+      <c r="T228"/>
+      <c r="U228"/>
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="58" t="s">
@@ -7004,12 +6929,9 @@
       <c r="P229" s="25"/>
       <c r="Q229" s="24"/>
       <c r="R229"/>
-      <c r="S229" s="221" t="s">
-        <v>43</v>
-      </c>
-      <c r="U229" s="222" t="s">
-        <v>61</v>
-      </c>
+      <c r="S229"/>
+      <c r="T229"/>
+      <c r="U229"/>
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="9" t="s">
@@ -7032,12 +6954,9 @@
       <c r="P230" s="22"/>
       <c r="Q230" s="23"/>
       <c r="R230"/>
-      <c r="S230" s="221" t="s">
-        <v>55</v>
-      </c>
-      <c r="U230" s="222" t="s">
-        <v>44</v>
-      </c>
+      <c r="S230"/>
+      <c r="T230"/>
+      <c r="U230"/>
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="7" t="s">
@@ -7056,22 +6975,13 @@
       <c r="L231" s="205"/>
       <c r="M231" s="205"/>
       <c r="N231" s="206"/>
-      <c r="O231" s="25">
-        <v>1</v>
-      </c>
-      <c r="P231" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q231" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="O231" s="25"/>
+      <c r="P231" s="25"/>
+      <c r="Q231" s="24"/>
       <c r="R231"/>
-      <c r="S231" s="221" t="s">
-        <v>56</v>
-      </c>
-      <c r="U231" s="222" t="s">
-        <v>62</v>
-      </c>
+      <c r="S231"/>
+      <c r="T231"/>
+      <c r="U231"/>
     </row>
     <row r="232" spans="1:21">
       <c r="A232" s="8" t="s">
@@ -7090,18 +7000,13 @@
       <c r="L232" s="205"/>
       <c r="M232" s="205"/>
       <c r="N232" s="206"/>
-      <c r="O232" s="25">
-        <v>1</v>
-      </c>
-      <c r="P232" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q232" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="S232" s="221" t="s">
-        <v>83</v>
-      </c>
+      <c r="O232" s="25"/>
+      <c r="P232" s="25"/>
+      <c r="Q232" s="24"/>
+      <c r="R232"/>
+      <c r="S232"/>
+      <c r="T232"/>
+      <c r="U232"/>
     </row>
     <row r="233" spans="1:21">
       <c r="A233" s="9" t="s">
@@ -7123,9 +7028,10 @@
       <c r="O233" s="22"/>
       <c r="P233" s="22"/>
       <c r="Q233" s="23"/>
-      <c r="S233" s="221" t="s">
-        <v>57</v>
-      </c>
+      <c r="R233"/>
+      <c r="S233"/>
+      <c r="T233"/>
+      <c r="U233"/>
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="7" t="s">
@@ -7145,12 +7051,12 @@
       <c r="M234" s="205"/>
       <c r="N234" s="206"/>
       <c r="O234" s="205"/>
-      <c r="P234" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q234" s="24" t="s">
-        <v>70</v>
-      </c>
+      <c r="P234" s="25"/>
+      <c r="Q234" s="24"/>
+      <c r="R234"/>
+      <c r="S234"/>
+      <c r="T234"/>
+      <c r="U234"/>
     </row>
     <row r="235" spans="1:21">
       <c r="A235" s="8" t="s">
@@ -7170,12 +7076,8 @@
       <c r="M235" s="205"/>
       <c r="N235" s="206"/>
       <c r="O235" s="205"/>
-      <c r="P235" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q235" s="24" t="s">
-        <v>49</v>
-      </c>
+      <c r="P235" s="25"/>
+      <c r="Q235" s="24"/>
     </row>
     <row r="236" spans="1:21">
       <c r="A236" s="9" t="s">
@@ -7217,9 +7119,7 @@
       <c r="N237" s="206"/>
       <c r="O237" s="205"/>
       <c r="P237" s="205"/>
-      <c r="Q237" s="24">
-        <v>1</v>
-      </c>
+      <c r="Q237" s="24"/>
     </row>
     <row r="238" spans="1:21">
       <c r="A238" s="8" t="s">
@@ -7240,9 +7140,7 @@
       <c r="N238" s="206"/>
       <c r="O238" s="205"/>
       <c r="P238" s="205"/>
-      <c r="Q238" s="24">
-        <v>1</v>
-      </c>
+      <c r="Q238" s="24"/>
     </row>
     <row r="239" spans="1:21">
       <c r="A239" s="9" t="s">
@@ -7499,8 +7397,8 @@
         <v>13</v>
       </c>
       <c r="B261" s="40"/>
-      <c r="C261" s="314"/>
-      <c r="D261" s="313"/>
+      <c r="C261" s="312"/>
+      <c r="D261" s="311"/>
       <c r="E261" s="205"/>
       <c r="F261" s="206"/>
       <c r="G261" s="25"/>
@@ -7666,7 +7564,7 @@
       <c r="A269" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B269" s="284"/>
+      <c r="B269" s="282"/>
       <c r="C269" s="25"/>
       <c r="D269" s="24"/>
       <c r="E269" s="205"/>
@@ -7687,7 +7585,7 @@
       <c r="A270" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B270" s="284"/>
+      <c r="B270" s="282"/>
       <c r="C270" s="25"/>
       <c r="D270" s="24"/>
       <c r="E270" s="205"/>
@@ -7708,7 +7606,7 @@
       <c r="A271" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="284"/>
+      <c r="B271" s="282"/>
       <c r="C271" s="25"/>
       <c r="D271" s="24"/>
       <c r="E271" s="205"/>
@@ -7813,15 +7711,15 @@
       <c r="A276" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B276" s="284"/>
-      <c r="C276" s="285"/>
-      <c r="D276" s="286"/>
-      <c r="E276" s="285"/>
-      <c r="F276" s="286"/>
-      <c r="G276" s="285"/>
-      <c r="H276" s="285"/>
-      <c r="I276" s="285"/>
-      <c r="J276" s="286"/>
+      <c r="B276" s="282"/>
+      <c r="C276" s="283"/>
+      <c r="D276" s="284"/>
+      <c r="E276" s="283"/>
+      <c r="F276" s="284"/>
+      <c r="G276" s="283"/>
+      <c r="H276" s="283"/>
+      <c r="I276" s="283"/>
+      <c r="J276" s="284"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
@@ -7944,10 +7842,10 @@
       <c r="D282" s="206"/>
       <c r="E282" s="205"/>
       <c r="F282" s="206"/>
-      <c r="G282" s="285"/>
-      <c r="H282" s="285"/>
-      <c r="I282" s="285"/>
-      <c r="J282" s="286"/>
+      <c r="G282" s="283"/>
+      <c r="H282" s="283"/>
+      <c r="I282" s="283"/>
+      <c r="J282" s="284"/>
       <c r="K282"/>
       <c r="L282"/>
       <c r="M282"/>
@@ -7965,10 +7863,10 @@
       <c r="D283" s="206"/>
       <c r="E283" s="205"/>
       <c r="F283" s="206"/>
-      <c r="G283" s="285"/>
-      <c r="H283" s="285"/>
-      <c r="I283" s="285"/>
-      <c r="J283" s="286"/>
+      <c r="G283" s="283"/>
+      <c r="H283" s="283"/>
+      <c r="I283" s="283"/>
+      <c r="J283" s="284"/>
       <c r="K283"/>
       <c r="L283"/>
       <c r="M283"/>
@@ -8007,10 +7905,10 @@
       <c r="D285" s="206"/>
       <c r="E285" s="205"/>
       <c r="F285" s="206"/>
-      <c r="G285" s="285"/>
-      <c r="H285" s="285"/>
-      <c r="I285" s="285"/>
-      <c r="J285" s="286"/>
+      <c r="G285" s="283"/>
+      <c r="H285" s="283"/>
+      <c r="I285" s="283"/>
+      <c r="J285" s="284"/>
       <c r="K285"/>
       <c r="L285"/>
       <c r="M285"/>
@@ -8028,10 +7926,10 @@
       <c r="D286" s="206"/>
       <c r="E286" s="205"/>
       <c r="F286" s="206"/>
-      <c r="G286" s="285"/>
-      <c r="H286" s="285"/>
-      <c r="I286" s="285"/>
-      <c r="J286" s="286"/>
+      <c r="G286" s="283"/>
+      <c r="H286" s="283"/>
+      <c r="I286" s="283"/>
+      <c r="J286" s="284"/>
       <c r="K286"/>
       <c r="L286"/>
       <c r="M286"/>
@@ -8070,10 +7968,10 @@
       <c r="D288" s="206"/>
       <c r="E288" s="205"/>
       <c r="F288" s="206"/>
-      <c r="G288" s="285"/>
-      <c r="H288" s="285"/>
-      <c r="I288" s="285"/>
-      <c r="J288" s="286"/>
+      <c r="G288" s="283"/>
+      <c r="H288" s="283"/>
+      <c r="I288" s="283"/>
+      <c r="J288" s="284"/>
       <c r="K288"/>
       <c r="L288"/>
       <c r="M288"/>
@@ -8091,10 +7989,10 @@
       <c r="D289" s="206"/>
       <c r="E289" s="205"/>
       <c r="F289" s="206"/>
-      <c r="G289" s="285"/>
-      <c r="H289" s="285"/>
-      <c r="I289" s="285"/>
-      <c r="J289" s="286"/>
+      <c r="G289" s="283"/>
+      <c r="H289" s="283"/>
+      <c r="I289" s="283"/>
+      <c r="J289" s="284"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
@@ -8133,10 +8031,10 @@
       <c r="D291" s="206"/>
       <c r="E291" s="205"/>
       <c r="F291" s="206"/>
-      <c r="G291" s="285"/>
-      <c r="H291" s="285"/>
-      <c r="I291" s="285"/>
-      <c r="J291" s="286"/>
+      <c r="G291" s="283"/>
+      <c r="H291" s="283"/>
+      <c r="I291" s="283"/>
+      <c r="J291" s="284"/>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
@@ -8154,10 +8052,10 @@
       <c r="D292" s="213"/>
       <c r="E292" s="212"/>
       <c r="F292" s="213"/>
-      <c r="G292" s="311"/>
-      <c r="H292" s="311"/>
-      <c r="I292" s="311"/>
-      <c r="J292" s="312"/>
+      <c r="G292" s="309"/>
+      <c r="H292" s="309"/>
+      <c r="I292" s="309"/>
+      <c r="J292" s="310"/>
       <c r="K292"/>
       <c r="L292"/>
       <c r="M292"/>
@@ -8167,15 +8065,15 @@
       <c r="Q292"/>
     </row>
     <row r="293" spans="1:17">
-      <c r="B293" s="246"/>
-      <c r="C293" s="246"/>
-      <c r="D293" s="246"/>
-      <c r="E293" s="246"/>
-      <c r="F293" s="246"/>
-      <c r="G293" s="246"/>
-      <c r="H293" s="246"/>
-      <c r="I293" s="246"/>
-      <c r="J293" s="246"/>
+      <c r="B293" s="244"/>
+      <c r="C293" s="244"/>
+      <c r="D293" s="244"/>
+      <c r="E293" s="244"/>
+      <c r="F293" s="244"/>
+      <c r="G293" s="244"/>
+      <c r="H293" s="244"/>
+      <c r="I293" s="244"/>
+      <c r="J293" s="244"/>
     </row>
     <row r="306" spans="1:14" ht="16" thickBot="1"/>
     <row r="307" spans="1:14" ht="24" thickBot="1">
@@ -8355,14 +8253,14 @@
       <c r="B312" s="67"/>
       <c r="C312" s="68"/>
       <c r="D312" s="68"/>
-      <c r="E312" s="290"/>
+      <c r="E312" s="288"/>
       <c r="F312" s="67"/>
       <c r="G312" s="68"/>
       <c r="H312" s="69"/>
-      <c r="I312" s="291"/>
-      <c r="J312" s="289"/>
-      <c r="K312" s="289"/>
-      <c r="L312" s="290"/>
+      <c r="I312" s="289"/>
+      <c r="J312" s="287"/>
+      <c r="K312" s="287"/>
+      <c r="L312" s="288"/>
       <c r="M312" s="67"/>
       <c r="N312" s="69"/>
     </row>
@@ -8373,14 +8271,14 @@
       <c r="B313" s="67"/>
       <c r="C313" s="68"/>
       <c r="D313" s="68"/>
-      <c r="E313" s="290"/>
+      <c r="E313" s="288"/>
       <c r="F313" s="67"/>
       <c r="G313" s="68"/>
       <c r="H313" s="69"/>
-      <c r="I313" s="291"/>
-      <c r="J313" s="289"/>
-      <c r="K313" s="289"/>
-      <c r="L313" s="290"/>
+      <c r="I313" s="289"/>
+      <c r="J313" s="287"/>
+      <c r="K313" s="287"/>
+      <c r="L313" s="288"/>
       <c r="M313" s="67"/>
       <c r="N313" s="69"/>
     </row>
@@ -8391,14 +8289,14 @@
       <c r="B314" s="67"/>
       <c r="C314" s="68"/>
       <c r="D314" s="68"/>
-      <c r="E314" s="290"/>
+      <c r="E314" s="288"/>
       <c r="F314" s="67"/>
       <c r="G314" s="68"/>
       <c r="H314" s="69"/>
-      <c r="I314" s="291"/>
-      <c r="J314" s="289"/>
-      <c r="K314" s="289"/>
-      <c r="L314" s="290"/>
+      <c r="I314" s="289"/>
+      <c r="J314" s="287"/>
+      <c r="K314" s="287"/>
+      <c r="L314" s="288"/>
       <c r="M314" s="67"/>
       <c r="N314" s="69"/>
     </row>
@@ -8426,15 +8324,15 @@
       </c>
       <c r="B316" s="67"/>
       <c r="C316" s="68"/>
-      <c r="D316" s="289"/>
-      <c r="E316" s="290"/>
+      <c r="D316" s="287"/>
+      <c r="E316" s="288"/>
       <c r="F316" s="67"/>
       <c r="G316" s="68"/>
       <c r="H316" s="69"/>
-      <c r="I316" s="291"/>
-      <c r="J316" s="289"/>
-      <c r="K316" s="289"/>
-      <c r="L316" s="290"/>
+      <c r="I316" s="289"/>
+      <c r="J316" s="287"/>
+      <c r="K316" s="287"/>
+      <c r="L316" s="288"/>
       <c r="M316" s="67"/>
       <c r="N316" s="69"/>
     </row>
@@ -8444,15 +8342,15 @@
       </c>
       <c r="B317" s="67"/>
       <c r="C317" s="68"/>
-      <c r="D317" s="289"/>
-      <c r="E317" s="290"/>
+      <c r="D317" s="287"/>
+      <c r="E317" s="288"/>
       <c r="F317" s="67"/>
       <c r="G317" s="68"/>
       <c r="H317" s="69"/>
-      <c r="I317" s="291"/>
-      <c r="J317" s="289"/>
-      <c r="K317" s="289"/>
-      <c r="L317" s="290"/>
+      <c r="I317" s="289"/>
+      <c r="J317" s="287"/>
+      <c r="K317" s="287"/>
+      <c r="L317" s="288"/>
       <c r="M317" s="67"/>
       <c r="N317" s="69"/>
     </row>
@@ -8462,15 +8360,15 @@
       </c>
       <c r="B318" s="67"/>
       <c r="C318" s="68"/>
-      <c r="D318" s="289"/>
-      <c r="E318" s="290"/>
+      <c r="D318" s="287"/>
+      <c r="E318" s="288"/>
       <c r="F318" s="67"/>
       <c r="G318" s="68"/>
       <c r="H318" s="69"/>
-      <c r="I318" s="291"/>
-      <c r="J318" s="289"/>
-      <c r="K318" s="289"/>
-      <c r="L318" s="290"/>
+      <c r="I318" s="289"/>
+      <c r="J318" s="287"/>
+      <c r="K318" s="287"/>
+      <c r="L318" s="288"/>
       <c r="M318" s="67"/>
       <c r="N318" s="69"/>
     </row>
@@ -8497,16 +8395,16 @@
         <v>13</v>
       </c>
       <c r="B320" s="67"/>
-      <c r="C320" s="289"/>
-      <c r="D320" s="289"/>
-      <c r="E320" s="290"/>
+      <c r="C320" s="287"/>
+      <c r="D320" s="287"/>
+      <c r="E320" s="288"/>
       <c r="F320" s="67"/>
       <c r="G320" s="68"/>
       <c r="H320" s="69"/>
-      <c r="I320" s="291"/>
-      <c r="J320" s="289"/>
-      <c r="K320" s="289"/>
-      <c r="L320" s="290"/>
+      <c r="I320" s="289"/>
+      <c r="J320" s="287"/>
+      <c r="K320" s="287"/>
+      <c r="L320" s="288"/>
       <c r="M320" s="49"/>
       <c r="N320" s="50"/>
     </row>
@@ -8515,16 +8413,16 @@
         <v>12</v>
       </c>
       <c r="B321" s="67"/>
-      <c r="C321" s="289"/>
-      <c r="D321" s="289"/>
-      <c r="E321" s="290"/>
+      <c r="C321" s="287"/>
+      <c r="D321" s="287"/>
+      <c r="E321" s="288"/>
       <c r="F321" s="67"/>
       <c r="G321" s="68"/>
       <c r="H321" s="69"/>
-      <c r="I321" s="291"/>
-      <c r="J321" s="289"/>
-      <c r="K321" s="289"/>
-      <c r="L321" s="290"/>
+      <c r="I321" s="289"/>
+      <c r="J321" s="287"/>
+      <c r="K321" s="287"/>
+      <c r="L321" s="288"/>
       <c r="M321" s="49"/>
       <c r="N321" s="50"/>
     </row>
@@ -8533,16 +8431,16 @@
         <v>11</v>
       </c>
       <c r="B322" s="67"/>
-      <c r="C322" s="289"/>
-      <c r="D322" s="289"/>
-      <c r="E322" s="290"/>
+      <c r="C322" s="287"/>
+      <c r="D322" s="287"/>
+      <c r="E322" s="288"/>
       <c r="F322" s="67"/>
       <c r="G322" s="68"/>
       <c r="H322" s="69"/>
-      <c r="I322" s="291"/>
-      <c r="J322" s="289"/>
-      <c r="K322" s="289"/>
-      <c r="L322" s="290"/>
+      <c r="I322" s="289"/>
+      <c r="J322" s="287"/>
+      <c r="K322" s="287"/>
+      <c r="L322" s="288"/>
       <c r="M322" s="49"/>
       <c r="N322" s="50"/>
     </row>
@@ -8568,36 +8466,36 @@
       <c r="A324" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B324" s="291"/>
+      <c r="B324" s="289"/>
       <c r="C324" s="68"/>
       <c r="D324" s="68"/>
       <c r="E324" s="69"/>
-      <c r="F324" s="291"/>
+      <c r="F324" s="289"/>
       <c r="G324" s="68"/>
       <c r="H324" s="69"/>
-      <c r="I324" s="291"/>
+      <c r="I324" s="289"/>
       <c r="J324" s="68"/>
       <c r="K324" s="68"/>
       <c r="L324" s="69"/>
-      <c r="M324" s="291"/>
+      <c r="M324" s="289"/>
       <c r="N324" s="69"/>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B325" s="291"/>
+      <c r="B325" s="289"/>
       <c r="C325" s="68"/>
       <c r="D325" s="68"/>
       <c r="E325" s="69"/>
-      <c r="F325" s="291"/>
+      <c r="F325" s="289"/>
       <c r="G325" s="68"/>
       <c r="H325" s="69"/>
-      <c r="I325" s="291"/>
+      <c r="I325" s="289"/>
       <c r="J325" s="68"/>
       <c r="K325" s="68"/>
       <c r="L325" s="69"/>
-      <c r="M325" s="291"/>
+      <c r="M325" s="289"/>
       <c r="N325" s="69"/>
     </row>
     <row r="326" spans="1:14">
@@ -8730,17 +8628,17 @@
       <c r="A333" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B333" s="291"/>
-      <c r="C333" s="289"/>
-      <c r="D333" s="289"/>
-      <c r="E333" s="290"/>
-      <c r="F333" s="291"/>
-      <c r="G333" s="289"/>
-      <c r="H333" s="290"/>
-      <c r="I333" s="291"/>
-      <c r="J333" s="289"/>
-      <c r="K333" s="289"/>
-      <c r="L333" s="290"/>
+      <c r="B333" s="289"/>
+      <c r="C333" s="287"/>
+      <c r="D333" s="287"/>
+      <c r="E333" s="288"/>
+      <c r="F333" s="289"/>
+      <c r="G333" s="287"/>
+      <c r="H333" s="288"/>
+      <c r="I333" s="289"/>
+      <c r="J333" s="287"/>
+      <c r="K333" s="287"/>
+      <c r="L333" s="288"/>
       <c r="M333" s="49"/>
       <c r="N333" s="50"/>
     </row>
@@ -8748,17 +8646,17 @@
       <c r="A334" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B334" s="291"/>
-      <c r="C334" s="289"/>
-      <c r="D334" s="289"/>
-      <c r="E334" s="290"/>
-      <c r="F334" s="291"/>
-      <c r="G334" s="289"/>
-      <c r="H334" s="290"/>
-      <c r="I334" s="291"/>
-      <c r="J334" s="289"/>
-      <c r="K334" s="289"/>
-      <c r="L334" s="290"/>
+      <c r="B334" s="289"/>
+      <c r="C334" s="287"/>
+      <c r="D334" s="287"/>
+      <c r="E334" s="288"/>
+      <c r="F334" s="289"/>
+      <c r="G334" s="287"/>
+      <c r="H334" s="288"/>
+      <c r="I334" s="289"/>
+      <c r="J334" s="287"/>
+      <c r="K334" s="287"/>
+      <c r="L334" s="288"/>
       <c r="M334" s="49"/>
       <c r="N334" s="50"/>
     </row>
@@ -8784,17 +8682,17 @@
       <c r="A336" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B336" s="291"/>
-      <c r="C336" s="289"/>
-      <c r="D336" s="289"/>
-      <c r="E336" s="290"/>
-      <c r="F336" s="291"/>
-      <c r="G336" s="289"/>
-      <c r="H336" s="290"/>
-      <c r="I336" s="291"/>
-      <c r="J336" s="289"/>
-      <c r="K336" s="289"/>
-      <c r="L336" s="290"/>
+      <c r="B336" s="289"/>
+      <c r="C336" s="287"/>
+      <c r="D336" s="287"/>
+      <c r="E336" s="288"/>
+      <c r="F336" s="289"/>
+      <c r="G336" s="287"/>
+      <c r="H336" s="288"/>
+      <c r="I336" s="289"/>
+      <c r="J336" s="287"/>
+      <c r="K336" s="287"/>
+      <c r="L336" s="288"/>
       <c r="M336" s="49"/>
       <c r="N336" s="50"/>
     </row>
@@ -8802,17 +8700,17 @@
       <c r="A337" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B337" s="291"/>
-      <c r="C337" s="289"/>
-      <c r="D337" s="289"/>
-      <c r="E337" s="290"/>
-      <c r="F337" s="291"/>
-      <c r="G337" s="289"/>
-      <c r="H337" s="290"/>
-      <c r="I337" s="291"/>
-      <c r="J337" s="289"/>
-      <c r="K337" s="289"/>
-      <c r="L337" s="290"/>
+      <c r="B337" s="289"/>
+      <c r="C337" s="287"/>
+      <c r="D337" s="287"/>
+      <c r="E337" s="288"/>
+      <c r="F337" s="289"/>
+      <c r="G337" s="287"/>
+      <c r="H337" s="288"/>
+      <c r="I337" s="289"/>
+      <c r="J337" s="287"/>
+      <c r="K337" s="287"/>
+      <c r="L337" s="288"/>
       <c r="M337" s="49"/>
       <c r="N337" s="50"/>
     </row>
@@ -8838,17 +8736,17 @@
       <c r="A339" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B339" s="291"/>
-      <c r="C339" s="289"/>
-      <c r="D339" s="289"/>
-      <c r="E339" s="290"/>
-      <c r="F339" s="291"/>
-      <c r="G339" s="289"/>
-      <c r="H339" s="290"/>
-      <c r="I339" s="291"/>
-      <c r="J339" s="289"/>
-      <c r="K339" s="289"/>
-      <c r="L339" s="290"/>
+      <c r="B339" s="289"/>
+      <c r="C339" s="287"/>
+      <c r="D339" s="287"/>
+      <c r="E339" s="288"/>
+      <c r="F339" s="289"/>
+      <c r="G339" s="287"/>
+      <c r="H339" s="288"/>
+      <c r="I339" s="289"/>
+      <c r="J339" s="287"/>
+      <c r="K339" s="287"/>
+      <c r="L339" s="288"/>
       <c r="M339" s="67"/>
       <c r="N339" s="69"/>
     </row>
@@ -8856,17 +8754,17 @@
       <c r="A340" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B340" s="291"/>
-      <c r="C340" s="289"/>
-      <c r="D340" s="289"/>
-      <c r="E340" s="290"/>
-      <c r="F340" s="291"/>
-      <c r="G340" s="289"/>
-      <c r="H340" s="290"/>
-      <c r="I340" s="291"/>
-      <c r="J340" s="289"/>
-      <c r="K340" s="289"/>
-      <c r="L340" s="290"/>
+      <c r="B340" s="289"/>
+      <c r="C340" s="287"/>
+      <c r="D340" s="287"/>
+      <c r="E340" s="288"/>
+      <c r="F340" s="289"/>
+      <c r="G340" s="287"/>
+      <c r="H340" s="288"/>
+      <c r="I340" s="289"/>
+      <c r="J340" s="287"/>
+      <c r="K340" s="287"/>
+      <c r="L340" s="288"/>
       <c r="M340" s="67"/>
       <c r="N340" s="69"/>
     </row>
@@ -8892,17 +8790,17 @@
       <c r="A342" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B342" s="291"/>
-      <c r="C342" s="289"/>
-      <c r="D342" s="289"/>
-      <c r="E342" s="290"/>
-      <c r="F342" s="291"/>
-      <c r="G342" s="289"/>
-      <c r="H342" s="290"/>
-      <c r="I342" s="291"/>
-      <c r="J342" s="289"/>
-      <c r="K342" s="289"/>
-      <c r="L342" s="290"/>
+      <c r="B342" s="289"/>
+      <c r="C342" s="287"/>
+      <c r="D342" s="287"/>
+      <c r="E342" s="288"/>
+      <c r="F342" s="289"/>
+      <c r="G342" s="287"/>
+      <c r="H342" s="288"/>
+      <c r="I342" s="289"/>
+      <c r="J342" s="287"/>
+      <c r="K342" s="287"/>
+      <c r="L342" s="288"/>
       <c r="M342" s="67"/>
       <c r="N342" s="69"/>
     </row>
@@ -8910,17 +8808,17 @@
       <c r="A343" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B343" s="302"/>
-      <c r="C343" s="303"/>
-      <c r="D343" s="303"/>
-      <c r="E343" s="304"/>
-      <c r="F343" s="302"/>
-      <c r="G343" s="303"/>
-      <c r="H343" s="304"/>
-      <c r="I343" s="302"/>
-      <c r="J343" s="303"/>
-      <c r="K343" s="303"/>
-      <c r="L343" s="304"/>
+      <c r="B343" s="300"/>
+      <c r="C343" s="301"/>
+      <c r="D343" s="301"/>
+      <c r="E343" s="302"/>
+      <c r="F343" s="300"/>
+      <c r="G343" s="301"/>
+      <c r="H343" s="302"/>
+      <c r="I343" s="300"/>
+      <c r="J343" s="301"/>
+      <c r="K343" s="301"/>
+      <c r="L343" s="302"/>
       <c r="M343" s="114"/>
       <c r="N343" s="116"/>
     </row>
@@ -9094,17 +8992,17 @@
         <v>13</v>
       </c>
       <c r="B363" s="142"/>
-      <c r="C363" s="292"/>
+      <c r="C363" s="290"/>
       <c r="D363" s="143"/>
-      <c r="E363" s="293"/>
+      <c r="E363" s="291"/>
       <c r="F363" s="143"/>
-      <c r="G363" s="292"/>
+      <c r="G363" s="290"/>
       <c r="H363" s="144"/>
-      <c r="I363" s="301"/>
+      <c r="I363" s="299"/>
       <c r="J363" s="143"/>
-      <c r="K363" s="293"/>
-      <c r="L363" s="292"/>
-      <c r="M363" s="293"/>
+      <c r="K363" s="291"/>
+      <c r="L363" s="290"/>
+      <c r="M363" s="291"/>
       <c r="N363"/>
     </row>
     <row r="364" spans="1:14">
@@ -9112,17 +9010,17 @@
         <v>12</v>
       </c>
       <c r="B364" s="142"/>
-      <c r="C364" s="292"/>
+      <c r="C364" s="290"/>
       <c r="D364" s="143"/>
-      <c r="E364" s="293"/>
+      <c r="E364" s="291"/>
       <c r="F364" s="143"/>
-      <c r="G364" s="292"/>
+      <c r="G364" s="290"/>
       <c r="H364" s="144"/>
-      <c r="I364" s="301"/>
+      <c r="I364" s="299"/>
       <c r="J364" s="143"/>
-      <c r="K364" s="293"/>
-      <c r="L364" s="292"/>
-      <c r="M364" s="293"/>
+      <c r="K364" s="291"/>
+      <c r="L364" s="290"/>
+      <c r="M364" s="291"/>
       <c r="N364"/>
     </row>
     <row r="365" spans="1:14">
@@ -9130,17 +9028,17 @@
         <v>11</v>
       </c>
       <c r="B365" s="142"/>
-      <c r="C365" s="292"/>
+      <c r="C365" s="290"/>
       <c r="D365" s="143"/>
-      <c r="E365" s="293"/>
+      <c r="E365" s="291"/>
       <c r="F365" s="143"/>
-      <c r="G365" s="292"/>
+      <c r="G365" s="290"/>
       <c r="H365" s="144"/>
-      <c r="I365" s="301"/>
+      <c r="I365" s="299"/>
       <c r="J365" s="143"/>
-      <c r="K365" s="293"/>
-      <c r="L365" s="292"/>
-      <c r="M365" s="293"/>
+      <c r="K365" s="291"/>
+      <c r="L365" s="290"/>
+      <c r="M365" s="291"/>
       <c r="N365"/>
     </row>
     <row r="366" spans="1:14">
@@ -9165,54 +9063,54 @@
       <c r="A367" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="B367" s="301"/>
+      <c r="B367" s="299"/>
       <c r="C367" s="143"/>
-      <c r="D367" s="292"/>
+      <c r="D367" s="290"/>
       <c r="E367" s="144"/>
-      <c r="F367" s="292"/>
+      <c r="F367" s="290"/>
       <c r="G367" s="143"/>
-      <c r="H367" s="293"/>
+      <c r="H367" s="291"/>
       <c r="I367" s="142"/>
-      <c r="J367" s="292"/>
+      <c r="J367" s="290"/>
       <c r="K367" s="144"/>
-      <c r="L367" s="292"/>
-      <c r="M367" s="293"/>
+      <c r="L367" s="290"/>
+      <c r="M367" s="291"/>
       <c r="N367"/>
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="301"/>
+      <c r="B368" s="299"/>
       <c r="C368" s="143"/>
-      <c r="D368" s="292"/>
+      <c r="D368" s="290"/>
       <c r="E368" s="144"/>
-      <c r="F368" s="292"/>
+      <c r="F368" s="290"/>
       <c r="G368" s="143"/>
-      <c r="H368" s="293"/>
+      <c r="H368" s="291"/>
       <c r="I368" s="142"/>
-      <c r="J368" s="292"/>
+      <c r="J368" s="290"/>
       <c r="K368" s="144"/>
-      <c r="L368" s="292"/>
-      <c r="M368" s="293"/>
+      <c r="L368" s="290"/>
+      <c r="M368" s="291"/>
       <c r="N368"/>
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="B369" s="301"/>
+      <c r="B369" s="299"/>
       <c r="C369" s="143"/>
-      <c r="D369" s="292"/>
+      <c r="D369" s="290"/>
       <c r="E369" s="144"/>
-      <c r="F369" s="292"/>
+      <c r="F369" s="290"/>
       <c r="G369" s="143"/>
-      <c r="H369" s="293"/>
+      <c r="H369" s="291"/>
       <c r="I369" s="142"/>
-      <c r="J369" s="292"/>
+      <c r="J369" s="290"/>
       <c r="K369" s="144"/>
-      <c r="L369" s="292"/>
-      <c r="M369" s="293"/>
+      <c r="L369" s="290"/>
+      <c r="M369" s="291"/>
       <c r="N369"/>
     </row>
     <row r="370" spans="1:14">
@@ -9239,16 +9137,16 @@
       </c>
       <c r="B371" s="142"/>
       <c r="C371" s="143"/>
-      <c r="D371" s="292"/>
-      <c r="E371" s="293"/>
+      <c r="D371" s="290"/>
+      <c r="E371" s="291"/>
       <c r="F371" s="143"/>
       <c r="G371" s="143"/>
-      <c r="H371" s="293"/>
-      <c r="I371" s="301"/>
+      <c r="H371" s="291"/>
+      <c r="I371" s="299"/>
       <c r="J371" s="143"/>
       <c r="K371" s="144"/>
-      <c r="L371" s="292"/>
-      <c r="M371" s="293"/>
+      <c r="L371" s="290"/>
+      <c r="M371" s="291"/>
       <c r="N371"/>
     </row>
     <row r="372" spans="1:14">
@@ -9257,16 +9155,16 @@
       </c>
       <c r="B372" s="142"/>
       <c r="C372" s="143"/>
-      <c r="D372" s="292"/>
-      <c r="E372" s="293"/>
+      <c r="D372" s="290"/>
+      <c r="E372" s="291"/>
       <c r="F372" s="143"/>
       <c r="G372" s="143"/>
-      <c r="H372" s="293"/>
-      <c r="I372" s="301"/>
+      <c r="H372" s="291"/>
+      <c r="I372" s="299"/>
       <c r="J372" s="143"/>
       <c r="K372" s="144"/>
-      <c r="L372" s="292"/>
-      <c r="M372" s="293"/>
+      <c r="L372" s="290"/>
+      <c r="M372" s="291"/>
       <c r="N372"/>
     </row>
     <row r="373" spans="1:14">
@@ -9275,16 +9173,16 @@
       </c>
       <c r="B373" s="142"/>
       <c r="C373" s="143"/>
-      <c r="D373" s="292"/>
-      <c r="E373" s="293"/>
+      <c r="D373" s="290"/>
+      <c r="E373" s="291"/>
       <c r="F373" s="143"/>
       <c r="G373" s="143"/>
-      <c r="H373" s="293"/>
-      <c r="I373" s="301"/>
+      <c r="H373" s="291"/>
+      <c r="I373" s="299"/>
       <c r="J373" s="143"/>
       <c r="K373" s="144"/>
-      <c r="L373" s="292"/>
-      <c r="M373" s="293"/>
+      <c r="L373" s="290"/>
+      <c r="M373" s="291"/>
       <c r="N373"/>
     </row>
     <row r="374" spans="1:14">
@@ -9309,17 +9207,17 @@
       <c r="A375" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B375" s="301"/>
+      <c r="B375" s="299"/>
       <c r="C375" s="143"/>
       <c r="D375" s="143"/>
       <c r="E375" s="144"/>
-      <c r="F375" s="292"/>
+      <c r="F375" s="290"/>
       <c r="G375" s="143"/>
       <c r="H375" s="144"/>
-      <c r="I375" s="301"/>
+      <c r="I375" s="299"/>
       <c r="J375" s="143"/>
       <c r="K375" s="144"/>
-      <c r="L375" s="292"/>
+      <c r="L375" s="290"/>
       <c r="M375" s="144"/>
       <c r="N375"/>
     </row>
@@ -9327,17 +9225,17 @@
       <c r="A376" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B376" s="301"/>
+      <c r="B376" s="299"/>
       <c r="C376" s="143"/>
       <c r="D376" s="143"/>
       <c r="E376" s="144"/>
-      <c r="F376" s="292"/>
+      <c r="F376" s="290"/>
       <c r="G376" s="143"/>
       <c r="H376" s="144"/>
-      <c r="I376" s="301"/>
+      <c r="I376" s="299"/>
       <c r="J376" s="143"/>
       <c r="K376" s="144"/>
-      <c r="L376" s="292"/>
+      <c r="L376" s="290"/>
       <c r="M376" s="144"/>
       <c r="N376"/>
     </row>
@@ -9471,16 +9369,16 @@
       <c r="A384" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B384" s="301"/>
-      <c r="C384" s="292"/>
-      <c r="D384" s="292"/>
-      <c r="E384" s="293"/>
-      <c r="F384" s="292"/>
-      <c r="G384" s="292"/>
-      <c r="H384" s="293"/>
-      <c r="I384" s="301"/>
-      <c r="J384" s="292"/>
-      <c r="K384" s="293"/>
+      <c r="B384" s="299"/>
+      <c r="C384" s="290"/>
+      <c r="D384" s="290"/>
+      <c r="E384" s="291"/>
+      <c r="F384" s="290"/>
+      <c r="G384" s="290"/>
+      <c r="H384" s="291"/>
+      <c r="I384" s="299"/>
+      <c r="J384" s="290"/>
+      <c r="K384" s="291"/>
       <c r="L384" s="132"/>
       <c r="M384" s="123"/>
       <c r="N384"/>
@@ -9489,16 +9387,16 @@
       <c r="A385" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B385" s="301"/>
-      <c r="C385" s="292"/>
-      <c r="D385" s="292"/>
-      <c r="E385" s="293"/>
-      <c r="F385" s="292"/>
-      <c r="G385" s="292"/>
-      <c r="H385" s="293"/>
-      <c r="I385" s="301"/>
-      <c r="J385" s="292"/>
-      <c r="K385" s="293"/>
+      <c r="B385" s="299"/>
+      <c r="C385" s="290"/>
+      <c r="D385" s="290"/>
+      <c r="E385" s="291"/>
+      <c r="F385" s="290"/>
+      <c r="G385" s="290"/>
+      <c r="H385" s="291"/>
+      <c r="I385" s="299"/>
+      <c r="J385" s="290"/>
+      <c r="K385" s="291"/>
       <c r="L385" s="132"/>
       <c r="M385" s="123"/>
       <c r="N385"/>
@@ -9525,16 +9423,16 @@
       <c r="A387" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B387" s="301"/>
-      <c r="C387" s="292"/>
-      <c r="D387" s="292"/>
-      <c r="E387" s="293"/>
-      <c r="F387" s="292"/>
-      <c r="G387" s="292"/>
-      <c r="H387" s="293"/>
-      <c r="I387" s="301"/>
-      <c r="J387" s="292"/>
-      <c r="K387" s="293"/>
+      <c r="B387" s="299"/>
+      <c r="C387" s="290"/>
+      <c r="D387" s="290"/>
+      <c r="E387" s="291"/>
+      <c r="F387" s="290"/>
+      <c r="G387" s="290"/>
+      <c r="H387" s="291"/>
+      <c r="I387" s="299"/>
+      <c r="J387" s="290"/>
+      <c r="K387" s="291"/>
       <c r="L387" s="132"/>
       <c r="M387" s="123"/>
       <c r="N387"/>
@@ -9543,16 +9441,16 @@
       <c r="A388" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B388" s="301"/>
-      <c r="C388" s="292"/>
-      <c r="D388" s="292"/>
-      <c r="E388" s="293"/>
-      <c r="F388" s="292"/>
-      <c r="G388" s="292"/>
-      <c r="H388" s="293"/>
-      <c r="I388" s="301"/>
-      <c r="J388" s="292"/>
-      <c r="K388" s="293"/>
+      <c r="B388" s="299"/>
+      <c r="C388" s="290"/>
+      <c r="D388" s="290"/>
+      <c r="E388" s="291"/>
+      <c r="F388" s="290"/>
+      <c r="G388" s="290"/>
+      <c r="H388" s="291"/>
+      <c r="I388" s="299"/>
+      <c r="J388" s="290"/>
+      <c r="K388" s="291"/>
       <c r="L388" s="132"/>
       <c r="M388" s="123"/>
       <c r="N388"/>
@@ -9579,16 +9477,16 @@
       <c r="A390" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B390" s="301"/>
-      <c r="C390" s="292"/>
-      <c r="D390" s="292"/>
-      <c r="E390" s="293"/>
-      <c r="F390" s="292"/>
-      <c r="G390" s="292"/>
-      <c r="H390" s="293"/>
-      <c r="I390" s="301"/>
-      <c r="J390" s="292"/>
-      <c r="K390" s="293"/>
+      <c r="B390" s="299"/>
+      <c r="C390" s="290"/>
+      <c r="D390" s="290"/>
+      <c r="E390" s="291"/>
+      <c r="F390" s="290"/>
+      <c r="G390" s="290"/>
+      <c r="H390" s="291"/>
+      <c r="I390" s="299"/>
+      <c r="J390" s="290"/>
+      <c r="K390" s="291"/>
       <c r="L390" s="143"/>
       <c r="M390" s="144"/>
       <c r="N390"/>
@@ -9597,16 +9495,16 @@
       <c r="A391" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="B391" s="301"/>
-      <c r="C391" s="292"/>
-      <c r="D391" s="292"/>
-      <c r="E391" s="293"/>
-      <c r="F391" s="292"/>
-      <c r="G391" s="292"/>
-      <c r="H391" s="293"/>
-      <c r="I391" s="301"/>
-      <c r="J391" s="292"/>
-      <c r="K391" s="293"/>
+      <c r="B391" s="299"/>
+      <c r="C391" s="290"/>
+      <c r="D391" s="290"/>
+      <c r="E391" s="291"/>
+      <c r="F391" s="290"/>
+      <c r="G391" s="290"/>
+      <c r="H391" s="291"/>
+      <c r="I391" s="299"/>
+      <c r="J391" s="290"/>
+      <c r="K391" s="291"/>
       <c r="L391" s="143"/>
       <c r="M391" s="144"/>
       <c r="N391"/>
@@ -9633,16 +9531,16 @@
       <c r="A393" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B393" s="301"/>
-      <c r="C393" s="292"/>
-      <c r="D393" s="292"/>
-      <c r="E393" s="293"/>
-      <c r="F393" s="292"/>
-      <c r="G393" s="292"/>
-      <c r="H393" s="293"/>
-      <c r="I393" s="301"/>
-      <c r="J393" s="292"/>
-      <c r="K393" s="293"/>
+      <c r="B393" s="299"/>
+      <c r="C393" s="290"/>
+      <c r="D393" s="290"/>
+      <c r="E393" s="291"/>
+      <c r="F393" s="290"/>
+      <c r="G393" s="290"/>
+      <c r="H393" s="291"/>
+      <c r="I393" s="299"/>
+      <c r="J393" s="290"/>
+      <c r="K393" s="291"/>
       <c r="L393" s="143"/>
       <c r="M393" s="144"/>
       <c r="N393"/>
@@ -9651,16 +9549,16 @@
       <c r="A394" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B394" s="305"/>
-      <c r="C394" s="306"/>
-      <c r="D394" s="306"/>
-      <c r="E394" s="307"/>
-      <c r="F394" s="306"/>
-      <c r="G394" s="306"/>
-      <c r="H394" s="307"/>
-      <c r="I394" s="305"/>
-      <c r="J394" s="306"/>
-      <c r="K394" s="307"/>
+      <c r="B394" s="303"/>
+      <c r="C394" s="304"/>
+      <c r="D394" s="304"/>
+      <c r="E394" s="305"/>
+      <c r="F394" s="304"/>
+      <c r="G394" s="304"/>
+      <c r="H394" s="305"/>
+      <c r="I394" s="303"/>
+      <c r="J394" s="304"/>
+      <c r="K394" s="305"/>
       <c r="L394" s="145"/>
       <c r="M394" s="146"/>
       <c r="N394"/>
@@ -9840,55 +9738,55 @@
       <c r="A414" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B414" s="291"/>
-      <c r="C414" s="289"/>
-      <c r="D414" s="289"/>
-      <c r="E414" s="290"/>
-      <c r="F414" s="291"/>
-      <c r="G414" s="289"/>
-      <c r="H414" s="290"/>
-      <c r="I414" s="291"/>
-      <c r="J414" s="289"/>
-      <c r="K414" s="289"/>
-      <c r="L414" s="290"/>
-      <c r="M414" s="291"/>
-      <c r="N414" s="290"/>
+      <c r="B414" s="289"/>
+      <c r="C414" s="287"/>
+      <c r="D414" s="287"/>
+      <c r="E414" s="288"/>
+      <c r="F414" s="289"/>
+      <c r="G414" s="287"/>
+      <c r="H414" s="288"/>
+      <c r="I414" s="289"/>
+      <c r="J414" s="287"/>
+      <c r="K414" s="287"/>
+      <c r="L414" s="288"/>
+      <c r="M414" s="289"/>
+      <c r="N414" s="288"/>
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B415" s="291"/>
-      <c r="C415" s="289"/>
-      <c r="D415" s="289"/>
-      <c r="E415" s="290"/>
-      <c r="F415" s="291"/>
-      <c r="G415" s="289"/>
-      <c r="H415" s="290"/>
-      <c r="I415" s="291"/>
-      <c r="J415" s="289"/>
-      <c r="K415" s="289"/>
-      <c r="L415" s="290"/>
-      <c r="M415" s="291"/>
-      <c r="N415" s="290"/>
+      <c r="B415" s="289"/>
+      <c r="C415" s="287"/>
+      <c r="D415" s="287"/>
+      <c r="E415" s="288"/>
+      <c r="F415" s="289"/>
+      <c r="G415" s="287"/>
+      <c r="H415" s="288"/>
+      <c r="I415" s="289"/>
+      <c r="J415" s="287"/>
+      <c r="K415" s="287"/>
+      <c r="L415" s="288"/>
+      <c r="M415" s="289"/>
+      <c r="N415" s="288"/>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B416" s="291"/>
-      <c r="C416" s="289"/>
-      <c r="D416" s="289"/>
-      <c r="E416" s="290"/>
-      <c r="F416" s="291"/>
-      <c r="G416" s="289"/>
-      <c r="H416" s="290"/>
-      <c r="I416" s="291"/>
-      <c r="J416" s="289"/>
-      <c r="K416" s="289"/>
-      <c r="L416" s="290"/>
-      <c r="M416" s="291"/>
-      <c r="N416" s="290"/>
+      <c r="B416" s="289"/>
+      <c r="C416" s="287"/>
+      <c r="D416" s="287"/>
+      <c r="E416" s="288"/>
+      <c r="F416" s="289"/>
+      <c r="G416" s="287"/>
+      <c r="H416" s="288"/>
+      <c r="I416" s="289"/>
+      <c r="J416" s="287"/>
+      <c r="K416" s="287"/>
+      <c r="L416" s="288"/>
+      <c r="M416" s="289"/>
+      <c r="N416" s="288"/>
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="9" t="s">
@@ -9912,55 +9810,55 @@
       <c r="A418" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B418" s="291"/>
-      <c r="C418" s="289"/>
-      <c r="D418" s="289"/>
-      <c r="E418" s="290"/>
-      <c r="F418" s="291"/>
-      <c r="G418" s="289"/>
-      <c r="H418" s="290"/>
-      <c r="I418" s="291"/>
-      <c r="J418" s="289"/>
-      <c r="K418" s="289"/>
-      <c r="L418" s="290"/>
-      <c r="M418" s="291"/>
-      <c r="N418" s="290"/>
+      <c r="B418" s="289"/>
+      <c r="C418" s="287"/>
+      <c r="D418" s="287"/>
+      <c r="E418" s="288"/>
+      <c r="F418" s="289"/>
+      <c r="G418" s="287"/>
+      <c r="H418" s="288"/>
+      <c r="I418" s="289"/>
+      <c r="J418" s="287"/>
+      <c r="K418" s="287"/>
+      <c r="L418" s="288"/>
+      <c r="M418" s="289"/>
+      <c r="N418" s="288"/>
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B419" s="291"/>
-      <c r="C419" s="289"/>
-      <c r="D419" s="289"/>
-      <c r="E419" s="290"/>
-      <c r="F419" s="291"/>
-      <c r="G419" s="289"/>
-      <c r="H419" s="290"/>
-      <c r="I419" s="291"/>
-      <c r="J419" s="289"/>
-      <c r="K419" s="289"/>
-      <c r="L419" s="290"/>
-      <c r="M419" s="291"/>
-      <c r="N419" s="290"/>
+      <c r="B419" s="289"/>
+      <c r="C419" s="287"/>
+      <c r="D419" s="287"/>
+      <c r="E419" s="288"/>
+      <c r="F419" s="289"/>
+      <c r="G419" s="287"/>
+      <c r="H419" s="288"/>
+      <c r="I419" s="289"/>
+      <c r="J419" s="287"/>
+      <c r="K419" s="287"/>
+      <c r="L419" s="288"/>
+      <c r="M419" s="289"/>
+      <c r="N419" s="288"/>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B420" s="291"/>
-      <c r="C420" s="289"/>
-      <c r="D420" s="289"/>
-      <c r="E420" s="290"/>
-      <c r="F420" s="291"/>
-      <c r="G420" s="289"/>
-      <c r="H420" s="290"/>
-      <c r="I420" s="291"/>
-      <c r="J420" s="289"/>
-      <c r="K420" s="289"/>
-      <c r="L420" s="290"/>
-      <c r="M420" s="291"/>
-      <c r="N420" s="290"/>
+      <c r="B420" s="289"/>
+      <c r="C420" s="287"/>
+      <c r="D420" s="287"/>
+      <c r="E420" s="288"/>
+      <c r="F420" s="289"/>
+      <c r="G420" s="287"/>
+      <c r="H420" s="288"/>
+      <c r="I420" s="289"/>
+      <c r="J420" s="287"/>
+      <c r="K420" s="287"/>
+      <c r="L420" s="288"/>
+      <c r="M420" s="289"/>
+      <c r="N420" s="288"/>
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="9" t="s">
@@ -9984,55 +9882,55 @@
       <c r="A422" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B422" s="291"/>
-      <c r="C422" s="289"/>
-      <c r="D422" s="289"/>
-      <c r="E422" s="290"/>
-      <c r="F422" s="291"/>
-      <c r="G422" s="289"/>
-      <c r="H422" s="290"/>
-      <c r="I422" s="291"/>
-      <c r="J422" s="289"/>
-      <c r="K422" s="289"/>
-      <c r="L422" s="290"/>
-      <c r="M422" s="291"/>
-      <c r="N422" s="290"/>
+      <c r="B422" s="289"/>
+      <c r="C422" s="287"/>
+      <c r="D422" s="287"/>
+      <c r="E422" s="288"/>
+      <c r="F422" s="289"/>
+      <c r="G422" s="287"/>
+      <c r="H422" s="288"/>
+      <c r="I422" s="289"/>
+      <c r="J422" s="287"/>
+      <c r="K422" s="287"/>
+      <c r="L422" s="288"/>
+      <c r="M422" s="289"/>
+      <c r="N422" s="288"/>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B423" s="291"/>
-      <c r="C423" s="289"/>
-      <c r="D423" s="289"/>
-      <c r="E423" s="290"/>
-      <c r="F423" s="291"/>
-      <c r="G423" s="289"/>
-      <c r="H423" s="290"/>
-      <c r="I423" s="291"/>
-      <c r="J423" s="289"/>
-      <c r="K423" s="289"/>
-      <c r="L423" s="290"/>
-      <c r="M423" s="291"/>
-      <c r="N423" s="290"/>
+      <c r="B423" s="289"/>
+      <c r="C423" s="287"/>
+      <c r="D423" s="287"/>
+      <c r="E423" s="288"/>
+      <c r="F423" s="289"/>
+      <c r="G423" s="287"/>
+      <c r="H423" s="288"/>
+      <c r="I423" s="289"/>
+      <c r="J423" s="287"/>
+      <c r="K423" s="287"/>
+      <c r="L423" s="288"/>
+      <c r="M423" s="289"/>
+      <c r="N423" s="288"/>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B424" s="291"/>
-      <c r="C424" s="289"/>
-      <c r="D424" s="289"/>
-      <c r="E424" s="290"/>
-      <c r="F424" s="291"/>
-      <c r="G424" s="289"/>
-      <c r="H424" s="290"/>
-      <c r="I424" s="291"/>
-      <c r="J424" s="289"/>
-      <c r="K424" s="289"/>
-      <c r="L424" s="290"/>
-      <c r="M424" s="291"/>
-      <c r="N424" s="290"/>
+      <c r="B424" s="289"/>
+      <c r="C424" s="287"/>
+      <c r="D424" s="287"/>
+      <c r="E424" s="288"/>
+      <c r="F424" s="289"/>
+      <c r="G424" s="287"/>
+      <c r="H424" s="288"/>
+      <c r="I424" s="289"/>
+      <c r="J424" s="287"/>
+      <c r="K424" s="287"/>
+      <c r="L424" s="288"/>
+      <c r="M424" s="289"/>
+      <c r="N424" s="288"/>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="59" t="s">
@@ -10056,36 +9954,36 @@
       <c r="A426" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B426" s="291"/>
+      <c r="B426" s="289"/>
       <c r="C426" s="68"/>
       <c r="D426" s="68"/>
       <c r="E426" s="69"/>
-      <c r="F426" s="291"/>
+      <c r="F426" s="289"/>
       <c r="G426" s="68"/>
       <c r="H426" s="69"/>
-      <c r="I426" s="291"/>
+      <c r="I426" s="289"/>
       <c r="J426" s="68"/>
       <c r="K426" s="68"/>
       <c r="L426" s="69"/>
-      <c r="M426" s="291"/>
+      <c r="M426" s="289"/>
       <c r="N426" s="69"/>
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B427" s="291"/>
+      <c r="B427" s="289"/>
       <c r="C427" s="68"/>
       <c r="D427" s="68"/>
       <c r="E427" s="69"/>
-      <c r="F427" s="291"/>
+      <c r="F427" s="289"/>
       <c r="G427" s="68"/>
       <c r="H427" s="69"/>
-      <c r="I427" s="291"/>
+      <c r="I427" s="289"/>
       <c r="J427" s="68"/>
       <c r="K427" s="68"/>
       <c r="L427" s="69"/>
-      <c r="M427" s="291"/>
+      <c r="M427" s="289"/>
       <c r="N427" s="69"/>
     </row>
     <row r="428" spans="1:14">
@@ -10218,17 +10116,17 @@
       <c r="A435" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B435" s="291"/>
-      <c r="C435" s="289"/>
-      <c r="D435" s="289"/>
-      <c r="E435" s="290"/>
-      <c r="F435" s="291"/>
-      <c r="G435" s="289"/>
-      <c r="H435" s="290"/>
-      <c r="I435" s="291"/>
-      <c r="J435" s="289"/>
-      <c r="K435" s="289"/>
-      <c r="L435" s="290"/>
+      <c r="B435" s="289"/>
+      <c r="C435" s="287"/>
+      <c r="D435" s="287"/>
+      <c r="E435" s="288"/>
+      <c r="F435" s="289"/>
+      <c r="G435" s="287"/>
+      <c r="H435" s="288"/>
+      <c r="I435" s="289"/>
+      <c r="J435" s="287"/>
+      <c r="K435" s="287"/>
+      <c r="L435" s="288"/>
       <c r="M435" s="49"/>
       <c r="N435" s="50"/>
     </row>
@@ -10236,17 +10134,17 @@
       <c r="A436" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B436" s="291"/>
-      <c r="C436" s="289"/>
-      <c r="D436" s="289"/>
-      <c r="E436" s="290"/>
-      <c r="F436" s="291"/>
-      <c r="G436" s="289"/>
-      <c r="H436" s="290"/>
-      <c r="I436" s="291"/>
-      <c r="J436" s="289"/>
-      <c r="K436" s="289"/>
-      <c r="L436" s="290"/>
+      <c r="B436" s="289"/>
+      <c r="C436" s="287"/>
+      <c r="D436" s="287"/>
+      <c r="E436" s="288"/>
+      <c r="F436" s="289"/>
+      <c r="G436" s="287"/>
+      <c r="H436" s="288"/>
+      <c r="I436" s="289"/>
+      <c r="J436" s="287"/>
+      <c r="K436" s="287"/>
+      <c r="L436" s="288"/>
       <c r="M436" s="49"/>
       <c r="N436" s="50"/>
     </row>
@@ -10272,17 +10170,17 @@
       <c r="A438" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B438" s="291"/>
-      <c r="C438" s="289"/>
-      <c r="D438" s="289"/>
-      <c r="E438" s="290"/>
-      <c r="F438" s="291"/>
-      <c r="G438" s="289"/>
-      <c r="H438" s="290"/>
-      <c r="I438" s="291"/>
-      <c r="J438" s="289"/>
-      <c r="K438" s="289"/>
-      <c r="L438" s="290"/>
+      <c r="B438" s="289"/>
+      <c r="C438" s="287"/>
+      <c r="D438" s="287"/>
+      <c r="E438" s="288"/>
+      <c r="F438" s="289"/>
+      <c r="G438" s="287"/>
+      <c r="H438" s="288"/>
+      <c r="I438" s="289"/>
+      <c r="J438" s="287"/>
+      <c r="K438" s="287"/>
+      <c r="L438" s="288"/>
       <c r="M438" s="49"/>
       <c r="N438" s="50"/>
     </row>
@@ -10290,17 +10188,17 @@
       <c r="A439" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B439" s="291"/>
-      <c r="C439" s="289"/>
-      <c r="D439" s="289"/>
-      <c r="E439" s="290"/>
-      <c r="F439" s="291"/>
-      <c r="G439" s="289"/>
-      <c r="H439" s="290"/>
-      <c r="I439" s="291"/>
-      <c r="J439" s="289"/>
-      <c r="K439" s="289"/>
-      <c r="L439" s="290"/>
+      <c r="B439" s="289"/>
+      <c r="C439" s="287"/>
+      <c r="D439" s="287"/>
+      <c r="E439" s="288"/>
+      <c r="F439" s="289"/>
+      <c r="G439" s="287"/>
+      <c r="H439" s="288"/>
+      <c r="I439" s="289"/>
+      <c r="J439" s="287"/>
+      <c r="K439" s="287"/>
+      <c r="L439" s="288"/>
       <c r="M439" s="49"/>
       <c r="N439" s="50"/>
     </row>
@@ -10326,17 +10224,17 @@
       <c r="A441" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B441" s="291"/>
-      <c r="C441" s="289"/>
-      <c r="D441" s="289"/>
-      <c r="E441" s="290"/>
-      <c r="F441" s="291"/>
-      <c r="G441" s="289"/>
-      <c r="H441" s="290"/>
-      <c r="I441" s="291"/>
-      <c r="J441" s="289"/>
-      <c r="K441" s="289"/>
-      <c r="L441" s="290"/>
+      <c r="B441" s="289"/>
+      <c r="C441" s="287"/>
+      <c r="D441" s="287"/>
+      <c r="E441" s="288"/>
+      <c r="F441" s="289"/>
+      <c r="G441" s="287"/>
+      <c r="H441" s="288"/>
+      <c r="I441" s="289"/>
+      <c r="J441" s="287"/>
+      <c r="K441" s="287"/>
+      <c r="L441" s="288"/>
       <c r="M441" s="67"/>
       <c r="N441" s="69"/>
     </row>
@@ -10344,17 +10242,17 @@
       <c r="A442" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B442" s="291"/>
-      <c r="C442" s="289"/>
-      <c r="D442" s="289"/>
-      <c r="E442" s="290"/>
-      <c r="F442" s="291"/>
-      <c r="G442" s="289"/>
-      <c r="H442" s="290"/>
-      <c r="I442" s="291"/>
-      <c r="J442" s="289"/>
-      <c r="K442" s="289"/>
-      <c r="L442" s="290"/>
+      <c r="B442" s="289"/>
+      <c r="C442" s="287"/>
+      <c r="D442" s="287"/>
+      <c r="E442" s="288"/>
+      <c r="F442" s="289"/>
+      <c r="G442" s="287"/>
+      <c r="H442" s="288"/>
+      <c r="I442" s="289"/>
+      <c r="J442" s="287"/>
+      <c r="K442" s="287"/>
+      <c r="L442" s="288"/>
       <c r="M442" s="67"/>
       <c r="N442" s="69"/>
     </row>
@@ -10380,17 +10278,17 @@
       <c r="A444" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B444" s="291"/>
-      <c r="C444" s="289"/>
-      <c r="D444" s="289"/>
-      <c r="E444" s="290"/>
-      <c r="F444" s="291"/>
-      <c r="G444" s="289"/>
-      <c r="H444" s="290"/>
-      <c r="I444" s="291"/>
-      <c r="J444" s="289"/>
-      <c r="K444" s="289"/>
-      <c r="L444" s="290"/>
+      <c r="B444" s="289"/>
+      <c r="C444" s="287"/>
+      <c r="D444" s="287"/>
+      <c r="E444" s="288"/>
+      <c r="F444" s="289"/>
+      <c r="G444" s="287"/>
+      <c r="H444" s="288"/>
+      <c r="I444" s="289"/>
+      <c r="J444" s="287"/>
+      <c r="K444" s="287"/>
+      <c r="L444" s="288"/>
       <c r="M444" s="67"/>
       <c r="N444" s="69"/>
     </row>
@@ -10398,17 +10296,17 @@
       <c r="A445" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B445" s="302"/>
-      <c r="C445" s="303"/>
-      <c r="D445" s="303"/>
-      <c r="E445" s="304"/>
-      <c r="F445" s="302"/>
-      <c r="G445" s="303"/>
-      <c r="H445" s="304"/>
-      <c r="I445" s="302"/>
-      <c r="J445" s="303"/>
-      <c r="K445" s="303"/>
-      <c r="L445" s="304"/>
+      <c r="B445" s="300"/>
+      <c r="C445" s="301"/>
+      <c r="D445" s="301"/>
+      <c r="E445" s="302"/>
+      <c r="F445" s="300"/>
+      <c r="G445" s="301"/>
+      <c r="H445" s="302"/>
+      <c r="I445" s="300"/>
+      <c r="J445" s="301"/>
+      <c r="K445" s="301"/>
+      <c r="L445" s="302"/>
       <c r="M445" s="114"/>
       <c r="N445" s="116"/>
     </row>
@@ -10599,9 +10497,9 @@
       <c r="A469" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B469" s="294"/>
-      <c r="C469" s="287"/>
-      <c r="D469" s="288"/>
+      <c r="B469" s="292"/>
+      <c r="C469" s="285"/>
+      <c r="D469" s="286"/>
       <c r="E469" s="111"/>
       <c r="F469" s="112"/>
       <c r="G469" s="111"/>
@@ -10613,9 +10511,9 @@
       <c r="A470" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B470" s="294"/>
-      <c r="C470" s="287"/>
-      <c r="D470" s="288"/>
+      <c r="B470" s="292"/>
+      <c r="C470" s="285"/>
+      <c r="D470" s="286"/>
       <c r="E470" s="111"/>
       <c r="F470" s="112"/>
       <c r="G470" s="111"/>
@@ -10627,9 +10525,9 @@
       <c r="A471" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B471" s="294"/>
-      <c r="C471" s="287"/>
-      <c r="D471" s="288"/>
+      <c r="B471" s="292"/>
+      <c r="C471" s="285"/>
+      <c r="D471" s="286"/>
       <c r="E471" s="111"/>
       <c r="F471" s="112"/>
       <c r="G471" s="111"/>
@@ -10655,11 +10553,11 @@
       <c r="A473" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B473" s="294"/>
-      <c r="C473" s="287"/>
-      <c r="D473" s="288"/>
-      <c r="E473" s="287"/>
-      <c r="F473" s="288"/>
+      <c r="B473" s="292"/>
+      <c r="C473" s="285"/>
+      <c r="D473" s="286"/>
+      <c r="E473" s="285"/>
+      <c r="F473" s="286"/>
       <c r="G473" s="111"/>
       <c r="H473" s="111"/>
       <c r="I473" s="111"/>
@@ -10669,11 +10567,11 @@
       <c r="A474" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B474" s="294"/>
-      <c r="C474" s="287"/>
-      <c r="D474" s="288"/>
-      <c r="E474" s="287"/>
-      <c r="F474" s="288"/>
+      <c r="B474" s="292"/>
+      <c r="C474" s="285"/>
+      <c r="D474" s="286"/>
+      <c r="E474" s="285"/>
+      <c r="F474" s="286"/>
       <c r="G474" s="111"/>
       <c r="H474" s="111"/>
       <c r="I474" s="111"/>
@@ -10683,11 +10581,11 @@
       <c r="A475" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B475" s="294"/>
-      <c r="C475" s="287"/>
-      <c r="D475" s="288"/>
-      <c r="E475" s="287"/>
-      <c r="F475" s="288"/>
+      <c r="B475" s="292"/>
+      <c r="C475" s="285"/>
+      <c r="D475" s="286"/>
+      <c r="E475" s="285"/>
+      <c r="F475" s="286"/>
       <c r="G475" s="111"/>
       <c r="H475" s="111"/>
       <c r="I475" s="111"/>
@@ -10711,29 +10609,29 @@
       <c r="A477" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B477" s="294"/>
-      <c r="C477" s="287"/>
-      <c r="D477" s="288"/>
-      <c r="E477" s="287"/>
-      <c r="F477" s="288"/>
-      <c r="G477" s="287"/>
-      <c r="H477" s="287"/>
-      <c r="I477" s="287"/>
-      <c r="J477" s="288"/>
+      <c r="B477" s="292"/>
+      <c r="C477" s="285"/>
+      <c r="D477" s="286"/>
+      <c r="E477" s="285"/>
+      <c r="F477" s="286"/>
+      <c r="G477" s="285"/>
+      <c r="H477" s="285"/>
+      <c r="I477" s="285"/>
+      <c r="J477" s="286"/>
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B478" s="294"/>
-      <c r="C478" s="287"/>
-      <c r="D478" s="288"/>
-      <c r="E478" s="287"/>
-      <c r="F478" s="288"/>
-      <c r="G478" s="287"/>
-      <c r="H478" s="287"/>
-      <c r="I478" s="287"/>
-      <c r="J478" s="288"/>
+      <c r="B478" s="292"/>
+      <c r="C478" s="285"/>
+      <c r="D478" s="286"/>
+      <c r="E478" s="285"/>
+      <c r="F478" s="286"/>
+      <c r="G478" s="285"/>
+      <c r="H478" s="285"/>
+      <c r="I478" s="285"/>
+      <c r="J478" s="286"/>
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="9" t="s">
@@ -10977,15 +10875,15 @@
       <c r="A496" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B496" s="308"/>
-      <c r="C496" s="309"/>
-      <c r="D496" s="310"/>
-      <c r="E496" s="309"/>
-      <c r="F496" s="310"/>
-      <c r="G496" s="309"/>
-      <c r="H496" s="309"/>
-      <c r="I496" s="309"/>
-      <c r="J496" s="310"/>
+      <c r="B496" s="306"/>
+      <c r="C496" s="307"/>
+      <c r="D496" s="308"/>
+      <c r="E496" s="307"/>
+      <c r="F496" s="308"/>
+      <c r="G496" s="307"/>
+      <c r="H496" s="307"/>
+      <c r="I496" s="307"/>
+      <c r="J496" s="308"/>
     </row>
     <row r="510" spans="1:14" ht="16" thickBot="1"/>
     <row r="511" spans="1:14" ht="24" thickBot="1">
@@ -11162,55 +11060,55 @@
       <c r="A516" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B516" s="291"/>
-      <c r="C516" s="289"/>
-      <c r="D516" s="289"/>
-      <c r="E516" s="290"/>
-      <c r="F516" s="291"/>
-      <c r="G516" s="289"/>
-      <c r="H516" s="290"/>
+      <c r="B516" s="289"/>
+      <c r="C516" s="287"/>
+      <c r="D516" s="287"/>
+      <c r="E516" s="288"/>
+      <c r="F516" s="289"/>
+      <c r="G516" s="287"/>
+      <c r="H516" s="288"/>
       <c r="I516" s="67"/>
       <c r="J516" s="68"/>
       <c r="K516" s="68"/>
       <c r="L516" s="69"/>
-      <c r="M516" s="291"/>
-      <c r="N516" s="290"/>
+      <c r="M516" s="289"/>
+      <c r="N516" s="288"/>
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B517" s="291"/>
-      <c r="C517" s="289"/>
-      <c r="D517" s="289"/>
-      <c r="E517" s="290"/>
-      <c r="F517" s="291"/>
-      <c r="G517" s="289"/>
-      <c r="H517" s="290"/>
+      <c r="B517" s="289"/>
+      <c r="C517" s="287"/>
+      <c r="D517" s="287"/>
+      <c r="E517" s="288"/>
+      <c r="F517" s="289"/>
+      <c r="G517" s="287"/>
+      <c r="H517" s="288"/>
       <c r="I517" s="67"/>
       <c r="J517" s="68"/>
       <c r="K517" s="68"/>
       <c r="L517" s="69"/>
-      <c r="M517" s="291"/>
-      <c r="N517" s="290"/>
+      <c r="M517" s="289"/>
+      <c r="N517" s="288"/>
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B518" s="291"/>
-      <c r="C518" s="289"/>
-      <c r="D518" s="289"/>
-      <c r="E518" s="290"/>
-      <c r="F518" s="291"/>
-      <c r="G518" s="289"/>
-      <c r="H518" s="290"/>
+      <c r="B518" s="289"/>
+      <c r="C518" s="287"/>
+      <c r="D518" s="287"/>
+      <c r="E518" s="288"/>
+      <c r="F518" s="289"/>
+      <c r="G518" s="287"/>
+      <c r="H518" s="288"/>
       <c r="I518" s="67"/>
       <c r="J518" s="68"/>
       <c r="K518" s="68"/>
       <c r="L518" s="69"/>
-      <c r="M518" s="291"/>
-      <c r="N518" s="290"/>
+      <c r="M518" s="289"/>
+      <c r="N518" s="288"/>
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="9" t="s">
@@ -11245,8 +11143,8 @@
       <c r="J520" s="68"/>
       <c r="K520" s="68"/>
       <c r="L520" s="69"/>
-      <c r="M520" s="291"/>
-      <c r="N520" s="290"/>
+      <c r="M520" s="289"/>
+      <c r="N520" s="288"/>
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="7" t="s">
@@ -11263,8 +11161,8 @@
       <c r="J521" s="68"/>
       <c r="K521" s="68"/>
       <c r="L521" s="69"/>
-      <c r="M521" s="291"/>
-      <c r="N521" s="290"/>
+      <c r="M521" s="289"/>
+      <c r="N521" s="288"/>
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="8" t="s">
@@ -11281,8 +11179,8 @@
       <c r="J522" s="68"/>
       <c r="K522" s="68"/>
       <c r="L522" s="69"/>
-      <c r="M522" s="291"/>
-      <c r="N522" s="290"/>
+      <c r="M522" s="289"/>
+      <c r="N522" s="288"/>
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="9" t="s">
@@ -11306,10 +11204,10 @@
       <c r="A524" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B524" s="291"/>
-      <c r="C524" s="289"/>
-      <c r="D524" s="289"/>
-      <c r="E524" s="290"/>
+      <c r="B524" s="289"/>
+      <c r="C524" s="287"/>
+      <c r="D524" s="287"/>
+      <c r="E524" s="288"/>
       <c r="F524" s="67"/>
       <c r="G524" s="68"/>
       <c r="H524" s="69"/>
@@ -11317,17 +11215,17 @@
       <c r="J524" s="68"/>
       <c r="K524" s="68"/>
       <c r="L524" s="50"/>
-      <c r="M524" s="291"/>
-      <c r="N524" s="290"/>
+      <c r="M524" s="289"/>
+      <c r="N524" s="288"/>
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B525" s="291"/>
-      <c r="C525" s="289"/>
-      <c r="D525" s="289"/>
-      <c r="E525" s="290"/>
+      <c r="B525" s="289"/>
+      <c r="C525" s="287"/>
+      <c r="D525" s="287"/>
+      <c r="E525" s="288"/>
       <c r="F525" s="67"/>
       <c r="G525" s="68"/>
       <c r="H525" s="69"/>
@@ -11335,17 +11233,17 @@
       <c r="J525" s="68"/>
       <c r="K525" s="68"/>
       <c r="L525" s="50"/>
-      <c r="M525" s="291"/>
-      <c r="N525" s="290"/>
+      <c r="M525" s="289"/>
+      <c r="N525" s="288"/>
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B526" s="291"/>
-      <c r="C526" s="289"/>
-      <c r="D526" s="289"/>
-      <c r="E526" s="290"/>
+      <c r="B526" s="289"/>
+      <c r="C526" s="287"/>
+      <c r="D526" s="287"/>
+      <c r="E526" s="288"/>
       <c r="F526" s="67"/>
       <c r="G526" s="68"/>
       <c r="H526" s="69"/>
@@ -11353,8 +11251,8 @@
       <c r="J526" s="68"/>
       <c r="K526" s="68"/>
       <c r="L526" s="50"/>
-      <c r="M526" s="291"/>
-      <c r="N526" s="290"/>
+      <c r="M526" s="289"/>
+      <c r="N526" s="288"/>
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="59" t="s">
@@ -11378,37 +11276,37 @@
       <c r="A528" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B528" s="291"/>
-      <c r="C528" s="289"/>
-      <c r="D528" s="289"/>
-      <c r="E528" s="290"/>
-      <c r="F528" s="291"/>
-      <c r="G528" s="289"/>
-      <c r="H528" s="290"/>
-      <c r="I528" s="291"/>
-      <c r="J528" s="289"/>
-      <c r="K528" s="289"/>
-      <c r="L528" s="290"/>
-      <c r="M528" s="291"/>
-      <c r="N528" s="290"/>
+      <c r="B528" s="289"/>
+      <c r="C528" s="287"/>
+      <c r="D528" s="287"/>
+      <c r="E528" s="288"/>
+      <c r="F528" s="289"/>
+      <c r="G528" s="287"/>
+      <c r="H528" s="288"/>
+      <c r="I528" s="289"/>
+      <c r="J528" s="287"/>
+      <c r="K528" s="287"/>
+      <c r="L528" s="288"/>
+      <c r="M528" s="289"/>
+      <c r="N528" s="288"/>
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B529" s="291"/>
-      <c r="C529" s="289"/>
-      <c r="D529" s="289"/>
-      <c r="E529" s="290"/>
-      <c r="F529" s="291"/>
-      <c r="G529" s="289"/>
-      <c r="H529" s="290"/>
-      <c r="I529" s="291"/>
-      <c r="J529" s="289"/>
-      <c r="K529" s="289"/>
-      <c r="L529" s="290"/>
-      <c r="M529" s="291"/>
-      <c r="N529" s="290"/>
+      <c r="B529" s="289"/>
+      <c r="C529" s="287"/>
+      <c r="D529" s="287"/>
+      <c r="E529" s="288"/>
+      <c r="F529" s="289"/>
+      <c r="G529" s="287"/>
+      <c r="H529" s="288"/>
+      <c r="I529" s="289"/>
+      <c r="J529" s="287"/>
+      <c r="K529" s="287"/>
+      <c r="L529" s="288"/>
+      <c r="M529" s="289"/>
+      <c r="N529" s="288"/>
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="9" t="s">
@@ -11853,12 +11751,12 @@
       <c r="A567" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B567" s="291"/>
-      <c r="C567" s="289"/>
+      <c r="B567" s="289"/>
+      <c r="C567" s="287"/>
       <c r="D567" s="69"/>
       <c r="E567" s="68"/>
-      <c r="F567" s="290"/>
-      <c r="G567" s="289"/>
+      <c r="F567" s="288"/>
+      <c r="G567" s="287"/>
       <c r="H567" s="68"/>
       <c r="I567" s="69"/>
     </row>
@@ -11866,12 +11764,12 @@
       <c r="A568" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B568" s="291"/>
-      <c r="C568" s="289"/>
+      <c r="B568" s="289"/>
+      <c r="C568" s="287"/>
       <c r="D568" s="69"/>
       <c r="E568" s="68"/>
-      <c r="F568" s="290"/>
-      <c r="G568" s="289"/>
+      <c r="F568" s="288"/>
+      <c r="G568" s="287"/>
       <c r="H568" s="68"/>
       <c r="I568" s="69"/>
     </row>
@@ -11879,12 +11777,12 @@
       <c r="A569" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B569" s="291"/>
-      <c r="C569" s="289"/>
+      <c r="B569" s="289"/>
+      <c r="C569" s="287"/>
       <c r="D569" s="69"/>
       <c r="E569" s="68"/>
-      <c r="F569" s="290"/>
-      <c r="G569" s="289"/>
+      <c r="F569" s="288"/>
+      <c r="G569" s="287"/>
       <c r="H569" s="68"/>
       <c r="I569" s="69"/>
     </row>
@@ -11906,39 +11804,39 @@
         <v>13</v>
       </c>
       <c r="B571" s="67"/>
-      <c r="C571" s="289"/>
+      <c r="C571" s="287"/>
       <c r="D571" s="69"/>
-      <c r="E571" s="289"/>
+      <c r="E571" s="287"/>
       <c r="F571" s="69"/>
-      <c r="G571" s="289"/>
+      <c r="G571" s="287"/>
       <c r="H571" s="68"/>
-      <c r="I571" s="290"/>
+      <c r="I571" s="288"/>
     </row>
     <row r="572" spans="1:9">
       <c r="A572" s="180" t="s">
         <v>12</v>
       </c>
       <c r="B572" s="67"/>
-      <c r="C572" s="289"/>
+      <c r="C572" s="287"/>
       <c r="D572" s="69"/>
-      <c r="E572" s="289"/>
+      <c r="E572" s="287"/>
       <c r="F572" s="69"/>
-      <c r="G572" s="289"/>
+      <c r="G572" s="287"/>
       <c r="H572" s="68"/>
-      <c r="I572" s="290"/>
+      <c r="I572" s="288"/>
     </row>
     <row r="573" spans="1:9">
       <c r="A573" s="181" t="s">
         <v>11</v>
       </c>
       <c r="B573" s="67"/>
-      <c r="C573" s="289"/>
+      <c r="C573" s="287"/>
       <c r="D573" s="69"/>
-      <c r="E573" s="289"/>
+      <c r="E573" s="287"/>
       <c r="F573" s="69"/>
-      <c r="G573" s="289"/>
+      <c r="G573" s="287"/>
       <c r="H573" s="68"/>
-      <c r="I573" s="290"/>
+      <c r="I573" s="288"/>
     </row>
     <row r="574" spans="1:9">
       <c r="A574" s="182" t="s">
@@ -11957,39 +11855,39 @@
       <c r="A575" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B575" s="291"/>
+      <c r="B575" s="289"/>
       <c r="C575" s="68"/>
-      <c r="D575" s="290"/>
+      <c r="D575" s="288"/>
       <c r="E575" s="68"/>
-      <c r="F575" s="290"/>
+      <c r="F575" s="288"/>
       <c r="G575" s="68"/>
-      <c r="H575" s="289"/>
+      <c r="H575" s="287"/>
       <c r="I575" s="69"/>
     </row>
     <row r="576" spans="1:9">
       <c r="A576" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B576" s="291"/>
+      <c r="B576" s="289"/>
       <c r="C576" s="68"/>
-      <c r="D576" s="290"/>
+      <c r="D576" s="288"/>
       <c r="E576" s="68"/>
-      <c r="F576" s="290"/>
+      <c r="F576" s="288"/>
       <c r="G576" s="68"/>
-      <c r="H576" s="289"/>
+      <c r="H576" s="287"/>
       <c r="I576" s="69"/>
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B577" s="291"/>
+      <c r="B577" s="289"/>
       <c r="C577" s="68"/>
-      <c r="D577" s="290"/>
+      <c r="D577" s="288"/>
       <c r="E577" s="68"/>
-      <c r="F577" s="290"/>
+      <c r="F577" s="288"/>
       <c r="G577" s="68"/>
-      <c r="H577" s="289"/>
+      <c r="H577" s="287"/>
       <c r="I577" s="69"/>
     </row>
     <row r="578" spans="1:9">
@@ -12009,27 +11907,27 @@
       <c r="A579" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B579" s="291"/>
-      <c r="C579" s="289"/>
-      <c r="D579" s="290"/>
-      <c r="E579" s="289"/>
-      <c r="F579" s="290"/>
-      <c r="G579" s="289"/>
-      <c r="H579" s="289"/>
-      <c r="I579" s="290"/>
+      <c r="B579" s="289"/>
+      <c r="C579" s="287"/>
+      <c r="D579" s="288"/>
+      <c r="E579" s="287"/>
+      <c r="F579" s="288"/>
+      <c r="G579" s="287"/>
+      <c r="H579" s="287"/>
+      <c r="I579" s="288"/>
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B580" s="291"/>
-      <c r="C580" s="289"/>
-      <c r="D580" s="290"/>
-      <c r="E580" s="289"/>
-      <c r="F580" s="290"/>
-      <c r="G580" s="289"/>
-      <c r="H580" s="289"/>
-      <c r="I580" s="290"/>
+      <c r="B580" s="289"/>
+      <c r="C580" s="287"/>
+      <c r="D580" s="288"/>
+      <c r="E580" s="287"/>
+      <c r="F580" s="288"/>
+      <c r="G580" s="287"/>
+      <c r="H580" s="287"/>
+      <c r="I580" s="288"/>
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="182" t="s">
@@ -12061,14 +11959,14 @@
       <c r="A583" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B583" s="291"/>
-      <c r="C583" s="289"/>
-      <c r="D583" s="290"/>
-      <c r="E583" s="289"/>
-      <c r="F583" s="290"/>
-      <c r="G583" s="289"/>
-      <c r="H583" s="289"/>
-      <c r="I583" s="290"/>
+      <c r="B583" s="289"/>
+      <c r="C583" s="287"/>
+      <c r="D583" s="288"/>
+      <c r="E583" s="287"/>
+      <c r="F583" s="288"/>
+      <c r="G583" s="287"/>
+      <c r="H583" s="287"/>
+      <c r="I583" s="288"/>
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="182" t="s">
@@ -12100,14 +11998,14 @@
       <c r="A586" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="B586" s="291"/>
-      <c r="C586" s="289"/>
-      <c r="D586" s="290"/>
-      <c r="E586" s="289"/>
-      <c r="F586" s="290"/>
-      <c r="G586" s="289"/>
-      <c r="H586" s="289"/>
-      <c r="I586" s="290"/>
+      <c r="B586" s="289"/>
+      <c r="C586" s="287"/>
+      <c r="D586" s="288"/>
+      <c r="E586" s="287"/>
+      <c r="F586" s="288"/>
+      <c r="G586" s="287"/>
+      <c r="H586" s="287"/>
+      <c r="I586" s="288"/>
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="182" t="s">
@@ -12486,21 +12384,21 @@
       </c>
       <c r="B618" s="110"/>
       <c r="C618" s="111"/>
-      <c r="D618" s="288"/>
+      <c r="D618" s="286"/>
       <c r="E618" s="111"/>
-      <c r="F618" s="288"/>
+      <c r="F618" s="286"/>
       <c r="G618" s="111"/>
       <c r="H618" s="111"/>
       <c r="I618" s="111"/>
-      <c r="J618" s="288"/>
+      <c r="J618" s="286"/>
       <c r="K618" s="110"/>
       <c r="L618" s="111"/>
       <c r="M618" s="112"/>
       <c r="N618" s="111"/>
-      <c r="O618" s="288"/>
+      <c r="O618" s="286"/>
       <c r="P618" s="111"/>
       <c r="Q618" s="111"/>
-      <c r="R618" s="288"/>
+      <c r="R618" s="286"/>
     </row>
     <row r="619" spans="1:18">
       <c r="A619" s="180" t="s">
@@ -12508,21 +12406,21 @@
       </c>
       <c r="B619" s="110"/>
       <c r="C619" s="111"/>
-      <c r="D619" s="288"/>
+      <c r="D619" s="286"/>
       <c r="E619" s="111"/>
-      <c r="F619" s="288"/>
+      <c r="F619" s="286"/>
       <c r="G619" s="111"/>
       <c r="H619" s="111"/>
       <c r="I619" s="111"/>
-      <c r="J619" s="288"/>
+      <c r="J619" s="286"/>
       <c r="K619" s="110"/>
       <c r="L619" s="111"/>
       <c r="M619" s="112"/>
       <c r="N619" s="111"/>
-      <c r="O619" s="288"/>
+      <c r="O619" s="286"/>
       <c r="P619" s="111"/>
       <c r="Q619" s="111"/>
-      <c r="R619" s="288"/>
+      <c r="R619" s="286"/>
     </row>
     <row r="620" spans="1:18">
       <c r="A620" s="181" t="s">
@@ -12530,21 +12428,21 @@
       </c>
       <c r="B620" s="110"/>
       <c r="C620" s="111"/>
-      <c r="D620" s="288"/>
+      <c r="D620" s="286"/>
       <c r="E620" s="111"/>
-      <c r="F620" s="288"/>
+      <c r="F620" s="286"/>
       <c r="G620" s="111"/>
       <c r="H620" s="111"/>
       <c r="I620" s="111"/>
-      <c r="J620" s="288"/>
+      <c r="J620" s="286"/>
       <c r="K620" s="110"/>
       <c r="L620" s="111"/>
       <c r="M620" s="112"/>
       <c r="N620" s="111"/>
-      <c r="O620" s="288"/>
+      <c r="O620" s="286"/>
       <c r="P620" s="111"/>
       <c r="Q620" s="111"/>
-      <c r="R620" s="288"/>
+      <c r="R620" s="286"/>
     </row>
     <row r="621" spans="1:18">
       <c r="A621" s="182" t="s">
@@ -12572,21 +12470,21 @@
       <c r="A622" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B622" s="294"/>
+      <c r="B622" s="292"/>
       <c r="C622" s="111"/>
       <c r="D622" s="112"/>
-      <c r="E622" s="287"/>
+      <c r="E622" s="285"/>
       <c r="F622" s="112"/>
-      <c r="G622" s="287"/>
+      <c r="G622" s="285"/>
       <c r="H622" s="111"/>
       <c r="I622" s="111"/>
       <c r="J622" s="112"/>
-      <c r="K622" s="294"/>
+      <c r="K622" s="292"/>
       <c r="L622" s="111"/>
       <c r="M622" s="112"/>
-      <c r="N622" s="287"/>
+      <c r="N622" s="285"/>
       <c r="O622" s="112"/>
-      <c r="P622" s="287"/>
+      <c r="P622" s="285"/>
       <c r="Q622" s="111"/>
       <c r="R622" s="103"/>
     </row>
@@ -12594,21 +12492,21 @@
       <c r="A623" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B623" s="294"/>
+      <c r="B623" s="292"/>
       <c r="C623" s="111"/>
       <c r="D623" s="112"/>
-      <c r="E623" s="287"/>
+      <c r="E623" s="285"/>
       <c r="F623" s="112"/>
-      <c r="G623" s="287"/>
+      <c r="G623" s="285"/>
       <c r="H623" s="111"/>
       <c r="I623" s="111"/>
       <c r="J623" s="112"/>
-      <c r="K623" s="294"/>
+      <c r="K623" s="292"/>
       <c r="L623" s="111"/>
       <c r="M623" s="112"/>
-      <c r="N623" s="287"/>
+      <c r="N623" s="285"/>
       <c r="O623" s="112"/>
-      <c r="P623" s="287"/>
+      <c r="P623" s="285"/>
       <c r="Q623" s="111"/>
       <c r="R623" s="103"/>
     </row>
@@ -12616,21 +12514,21 @@
       <c r="A624" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B624" s="294"/>
+      <c r="B624" s="292"/>
       <c r="C624" s="111"/>
       <c r="D624" s="112"/>
-      <c r="E624" s="287"/>
+      <c r="E624" s="285"/>
       <c r="F624" s="112"/>
-      <c r="G624" s="287"/>
+      <c r="G624" s="285"/>
       <c r="H624" s="111"/>
       <c r="I624" s="111"/>
       <c r="J624" s="112"/>
-      <c r="K624" s="294"/>
+      <c r="K624" s="292"/>
       <c r="L624" s="111"/>
       <c r="M624" s="112"/>
-      <c r="N624" s="287"/>
+      <c r="N624" s="285"/>
       <c r="O624" s="112"/>
-      <c r="P624" s="287"/>
+      <c r="P624" s="285"/>
       <c r="Q624" s="111"/>
       <c r="R624" s="103"/>
     </row>
@@ -12661,21 +12559,21 @@
         <v>13</v>
       </c>
       <c r="B626" s="110"/>
-      <c r="C626" s="287"/>
+      <c r="C626" s="285"/>
       <c r="D626" s="112"/>
       <c r="E626" s="111"/>
       <c r="F626" s="112"/>
       <c r="G626" s="111"/>
-      <c r="H626" s="287"/>
-      <c r="I626" s="287"/>
+      <c r="H626" s="285"/>
+      <c r="I626" s="285"/>
       <c r="J626" s="112"/>
       <c r="K626" s="110"/>
-      <c r="L626" s="287"/>
+      <c r="L626" s="285"/>
       <c r="M626" s="112"/>
       <c r="N626" s="111"/>
       <c r="O626" s="112"/>
       <c r="P626" s="111"/>
-      <c r="Q626" s="287"/>
+      <c r="Q626" s="285"/>
       <c r="R626" s="103"/>
     </row>
     <row r="627" spans="1:18">
@@ -12683,21 +12581,21 @@
         <v>12</v>
       </c>
       <c r="B627" s="110"/>
-      <c r="C627" s="287"/>
+      <c r="C627" s="285"/>
       <c r="D627" s="112"/>
       <c r="E627" s="111"/>
       <c r="F627" s="112"/>
       <c r="G627" s="111"/>
-      <c r="H627" s="287"/>
-      <c r="I627" s="287"/>
+      <c r="H627" s="285"/>
+      <c r="I627" s="285"/>
       <c r="J627" s="112"/>
       <c r="K627" s="110"/>
-      <c r="L627" s="287"/>
+      <c r="L627" s="285"/>
       <c r="M627" s="112"/>
       <c r="N627" s="111"/>
       <c r="O627" s="112"/>
       <c r="P627" s="111"/>
-      <c r="Q627" s="287"/>
+      <c r="Q627" s="285"/>
       <c r="R627" s="103"/>
     </row>
     <row r="628" spans="1:18">
@@ -12705,21 +12603,21 @@
         <v>11</v>
       </c>
       <c r="B628" s="110"/>
-      <c r="C628" s="287"/>
+      <c r="C628" s="285"/>
       <c r="D628" s="112"/>
       <c r="E628" s="111"/>
       <c r="F628" s="112"/>
       <c r="G628" s="111"/>
-      <c r="H628" s="287"/>
-      <c r="I628" s="287"/>
+      <c r="H628" s="285"/>
+      <c r="I628" s="285"/>
       <c r="J628" s="112"/>
       <c r="K628" s="110"/>
-      <c r="L628" s="287"/>
+      <c r="L628" s="285"/>
       <c r="M628" s="112"/>
       <c r="N628" s="111"/>
       <c r="O628" s="112"/>
       <c r="P628" s="111"/>
-      <c r="Q628" s="287"/>
+      <c r="Q628" s="285"/>
       <c r="R628" s="103"/>
     </row>
     <row r="629" spans="1:18">
@@ -12748,45 +12646,45 @@
       <c r="A630" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B630" s="294"/>
-      <c r="C630" s="287"/>
-      <c r="D630" s="288"/>
-      <c r="E630" s="287"/>
-      <c r="F630" s="288"/>
-      <c r="G630" s="287"/>
-      <c r="H630" s="287"/>
-      <c r="I630" s="287"/>
-      <c r="J630" s="288"/>
-      <c r="K630" s="294"/>
-      <c r="L630" s="287"/>
-      <c r="M630" s="288"/>
-      <c r="N630" s="287"/>
-      <c r="O630" s="288"/>
-      <c r="P630" s="287"/>
-      <c r="Q630" s="287"/>
-      <c r="R630" s="288"/>
+      <c r="B630" s="292"/>
+      <c r="C630" s="285"/>
+      <c r="D630" s="286"/>
+      <c r="E630" s="285"/>
+      <c r="F630" s="286"/>
+      <c r="G630" s="285"/>
+      <c r="H630" s="285"/>
+      <c r="I630" s="285"/>
+      <c r="J630" s="286"/>
+      <c r="K630" s="292"/>
+      <c r="L630" s="285"/>
+      <c r="M630" s="286"/>
+      <c r="N630" s="285"/>
+      <c r="O630" s="286"/>
+      <c r="P630" s="285"/>
+      <c r="Q630" s="285"/>
+      <c r="R630" s="286"/>
     </row>
     <row r="631" spans="1:18">
       <c r="A631" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B631" s="294"/>
-      <c r="C631" s="287"/>
-      <c r="D631" s="288"/>
-      <c r="E631" s="287"/>
-      <c r="F631" s="288"/>
-      <c r="G631" s="287"/>
-      <c r="H631" s="287"/>
-      <c r="I631" s="287"/>
-      <c r="J631" s="288"/>
-      <c r="K631" s="294"/>
-      <c r="L631" s="287"/>
-      <c r="M631" s="288"/>
-      <c r="N631" s="287"/>
-      <c r="O631" s="288"/>
-      <c r="P631" s="287"/>
-      <c r="Q631" s="287"/>
-      <c r="R631" s="288"/>
+      <c r="B631" s="292"/>
+      <c r="C631" s="285"/>
+      <c r="D631" s="286"/>
+      <c r="E631" s="285"/>
+      <c r="F631" s="286"/>
+      <c r="G631" s="285"/>
+      <c r="H631" s="285"/>
+      <c r="I631" s="285"/>
+      <c r="J631" s="286"/>
+      <c r="K631" s="292"/>
+      <c r="L631" s="285"/>
+      <c r="M631" s="286"/>
+      <c r="N631" s="285"/>
+      <c r="O631" s="286"/>
+      <c r="P631" s="285"/>
+      <c r="Q631" s="285"/>
+      <c r="R631" s="286"/>
     </row>
     <row r="632" spans="1:18">
       <c r="A632" s="182" t="s">
@@ -12946,45 +12844,45 @@
       <c r="A639" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B639" s="294"/>
-      <c r="C639" s="287"/>
-      <c r="D639" s="288"/>
-      <c r="E639" s="287"/>
-      <c r="F639" s="288"/>
-      <c r="G639" s="287"/>
-      <c r="H639" s="287"/>
-      <c r="I639" s="287"/>
-      <c r="J639" s="288"/>
-      <c r="K639" s="294"/>
-      <c r="L639" s="287"/>
-      <c r="M639" s="288"/>
-      <c r="N639" s="287"/>
-      <c r="O639" s="288"/>
-      <c r="P639" s="287"/>
-      <c r="Q639" s="287"/>
-      <c r="R639" s="288"/>
+      <c r="B639" s="292"/>
+      <c r="C639" s="285"/>
+      <c r="D639" s="286"/>
+      <c r="E639" s="285"/>
+      <c r="F639" s="286"/>
+      <c r="G639" s="285"/>
+      <c r="H639" s="285"/>
+      <c r="I639" s="285"/>
+      <c r="J639" s="286"/>
+      <c r="K639" s="292"/>
+      <c r="L639" s="285"/>
+      <c r="M639" s="286"/>
+      <c r="N639" s="285"/>
+      <c r="O639" s="286"/>
+      <c r="P639" s="285"/>
+      <c r="Q639" s="285"/>
+      <c r="R639" s="286"/>
     </row>
     <row r="640" spans="1:18">
       <c r="A640" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B640" s="294"/>
-      <c r="C640" s="287"/>
-      <c r="D640" s="288"/>
-      <c r="E640" s="287"/>
-      <c r="F640" s="288"/>
-      <c r="G640" s="287"/>
-      <c r="H640" s="287"/>
-      <c r="I640" s="287"/>
-      <c r="J640" s="288"/>
-      <c r="K640" s="294"/>
-      <c r="L640" s="287"/>
-      <c r="M640" s="288"/>
-      <c r="N640" s="287"/>
-      <c r="O640" s="288"/>
-      <c r="P640" s="287"/>
-      <c r="Q640" s="287"/>
-      <c r="R640" s="288"/>
+      <c r="B640" s="292"/>
+      <c r="C640" s="285"/>
+      <c r="D640" s="286"/>
+      <c r="E640" s="285"/>
+      <c r="F640" s="286"/>
+      <c r="G640" s="285"/>
+      <c r="H640" s="285"/>
+      <c r="I640" s="285"/>
+      <c r="J640" s="286"/>
+      <c r="K640" s="292"/>
+      <c r="L640" s="285"/>
+      <c r="M640" s="286"/>
+      <c r="N640" s="285"/>
+      <c r="O640" s="286"/>
+      <c r="P640" s="285"/>
+      <c r="Q640" s="285"/>
+      <c r="R640" s="286"/>
     </row>
     <row r="641" spans="1:18">
       <c r="A641" s="182" t="s">
@@ -13012,45 +12910,45 @@
       <c r="A642" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B642" s="294"/>
-      <c r="C642" s="287"/>
-      <c r="D642" s="288"/>
-      <c r="E642" s="287"/>
-      <c r="F642" s="288"/>
-      <c r="G642" s="287"/>
-      <c r="H642" s="287"/>
-      <c r="I642" s="287"/>
-      <c r="J642" s="288"/>
-      <c r="K642" s="294"/>
-      <c r="L642" s="287"/>
-      <c r="M642" s="288"/>
-      <c r="N642" s="287"/>
-      <c r="O642" s="288"/>
-      <c r="P642" s="287"/>
-      <c r="Q642" s="287"/>
-      <c r="R642" s="288"/>
+      <c r="B642" s="292"/>
+      <c r="C642" s="285"/>
+      <c r="D642" s="286"/>
+      <c r="E642" s="285"/>
+      <c r="F642" s="286"/>
+      <c r="G642" s="285"/>
+      <c r="H642" s="285"/>
+      <c r="I642" s="285"/>
+      <c r="J642" s="286"/>
+      <c r="K642" s="292"/>
+      <c r="L642" s="285"/>
+      <c r="M642" s="286"/>
+      <c r="N642" s="285"/>
+      <c r="O642" s="286"/>
+      <c r="P642" s="285"/>
+      <c r="Q642" s="285"/>
+      <c r="R642" s="286"/>
     </row>
     <row r="643" spans="1:18">
       <c r="A643" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B643" s="294"/>
-      <c r="C643" s="287"/>
-      <c r="D643" s="288"/>
-      <c r="E643" s="287"/>
-      <c r="F643" s="288"/>
-      <c r="G643" s="287"/>
-      <c r="H643" s="287"/>
-      <c r="I643" s="287"/>
-      <c r="J643" s="288"/>
-      <c r="K643" s="294"/>
-      <c r="L643" s="287"/>
-      <c r="M643" s="288"/>
-      <c r="N643" s="287"/>
-      <c r="O643" s="288"/>
-      <c r="P643" s="287"/>
-      <c r="Q643" s="287"/>
-      <c r="R643" s="288"/>
+      <c r="B643" s="292"/>
+      <c r="C643" s="285"/>
+      <c r="D643" s="286"/>
+      <c r="E643" s="285"/>
+      <c r="F643" s="286"/>
+      <c r="G643" s="285"/>
+      <c r="H643" s="285"/>
+      <c r="I643" s="285"/>
+      <c r="J643" s="286"/>
+      <c r="K643" s="292"/>
+      <c r="L643" s="285"/>
+      <c r="M643" s="286"/>
+      <c r="N643" s="285"/>
+      <c r="O643" s="286"/>
+      <c r="P643" s="285"/>
+      <c r="Q643" s="285"/>
+      <c r="R643" s="286"/>
     </row>
     <row r="644" spans="1:18">
       <c r="A644" s="182" t="s">
@@ -13078,45 +12976,45 @@
       <c r="A645" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B645" s="294"/>
-      <c r="C645" s="287"/>
-      <c r="D645" s="288"/>
-      <c r="E645" s="287"/>
-      <c r="F645" s="288"/>
-      <c r="G645" s="287"/>
-      <c r="H645" s="287"/>
-      <c r="I645" s="287"/>
-      <c r="J645" s="288"/>
-      <c r="K645" s="294"/>
-      <c r="L645" s="287"/>
-      <c r="M645" s="288"/>
-      <c r="N645" s="287"/>
-      <c r="O645" s="288"/>
-      <c r="P645" s="287"/>
-      <c r="Q645" s="287"/>
-      <c r="R645" s="288"/>
+      <c r="B645" s="292"/>
+      <c r="C645" s="285"/>
+      <c r="D645" s="286"/>
+      <c r="E645" s="285"/>
+      <c r="F645" s="286"/>
+      <c r="G645" s="285"/>
+      <c r="H645" s="285"/>
+      <c r="I645" s="285"/>
+      <c r="J645" s="286"/>
+      <c r="K645" s="292"/>
+      <c r="L645" s="285"/>
+      <c r="M645" s="286"/>
+      <c r="N645" s="285"/>
+      <c r="O645" s="286"/>
+      <c r="P645" s="285"/>
+      <c r="Q645" s="285"/>
+      <c r="R645" s="286"/>
     </row>
     <row r="646" spans="1:18">
       <c r="A646" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B646" s="294"/>
-      <c r="C646" s="287"/>
-      <c r="D646" s="288"/>
-      <c r="E646" s="287"/>
-      <c r="F646" s="288"/>
-      <c r="G646" s="287"/>
-      <c r="H646" s="287"/>
-      <c r="I646" s="287"/>
-      <c r="J646" s="288"/>
-      <c r="K646" s="294"/>
-      <c r="L646" s="287"/>
-      <c r="M646" s="288"/>
-      <c r="N646" s="287"/>
-      <c r="O646" s="288"/>
-      <c r="P646" s="287"/>
-      <c r="Q646" s="287"/>
-      <c r="R646" s="288"/>
+      <c r="B646" s="292"/>
+      <c r="C646" s="285"/>
+      <c r="D646" s="286"/>
+      <c r="E646" s="285"/>
+      <c r="F646" s="286"/>
+      <c r="G646" s="285"/>
+      <c r="H646" s="285"/>
+      <c r="I646" s="285"/>
+      <c r="J646" s="286"/>
+      <c r="K646" s="292"/>
+      <c r="L646" s="285"/>
+      <c r="M646" s="286"/>
+      <c r="N646" s="285"/>
+      <c r="O646" s="286"/>
+      <c r="P646" s="285"/>
+      <c r="Q646" s="285"/>
+      <c r="R646" s="286"/>
     </row>
     <row r="647" spans="1:18">
       <c r="A647" s="182" t="s">
@@ -13144,45 +13042,45 @@
       <c r="A648" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B648" s="294"/>
-      <c r="C648" s="287"/>
-      <c r="D648" s="288"/>
-      <c r="E648" s="287"/>
-      <c r="F648" s="288"/>
-      <c r="G648" s="287"/>
-      <c r="H648" s="287"/>
-      <c r="I648" s="287"/>
-      <c r="J648" s="288"/>
-      <c r="K648" s="294"/>
-      <c r="L648" s="287"/>
-      <c r="M648" s="288"/>
-      <c r="N648" s="287"/>
-      <c r="O648" s="288"/>
-      <c r="P648" s="287"/>
-      <c r="Q648" s="287"/>
-      <c r="R648" s="288"/>
+      <c r="B648" s="292"/>
+      <c r="C648" s="285"/>
+      <c r="D648" s="286"/>
+      <c r="E648" s="285"/>
+      <c r="F648" s="286"/>
+      <c r="G648" s="285"/>
+      <c r="H648" s="285"/>
+      <c r="I648" s="285"/>
+      <c r="J648" s="286"/>
+      <c r="K648" s="292"/>
+      <c r="L648" s="285"/>
+      <c r="M648" s="286"/>
+      <c r="N648" s="285"/>
+      <c r="O648" s="286"/>
+      <c r="P648" s="285"/>
+      <c r="Q648" s="285"/>
+      <c r="R648" s="286"/>
     </row>
     <row r="649" spans="1:18" ht="16" thickBot="1">
       <c r="A649" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B649" s="295"/>
-      <c r="C649" s="296"/>
-      <c r="D649" s="297"/>
-      <c r="E649" s="296"/>
-      <c r="F649" s="297"/>
-      <c r="G649" s="296"/>
-      <c r="H649" s="296"/>
-      <c r="I649" s="296"/>
-      <c r="J649" s="297"/>
-      <c r="K649" s="295"/>
-      <c r="L649" s="296"/>
-      <c r="M649" s="297"/>
-      <c r="N649" s="296"/>
-      <c r="O649" s="297"/>
-      <c r="P649" s="296"/>
-      <c r="Q649" s="296"/>
-      <c r="R649" s="297"/>
+      <c r="B649" s="293"/>
+      <c r="C649" s="294"/>
+      <c r="D649" s="295"/>
+      <c r="E649" s="294"/>
+      <c r="F649" s="295"/>
+      <c r="G649" s="294"/>
+      <c r="H649" s="294"/>
+      <c r="I649" s="294"/>
+      <c r="J649" s="295"/>
+      <c r="K649" s="293"/>
+      <c r="L649" s="294"/>
+      <c r="M649" s="295"/>
+      <c r="N649" s="294"/>
+      <c r="O649" s="295"/>
+      <c r="P649" s="294"/>
+      <c r="Q649" s="294"/>
+      <c r="R649" s="295"/>
     </row>
     <row r="663" spans="1:17" ht="16" thickBot="1"/>
     <row r="664" spans="1:17" ht="24" thickBot="1">
@@ -13392,64 +13290,64 @@
       <c r="A669" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B669" s="294"/>
-      <c r="C669" s="287"/>
-      <c r="D669" s="288"/>
-      <c r="E669" s="287"/>
-      <c r="F669" s="288"/>
-      <c r="G669" s="287"/>
-      <c r="H669" s="287"/>
-      <c r="I669" s="287"/>
-      <c r="J669" s="288"/>
-      <c r="K669" s="294"/>
-      <c r="L669" s="287"/>
-      <c r="M669" s="287"/>
-      <c r="N669" s="288"/>
-      <c r="O669" s="287"/>
-      <c r="P669" s="287"/>
-      <c r="Q669" s="288"/>
+      <c r="B669" s="292"/>
+      <c r="C669" s="285"/>
+      <c r="D669" s="286"/>
+      <c r="E669" s="285"/>
+      <c r="F669" s="286"/>
+      <c r="G669" s="285"/>
+      <c r="H669" s="285"/>
+      <c r="I669" s="285"/>
+      <c r="J669" s="286"/>
+      <c r="K669" s="292"/>
+      <c r="L669" s="285"/>
+      <c r="M669" s="285"/>
+      <c r="N669" s="286"/>
+      <c r="O669" s="285"/>
+      <c r="P669" s="285"/>
+      <c r="Q669" s="286"/>
     </row>
     <row r="670" spans="1:17">
       <c r="A670" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B670" s="294"/>
-      <c r="C670" s="287"/>
-      <c r="D670" s="288"/>
-      <c r="E670" s="287"/>
-      <c r="F670" s="288"/>
-      <c r="G670" s="287"/>
-      <c r="H670" s="287"/>
-      <c r="I670" s="287"/>
-      <c r="J670" s="288"/>
-      <c r="K670" s="294"/>
-      <c r="L670" s="287"/>
-      <c r="M670" s="287"/>
-      <c r="N670" s="288"/>
-      <c r="O670" s="287"/>
-      <c r="P670" s="287"/>
-      <c r="Q670" s="288"/>
+      <c r="B670" s="292"/>
+      <c r="C670" s="285"/>
+      <c r="D670" s="286"/>
+      <c r="E670" s="285"/>
+      <c r="F670" s="286"/>
+      <c r="G670" s="285"/>
+      <c r="H670" s="285"/>
+      <c r="I670" s="285"/>
+      <c r="J670" s="286"/>
+      <c r="K670" s="292"/>
+      <c r="L670" s="285"/>
+      <c r="M670" s="285"/>
+      <c r="N670" s="286"/>
+      <c r="O670" s="285"/>
+      <c r="P670" s="285"/>
+      <c r="Q670" s="286"/>
     </row>
     <row r="671" spans="1:17">
       <c r="A671" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B671" s="294"/>
-      <c r="C671" s="287"/>
-      <c r="D671" s="288"/>
-      <c r="E671" s="287"/>
-      <c r="F671" s="288"/>
-      <c r="G671" s="287"/>
-      <c r="H671" s="287"/>
-      <c r="I671" s="287"/>
-      <c r="J671" s="288"/>
-      <c r="K671" s="294"/>
-      <c r="L671" s="287"/>
-      <c r="M671" s="287"/>
-      <c r="N671" s="288"/>
-      <c r="O671" s="287"/>
-      <c r="P671" s="287"/>
-      <c r="Q671" s="288"/>
+      <c r="B671" s="292"/>
+      <c r="C671" s="285"/>
+      <c r="D671" s="286"/>
+      <c r="E671" s="285"/>
+      <c r="F671" s="286"/>
+      <c r="G671" s="285"/>
+      <c r="H671" s="285"/>
+      <c r="I671" s="285"/>
+      <c r="J671" s="286"/>
+      <c r="K671" s="292"/>
+      <c r="L671" s="285"/>
+      <c r="M671" s="285"/>
+      <c r="N671" s="286"/>
+      <c r="O671" s="285"/>
+      <c r="P671" s="285"/>
+      <c r="Q671" s="286"/>
     </row>
     <row r="672" spans="1:17">
       <c r="A672" s="9" t="s">
@@ -13476,64 +13374,64 @@
       <c r="A673" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B673" s="294"/>
-      <c r="C673" s="287"/>
-      <c r="D673" s="288"/>
-      <c r="E673" s="287"/>
-      <c r="F673" s="288"/>
-      <c r="G673" s="287"/>
-      <c r="H673" s="287"/>
-      <c r="I673" s="287"/>
-      <c r="J673" s="288"/>
-      <c r="K673" s="294"/>
-      <c r="L673" s="287"/>
-      <c r="M673" s="287"/>
-      <c r="N673" s="288"/>
-      <c r="O673" s="287"/>
-      <c r="P673" s="287"/>
-      <c r="Q673" s="288"/>
+      <c r="B673" s="292"/>
+      <c r="C673" s="285"/>
+      <c r="D673" s="286"/>
+      <c r="E673" s="285"/>
+      <c r="F673" s="286"/>
+      <c r="G673" s="285"/>
+      <c r="H673" s="285"/>
+      <c r="I673" s="285"/>
+      <c r="J673" s="286"/>
+      <c r="K673" s="292"/>
+      <c r="L673" s="285"/>
+      <c r="M673" s="285"/>
+      <c r="N673" s="286"/>
+      <c r="O673" s="285"/>
+      <c r="P673" s="285"/>
+      <c r="Q673" s="286"/>
     </row>
     <row r="674" spans="1:17">
       <c r="A674" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B674" s="294"/>
-      <c r="C674" s="287"/>
-      <c r="D674" s="288"/>
-      <c r="E674" s="287"/>
-      <c r="F674" s="288"/>
-      <c r="G674" s="287"/>
-      <c r="H674" s="287"/>
-      <c r="I674" s="287"/>
-      <c r="J674" s="288"/>
-      <c r="K674" s="294"/>
-      <c r="L674" s="287"/>
-      <c r="M674" s="287"/>
-      <c r="N674" s="288"/>
-      <c r="O674" s="287"/>
-      <c r="P674" s="287"/>
-      <c r="Q674" s="288"/>
+      <c r="B674" s="292"/>
+      <c r="C674" s="285"/>
+      <c r="D674" s="286"/>
+      <c r="E674" s="285"/>
+      <c r="F674" s="286"/>
+      <c r="G674" s="285"/>
+      <c r="H674" s="285"/>
+      <c r="I674" s="285"/>
+      <c r="J674" s="286"/>
+      <c r="K674" s="292"/>
+      <c r="L674" s="285"/>
+      <c r="M674" s="285"/>
+      <c r="N674" s="286"/>
+      <c r="O674" s="285"/>
+      <c r="P674" s="285"/>
+      <c r="Q674" s="286"/>
     </row>
     <row r="675" spans="1:17">
       <c r="A675" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B675" s="294"/>
-      <c r="C675" s="287"/>
-      <c r="D675" s="288"/>
-      <c r="E675" s="287"/>
-      <c r="F675" s="288"/>
-      <c r="G675" s="287"/>
-      <c r="H675" s="287"/>
-      <c r="I675" s="287"/>
-      <c r="J675" s="288"/>
-      <c r="K675" s="294"/>
-      <c r="L675" s="287"/>
-      <c r="M675" s="287"/>
-      <c r="N675" s="288"/>
-      <c r="O675" s="287"/>
-      <c r="P675" s="287"/>
-      <c r="Q675" s="288"/>
+      <c r="B675" s="292"/>
+      <c r="C675" s="285"/>
+      <c r="D675" s="286"/>
+      <c r="E675" s="285"/>
+      <c r="F675" s="286"/>
+      <c r="G675" s="285"/>
+      <c r="H675" s="285"/>
+      <c r="I675" s="285"/>
+      <c r="J675" s="286"/>
+      <c r="K675" s="292"/>
+      <c r="L675" s="285"/>
+      <c r="M675" s="285"/>
+      <c r="N675" s="286"/>
+      <c r="O675" s="285"/>
+      <c r="P675" s="285"/>
+      <c r="Q675" s="286"/>
     </row>
     <row r="676" spans="1:17">
       <c r="A676" s="9" t="s">
@@ -13560,64 +13458,64 @@
       <c r="A677" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B677" s="294"/>
-      <c r="C677" s="287"/>
-      <c r="D677" s="288"/>
-      <c r="E677" s="287"/>
-      <c r="F677" s="288"/>
-      <c r="G677" s="287"/>
-      <c r="H677" s="287"/>
-      <c r="I677" s="287"/>
-      <c r="J677" s="288"/>
-      <c r="K677" s="294"/>
-      <c r="L677" s="287"/>
-      <c r="M677" s="287"/>
-      <c r="N677" s="288"/>
-      <c r="O677" s="287"/>
-      <c r="P677" s="287"/>
-      <c r="Q677" s="288"/>
+      <c r="B677" s="292"/>
+      <c r="C677" s="285"/>
+      <c r="D677" s="286"/>
+      <c r="E677" s="285"/>
+      <c r="F677" s="286"/>
+      <c r="G677" s="285"/>
+      <c r="H677" s="285"/>
+      <c r="I677" s="285"/>
+      <c r="J677" s="286"/>
+      <c r="K677" s="292"/>
+      <c r="L677" s="285"/>
+      <c r="M677" s="285"/>
+      <c r="N677" s="286"/>
+      <c r="O677" s="285"/>
+      <c r="P677" s="285"/>
+      <c r="Q677" s="286"/>
     </row>
     <row r="678" spans="1:17">
       <c r="A678" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B678" s="294"/>
-      <c r="C678" s="287"/>
-      <c r="D678" s="288"/>
-      <c r="E678" s="287"/>
-      <c r="F678" s="288"/>
-      <c r="G678" s="287"/>
-      <c r="H678" s="287"/>
-      <c r="I678" s="287"/>
-      <c r="J678" s="288"/>
-      <c r="K678" s="294"/>
-      <c r="L678" s="287"/>
-      <c r="M678" s="287"/>
-      <c r="N678" s="288"/>
-      <c r="O678" s="287"/>
-      <c r="P678" s="287"/>
-      <c r="Q678" s="288"/>
+      <c r="B678" s="292"/>
+      <c r="C678" s="285"/>
+      <c r="D678" s="286"/>
+      <c r="E678" s="285"/>
+      <c r="F678" s="286"/>
+      <c r="G678" s="285"/>
+      <c r="H678" s="285"/>
+      <c r="I678" s="285"/>
+      <c r="J678" s="286"/>
+      <c r="K678" s="292"/>
+      <c r="L678" s="285"/>
+      <c r="M678" s="285"/>
+      <c r="N678" s="286"/>
+      <c r="O678" s="285"/>
+      <c r="P678" s="285"/>
+      <c r="Q678" s="286"/>
     </row>
     <row r="679" spans="1:17">
       <c r="A679" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B679" s="294"/>
-      <c r="C679" s="287"/>
-      <c r="D679" s="288"/>
-      <c r="E679" s="287"/>
-      <c r="F679" s="288"/>
-      <c r="G679" s="287"/>
-      <c r="H679" s="287"/>
-      <c r="I679" s="287"/>
-      <c r="J679" s="288"/>
-      <c r="K679" s="294"/>
-      <c r="L679" s="287"/>
-      <c r="M679" s="287"/>
-      <c r="N679" s="288"/>
-      <c r="O679" s="287"/>
-      <c r="P679" s="287"/>
-      <c r="Q679" s="288"/>
+      <c r="B679" s="292"/>
+      <c r="C679" s="285"/>
+      <c r="D679" s="286"/>
+      <c r="E679" s="285"/>
+      <c r="F679" s="286"/>
+      <c r="G679" s="285"/>
+      <c r="H679" s="285"/>
+      <c r="I679" s="285"/>
+      <c r="J679" s="286"/>
+      <c r="K679" s="292"/>
+      <c r="L679" s="285"/>
+      <c r="M679" s="285"/>
+      <c r="N679" s="286"/>
+      <c r="O679" s="285"/>
+      <c r="P679" s="285"/>
+      <c r="Q679" s="286"/>
     </row>
     <row r="680" spans="1:17">
       <c r="A680" s="59" t="s">
@@ -13644,43 +13542,43 @@
       <c r="A681" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B681" s="294"/>
-      <c r="C681" s="287"/>
-      <c r="D681" s="288"/>
-      <c r="E681" s="287"/>
-      <c r="F681" s="288"/>
-      <c r="G681" s="287"/>
-      <c r="H681" s="287"/>
-      <c r="I681" s="287"/>
-      <c r="J681" s="288"/>
-      <c r="K681" s="294"/>
-      <c r="L681" s="287"/>
-      <c r="M681" s="287"/>
-      <c r="N681" s="288"/>
-      <c r="O681" s="287"/>
-      <c r="P681" s="287"/>
-      <c r="Q681" s="288"/>
+      <c r="B681" s="292"/>
+      <c r="C681" s="285"/>
+      <c r="D681" s="286"/>
+      <c r="E681" s="285"/>
+      <c r="F681" s="286"/>
+      <c r="G681" s="285"/>
+      <c r="H681" s="285"/>
+      <c r="I681" s="285"/>
+      <c r="J681" s="286"/>
+      <c r="K681" s="292"/>
+      <c r="L681" s="285"/>
+      <c r="M681" s="285"/>
+      <c r="N681" s="286"/>
+      <c r="O681" s="285"/>
+      <c r="P681" s="285"/>
+      <c r="Q681" s="286"/>
     </row>
     <row r="682" spans="1:17">
       <c r="A682" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B682" s="294"/>
-      <c r="C682" s="287"/>
-      <c r="D682" s="288"/>
-      <c r="E682" s="287"/>
-      <c r="F682" s="288"/>
-      <c r="G682" s="287"/>
-      <c r="H682" s="287"/>
-      <c r="I682" s="287"/>
-      <c r="J682" s="288"/>
-      <c r="K682" s="294"/>
-      <c r="L682" s="287"/>
-      <c r="M682" s="287"/>
-      <c r="N682" s="288"/>
-      <c r="O682" s="287"/>
-      <c r="P682" s="287"/>
-      <c r="Q682" s="288"/>
+      <c r="B682" s="292"/>
+      <c r="C682" s="285"/>
+      <c r="D682" s="286"/>
+      <c r="E682" s="285"/>
+      <c r="F682" s="286"/>
+      <c r="G682" s="285"/>
+      <c r="H682" s="285"/>
+      <c r="I682" s="285"/>
+      <c r="J682" s="286"/>
+      <c r="K682" s="292"/>
+      <c r="L682" s="285"/>
+      <c r="M682" s="285"/>
+      <c r="N682" s="286"/>
+      <c r="O682" s="285"/>
+      <c r="P682" s="285"/>
+      <c r="Q682" s="286"/>
     </row>
     <row r="683" spans="1:17">
       <c r="A683" s="9" t="s">
@@ -13728,22 +13626,22 @@
       <c r="A685" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B685" s="294"/>
-      <c r="C685" s="287"/>
-      <c r="D685" s="288"/>
-      <c r="E685" s="287"/>
-      <c r="F685" s="288"/>
-      <c r="G685" s="287"/>
-      <c r="H685" s="287"/>
-      <c r="I685" s="287"/>
-      <c r="J685" s="288"/>
-      <c r="K685" s="294"/>
-      <c r="L685" s="287"/>
-      <c r="M685" s="287"/>
-      <c r="N685" s="288"/>
-      <c r="O685" s="287"/>
-      <c r="P685" s="287"/>
-      <c r="Q685" s="288"/>
+      <c r="B685" s="292"/>
+      <c r="C685" s="285"/>
+      <c r="D685" s="286"/>
+      <c r="E685" s="285"/>
+      <c r="F685" s="286"/>
+      <c r="G685" s="285"/>
+      <c r="H685" s="285"/>
+      <c r="I685" s="285"/>
+      <c r="J685" s="286"/>
+      <c r="K685" s="292"/>
+      <c r="L685" s="285"/>
+      <c r="M685" s="285"/>
+      <c r="N685" s="286"/>
+      <c r="O685" s="285"/>
+      <c r="P685" s="285"/>
+      <c r="Q685" s="286"/>
     </row>
     <row r="686" spans="1:17">
       <c r="A686" s="9" t="s">
@@ -13791,22 +13689,22 @@
       <c r="A688" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B688" s="294"/>
-      <c r="C688" s="287"/>
-      <c r="D688" s="288"/>
-      <c r="E688" s="287"/>
-      <c r="F688" s="288"/>
-      <c r="G688" s="287"/>
-      <c r="H688" s="287"/>
-      <c r="I688" s="287"/>
-      <c r="J688" s="288"/>
-      <c r="K688" s="294"/>
-      <c r="L688" s="287"/>
-      <c r="M688" s="287"/>
-      <c r="N688" s="288"/>
-      <c r="O688" s="287"/>
-      <c r="P688" s="287"/>
-      <c r="Q688" s="288"/>
+      <c r="B688" s="292"/>
+      <c r="C688" s="285"/>
+      <c r="D688" s="286"/>
+      <c r="E688" s="285"/>
+      <c r="F688" s="286"/>
+      <c r="G688" s="285"/>
+      <c r="H688" s="285"/>
+      <c r="I688" s="285"/>
+      <c r="J688" s="286"/>
+      <c r="K688" s="292"/>
+      <c r="L688" s="285"/>
+      <c r="M688" s="285"/>
+      <c r="N688" s="286"/>
+      <c r="O688" s="285"/>
+      <c r="P688" s="285"/>
+      <c r="Q688" s="286"/>
     </row>
     <row r="689" spans="1:17">
       <c r="A689" s="9" t="s">
@@ -13833,43 +13731,43 @@
       <c r="A690" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B690" s="294"/>
-      <c r="C690" s="287"/>
-      <c r="D690" s="288"/>
-      <c r="E690" s="287"/>
-      <c r="F690" s="288"/>
-      <c r="G690" s="287"/>
-      <c r="H690" s="287"/>
-      <c r="I690" s="287"/>
-      <c r="J690" s="288"/>
-      <c r="K690" s="294"/>
-      <c r="L690" s="287"/>
-      <c r="M690" s="287"/>
-      <c r="N690" s="288"/>
-      <c r="O690" s="287"/>
-      <c r="P690" s="287"/>
-      <c r="Q690" s="288"/>
+      <c r="B690" s="292"/>
+      <c r="C690" s="285"/>
+      <c r="D690" s="286"/>
+      <c r="E690" s="285"/>
+      <c r="F690" s="286"/>
+      <c r="G690" s="285"/>
+      <c r="H690" s="285"/>
+      <c r="I690" s="285"/>
+      <c r="J690" s="286"/>
+      <c r="K690" s="292"/>
+      <c r="L690" s="285"/>
+      <c r="M690" s="285"/>
+      <c r="N690" s="286"/>
+      <c r="O690" s="285"/>
+      <c r="P690" s="285"/>
+      <c r="Q690" s="286"/>
     </row>
     <row r="691" spans="1:17">
       <c r="A691" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B691" s="294"/>
-      <c r="C691" s="287"/>
-      <c r="D691" s="288"/>
-      <c r="E691" s="287"/>
-      <c r="F691" s="288"/>
-      <c r="G691" s="287"/>
-      <c r="H691" s="287"/>
-      <c r="I691" s="287"/>
-      <c r="J691" s="288"/>
-      <c r="K691" s="294"/>
-      <c r="L691" s="287"/>
-      <c r="M691" s="287"/>
-      <c r="N691" s="288"/>
-      <c r="O691" s="287"/>
-      <c r="P691" s="287"/>
-      <c r="Q691" s="288"/>
+      <c r="B691" s="292"/>
+      <c r="C691" s="285"/>
+      <c r="D691" s="286"/>
+      <c r="E691" s="285"/>
+      <c r="F691" s="286"/>
+      <c r="G691" s="285"/>
+      <c r="H691" s="285"/>
+      <c r="I691" s="285"/>
+      <c r="J691" s="286"/>
+      <c r="K691" s="292"/>
+      <c r="L691" s="285"/>
+      <c r="M691" s="285"/>
+      <c r="N691" s="286"/>
+      <c r="O691" s="285"/>
+      <c r="P691" s="285"/>
+      <c r="Q691" s="286"/>
     </row>
     <row r="692" spans="1:17">
       <c r="A692" s="9" t="s">
@@ -13896,43 +13794,43 @@
       <c r="A693" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B693" s="294"/>
-      <c r="C693" s="287"/>
-      <c r="D693" s="288"/>
-      <c r="E693" s="287"/>
-      <c r="F693" s="288"/>
-      <c r="G693" s="287"/>
-      <c r="H693" s="287"/>
-      <c r="I693" s="287"/>
-      <c r="J693" s="288"/>
-      <c r="K693" s="294"/>
-      <c r="L693" s="287"/>
-      <c r="M693" s="287"/>
-      <c r="N693" s="288"/>
-      <c r="O693" s="287"/>
-      <c r="P693" s="287"/>
-      <c r="Q693" s="288"/>
+      <c r="B693" s="292"/>
+      <c r="C693" s="285"/>
+      <c r="D693" s="286"/>
+      <c r="E693" s="285"/>
+      <c r="F693" s="286"/>
+      <c r="G693" s="285"/>
+      <c r="H693" s="285"/>
+      <c r="I693" s="285"/>
+      <c r="J693" s="286"/>
+      <c r="K693" s="292"/>
+      <c r="L693" s="285"/>
+      <c r="M693" s="285"/>
+      <c r="N693" s="286"/>
+      <c r="O693" s="285"/>
+      <c r="P693" s="285"/>
+      <c r="Q693" s="286"/>
     </row>
     <row r="694" spans="1:17">
       <c r="A694" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B694" s="294"/>
-      <c r="C694" s="287"/>
-      <c r="D694" s="288"/>
-      <c r="E694" s="287"/>
-      <c r="F694" s="288"/>
-      <c r="G694" s="287"/>
-      <c r="H694" s="287"/>
-      <c r="I694" s="287"/>
-      <c r="J694" s="288"/>
-      <c r="K694" s="294"/>
-      <c r="L694" s="287"/>
-      <c r="M694" s="287"/>
-      <c r="N694" s="288"/>
-      <c r="O694" s="287"/>
-      <c r="P694" s="287"/>
-      <c r="Q694" s="288"/>
+      <c r="B694" s="292"/>
+      <c r="C694" s="285"/>
+      <c r="D694" s="286"/>
+      <c r="E694" s="285"/>
+      <c r="F694" s="286"/>
+      <c r="G694" s="285"/>
+      <c r="H694" s="285"/>
+      <c r="I694" s="285"/>
+      <c r="J694" s="286"/>
+      <c r="K694" s="292"/>
+      <c r="L694" s="285"/>
+      <c r="M694" s="285"/>
+      <c r="N694" s="286"/>
+      <c r="O694" s="285"/>
+      <c r="P694" s="285"/>
+      <c r="Q694" s="286"/>
     </row>
     <row r="695" spans="1:17">
       <c r="A695" s="9" t="s">
@@ -13959,43 +13857,43 @@
       <c r="A696" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B696" s="294"/>
-      <c r="C696" s="287"/>
-      <c r="D696" s="288"/>
-      <c r="E696" s="287"/>
-      <c r="F696" s="288"/>
-      <c r="G696" s="287"/>
-      <c r="H696" s="287"/>
-      <c r="I696" s="287"/>
-      <c r="J696" s="288"/>
-      <c r="K696" s="294"/>
-      <c r="L696" s="287"/>
-      <c r="M696" s="287"/>
-      <c r="N696" s="288"/>
-      <c r="O696" s="287"/>
-      <c r="P696" s="287"/>
-      <c r="Q696" s="288"/>
+      <c r="B696" s="292"/>
+      <c r="C696" s="285"/>
+      <c r="D696" s="286"/>
+      <c r="E696" s="285"/>
+      <c r="F696" s="286"/>
+      <c r="G696" s="285"/>
+      <c r="H696" s="285"/>
+      <c r="I696" s="285"/>
+      <c r="J696" s="286"/>
+      <c r="K696" s="292"/>
+      <c r="L696" s="285"/>
+      <c r="M696" s="285"/>
+      <c r="N696" s="286"/>
+      <c r="O696" s="285"/>
+      <c r="P696" s="285"/>
+      <c r="Q696" s="286"/>
     </row>
     <row r="697" spans="1:17">
       <c r="A697" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B697" s="294"/>
-      <c r="C697" s="287"/>
-      <c r="D697" s="288"/>
-      <c r="E697" s="287"/>
-      <c r="F697" s="288"/>
-      <c r="G697" s="287"/>
-      <c r="H697" s="287"/>
-      <c r="I697" s="287"/>
-      <c r="J697" s="288"/>
-      <c r="K697" s="294"/>
-      <c r="L697" s="287"/>
-      <c r="M697" s="287"/>
-      <c r="N697" s="288"/>
-      <c r="O697" s="287"/>
-      <c r="P697" s="287"/>
-      <c r="Q697" s="288"/>
+      <c r="B697" s="292"/>
+      <c r="C697" s="285"/>
+      <c r="D697" s="286"/>
+      <c r="E697" s="285"/>
+      <c r="F697" s="286"/>
+      <c r="G697" s="285"/>
+      <c r="H697" s="285"/>
+      <c r="I697" s="285"/>
+      <c r="J697" s="286"/>
+      <c r="K697" s="292"/>
+      <c r="L697" s="285"/>
+      <c r="M697" s="285"/>
+      <c r="N697" s="286"/>
+      <c r="O697" s="285"/>
+      <c r="P697" s="285"/>
+      <c r="Q697" s="286"/>
     </row>
     <row r="698" spans="1:17">
       <c r="A698" s="9" t="s">
@@ -14022,43 +13920,43 @@
       <c r="A699" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B699" s="294"/>
-      <c r="C699" s="287"/>
-      <c r="D699" s="288"/>
-      <c r="E699" s="287"/>
-      <c r="F699" s="288"/>
-      <c r="G699" s="287"/>
-      <c r="H699" s="287"/>
-      <c r="I699" s="287"/>
-      <c r="J699" s="288"/>
-      <c r="K699" s="294"/>
-      <c r="L699" s="287"/>
-      <c r="M699" s="287"/>
-      <c r="N699" s="288"/>
-      <c r="O699" s="287"/>
-      <c r="P699" s="287"/>
-      <c r="Q699" s="288"/>
+      <c r="B699" s="292"/>
+      <c r="C699" s="285"/>
+      <c r="D699" s="286"/>
+      <c r="E699" s="285"/>
+      <c r="F699" s="286"/>
+      <c r="G699" s="285"/>
+      <c r="H699" s="285"/>
+      <c r="I699" s="285"/>
+      <c r="J699" s="286"/>
+      <c r="K699" s="292"/>
+      <c r="L699" s="285"/>
+      <c r="M699" s="285"/>
+      <c r="N699" s="286"/>
+      <c r="O699" s="285"/>
+      <c r="P699" s="285"/>
+      <c r="Q699" s="286"/>
     </row>
     <row r="700" spans="1:17" ht="16" thickBot="1">
       <c r="A700" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B700" s="295"/>
-      <c r="C700" s="296"/>
-      <c r="D700" s="297"/>
-      <c r="E700" s="296"/>
-      <c r="F700" s="297"/>
-      <c r="G700" s="296"/>
-      <c r="H700" s="296"/>
-      <c r="I700" s="296"/>
-      <c r="J700" s="297"/>
-      <c r="K700" s="295"/>
-      <c r="L700" s="296"/>
-      <c r="M700" s="296"/>
-      <c r="N700" s="297"/>
-      <c r="O700" s="296"/>
-      <c r="P700" s="296"/>
-      <c r="Q700" s="297"/>
+      <c r="B700" s="293"/>
+      <c r="C700" s="294"/>
+      <c r="D700" s="295"/>
+      <c r="E700" s="294"/>
+      <c r="F700" s="295"/>
+      <c r="G700" s="294"/>
+      <c r="H700" s="294"/>
+      <c r="I700" s="294"/>
+      <c r="J700" s="295"/>
+      <c r="K700" s="293"/>
+      <c r="L700" s="294"/>
+      <c r="M700" s="294"/>
+      <c r="N700" s="295"/>
+      <c r="O700" s="294"/>
+      <c r="P700" s="294"/>
+      <c r="Q700" s="295"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -14087,266 +13985,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" thickBot="1">
-      <c r="A1" s="261" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="262">
+      <c r="A1" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="260">
         <v>1</v>
       </c>
-      <c r="C1" s="263"/>
-      <c r="D1" s="262">
+      <c r="C1" s="261"/>
+      <c r="D1" s="260">
         <v>2</v>
       </c>
-      <c r="E1" s="264"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="262">
+      <c r="E1" s="262"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="260">
         <v>3</v>
       </c>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="262">
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="260">
         <v>4</v>
       </c>
-      <c r="L1" s="264"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="264">
+      <c r="L1" s="262"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="262">
         <v>5</v>
       </c>
-      <c r="O1" s="263"/>
+      <c r="O1" s="261"/>
     </row>
     <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="265" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="266">
+      <c r="A2" s="263" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="264">
         <v>1</v>
       </c>
-      <c r="C2" s="267">
+      <c r="C2" s="265">
         <v>2</v>
       </c>
-      <c r="D2" s="266">
+      <c r="D2" s="264">
         <v>1</v>
       </c>
-      <c r="E2" s="268">
+      <c r="E2" s="266">
         <v>2</v>
       </c>
-      <c r="F2" s="267">
+      <c r="F2" s="265">
         <v>3</v>
       </c>
-      <c r="G2" s="266">
+      <c r="G2" s="264">
         <v>1</v>
       </c>
-      <c r="H2" s="268">
+      <c r="H2" s="266">
         <v>2</v>
       </c>
-      <c r="I2" s="268">
+      <c r="I2" s="266">
         <v>3</v>
       </c>
-      <c r="J2" s="267">
+      <c r="J2" s="265">
         <v>4</v>
       </c>
-      <c r="K2" s="266">
+      <c r="K2" s="264">
         <v>1</v>
       </c>
-      <c r="L2" s="268">
+      <c r="L2" s="266">
         <v>2</v>
       </c>
-      <c r="M2" s="267">
+      <c r="M2" s="265">
         <v>3</v>
       </c>
-      <c r="N2" s="268">
+      <c r="N2" s="266">
         <v>1</v>
       </c>
-      <c r="O2" s="267">
+      <c r="O2" s="265">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="19" thickBot="1">
-      <c r="A3" s="269" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="270">
+      <c r="A3" s="267" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="268">
         <v>54</v>
       </c>
-      <c r="C3" s="271">
+      <c r="C3" s="269">
         <v>81</v>
       </c>
-      <c r="D3" s="270">
+      <c r="D3" s="268">
         <v>68</v>
       </c>
-      <c r="E3" s="272">
+      <c r="E3" s="270">
         <v>54</v>
       </c>
-      <c r="F3" s="271">
+      <c r="F3" s="269">
         <v>81</v>
       </c>
-      <c r="G3" s="270">
+      <c r="G3" s="268">
         <v>68</v>
       </c>
-      <c r="H3" s="272">
+      <c r="H3" s="270">
         <v>47</v>
       </c>
-      <c r="I3" s="272">
+      <c r="I3" s="270">
         <v>81</v>
       </c>
-      <c r="J3" s="271">
+      <c r="J3" s="269">
         <v>72</v>
       </c>
-      <c r="K3" s="270">
+      <c r="K3" s="268">
         <v>54</v>
       </c>
-      <c r="L3" s="272">
+      <c r="L3" s="270">
         <v>68</v>
       </c>
-      <c r="M3" s="271">
+      <c r="M3" s="269">
         <v>81</v>
       </c>
-      <c r="N3" s="272">
+      <c r="N3" s="270">
         <v>68</v>
       </c>
-      <c r="O3" s="271">
+      <c r="O3" s="269">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
-      <c r="A4" s="260" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="259"/>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="258"/>
+      <c r="A4" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="256"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="316" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="276"/>
-      <c r="C5" s="274"/>
-      <c r="D5" s="251" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="247" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="251" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="247" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="274"/>
-      <c r="K5" s="251" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="252" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="274"/>
+      <c r="A5" s="314" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="274"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="272"/>
+      <c r="K5" s="249" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="272"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="249" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="276"/>
-      <c r="C6" s="274"/>
-      <c r="D6" s="251" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="247" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="252" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="251" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="247" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="247" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="274"/>
-      <c r="K6" s="251" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="247" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="252" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="274"/>
+      <c r="A6" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="274"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="272"/>
+      <c r="K6" s="249" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="272"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
-      <c r="A7" s="249" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="277"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="315" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="244" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="243" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="242" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="242" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="245"/>
-      <c r="K7" s="243" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="242" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="244" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="248" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="245"/>
+      <c r="A7" s="247" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="275"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="313" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="240" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="242" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="241" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="240" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="243"/>
+      <c r="K7" s="241" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="240" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="246" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="243"/>
     </row>
     <row r="8" spans="1:15" ht="16" thickBot="1">
-      <c r="A8" s="317" t="s">
+      <c r="A8" s="315" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="47"/>
@@ -14365,343 +14263,343 @@
       <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="249" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="276"/>
-      <c r="C9" s="274"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="251" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="247" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="247" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="252" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="251" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="276"/>
-      <c r="O9" s="274"/>
+      <c r="A9" s="247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="274"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="249" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="274"/>
+      <c r="O9" s="272"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="249" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="251" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="247" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="247" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="252" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="252" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="276"/>
-      <c r="O10" s="274"/>
+      <c r="A10" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="274"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="274"/>
+      <c r="O10" s="272"/>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
-      <c r="A11" s="249" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="276"/>
-      <c r="C11" s="274"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="275"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="247" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="251" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="252" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="276"/>
-      <c r="O11" s="274"/>
+      <c r="A11" s="247" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="274"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="249" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="274"/>
+      <c r="O11" s="272"/>
     </row>
     <row r="12" spans="1:15" ht="16" thickBot="1">
-      <c r="A12" s="318" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="254"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="254"/>
-      <c r="O12" s="255"/>
+      <c r="A12" s="316" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="252"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="252"/>
+      <c r="O12" s="253"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="249" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="252" t="s">
-        <v>78</v>
+      <c r="A13" s="247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="250" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="249" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="252" t="s">
-        <v>78</v>
+      <c r="A14" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="250" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="A15" s="249" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="248"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="243"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="244"/>
-      <c r="N15" s="248"/>
-      <c r="O15" s="244"/>
+      <c r="A15" s="247" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="246"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="242"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="242"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="A16" s="319" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="256"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="257"/>
+      <c r="A16" s="317" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="255"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="316" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="320"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="322"/>
-      <c r="E17" s="323"/>
-      <c r="F17" s="324" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="325" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="326" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="326" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="324" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="325" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="326" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="324" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" s="320"/>
-      <c r="O17" s="321"/>
+      <c r="A17" s="314" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="318"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="322" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="323" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="324" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="324" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="322" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="323" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="324" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="322" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="318"/>
+      <c r="O17" s="319"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="249" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="276"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="273"/>
-      <c r="E18" s="275"/>
-      <c r="F18" s="252" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="251" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="247" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="247" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="252" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="276"/>
-      <c r="O18" s="274"/>
+      <c r="A18" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="274"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="274"/>
+      <c r="O18" s="272"/>
     </row>
     <row r="19" spans="1:15" ht="16" thickBot="1">
-      <c r="A19" s="250" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="327"/>
-      <c r="C19" s="328"/>
-      <c r="D19" s="329"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="331"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="331"/>
-      <c r="K19" s="332"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="331"/>
-      <c r="N19" s="327"/>
-      <c r="O19" s="328"/>
+      <c r="A19" s="248" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="325"/>
+      <c r="C19" s="326"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="331"/>
+      <c r="I19" s="331"/>
+      <c r="J19" s="329"/>
+      <c r="K19" s="330"/>
+      <c r="L19" s="331"/>
+      <c r="M19" s="329"/>
+      <c r="N19" s="325"/>
+      <c r="O19" s="326"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23640" yWindow="5560" windowWidth="18060" windowHeight="13160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rhythm Map" sheetId="1" r:id="rId1"/>
     <sheet name="Section Map" sheetId="2" r:id="rId2"/>
+    <sheet name="RatioMakerMatrix Winds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="99">
   <si>
     <t>Stage 1-1</t>
   </si>
@@ -188,6 +189,135 @@
   </si>
   <si>
     <t>Pressure µ</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Prolation</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>Multiplier Cycle</t>
+  </si>
+  <si>
+    <t>Difference Cycle</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Rotation Cycle</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Subdivision</t>
+  </si>
+  <si>
+    <t>-1, 0, 1</t>
+  </si>
+  <si>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>0, 1, -1</t>
+  </si>
+  <si>
+    <t>1, 2, 0</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>1, -1, 0</t>
+  </si>
+  <si>
+    <t>2, 0, 1</t>
+  </si>
+  <si>
+    <t>2, 0 ,1</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>4c</t>
   </si>
 </sst>
 </file>
@@ -392,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -818,8 +948,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,8 +1249,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1635,8 +1927,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1734,6 +2165,35 @@
     <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1831,6 +2291,35 @@
     <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2162,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U700"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView view="pageLayout" topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13974,8 +14463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14385,10 +14874,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="249" t="s">
         <v>51</v>
@@ -14412,13 +14901,13 @@
         <v>51</v>
       </c>
       <c r="K13" s="249" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" s="245" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="250" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N13" s="251" t="s">
         <v>51</v>
@@ -14432,19 +14921,19 @@
         <v>53</v>
       </c>
       <c r="B14" s="251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="245" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="249" t="s">
         <v>51</v>
@@ -14468,10 +14957,10 @@
         <v>51</v>
       </c>
       <c r="N14" s="251" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O14" s="250" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
@@ -14610,4 +15099,2187 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="332"/>
+    <col min="2" max="2" width="11" style="357" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="333" customWidth="1"/>
+    <col min="5" max="12" width="10.83203125" style="333"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23">
+      <c r="A1" s="360"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="345" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="346"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="345" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="346"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="336"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" thickBot="1">
+      <c r="A2" s="361"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="355" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="351" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="354" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="355" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="351" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="354" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="355" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="351" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="340" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="384"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="385"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="385"/>
+      <c r="L3" s="386"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="341"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="341"/>
+      <c r="B5" s="368"/>
+      <c r="C5" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="202"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="352"/>
+      <c r="B6" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="387"/>
+      <c r="E6" s="388"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="387"/>
+      <c r="H6" s="388"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="387"/>
+      <c r="K6" s="388"/>
+      <c r="L6" s="389"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" thickBot="1">
+      <c r="A7" s="353"/>
+      <c r="B7" s="366"/>
+      <c r="C7" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="228"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="340" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="201"/>
+      <c r="E8" s="385"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="385"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="384"/>
+      <c r="K8" s="385"/>
+      <c r="L8" s="386"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="341"/>
+      <c r="B9" s="368"/>
+      <c r="C9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="341"/>
+      <c r="B10" s="369"/>
+      <c r="C10" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="390"/>
+      <c r="E10" s="390"/>
+      <c r="F10" s="391"/>
+      <c r="G10" s="392"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="392"/>
+      <c r="K10" s="390"/>
+      <c r="L10" s="391"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="352"/>
+      <c r="B11" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="393"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="202"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" thickBot="1">
+      <c r="A12" s="353"/>
+      <c r="B12" s="366"/>
+      <c r="C12" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="393"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="228"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="340" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="334">
+        <v>1</v>
+      </c>
+      <c r="E13" s="335">
+        <v>1</v>
+      </c>
+      <c r="F13" s="335">
+        <v>1</v>
+      </c>
+      <c r="G13" s="334">
+        <v>1</v>
+      </c>
+      <c r="H13" s="335">
+        <v>1</v>
+      </c>
+      <c r="I13" s="335">
+        <v>1</v>
+      </c>
+      <c r="J13" s="334">
+        <v>1</v>
+      </c>
+      <c r="K13" s="335">
+        <v>1</v>
+      </c>
+      <c r="L13" s="336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="341"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="223">
+        <v>0</v>
+      </c>
+      <c r="E14" s="221">
+        <v>0</v>
+      </c>
+      <c r="F14" s="221">
+        <v>0</v>
+      </c>
+      <c r="G14" s="223">
+        <v>0</v>
+      </c>
+      <c r="H14" s="221">
+        <v>0</v>
+      </c>
+      <c r="I14" s="221">
+        <v>0</v>
+      </c>
+      <c r="J14" s="223">
+        <v>0</v>
+      </c>
+      <c r="K14" s="221">
+        <v>0</v>
+      </c>
+      <c r="L14" s="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="341"/>
+      <c r="B15" s="368"/>
+      <c r="C15" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="223">
+        <v>8</v>
+      </c>
+      <c r="E15" s="221">
+        <v>8</v>
+      </c>
+      <c r="F15" s="221">
+        <v>8</v>
+      </c>
+      <c r="G15" s="223">
+        <v>8</v>
+      </c>
+      <c r="H15" s="221">
+        <v>8</v>
+      </c>
+      <c r="I15" s="221">
+        <v>8</v>
+      </c>
+      <c r="J15" s="223">
+        <v>8</v>
+      </c>
+      <c r="K15" s="221">
+        <v>8</v>
+      </c>
+      <c r="L15" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="352"/>
+      <c r="B16" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="363">
+        <v>0</v>
+      </c>
+      <c r="E16" s="364">
+        <v>0</v>
+      </c>
+      <c r="F16" s="364">
+        <v>0</v>
+      </c>
+      <c r="G16" s="363">
+        <v>0</v>
+      </c>
+      <c r="H16" s="364">
+        <v>0</v>
+      </c>
+      <c r="I16" s="364">
+        <v>0</v>
+      </c>
+      <c r="J16" s="363">
+        <v>0</v>
+      </c>
+      <c r="K16" s="364">
+        <v>0</v>
+      </c>
+      <c r="L16" s="365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" thickBot="1">
+      <c r="A17" s="353"/>
+      <c r="B17" s="366"/>
+      <c r="C17" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="338" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="338" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="338" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="338" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="338" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="339" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="340" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="334">
+        <v>1</v>
+      </c>
+      <c r="E18" s="335">
+        <v>1</v>
+      </c>
+      <c r="F18" s="336">
+        <v>1</v>
+      </c>
+      <c r="G18" s="334">
+        <v>1</v>
+      </c>
+      <c r="H18" s="335">
+        <v>1</v>
+      </c>
+      <c r="I18" s="336">
+        <v>1</v>
+      </c>
+      <c r="J18" s="334">
+        <v>1</v>
+      </c>
+      <c r="K18" s="335">
+        <v>1</v>
+      </c>
+      <c r="L18" s="336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="341"/>
+      <c r="B19" s="368"/>
+      <c r="C19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="341"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="373">
+        <v>8</v>
+      </c>
+      <c r="E20" s="371">
+        <v>8</v>
+      </c>
+      <c r="F20" s="371">
+        <v>8</v>
+      </c>
+      <c r="G20" s="373">
+        <v>8</v>
+      </c>
+      <c r="H20" s="371">
+        <v>8</v>
+      </c>
+      <c r="I20" s="372">
+        <v>8</v>
+      </c>
+      <c r="J20" s="373">
+        <v>8</v>
+      </c>
+      <c r="K20" s="371">
+        <v>8</v>
+      </c>
+      <c r="L20" s="372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="352"/>
+      <c r="B21" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" thickBot="1">
+      <c r="A22" s="353"/>
+      <c r="B22" s="366"/>
+      <c r="C22" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="337" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="338" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="339" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="337" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="338" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="339" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="337" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="338" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="339" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="340" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="334">
+        <v>1</v>
+      </c>
+      <c r="E23" s="335">
+        <v>1</v>
+      </c>
+      <c r="F23" s="336">
+        <v>1</v>
+      </c>
+      <c r="G23" s="334">
+        <v>1</v>
+      </c>
+      <c r="H23" s="335">
+        <v>1</v>
+      </c>
+      <c r="I23" s="336">
+        <v>1</v>
+      </c>
+      <c r="J23" s="334">
+        <v>1</v>
+      </c>
+      <c r="K23" s="335">
+        <v>1</v>
+      </c>
+      <c r="L23" s="336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="341"/>
+      <c r="B24" s="368"/>
+      <c r="C24" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="341"/>
+      <c r="B25" s="368"/>
+      <c r="C25" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="223">
+        <v>8</v>
+      </c>
+      <c r="E25" s="221">
+        <v>8</v>
+      </c>
+      <c r="F25" s="372">
+        <v>8</v>
+      </c>
+      <c r="G25" s="223">
+        <v>8</v>
+      </c>
+      <c r="H25" s="221">
+        <v>8</v>
+      </c>
+      <c r="I25" s="118">
+        <v>8</v>
+      </c>
+      <c r="J25" s="223">
+        <v>8</v>
+      </c>
+      <c r="K25" s="221">
+        <v>8</v>
+      </c>
+      <c r="L25" s="118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="352"/>
+      <c r="B26" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="365" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="365" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16" thickBot="1">
+      <c r="A27" s="353"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="337" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="338" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="339" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="337" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="338" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="339" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="337" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="338" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="339" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="340" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="334">
+        <v>2</v>
+      </c>
+      <c r="E28" s="335">
+        <v>2</v>
+      </c>
+      <c r="F28" s="336">
+        <v>2</v>
+      </c>
+      <c r="G28" s="334">
+        <v>2</v>
+      </c>
+      <c r="H28" s="335">
+        <v>2</v>
+      </c>
+      <c r="I28" s="336">
+        <v>2</v>
+      </c>
+      <c r="J28" s="334">
+        <v>2</v>
+      </c>
+      <c r="K28" s="335">
+        <v>2</v>
+      </c>
+      <c r="L28" s="336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="341"/>
+      <c r="B29" s="368"/>
+      <c r="C29" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="341"/>
+      <c r="B30" s="369"/>
+      <c r="C30" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="373">
+        <v>16</v>
+      </c>
+      <c r="E30" s="371">
+        <v>16</v>
+      </c>
+      <c r="F30" s="371">
+        <v>16</v>
+      </c>
+      <c r="G30" s="373">
+        <v>16</v>
+      </c>
+      <c r="H30" s="371">
+        <v>16</v>
+      </c>
+      <c r="I30" s="372">
+        <v>16</v>
+      </c>
+      <c r="J30" s="373">
+        <v>16</v>
+      </c>
+      <c r="K30" s="371">
+        <v>16</v>
+      </c>
+      <c r="L30" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="352"/>
+      <c r="B31" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" thickBot="1">
+      <c r="A32" s="353"/>
+      <c r="B32" s="366"/>
+      <c r="C32" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="337" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="338" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="339" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="337" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="338" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="339" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="337" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="338" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="339" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="340" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="334">
+        <v>2</v>
+      </c>
+      <c r="E33" s="335">
+        <v>2</v>
+      </c>
+      <c r="F33" s="336">
+        <v>2</v>
+      </c>
+      <c r="G33" s="334">
+        <v>2</v>
+      </c>
+      <c r="H33" s="335">
+        <v>2</v>
+      </c>
+      <c r="I33" s="336">
+        <v>2</v>
+      </c>
+      <c r="J33" s="334">
+        <v>2</v>
+      </c>
+      <c r="K33" s="335">
+        <v>2</v>
+      </c>
+      <c r="L33" s="336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="341"/>
+      <c r="B34" s="368"/>
+      <c r="C34" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="341"/>
+      <c r="B35" s="368"/>
+      <c r="C35" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="223">
+        <v>16</v>
+      </c>
+      <c r="E35" s="221">
+        <v>16</v>
+      </c>
+      <c r="F35" s="371">
+        <v>16</v>
+      </c>
+      <c r="G35" s="373">
+        <v>16</v>
+      </c>
+      <c r="H35" s="371">
+        <v>16</v>
+      </c>
+      <c r="I35" s="372">
+        <v>16</v>
+      </c>
+      <c r="J35" s="373">
+        <v>16</v>
+      </c>
+      <c r="K35" s="371">
+        <v>16</v>
+      </c>
+      <c r="L35" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="352"/>
+      <c r="B36" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16" thickBot="1">
+      <c r="A37" s="353"/>
+      <c r="B37" s="366"/>
+      <c r="C37" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="337" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="338" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="339" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="337" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="338" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="339" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="337" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="338" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="339" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="340" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="334">
+        <v>2</v>
+      </c>
+      <c r="E38" s="335">
+        <v>2</v>
+      </c>
+      <c r="F38" s="336">
+        <v>2</v>
+      </c>
+      <c r="G38" s="334">
+        <v>2</v>
+      </c>
+      <c r="H38" s="335">
+        <v>2</v>
+      </c>
+      <c r="I38" s="336">
+        <v>2</v>
+      </c>
+      <c r="J38" s="334">
+        <v>2</v>
+      </c>
+      <c r="K38" s="335">
+        <v>2</v>
+      </c>
+      <c r="L38" s="336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="341"/>
+      <c r="B39" s="368"/>
+      <c r="C39" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="341"/>
+      <c r="B40" s="369"/>
+      <c r="C40" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="373">
+        <v>16</v>
+      </c>
+      <c r="E40" s="371">
+        <v>16</v>
+      </c>
+      <c r="F40" s="371">
+        <v>16</v>
+      </c>
+      <c r="G40" s="373">
+        <v>16</v>
+      </c>
+      <c r="H40" s="371">
+        <v>16</v>
+      </c>
+      <c r="I40" s="372">
+        <v>16</v>
+      </c>
+      <c r="J40" s="373">
+        <v>16</v>
+      </c>
+      <c r="K40" s="371">
+        <v>16</v>
+      </c>
+      <c r="L40" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="352"/>
+      <c r="B41" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L41" s="118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16" thickBot="1">
+      <c r="A42" s="353"/>
+      <c r="B42" s="366"/>
+      <c r="C42" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="337" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="338" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="339" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="337" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="338" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="339" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="337" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="338" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="339" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="340" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="394"/>
+      <c r="E43" s="385"/>
+      <c r="F43" s="386"/>
+      <c r="G43" s="384"/>
+      <c r="H43" s="385"/>
+      <c r="I43" s="386"/>
+      <c r="J43" s="384"/>
+      <c r="K43" s="385"/>
+      <c r="L43" s="386"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="341"/>
+      <c r="B44" s="368"/>
+      <c r="C44" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="395"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="201"/>
+      <c r="L44" s="202"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="341"/>
+      <c r="B45" s="368"/>
+      <c r="C45" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="395"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="202"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="201"/>
+      <c r="I45" s="202"/>
+      <c r="J45" s="200"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="202"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="352"/>
+      <c r="B46" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="396"/>
+      <c r="E46" s="388"/>
+      <c r="F46" s="389"/>
+      <c r="G46" s="387"/>
+      <c r="H46" s="388"/>
+      <c r="I46" s="389"/>
+      <c r="J46" s="387"/>
+      <c r="K46" s="388"/>
+      <c r="L46" s="389"/>
+    </row>
+    <row r="47" spans="1:12" ht="16" thickBot="1">
+      <c r="A47" s="353"/>
+      <c r="B47" s="366"/>
+      <c r="C47" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="397"/>
+      <c r="E47" s="227"/>
+      <c r="F47" s="228"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="227"/>
+      <c r="I47" s="228"/>
+      <c r="J47" s="226"/>
+      <c r="K47" s="227"/>
+      <c r="L47" s="228"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="342" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="334">
+        <v>2</v>
+      </c>
+      <c r="E48" s="335">
+        <v>2</v>
+      </c>
+      <c r="F48" s="336">
+        <v>2</v>
+      </c>
+      <c r="G48" s="334">
+        <v>2</v>
+      </c>
+      <c r="H48" s="335">
+        <v>2</v>
+      </c>
+      <c r="I48" s="336">
+        <v>2</v>
+      </c>
+      <c r="J48" s="334">
+        <v>2</v>
+      </c>
+      <c r="K48" s="335">
+        <v>2</v>
+      </c>
+      <c r="L48" s="336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="343"/>
+      <c r="B49" s="377"/>
+      <c r="C49" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="343"/>
+      <c r="B50" s="378"/>
+      <c r="C50" s="379" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="373">
+        <v>16</v>
+      </c>
+      <c r="E50" s="371">
+        <v>16</v>
+      </c>
+      <c r="F50" s="371">
+        <v>16</v>
+      </c>
+      <c r="G50" s="373">
+        <v>16</v>
+      </c>
+      <c r="H50" s="371">
+        <v>16</v>
+      </c>
+      <c r="I50" s="372">
+        <v>16</v>
+      </c>
+      <c r="J50" s="373">
+        <v>16</v>
+      </c>
+      <c r="K50" s="371">
+        <v>16</v>
+      </c>
+      <c r="L50" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="139"/>
+      <c r="B51" s="377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51" s="118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16" thickBot="1">
+      <c r="A52" s="344"/>
+      <c r="B52" s="380"/>
+      <c r="C52" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="337" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="338" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="339" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="337" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="338" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="339" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="337" t="s">
+        <v>96</v>
+      </c>
+      <c r="K52" s="338" t="s">
+        <v>84</v>
+      </c>
+      <c r="L52" s="339" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="342" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="334">
+        <v>2</v>
+      </c>
+      <c r="E53" s="335">
+        <v>2</v>
+      </c>
+      <c r="F53" s="336">
+        <v>2</v>
+      </c>
+      <c r="G53" s="334">
+        <v>2</v>
+      </c>
+      <c r="H53" s="335">
+        <v>2</v>
+      </c>
+      <c r="I53" s="336">
+        <v>2</v>
+      </c>
+      <c r="J53" s="334">
+        <v>2</v>
+      </c>
+      <c r="K53" s="335">
+        <v>2</v>
+      </c>
+      <c r="L53" s="336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="343"/>
+      <c r="B54" s="377"/>
+      <c r="C54" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L54" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="343"/>
+      <c r="B55" s="377"/>
+      <c r="C55" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="223">
+        <v>16</v>
+      </c>
+      <c r="E55" s="221">
+        <v>16</v>
+      </c>
+      <c r="F55" s="371">
+        <v>16</v>
+      </c>
+      <c r="G55" s="373">
+        <v>16</v>
+      </c>
+      <c r="H55" s="371">
+        <v>16</v>
+      </c>
+      <c r="I55" s="372">
+        <v>16</v>
+      </c>
+      <c r="J55" s="373">
+        <v>16</v>
+      </c>
+      <c r="K55" s="371">
+        <v>16</v>
+      </c>
+      <c r="L55" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="139"/>
+      <c r="B56" s="382" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="383" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L56" s="118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16" thickBot="1">
+      <c r="A57" s="344"/>
+      <c r="B57" s="380"/>
+      <c r="C57" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="337" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="338" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="339" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="337" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="338" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="339" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="337" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" s="338" t="s">
+        <v>98</v>
+      </c>
+      <c r="L57" s="339" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="342" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="334">
+        <v>2</v>
+      </c>
+      <c r="E58" s="335">
+        <v>2</v>
+      </c>
+      <c r="F58" s="336">
+        <v>2</v>
+      </c>
+      <c r="G58" s="334">
+        <v>2</v>
+      </c>
+      <c r="H58" s="335">
+        <v>2</v>
+      </c>
+      <c r="I58" s="336">
+        <v>2</v>
+      </c>
+      <c r="J58" s="334">
+        <v>2</v>
+      </c>
+      <c r="K58" s="335">
+        <v>2</v>
+      </c>
+      <c r="L58" s="336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="343"/>
+      <c r="B59" s="377"/>
+      <c r="C59" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="343"/>
+      <c r="B60" s="378"/>
+      <c r="C60" s="379" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="373">
+        <v>16</v>
+      </c>
+      <c r="E60" s="371">
+        <v>16</v>
+      </c>
+      <c r="F60" s="371">
+        <v>16</v>
+      </c>
+      <c r="G60" s="373">
+        <v>16</v>
+      </c>
+      <c r="H60" s="371">
+        <v>16</v>
+      </c>
+      <c r="I60" s="372">
+        <v>16</v>
+      </c>
+      <c r="J60" s="373">
+        <v>16</v>
+      </c>
+      <c r="K60" s="371">
+        <v>16</v>
+      </c>
+      <c r="L60" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="139"/>
+      <c r="B61" s="377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="365" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="K61" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="L61" s="365" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16" thickBot="1">
+      <c r="A62" s="344"/>
+      <c r="B62" s="380"/>
+      <c r="C62" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="337" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="338" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="339" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="337" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="338" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="339" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="337" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="338" t="s">
+        <v>85</v>
+      </c>
+      <c r="L62" s="339" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="342" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="334">
+        <v>1</v>
+      </c>
+      <c r="E63" s="335">
+        <v>1</v>
+      </c>
+      <c r="F63" s="336">
+        <v>1</v>
+      </c>
+      <c r="G63" s="334">
+        <v>1</v>
+      </c>
+      <c r="H63" s="335">
+        <v>1</v>
+      </c>
+      <c r="I63" s="336">
+        <v>1</v>
+      </c>
+      <c r="J63" s="334">
+        <v>1</v>
+      </c>
+      <c r="K63" s="335">
+        <v>1</v>
+      </c>
+      <c r="L63" s="336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="343"/>
+      <c r="B64" s="377"/>
+      <c r="C64" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" s="348" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" s="277" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="343"/>
+      <c r="B65" s="377"/>
+      <c r="C65" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="223">
+        <v>8</v>
+      </c>
+      <c r="E65" s="221">
+        <v>8</v>
+      </c>
+      <c r="F65" s="372">
+        <v>8</v>
+      </c>
+      <c r="G65" s="373">
+        <v>8</v>
+      </c>
+      <c r="H65" s="371">
+        <v>8</v>
+      </c>
+      <c r="I65" s="372">
+        <v>8</v>
+      </c>
+      <c r="J65" s="373">
+        <v>8</v>
+      </c>
+      <c r="K65" s="371">
+        <v>8</v>
+      </c>
+      <c r="L65" s="372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="139"/>
+      <c r="B66" s="382" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="383" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="363" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="223" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L66" s="118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16" thickBot="1">
+      <c r="A67" s="344"/>
+      <c r="B67" s="380"/>
+      <c r="C67" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="337" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="338" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="339" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="337" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="338" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67" s="339" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="337" t="s">
+        <v>82</v>
+      </c>
+      <c r="K67" s="338" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" s="339" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="342" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="384"/>
+      <c r="E68" s="385"/>
+      <c r="F68" s="386"/>
+      <c r="G68" s="384"/>
+      <c r="H68" s="385"/>
+      <c r="I68" s="386"/>
+      <c r="J68" s="384"/>
+      <c r="K68" s="385"/>
+      <c r="L68" s="386"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="343"/>
+      <c r="B69" s="377"/>
+      <c r="C69" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="200"/>
+      <c r="E69" s="201"/>
+      <c r="F69" s="202"/>
+      <c r="G69" s="200"/>
+      <c r="H69" s="201"/>
+      <c r="I69" s="202"/>
+      <c r="J69" s="200"/>
+      <c r="K69" s="201"/>
+      <c r="L69" s="202"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="343"/>
+      <c r="B70" s="378"/>
+      <c r="C70" s="379" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="392"/>
+      <c r="E70" s="390"/>
+      <c r="F70" s="391"/>
+      <c r="G70" s="392"/>
+      <c r="H70" s="390"/>
+      <c r="I70" s="391"/>
+      <c r="J70" s="392"/>
+      <c r="K70" s="390"/>
+      <c r="L70" s="391"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="139"/>
+      <c r="B71" s="377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="200"/>
+      <c r="E71" s="201"/>
+      <c r="F71" s="202"/>
+      <c r="G71" s="200"/>
+      <c r="H71" s="201"/>
+      <c r="I71" s="202"/>
+      <c r="J71" s="200"/>
+      <c r="K71" s="201"/>
+      <c r="L71" s="202"/>
+    </row>
+    <row r="72" spans="1:12" ht="16" thickBot="1">
+      <c r="A72" s="344"/>
+      <c r="B72" s="380"/>
+      <c r="C72" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="226"/>
+      <c r="E72" s="227"/>
+      <c r="F72" s="228"/>
+      <c r="G72" s="226"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="226"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="228"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/dissertation/etc/form/form.xlsx
+++ b/dissertation/etc/form/form.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Rhythm Map" sheetId="1" r:id="rId1"/>
-    <sheet name="Section Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Section Map" sheetId="2" r:id="rId1"/>
+    <sheet name="Rhythm Map" sheetId="1" r:id="rId2"/>
     <sheet name="RatioMakerMatrix Winds" sheetId="3" r:id="rId3"/>
+    <sheet name="RatioMakerMatrixStrings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="106">
   <si>
     <t>Stage 1-1</t>
   </si>
@@ -319,12 +320,33 @@
   <si>
     <t>4c</t>
   </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[0, 1, -1]</t>
+  </si>
+  <si>
+    <t>[1, 0, -1]</t>
+  </si>
+  <si>
+    <t>[-1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[-1, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, -1, 1]</t>
+  </si>
+  <si>
+    <t>[1, -1, 0]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +449,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1053,7 +1082,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1307,8 +1336,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2066,8 +2141,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="299">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2194,6 +2304,29 @@
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2320,6 +2453,29 @@
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2649,10 +2805,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U700"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A664" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" thickBot="1">
+      <c r="A1" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="260">
+        <v>1</v>
+      </c>
+      <c r="C1" s="261"/>
+      <c r="D1" s="260">
+        <v>2</v>
+      </c>
+      <c r="E1" s="262"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="260">
+        <v>3</v>
+      </c>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="260">
+        <v>4</v>
+      </c>
+      <c r="L1" s="262"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="262">
+        <v>5</v>
+      </c>
+      <c r="O1" s="261"/>
+    </row>
+    <row r="2" spans="1:15" ht="19" thickBot="1">
+      <c r="A2" s="263" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="264">
+        <v>1</v>
+      </c>
+      <c r="C2" s="265">
+        <v>2</v>
+      </c>
+      <c r="D2" s="264">
+        <v>1</v>
+      </c>
+      <c r="E2" s="266">
+        <v>2</v>
+      </c>
+      <c r="F2" s="265">
+        <v>3</v>
+      </c>
+      <c r="G2" s="264">
+        <v>1</v>
+      </c>
+      <c r="H2" s="266">
+        <v>2</v>
+      </c>
+      <c r="I2" s="266">
+        <v>3</v>
+      </c>
+      <c r="J2" s="265">
+        <v>4</v>
+      </c>
+      <c r="K2" s="264">
+        <v>1</v>
+      </c>
+      <c r="L2" s="266">
+        <v>2</v>
+      </c>
+      <c r="M2" s="265">
+        <v>3</v>
+      </c>
+      <c r="N2" s="266">
+        <v>1</v>
+      </c>
+      <c r="O2" s="265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19" thickBot="1">
+      <c r="A3" s="267" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="268">
+        <v>54</v>
+      </c>
+      <c r="C3" s="269">
+        <v>81</v>
+      </c>
+      <c r="D3" s="268">
+        <v>68</v>
+      </c>
+      <c r="E3" s="270">
+        <v>54</v>
+      </c>
+      <c r="F3" s="269">
+        <v>81</v>
+      </c>
+      <c r="G3" s="268">
+        <v>68</v>
+      </c>
+      <c r="H3" s="270">
+        <v>47</v>
+      </c>
+      <c r="I3" s="270">
+        <v>81</v>
+      </c>
+      <c r="J3" s="269">
+        <v>72</v>
+      </c>
+      <c r="K3" s="268">
+        <v>54</v>
+      </c>
+      <c r="L3" s="270">
+        <v>68</v>
+      </c>
+      <c r="M3" s="269">
+        <v>81</v>
+      </c>
+      <c r="N3" s="270">
+        <v>68</v>
+      </c>
+      <c r="O3" s="269">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" thickBot="1">
+      <c r="A4" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="256"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="314" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="274"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="272"/>
+      <c r="K5" s="249" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="272"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="274"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="272"/>
+      <c r="K6" s="249" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="272"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" thickBot="1">
+      <c r="A7" s="247" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="275"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="313" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="240" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="242" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="241" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="240" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="240" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="243"/>
+      <c r="K7" s="241" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="240" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="246" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="243"/>
+    </row>
+    <row r="8" spans="1:15" ht="16" thickBot="1">
+      <c r="A8" s="315" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="274"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="249" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="274"/>
+      <c r="O9" s="272"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="274"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="245" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="274"/>
+      <c r="O10" s="272"/>
+    </row>
+    <row r="11" spans="1:15" ht="16" thickBot="1">
+      <c r="A11" s="247" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="274"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="249" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="274"/>
+      <c r="O11" s="272"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" thickBot="1">
+      <c r="A12" s="316" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="252"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="252"/>
+      <c r="O12" s="253"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="247" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="251" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="249" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="250" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="251" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="250" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="251" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="249" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="251" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="250" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1">
+      <c r="A15" s="247" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="246"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="240"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="241"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="242"/>
+      <c r="N15" s="246"/>
+      <c r="O15" s="242"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" thickBot="1">
+      <c r="A16" s="317" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="255"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="314" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="318"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="322" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="323" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="324" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="324" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="322" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="323" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="324" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="322" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="318"/>
+      <c r="O17" s="319"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="274"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="245" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="250" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="249" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="274"/>
+      <c r="O18" s="272"/>
+    </row>
+    <row r="19" spans="1:15" ht="16" thickBot="1">
+      <c r="A19" s="248" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="325"/>
+      <c r="C19" s="326"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="329" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="330" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="331" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="331" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="329" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="330" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="331" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="329" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="325"/>
+      <c r="O19" s="326"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U701"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A205" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J531" sqref="J531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3686,23 +4500,57 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>14</v>
+      </c>
+      <c r="Q38">
+        <v>15</v>
+      </c>
+      <c r="R38">
+        <v>16</v>
+      </c>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -5051,6 +5899,68 @@
       <c r="T88" s="212"/>
       <c r="U88" s="213"/>
     </row>
+    <row r="89" spans="1:21">
+      <c r="B89" s="1">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1">
+        <v>17</v>
+      </c>
+      <c r="D89" s="1">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1">
+        <v>19</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>21</v>
+      </c>
+      <c r="H89" s="1">
+        <v>22</v>
+      </c>
+      <c r="I89" s="1">
+        <v>23</v>
+      </c>
+      <c r="J89" s="1">
+        <v>24</v>
+      </c>
+      <c r="K89" s="1">
+        <v>25</v>
+      </c>
+      <c r="L89" s="1">
+        <v>26</v>
+      </c>
+      <c r="M89" s="1">
+        <v>27</v>
+      </c>
+      <c r="N89" s="1">
+        <v>28</v>
+      </c>
+      <c r="O89" s="1">
+        <v>29</v>
+      </c>
+      <c r="P89" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>31</v>
+      </c>
+      <c r="R89" s="1">
+        <v>32</v>
+      </c>
+      <c r="S89" s="1">
+        <v>33</v>
+      </c>
+      <c r="T89" s="1">
+        <v>34</v>
+      </c>
+      <c r="U89" s="1">
+        <v>35</v>
+      </c>
+    </row>
     <row r="102" spans="1:19" ht="16" thickBot="1"/>
     <row r="103" spans="1:19" ht="24" thickBot="1">
       <c r="A103" s="45" t="s">
@@ -5960,6 +6870,50 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
+    <row r="140" spans="1:19">
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="1">
+        <v>4</v>
+      </c>
+      <c r="G140" s="1">
+        <v>5</v>
+      </c>
+      <c r="H140" s="1">
+        <v>6</v>
+      </c>
+      <c r="I140" s="1">
+        <v>7</v>
+      </c>
+      <c r="J140" s="1">
+        <v>8</v>
+      </c>
+      <c r="K140" s="1">
+        <v>9</v>
+      </c>
+      <c r="L140" s="1">
+        <v>10</v>
+      </c>
+      <c r="M140" s="1">
+        <v>11</v>
+      </c>
+      <c r="N140" s="1">
+        <v>12</v>
+      </c>
+      <c r="O140" s="1">
+        <v>13</v>
+      </c>
+    </row>
     <row r="153" spans="1:16" ht="16" thickBot="1"/>
     <row r="154" spans="1:16" ht="24" thickBot="1">
       <c r="A154" s="70" t="s">
@@ -6701,6 +7655,67 @@
       <c r="I190" s="219"/>
       <c r="J190" s="220"/>
       <c r="K190"/>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="B191" s="1">
+        <v>13</v>
+      </c>
+      <c r="C191" s="1">
+        <v>14</v>
+      </c>
+      <c r="D191" s="1">
+        <v>15</v>
+      </c>
+      <c r="E191" s="1">
+        <v>16</v>
+      </c>
+      <c r="F191" s="1">
+        <v>17</v>
+      </c>
+      <c r="G191" s="1">
+        <v>18</v>
+      </c>
+      <c r="H191" s="1">
+        <v>19</v>
+      </c>
+      <c r="I191" s="1">
+        <v>20</v>
+      </c>
+      <c r="J191" s="1">
+        <v>21</v>
+      </c>
+      <c r="K191" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2</v>
+      </c>
+      <c r="E192" s="1">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1">
+        <v>4</v>
+      </c>
+      <c r="G192" s="1">
+        <v>5</v>
+      </c>
+      <c r="H192" s="1">
+        <v>6</v>
+      </c>
+      <c r="I192" s="1">
+        <v>7</v>
+      </c>
+      <c r="J192" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="204" spans="1:21" ht="16" thickBot="1"/>
     <row r="205" spans="1:21" ht="24" thickBot="1">
@@ -7673,7 +8688,7 @@
       <c r="P240" s="205"/>
       <c r="Q240" s="206"/>
     </row>
-    <row r="241" spans="1:17" ht="16" thickBot="1">
+    <row r="241" spans="1:18" ht="16" thickBot="1">
       <c r="A241" s="10" t="s">
         <v>18</v>
       </c>
@@ -7694,7 +8709,110 @@
       <c r="P241" s="212"/>
       <c r="Q241" s="213"/>
     </row>
-    <row r="254" spans="1:17">
+    <row r="242" spans="1:18">
+      <c r="B242" s="1">
+        <v>22</v>
+      </c>
+      <c r="C242" s="1">
+        <v>23</v>
+      </c>
+      <c r="D242" s="1">
+        <v>24</v>
+      </c>
+      <c r="E242" s="1">
+        <v>25</v>
+      </c>
+      <c r="F242" s="1">
+        <v>26</v>
+      </c>
+      <c r="G242" s="1">
+        <v>27</v>
+      </c>
+      <c r="H242" s="1">
+        <v>28</v>
+      </c>
+      <c r="I242" s="1">
+        <v>29</v>
+      </c>
+      <c r="J242" s="1">
+        <v>30</v>
+      </c>
+      <c r="K242" s="1">
+        <v>31</v>
+      </c>
+      <c r="L242" s="1">
+        <v>32</v>
+      </c>
+      <c r="M242" s="1">
+        <v>33</v>
+      </c>
+      <c r="N242" s="1">
+        <v>34</v>
+      </c>
+      <c r="O242" s="1">
+        <v>35</v>
+      </c>
+      <c r="P242" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q242" s="1">
+        <v>37</v>
+      </c>
+      <c r="R242" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2</v>
+      </c>
+      <c r="E243" s="1">
+        <v>3</v>
+      </c>
+      <c r="F243" s="1">
+        <v>4</v>
+      </c>
+      <c r="G243" s="1">
+        <v>5</v>
+      </c>
+      <c r="H243" s="1">
+        <v>6</v>
+      </c>
+      <c r="I243" s="1">
+        <v>7</v>
+      </c>
+      <c r="J243" s="1">
+        <v>8</v>
+      </c>
+      <c r="K243" s="1">
+        <v>9</v>
+      </c>
+      <c r="L243" s="1">
+        <v>10</v>
+      </c>
+      <c r="M243" s="1">
+        <v>11</v>
+      </c>
+      <c r="N243" s="1">
+        <v>12</v>
+      </c>
+      <c r="O243" s="1">
+        <v>13</v>
+      </c>
+      <c r="P243" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q243" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7707,7 +8825,7 @@
       <c r="J254" s="5"/>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:17" ht="16" thickBot="1">
+    <row r="255" spans="1:18" ht="16" thickBot="1">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7720,7 +8838,7 @@
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:17" ht="24" thickBot="1">
+    <row r="256" spans="1:18" ht="24" thickBot="1">
       <c r="A256" s="113" t="s">
         <v>31</v>
       </c>
@@ -8554,15 +9672,36 @@
       <c r="Q292"/>
     </row>
     <row r="293" spans="1:17">
-      <c r="B293" s="244"/>
-      <c r="C293" s="244"/>
-      <c r="D293" s="244"/>
-      <c r="E293" s="244"/>
-      <c r="F293" s="244"/>
-      <c r="G293" s="244"/>
-      <c r="H293" s="244"/>
-      <c r="I293" s="244"/>
-      <c r="J293" s="244"/>
+      <c r="B293" s="244">
+        <v>0</v>
+      </c>
+      <c r="C293" s="244">
+        <v>1</v>
+      </c>
+      <c r="D293" s="244">
+        <v>2</v>
+      </c>
+      <c r="E293" s="244">
+        <v>3</v>
+      </c>
+      <c r="F293" s="244">
+        <v>4</v>
+      </c>
+      <c r="G293" s="244">
+        <v>5</v>
+      </c>
+      <c r="H293" s="244">
+        <v>6</v>
+      </c>
+      <c r="I293" s="244">
+        <v>7</v>
+      </c>
+      <c r="J293" s="244">
+        <v>8</v>
+      </c>
+      <c r="K293" s="244">
+        <v>9</v>
+      </c>
     </row>
     <row r="306" spans="1:14" ht="16" thickBot="1"/>
     <row r="307" spans="1:14" ht="24" thickBot="1">
@@ -9185,7 +10324,7 @@
       <c r="M336" s="49"/>
       <c r="N336" s="50"/>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:15">
       <c r="A337" s="8" t="s">
         <v>17</v>
       </c>
@@ -9203,7 +10342,7 @@
       <c r="M337" s="49"/>
       <c r="N337" s="50"/>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:15">
       <c r="A338" s="9" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +10360,7 @@
       <c r="M338" s="54"/>
       <c r="N338" s="56"/>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:15">
       <c r="A339" s="7" t="s">
         <v>16</v>
       </c>
@@ -9239,7 +10378,7 @@
       <c r="M339" s="67"/>
       <c r="N339" s="69"/>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:15">
       <c r="A340" s="8" t="s">
         <v>17</v>
       </c>
@@ -9257,7 +10396,7 @@
       <c r="M340" s="67"/>
       <c r="N340" s="69"/>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:15">
       <c r="A341" s="9" t="s">
         <v>8</v>
       </c>
@@ -9275,7 +10414,7 @@
       <c r="M341" s="54"/>
       <c r="N341" s="56"/>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:15">
       <c r="A342" s="7" t="s">
         <v>16</v>
       </c>
@@ -9293,7 +10432,7 @@
       <c r="M342" s="67"/>
       <c r="N342" s="69"/>
     </row>
-    <row r="343" spans="1:14" ht="16" thickBot="1">
+    <row r="343" spans="1:15" ht="16" thickBot="1">
       <c r="A343" s="10" t="s">
         <v>18</v>
       </c>
@@ -9311,6 +10450,91 @@
       <c r="M343" s="114"/>
       <c r="N343" s="116"/>
     </row>
+    <row r="344" spans="1:15">
+      <c r="B344" s="1">
+        <v>9</v>
+      </c>
+      <c r="C344" s="1">
+        <v>10</v>
+      </c>
+      <c r="D344" s="1">
+        <v>11</v>
+      </c>
+      <c r="E344" s="1">
+        <v>12</v>
+      </c>
+      <c r="F344" s="1">
+        <v>13</v>
+      </c>
+      <c r="G344" s="1">
+        <v>14</v>
+      </c>
+      <c r="H344" s="1">
+        <v>15</v>
+      </c>
+      <c r="I344" s="1">
+        <v>16</v>
+      </c>
+      <c r="J344" s="1">
+        <v>17</v>
+      </c>
+      <c r="K344" s="1">
+        <v>18</v>
+      </c>
+      <c r="L344" s="1">
+        <v>19</v>
+      </c>
+      <c r="M344" s="1">
+        <v>20</v>
+      </c>
+      <c r="N344" s="1">
+        <v>21</v>
+      </c>
+      <c r="O344" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="B345" s="1">
+        <v>0</v>
+      </c>
+      <c r="C345" s="1">
+        <v>1</v>
+      </c>
+      <c r="D345" s="1">
+        <v>2</v>
+      </c>
+      <c r="E345" s="1">
+        <v>3</v>
+      </c>
+      <c r="F345" s="1">
+        <v>4</v>
+      </c>
+      <c r="G345" s="1">
+        <v>5</v>
+      </c>
+      <c r="H345" s="1">
+        <v>6</v>
+      </c>
+      <c r="I345" s="1">
+        <v>7</v>
+      </c>
+      <c r="J345" s="1">
+        <v>8</v>
+      </c>
+      <c r="K345" s="1">
+        <v>9</v>
+      </c>
+      <c r="L345" s="1">
+        <v>10</v>
+      </c>
+      <c r="M345" s="1">
+        <v>11</v>
+      </c>
+      <c r="N345" s="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="357" spans="1:14" ht="16" thickBot="1"/>
     <row r="358" spans="1:14" ht="24" thickBot="1">
       <c r="A358" s="141" t="s">
@@ -10052,6 +11276,85 @@
       <c r="M394" s="146"/>
       <c r="N394"/>
     </row>
+    <row r="395" spans="1:14">
+      <c r="B395" s="1">
+        <v>22</v>
+      </c>
+      <c r="C395" s="1">
+        <v>23</v>
+      </c>
+      <c r="D395" s="1">
+        <v>24</v>
+      </c>
+      <c r="E395" s="1">
+        <v>25</v>
+      </c>
+      <c r="F395" s="1">
+        <v>26</v>
+      </c>
+      <c r="G395" s="1">
+        <v>27</v>
+      </c>
+      <c r="H395" s="1">
+        <v>28</v>
+      </c>
+      <c r="I395" s="1">
+        <v>29</v>
+      </c>
+      <c r="J395" s="1">
+        <v>30</v>
+      </c>
+      <c r="K395" s="1">
+        <v>31</v>
+      </c>
+      <c r="L395" s="1">
+        <v>32</v>
+      </c>
+      <c r="M395" s="1">
+        <v>33</v>
+      </c>
+      <c r="N395" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
+      <c r="B396" s="1">
+        <v>0</v>
+      </c>
+      <c r="C396" s="1">
+        <v>1</v>
+      </c>
+      <c r="D396" s="1">
+        <v>2</v>
+      </c>
+      <c r="E396" s="1">
+        <v>3</v>
+      </c>
+      <c r="F396" s="1">
+        <v>4</v>
+      </c>
+      <c r="G396" s="1">
+        <v>5</v>
+      </c>
+      <c r="H396" s="1">
+        <v>6</v>
+      </c>
+      <c r="I396" s="1">
+        <v>7</v>
+      </c>
+      <c r="J396" s="1">
+        <v>8</v>
+      </c>
+      <c r="K396" s="1">
+        <v>9</v>
+      </c>
+      <c r="L396" s="1">
+        <v>10</v>
+      </c>
+      <c r="M396" s="1">
+        <v>11</v>
+      </c>
+    </row>
     <row r="408" spans="1:14" ht="16" thickBot="1"/>
     <row r="409" spans="1:14" ht="24" thickBot="1">
       <c r="A409" s="117" t="s">
@@ -10565,7 +11868,7 @@
       <c r="M432" s="67"/>
       <c r="N432" s="69"/>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:15">
       <c r="A433" s="58" t="s">
         <v>27</v>
       </c>
@@ -10583,7 +11886,7 @@
       <c r="M433" s="67"/>
       <c r="N433" s="69"/>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:15">
       <c r="A434" s="9" t="s">
         <v>5</v>
       </c>
@@ -10601,7 +11904,7 @@
       <c r="M434" s="54"/>
       <c r="N434" s="56"/>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:15">
       <c r="A435" s="7" t="s">
         <v>16</v>
       </c>
@@ -10619,7 +11922,7 @@
       <c r="M435" s="49"/>
       <c r="N435" s="50"/>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:15">
       <c r="A436" s="8" t="s">
         <v>17</v>
       </c>
@@ -10637,7 +11940,7 @@
       <c r="M436" s="49"/>
       <c r="N436" s="50"/>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:15">
       <c r="A437" s="9" t="s">
         <v>6</v>
       </c>
@@ -10655,7 +11958,7 @@
       <c r="M437" s="54"/>
       <c r="N437" s="56"/>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:15">
       <c r="A438" s="7" t="s">
         <v>16</v>
       </c>
@@ -10673,7 +11976,7 @@
       <c r="M438" s="49"/>
       <c r="N438" s="50"/>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:15">
       <c r="A439" s="8" t="s">
         <v>17</v>
       </c>
@@ -10691,7 +11994,7 @@
       <c r="M439" s="49"/>
       <c r="N439" s="50"/>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:15">
       <c r="A440" s="9" t="s">
         <v>7</v>
       </c>
@@ -10709,7 +12012,7 @@
       <c r="M440" s="54"/>
       <c r="N440" s="56"/>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:15">
       <c r="A441" s="7" t="s">
         <v>16</v>
       </c>
@@ -10727,7 +12030,7 @@
       <c r="M441" s="67"/>
       <c r="N441" s="69"/>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:15">
       <c r="A442" s="8" t="s">
         <v>17</v>
       </c>
@@ -10745,7 +12048,7 @@
       <c r="M442" s="67"/>
       <c r="N442" s="69"/>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:15">
       <c r="A443" s="9" t="s">
         <v>8</v>
       </c>
@@ -10763,7 +12066,7 @@
       <c r="M443" s="54"/>
       <c r="N443" s="56"/>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:15">
       <c r="A444" s="7" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +12084,7 @@
       <c r="M444" s="67"/>
       <c r="N444" s="69"/>
     </row>
-    <row r="445" spans="1:14" ht="16" thickBot="1">
+    <row r="445" spans="1:15" ht="16" thickBot="1">
       <c r="A445" s="10" t="s">
         <v>18</v>
       </c>
@@ -10799,6 +12102,91 @@
       <c r="M445" s="114"/>
       <c r="N445" s="116"/>
     </row>
+    <row r="446" spans="1:15">
+      <c r="B446" s="1">
+        <v>34</v>
+      </c>
+      <c r="C446" s="1">
+        <v>35</v>
+      </c>
+      <c r="D446" s="1">
+        <v>36</v>
+      </c>
+      <c r="E446" s="1">
+        <v>37</v>
+      </c>
+      <c r="F446" s="1">
+        <v>38</v>
+      </c>
+      <c r="G446" s="1">
+        <v>39</v>
+      </c>
+      <c r="H446" s="1">
+        <v>40</v>
+      </c>
+      <c r="I446" s="1">
+        <v>41</v>
+      </c>
+      <c r="J446" s="1">
+        <v>42</v>
+      </c>
+      <c r="K446" s="1">
+        <v>43</v>
+      </c>
+      <c r="L446" s="1">
+        <v>44</v>
+      </c>
+      <c r="M446" s="1">
+        <v>45</v>
+      </c>
+      <c r="N446" s="1">
+        <v>46</v>
+      </c>
+      <c r="O446" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15">
+      <c r="B447" s="1">
+        <v>0</v>
+      </c>
+      <c r="C447" s="1">
+        <v>1</v>
+      </c>
+      <c r="D447" s="1">
+        <v>2</v>
+      </c>
+      <c r="E447" s="1">
+        <v>3</v>
+      </c>
+      <c r="F447" s="1">
+        <v>4</v>
+      </c>
+      <c r="G447" s="1">
+        <v>5</v>
+      </c>
+      <c r="H447" s="1">
+        <v>6</v>
+      </c>
+      <c r="I447" s="1">
+        <v>7</v>
+      </c>
+      <c r="J447" s="1">
+        <v>8</v>
+      </c>
+      <c r="K447" s="1">
+        <v>9</v>
+      </c>
+      <c r="L447" s="1">
+        <v>10</v>
+      </c>
+      <c r="M447" s="1">
+        <v>11</v>
+      </c>
+      <c r="N447" s="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="459" spans="1:10" ht="16" thickBot="1"/>
     <row r="460" spans="1:10" ht="24" thickBot="1">
       <c r="A460" s="169" t="s">
@@ -11101,12 +12489,12 @@
       <c r="B477" s="292"/>
       <c r="C477" s="285"/>
       <c r="D477" s="286"/>
-      <c r="E477" s="285"/>
-      <c r="F477" s="286"/>
-      <c r="G477" s="285"/>
-      <c r="H477" s="285"/>
-      <c r="I477" s="285"/>
-      <c r="J477" s="286"/>
+      <c r="E477" s="111"/>
+      <c r="F477" s="112"/>
+      <c r="G477" s="111"/>
+      <c r="H477" s="111"/>
+      <c r="I477" s="111"/>
+      <c r="J477" s="112"/>
     </row>
     <row r="478" spans="1:10">
       <c r="A478" s="8" t="s">
@@ -11115,12 +12503,12 @@
       <c r="B478" s="292"/>
       <c r="C478" s="285"/>
       <c r="D478" s="286"/>
-      <c r="E478" s="285"/>
-      <c r="F478" s="286"/>
-      <c r="G478" s="285"/>
-      <c r="H478" s="285"/>
-      <c r="I478" s="285"/>
-      <c r="J478" s="286"/>
+      <c r="E478" s="111"/>
+      <c r="F478" s="112"/>
+      <c r="G478" s="111"/>
+      <c r="H478" s="111"/>
+      <c r="I478" s="111"/>
+      <c r="J478" s="112"/>
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="9" t="s">
@@ -11226,13 +12614,13 @@
       </c>
       <c r="B486" s="110"/>
       <c r="C486" s="111"/>
-      <c r="D486" s="112"/>
+      <c r="D486" s="286"/>
       <c r="E486" s="111"/>
       <c r="F486" s="112"/>
-      <c r="G486" s="111"/>
-      <c r="H486" s="111"/>
-      <c r="I486" s="111"/>
-      <c r="J486" s="112"/>
+      <c r="G486" s="285"/>
+      <c r="H486" s="285"/>
+      <c r="I486" s="285"/>
+      <c r="J486" s="286"/>
     </row>
     <row r="487" spans="1:10">
       <c r="A487" s="8" t="s">
@@ -11240,13 +12628,13 @@
       </c>
       <c r="B487" s="110"/>
       <c r="C487" s="111"/>
-      <c r="D487" s="112"/>
+      <c r="D487" s="286"/>
       <c r="E487" s="111"/>
       <c r="F487" s="112"/>
-      <c r="G487" s="111"/>
-      <c r="H487" s="111"/>
-      <c r="I487" s="111"/>
-      <c r="J487" s="112"/>
+      <c r="G487" s="285"/>
+      <c r="H487" s="285"/>
+      <c r="I487" s="285"/>
+      <c r="J487" s="286"/>
     </row>
     <row r="488" spans="1:10">
       <c r="A488" s="9" t="s">
@@ -11268,13 +12656,13 @@
       </c>
       <c r="B489" s="110"/>
       <c r="C489" s="111"/>
-      <c r="D489" s="112"/>
+      <c r="D489" s="286"/>
       <c r="E489" s="111"/>
       <c r="F489" s="112"/>
-      <c r="G489" s="111"/>
-      <c r="H489" s="111"/>
-      <c r="I489" s="111"/>
-      <c r="J489" s="112"/>
+      <c r="G489" s="285"/>
+      <c r="H489" s="285"/>
+      <c r="I489" s="285"/>
+      <c r="J489" s="286"/>
     </row>
     <row r="490" spans="1:10">
       <c r="A490" s="8" t="s">
@@ -11282,13 +12670,13 @@
       </c>
       <c r="B490" s="110"/>
       <c r="C490" s="111"/>
-      <c r="D490" s="112"/>
+      <c r="D490" s="286"/>
       <c r="E490" s="111"/>
       <c r="F490" s="112"/>
-      <c r="G490" s="111"/>
-      <c r="H490" s="111"/>
-      <c r="I490" s="111"/>
-      <c r="J490" s="112"/>
+      <c r="G490" s="285"/>
+      <c r="H490" s="285"/>
+      <c r="I490" s="285"/>
+      <c r="J490" s="286"/>
     </row>
     <row r="491" spans="1:10">
       <c r="A491" s="9" t="s">
@@ -11311,12 +12699,12 @@
       <c r="B492" s="110"/>
       <c r="C492" s="111"/>
       <c r="D492" s="112"/>
-      <c r="E492" s="111"/>
-      <c r="F492" s="112"/>
+      <c r="E492" s="285"/>
+      <c r="F492" s="286"/>
       <c r="G492" s="111"/>
       <c r="H492" s="111"/>
       <c r="I492" s="111"/>
-      <c r="J492" s="112"/>
+      <c r="J492" s="286"/>
     </row>
     <row r="493" spans="1:10">
       <c r="A493" s="8" t="s">
@@ -11325,12 +12713,12 @@
       <c r="B493" s="110"/>
       <c r="C493" s="111"/>
       <c r="D493" s="112"/>
-      <c r="E493" s="111"/>
-      <c r="F493" s="112"/>
+      <c r="E493" s="285"/>
+      <c r="F493" s="286"/>
       <c r="G493" s="111"/>
       <c r="H493" s="111"/>
       <c r="I493" s="111"/>
-      <c r="J493" s="112"/>
+      <c r="J493" s="286"/>
     </row>
     <row r="494" spans="1:10">
       <c r="A494" s="9" t="s">
@@ -11353,12 +12741,12 @@
       <c r="B495" s="110"/>
       <c r="C495" s="111"/>
       <c r="D495" s="112"/>
-      <c r="E495" s="111"/>
-      <c r="F495" s="112"/>
+      <c r="E495" s="285"/>
+      <c r="F495" s="286"/>
       <c r="G495" s="111"/>
       <c r="H495" s="111"/>
       <c r="I495" s="111"/>
-      <c r="J495" s="112"/>
+      <c r="J495" s="286"/>
     </row>
     <row r="496" spans="1:10" ht="16" thickBot="1">
       <c r="A496" s="10" t="s">
@@ -11367,12 +12755,44 @@
       <c r="B496" s="306"/>
       <c r="C496" s="307"/>
       <c r="D496" s="308"/>
-      <c r="E496" s="307"/>
-      <c r="F496" s="308"/>
+      <c r="E496" s="294"/>
+      <c r="F496" s="295"/>
       <c r="G496" s="307"/>
       <c r="H496" s="307"/>
       <c r="I496" s="307"/>
-      <c r="J496" s="308"/>
+      <c r="J496" s="295"/>
+    </row>
+    <row r="497" spans="1:14">
+      <c r="B497" s="1">
+        <v>0</v>
+      </c>
+      <c r="C497" s="1">
+        <v>1</v>
+      </c>
+      <c r="D497" s="1">
+        <v>2</v>
+      </c>
+      <c r="E497" s="1">
+        <v>3</v>
+      </c>
+      <c r="F497" s="1">
+        <v>4</v>
+      </c>
+      <c r="G497" s="1">
+        <v>5</v>
+      </c>
+      <c r="H497" s="1">
+        <v>6</v>
+      </c>
+      <c r="I497" s="1">
+        <v>7</v>
+      </c>
+      <c r="J497" s="1">
+        <v>8</v>
+      </c>
+      <c r="K497" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="510" spans="1:14" ht="16" thickBot="1"/>
     <row r="511" spans="1:14" ht="24" thickBot="1">
@@ -11766,36 +13186,36 @@
         <v>28</v>
       </c>
       <c r="B528" s="289"/>
-      <c r="C528" s="287"/>
-      <c r="D528" s="287"/>
-      <c r="E528" s="288"/>
-      <c r="F528" s="289"/>
-      <c r="G528" s="287"/>
-      <c r="H528" s="288"/>
-      <c r="I528" s="289"/>
-      <c r="J528" s="287"/>
-      <c r="K528" s="287"/>
-      <c r="L528" s="288"/>
-      <c r="M528" s="289"/>
-      <c r="N528" s="288"/>
+      <c r="C528" s="68"/>
+      <c r="D528" s="68"/>
+      <c r="E528" s="69"/>
+      <c r="F528" s="67"/>
+      <c r="G528" s="68"/>
+      <c r="H528" s="69"/>
+      <c r="I528" s="399"/>
+      <c r="J528" s="68"/>
+      <c r="K528" s="68"/>
+      <c r="L528" s="69"/>
+      <c r="M528" s="67"/>
+      <c r="N528" s="69"/>
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B529" s="289"/>
-      <c r="C529" s="287"/>
-      <c r="D529" s="287"/>
-      <c r="E529" s="288"/>
-      <c r="F529" s="289"/>
-      <c r="G529" s="287"/>
-      <c r="H529" s="288"/>
-      <c r="I529" s="289"/>
-      <c r="J529" s="287"/>
-      <c r="K529" s="287"/>
-      <c r="L529" s="288"/>
-      <c r="M529" s="289"/>
-      <c r="N529" s="288"/>
+      <c r="C529" s="68"/>
+      <c r="D529" s="68"/>
+      <c r="E529" s="69"/>
+      <c r="F529" s="67"/>
+      <c r="G529" s="68"/>
+      <c r="H529" s="69"/>
+      <c r="I529" s="399"/>
+      <c r="J529" s="68"/>
+      <c r="K529" s="68"/>
+      <c r="L529" s="69"/>
+      <c r="M529" s="67"/>
+      <c r="N529" s="69"/>
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="9" t="s">
@@ -11929,14 +13349,14 @@
       </c>
       <c r="B537" s="67"/>
       <c r="C537" s="68"/>
-      <c r="D537" s="68"/>
+      <c r="D537" s="287"/>
       <c r="E537" s="69"/>
       <c r="F537" s="67"/>
       <c r="G537" s="68"/>
       <c r="H537" s="69"/>
       <c r="I537" s="67"/>
       <c r="J537" s="68"/>
-      <c r="K537" s="68"/>
+      <c r="K537" s="287"/>
       <c r="L537" s="69"/>
       <c r="M537" s="67"/>
       <c r="N537" s="69"/>
@@ -11947,14 +13367,14 @@
       </c>
       <c r="B538" s="67"/>
       <c r="C538" s="68"/>
-      <c r="D538" s="68"/>
+      <c r="D538" s="287"/>
       <c r="E538" s="69"/>
       <c r="F538" s="67"/>
       <c r="G538" s="68"/>
       <c r="H538" s="69"/>
       <c r="I538" s="67"/>
       <c r="J538" s="68"/>
-      <c r="K538" s="68"/>
+      <c r="K538" s="287"/>
       <c r="L538" s="69"/>
       <c r="M538" s="67"/>
       <c r="N538" s="69"/>
@@ -11982,14 +13402,14 @@
         <v>16</v>
       </c>
       <c r="B540" s="67"/>
-      <c r="C540" s="68"/>
+      <c r="C540" s="287"/>
       <c r="D540" s="68"/>
       <c r="E540" s="69"/>
       <c r="F540" s="67"/>
-      <c r="G540" s="68"/>
+      <c r="G540" s="287"/>
       <c r="H540" s="69"/>
       <c r="I540" s="67"/>
-      <c r="J540" s="68"/>
+      <c r="J540" s="287"/>
       <c r="K540" s="68"/>
       <c r="L540" s="69"/>
       <c r="M540" s="67"/>
@@ -12000,14 +13420,14 @@
         <v>17</v>
       </c>
       <c r="B541" s="67"/>
-      <c r="C541" s="68"/>
+      <c r="C541" s="287"/>
       <c r="D541" s="68"/>
       <c r="E541" s="69"/>
       <c r="F541" s="67"/>
-      <c r="G541" s="68"/>
+      <c r="G541" s="287"/>
       <c r="H541" s="69"/>
       <c r="I541" s="67"/>
-      <c r="J541" s="68"/>
+      <c r="J541" s="287"/>
       <c r="K541" s="68"/>
       <c r="L541" s="69"/>
       <c r="M541" s="67"/>
@@ -12035,39 +13455,39 @@
       <c r="A543" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B543" s="67"/>
+      <c r="B543" s="289"/>
       <c r="C543" s="68"/>
       <c r="D543" s="68"/>
       <c r="E543" s="69"/>
-      <c r="F543" s="67"/>
+      <c r="F543" s="289"/>
       <c r="G543" s="68"/>
       <c r="H543" s="69"/>
-      <c r="I543" s="67"/>
+      <c r="I543" s="289"/>
       <c r="J543" s="68"/>
       <c r="K543" s="68"/>
       <c r="L543" s="69"/>
-      <c r="M543" s="67"/>
+      <c r="M543" s="289"/>
       <c r="N543" s="69"/>
     </row>
     <row r="544" spans="1:14">
       <c r="A544" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B544" s="67"/>
+      <c r="B544" s="289"/>
       <c r="C544" s="68"/>
       <c r="D544" s="68"/>
       <c r="E544" s="69"/>
-      <c r="F544" s="67"/>
+      <c r="F544" s="289"/>
       <c r="G544" s="68"/>
       <c r="H544" s="69"/>
-      <c r="I544" s="67"/>
+      <c r="I544" s="289"/>
       <c r="J544" s="68"/>
       <c r="K544" s="68"/>
       <c r="L544" s="69"/>
-      <c r="M544" s="67"/>
+      <c r="M544" s="289"/>
       <c r="N544" s="69"/>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:15">
       <c r="A545" s="9" t="s">
         <v>8</v>
       </c>
@@ -12085,41 +13505,126 @@
       <c r="M545" s="54"/>
       <c r="N545" s="56"/>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:15">
       <c r="A546" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B546" s="67"/>
       <c r="C546" s="68"/>
       <c r="D546" s="68"/>
-      <c r="E546" s="69"/>
-      <c r="F546" s="67"/>
+      <c r="E546" s="402"/>
+      <c r="F546" s="400"/>
       <c r="G546" s="68"/>
-      <c r="H546" s="69"/>
+      <c r="H546" s="288"/>
       <c r="I546" s="67"/>
       <c r="J546" s="68"/>
       <c r="K546" s="68"/>
-      <c r="L546" s="69"/>
+      <c r="L546" s="288"/>
       <c r="M546" s="67"/>
-      <c r="N546" s="69"/>
-    </row>
-    <row r="547" spans="1:14" ht="16" thickBot="1">
+      <c r="N546" s="288"/>
+    </row>
+    <row r="547" spans="1:15" ht="16" thickBot="1">
       <c r="A547" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B547" s="114"/>
       <c r="C547" s="115"/>
       <c r="D547" s="115"/>
-      <c r="E547" s="116"/>
-      <c r="F547" s="114"/>
+      <c r="E547" s="403"/>
+      <c r="F547" s="401"/>
       <c r="G547" s="115"/>
-      <c r="H547" s="116"/>
+      <c r="H547" s="302"/>
       <c r="I547" s="114"/>
       <c r="J547" s="115"/>
       <c r="K547" s="115"/>
-      <c r="L547" s="116"/>
+      <c r="L547" s="302"/>
       <c r="M547" s="114"/>
-      <c r="N547" s="116"/>
+      <c r="N547" s="302"/>
+    </row>
+    <row r="548" spans="1:15">
+      <c r="B548" s="1">
+        <v>9</v>
+      </c>
+      <c r="C548" s="1">
+        <v>10</v>
+      </c>
+      <c r="D548" s="1">
+        <v>11</v>
+      </c>
+      <c r="E548" s="1">
+        <v>12</v>
+      </c>
+      <c r="F548" s="1">
+        <v>13</v>
+      </c>
+      <c r="G548" s="1">
+        <v>14</v>
+      </c>
+      <c r="H548" s="1">
+        <v>15</v>
+      </c>
+      <c r="I548" s="1">
+        <v>16</v>
+      </c>
+      <c r="J548" s="1">
+        <v>17</v>
+      </c>
+      <c r="K548" s="1">
+        <v>18</v>
+      </c>
+      <c r="L548" s="1">
+        <v>19</v>
+      </c>
+      <c r="M548" s="1">
+        <v>20</v>
+      </c>
+      <c r="N548" s="1">
+        <v>21</v>
+      </c>
+      <c r="O548" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15">
+      <c r="B549" s="1">
+        <v>0</v>
+      </c>
+      <c r="C549" s="1">
+        <v>1</v>
+      </c>
+      <c r="D549" s="1">
+        <v>2</v>
+      </c>
+      <c r="E549" s="1">
+        <v>3</v>
+      </c>
+      <c r="F549" s="1">
+        <v>4</v>
+      </c>
+      <c r="G549" s="1">
+        <v>5</v>
+      </c>
+      <c r="H549" s="1">
+        <v>6</v>
+      </c>
+      <c r="I549" s="1">
+        <v>7</v>
+      </c>
+      <c r="J549" s="1">
+        <v>8</v>
+      </c>
+      <c r="K549" s="1">
+        <v>9</v>
+      </c>
+      <c r="L549" s="1">
+        <v>10</v>
+      </c>
+      <c r="M549" s="1">
+        <v>11</v>
+      </c>
+      <c r="N549" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="562" spans="1:9" ht="24" thickBot="1">
       <c r="A562" s="196" t="s">
@@ -12396,9 +13901,9 @@
       <c r="A579" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B579" s="289"/>
-      <c r="C579" s="287"/>
-      <c r="D579" s="288"/>
+      <c r="B579" s="67"/>
+      <c r="C579" s="68"/>
+      <c r="D579" s="69"/>
       <c r="E579" s="287"/>
       <c r="F579" s="288"/>
       <c r="G579" s="287"/>
@@ -12409,9 +13914,9 @@
       <c r="A580" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B580" s="289"/>
-      <c r="C580" s="287"/>
-      <c r="D580" s="288"/>
+      <c r="B580" s="67"/>
+      <c r="C580" s="68"/>
+      <c r="D580" s="69"/>
       <c r="E580" s="287"/>
       <c r="F580" s="288"/>
       <c r="G580" s="287"/>
@@ -12574,7 +14079,7 @@
       <c r="H592" s="68"/>
       <c r="I592" s="69"/>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:10">
       <c r="A593" s="182" t="s">
         <v>7</v>
       </c>
@@ -12587,7 +14092,7 @@
       <c r="H593" s="55"/>
       <c r="I593" s="56"/>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:10">
       <c r="A594" s="180" t="s">
         <v>16</v>
       </c>
@@ -12600,7 +14105,7 @@
       <c r="H594" s="68"/>
       <c r="I594" s="69"/>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:10">
       <c r="A595" s="181" t="s">
         <v>17</v>
       </c>
@@ -12613,7 +14118,7 @@
       <c r="H595" s="68"/>
       <c r="I595" s="69"/>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:10">
       <c r="A596" s="182" t="s">
         <v>8</v>
       </c>
@@ -12626,7 +14131,7 @@
       <c r="H596" s="55"/>
       <c r="I596" s="56"/>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:10">
       <c r="A597" s="180" t="s">
         <v>16</v>
       </c>
@@ -12639,7 +14144,7 @@
       <c r="H597" s="68"/>
       <c r="I597" s="69"/>
     </row>
-    <row r="598" spans="1:9" ht="16" thickBot="1">
+    <row r="598" spans="1:10" ht="16" thickBot="1">
       <c r="A598" s="186" t="s">
         <v>18</v>
       </c>
@@ -12651,6 +14156,61 @@
       <c r="G598" s="115"/>
       <c r="H598" s="115"/>
       <c r="I598" s="116"/>
+    </row>
+    <row r="599" spans="1:10">
+      <c r="B599" s="1">
+        <v>22</v>
+      </c>
+      <c r="C599" s="1">
+        <v>23</v>
+      </c>
+      <c r="D599" s="1">
+        <v>24</v>
+      </c>
+      <c r="E599" s="1">
+        <v>25</v>
+      </c>
+      <c r="F599" s="1">
+        <v>26</v>
+      </c>
+      <c r="G599" s="1">
+        <v>27</v>
+      </c>
+      <c r="H599" s="1">
+        <v>28</v>
+      </c>
+      <c r="I599" s="1">
+        <v>29</v>
+      </c>
+      <c r="J599" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="B600" s="1">
+        <v>0</v>
+      </c>
+      <c r="C600" s="1">
+        <v>1</v>
+      </c>
+      <c r="D600" s="1">
+        <v>2</v>
+      </c>
+      <c r="E600" s="1">
+        <v>3</v>
+      </c>
+      <c r="F600" s="1">
+        <v>4</v>
+      </c>
+      <c r="G600" s="1">
+        <v>5</v>
+      </c>
+      <c r="H600" s="1">
+        <v>6</v>
+      </c>
+      <c r="I600" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="612" spans="1:18" ht="16" thickBot="1"/>
     <row r="613" spans="1:18" ht="24" thickBot="1">
@@ -13373,7 +14933,7 @@
       <c r="Q640" s="285"/>
       <c r="R640" s="286"/>
     </row>
-    <row r="641" spans="1:18">
+    <row r="641" spans="1:19">
       <c r="A641" s="182" t="s">
         <v>6</v>
       </c>
@@ -13395,7 +14955,7 @@
       <c r="Q641" s="108"/>
       <c r="R641" s="109"/>
     </row>
-    <row r="642" spans="1:18">
+    <row r="642" spans="1:19">
       <c r="A642" s="180" t="s">
         <v>16</v>
       </c>
@@ -13417,7 +14977,7 @@
       <c r="Q642" s="285"/>
       <c r="R642" s="286"/>
     </row>
-    <row r="643" spans="1:18">
+    <row r="643" spans="1:19">
       <c r="A643" s="181" t="s">
         <v>17</v>
       </c>
@@ -13439,7 +14999,7 @@
       <c r="Q643" s="285"/>
       <c r="R643" s="286"/>
     </row>
-    <row r="644" spans="1:18">
+    <row r="644" spans="1:19">
       <c r="A644" s="182" t="s">
         <v>7</v>
       </c>
@@ -13461,7 +15021,7 @@
       <c r="Q644" s="108"/>
       <c r="R644" s="109"/>
     </row>
-    <row r="645" spans="1:18">
+    <row r="645" spans="1:19">
       <c r="A645" s="180" t="s">
         <v>16</v>
       </c>
@@ -13483,7 +15043,7 @@
       <c r="Q645" s="285"/>
       <c r="R645" s="286"/>
     </row>
-    <row r="646" spans="1:18">
+    <row r="646" spans="1:19">
       <c r="A646" s="181" t="s">
         <v>17</v>
       </c>
@@ -13505,7 +15065,7 @@
       <c r="Q646" s="285"/>
       <c r="R646" s="286"/>
     </row>
-    <row r="647" spans="1:18">
+    <row r="647" spans="1:19">
       <c r="A647" s="182" t="s">
         <v>8</v>
       </c>
@@ -13527,7 +15087,7 @@
       <c r="Q647" s="108"/>
       <c r="R647" s="109"/>
     </row>
-    <row r="648" spans="1:18">
+    <row r="648" spans="1:19">
       <c r="A648" s="180" t="s">
         <v>16</v>
       </c>
@@ -13549,7 +15109,7 @@
       <c r="Q648" s="285"/>
       <c r="R648" s="286"/>
     </row>
-    <row r="649" spans="1:18" ht="16" thickBot="1">
+    <row r="649" spans="1:19" ht="16" thickBot="1">
       <c r="A649" s="186" t="s">
         <v>18</v>
       </c>
@@ -13571,6 +15131,62 @@
       <c r="Q649" s="294"/>
       <c r="R649" s="295"/>
     </row>
+    <row r="650" spans="1:19">
+      <c r="B650" s="1">
+        <v>0</v>
+      </c>
+      <c r="C650" s="1">
+        <v>1</v>
+      </c>
+      <c r="D650" s="1">
+        <v>2</v>
+      </c>
+      <c r="E650" s="1">
+        <v>3</v>
+      </c>
+      <c r="F650" s="1">
+        <v>4</v>
+      </c>
+      <c r="G650" s="1">
+        <v>5</v>
+      </c>
+      <c r="H650" s="1">
+        <v>6</v>
+      </c>
+      <c r="I650" s="1">
+        <v>7</v>
+      </c>
+      <c r="J650" s="1">
+        <v>8</v>
+      </c>
+      <c r="K650" s="1">
+        <v>9</v>
+      </c>
+      <c r="L650" s="1">
+        <v>10</v>
+      </c>
+      <c r="M650" s="1">
+        <v>11</v>
+      </c>
+      <c r="N650" s="1">
+        <v>12</v>
+      </c>
+      <c r="O650" s="1">
+        <v>13</v>
+      </c>
+      <c r="P650" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q650" s="1">
+        <v>15</v>
+      </c>
+      <c r="R650" s="1">
+        <v>16</v>
+      </c>
+      <c r="S650" s="1">
+        <v>17</v>
+      </c>
+    </row>
     <row r="663" spans="1:17" ht="16" thickBot="1"/>
     <row r="664" spans="1:17" ht="24" thickBot="1">
       <c r="A664" s="190" t="s">
@@ -14195,7 +15811,7 @@
       <c r="P688" s="285"/>
       <c r="Q688" s="286"/>
     </row>
-    <row r="689" spans="1:17">
+    <row r="689" spans="1:18">
       <c r="A689" s="9" t="s">
         <v>5</v>
       </c>
@@ -14216,7 +15832,7 @@
       <c r="P689" s="108"/>
       <c r="Q689" s="109"/>
     </row>
-    <row r="690" spans="1:17">
+    <row r="690" spans="1:18">
       <c r="A690" s="7" t="s">
         <v>16</v>
       </c>
@@ -14237,7 +15853,7 @@
       <c r="P690" s="285"/>
       <c r="Q690" s="286"/>
     </row>
-    <row r="691" spans="1:17">
+    <row r="691" spans="1:18">
       <c r="A691" s="8" t="s">
         <v>17</v>
       </c>
@@ -14258,7 +15874,7 @@
       <c r="P691" s="285"/>
       <c r="Q691" s="286"/>
     </row>
-    <row r="692" spans="1:17">
+    <row r="692" spans="1:18">
       <c r="A692" s="9" t="s">
         <v>6</v>
       </c>
@@ -14279,7 +15895,7 @@
       <c r="P692" s="108"/>
       <c r="Q692" s="109"/>
     </row>
-    <row r="693" spans="1:17">
+    <row r="693" spans="1:18">
       <c r="A693" s="7" t="s">
         <v>16</v>
       </c>
@@ -14300,7 +15916,7 @@
       <c r="P693" s="285"/>
       <c r="Q693" s="286"/>
     </row>
-    <row r="694" spans="1:17">
+    <row r="694" spans="1:18">
       <c r="A694" s="8" t="s">
         <v>17</v>
       </c>
@@ -14321,7 +15937,7 @@
       <c r="P694" s="285"/>
       <c r="Q694" s="286"/>
     </row>
-    <row r="695" spans="1:17">
+    <row r="695" spans="1:18">
       <c r="A695" s="9" t="s">
         <v>7</v>
       </c>
@@ -14342,7 +15958,7 @@
       <c r="P695" s="108"/>
       <c r="Q695" s="109"/>
     </row>
-    <row r="696" spans="1:17">
+    <row r="696" spans="1:18">
       <c r="A696" s="7" t="s">
         <v>16</v>
       </c>
@@ -14363,7 +15979,7 @@
       <c r="P696" s="285"/>
       <c r="Q696" s="286"/>
     </row>
-    <row r="697" spans="1:17">
+    <row r="697" spans="1:18">
       <c r="A697" s="8" t="s">
         <v>17</v>
       </c>
@@ -14384,7 +16000,7 @@
       <c r="P697" s="285"/>
       <c r="Q697" s="286"/>
     </row>
-    <row r="698" spans="1:17">
+    <row r="698" spans="1:18">
       <c r="A698" s="9" t="s">
         <v>8</v>
       </c>
@@ -14405,7 +16021,7 @@
       <c r="P698" s="108"/>
       <c r="Q698" s="109"/>
     </row>
-    <row r="699" spans="1:17">
+    <row r="699" spans="1:18">
       <c r="A699" s="7" t="s">
         <v>16</v>
       </c>
@@ -14426,7 +16042,7 @@
       <c r="P699" s="285"/>
       <c r="Q699" s="286"/>
     </row>
-    <row r="700" spans="1:17" ht="16" thickBot="1">
+    <row r="700" spans="1:18" ht="16" thickBot="1">
       <c r="A700" s="10" t="s">
         <v>18</v>
       </c>
@@ -14447,6 +16063,59 @@
       <c r="P700" s="294"/>
       <c r="Q700" s="295"/>
     </row>
+    <row r="701" spans="1:18">
+      <c r="B701" s="1">
+        <v>17</v>
+      </c>
+      <c r="C701" s="1">
+        <v>18</v>
+      </c>
+      <c r="D701" s="1">
+        <v>19</v>
+      </c>
+      <c r="E701" s="1">
+        <v>20</v>
+      </c>
+      <c r="F701" s="1">
+        <v>21</v>
+      </c>
+      <c r="G701" s="1">
+        <v>22</v>
+      </c>
+      <c r="H701" s="1">
+        <v>23</v>
+      </c>
+      <c r="I701" s="1">
+        <v>24</v>
+      </c>
+      <c r="J701" s="1">
+        <v>25</v>
+      </c>
+      <c r="K701" s="1">
+        <v>26</v>
+      </c>
+      <c r="L701" s="1">
+        <v>27</v>
+      </c>
+      <c r="M701" s="1">
+        <v>28</v>
+      </c>
+      <c r="N701" s="1">
+        <v>29</v>
+      </c>
+      <c r="O701" s="1">
+        <v>30</v>
+      </c>
+      <c r="P701" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q701" s="1">
+        <v>32</v>
+      </c>
+      <c r="R701" s="1">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14459,654 +16128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="21" thickBot="1">
-      <c r="A1" s="259" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="260">
-        <v>1</v>
-      </c>
-      <c r="C1" s="261"/>
-      <c r="D1" s="260">
-        <v>2</v>
-      </c>
-      <c r="E1" s="262"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="260">
-        <v>3</v>
-      </c>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="260">
-        <v>4</v>
-      </c>
-      <c r="L1" s="262"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="262">
-        <v>5</v>
-      </c>
-      <c r="O1" s="261"/>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="263" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="264">
-        <v>1</v>
-      </c>
-      <c r="C2" s="265">
-        <v>2</v>
-      </c>
-      <c r="D2" s="264">
-        <v>1</v>
-      </c>
-      <c r="E2" s="266">
-        <v>2</v>
-      </c>
-      <c r="F2" s="265">
-        <v>3</v>
-      </c>
-      <c r="G2" s="264">
-        <v>1</v>
-      </c>
-      <c r="H2" s="266">
-        <v>2</v>
-      </c>
-      <c r="I2" s="266">
-        <v>3</v>
-      </c>
-      <c r="J2" s="265">
-        <v>4</v>
-      </c>
-      <c r="K2" s="264">
-        <v>1</v>
-      </c>
-      <c r="L2" s="266">
-        <v>2</v>
-      </c>
-      <c r="M2" s="265">
-        <v>3</v>
-      </c>
-      <c r="N2" s="266">
-        <v>1</v>
-      </c>
-      <c r="O2" s="265">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickBot="1">
-      <c r="A3" s="267" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="268">
-        <v>54</v>
-      </c>
-      <c r="C3" s="269">
-        <v>81</v>
-      </c>
-      <c r="D3" s="268">
-        <v>68</v>
-      </c>
-      <c r="E3" s="270">
-        <v>54</v>
-      </c>
-      <c r="F3" s="269">
-        <v>81</v>
-      </c>
-      <c r="G3" s="268">
-        <v>68</v>
-      </c>
-      <c r="H3" s="270">
-        <v>47</v>
-      </c>
-      <c r="I3" s="270">
-        <v>81</v>
-      </c>
-      <c r="J3" s="269">
-        <v>72</v>
-      </c>
-      <c r="K3" s="268">
-        <v>54</v>
-      </c>
-      <c r="L3" s="270">
-        <v>68</v>
-      </c>
-      <c r="M3" s="269">
-        <v>81</v>
-      </c>
-      <c r="N3" s="270">
-        <v>68</v>
-      </c>
-      <c r="O3" s="269">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
-      <c r="A4" s="258" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="257"/>
-      <c r="M4" s="257"/>
-      <c r="N4" s="257"/>
-      <c r="O4" s="256"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="314" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="274"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="249" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="249" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="245" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="272"/>
-      <c r="K5" s="249" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="250" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="251" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="272"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="247" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="274"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="249" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="245" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="250" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="249" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="245" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="245" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="272"/>
-      <c r="K6" s="249" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="251" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="272"/>
-    </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1">
-      <c r="A7" s="247" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="313" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="240" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="242" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="241" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="240" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="240" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="243"/>
-      <c r="K7" s="241" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="240" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="246" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="243"/>
-    </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1">
-      <c r="A8" s="315" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="247" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="274"/>
-      <c r="C9" s="272"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="249" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="245" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="245" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="250" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="249" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="274"/>
-      <c r="O9" s="272"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="247" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="274"/>
-      <c r="C10" s="272"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="249" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="245" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="250" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="274"/>
-      <c r="O10" s="272"/>
-    </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1">
-      <c r="A11" s="247" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="274"/>
-      <c r="C11" s="272"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="245" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="249" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="250" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="274"/>
-      <c r="O11" s="272"/>
-    </row>
-    <row r="12" spans="1:15" ht="16" thickBot="1">
-      <c r="A12" s="316" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="253"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="247" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="251" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="249" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="250" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="251" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="250" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="247" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="251" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="249" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="251" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="250" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="A15" s="247" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="246"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="241"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="242"/>
-      <c r="N15" s="246"/>
-      <c r="O15" s="242"/>
-    </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="A16" s="317" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="254"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="254"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="254"/>
-      <c r="K16" s="254"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="254"/>
-      <c r="O16" s="255"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="314" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="318"/>
-      <c r="C17" s="319"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="322" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="323" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="324" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="324" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="322" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="323" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="324" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="322" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="318"/>
-      <c r="O17" s="319"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="247" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="273"/>
-      <c r="F18" s="250" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="249" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="249" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="274"/>
-      <c r="O18" s="272"/>
-    </row>
-    <row r="19" spans="1:15" ht="16" thickBot="1">
-      <c r="A19" s="248" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="325"/>
-      <c r="C19" s="326"/>
-      <c r="D19" s="327"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="331"/>
-      <c r="I19" s="331"/>
-      <c r="J19" s="329"/>
-      <c r="K19" s="330"/>
-      <c r="L19" s="331"/>
-      <c r="M19" s="329"/>
-      <c r="N19" s="325"/>
-      <c r="O19" s="326"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H22" sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17282,4 +18309,1570 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23">
+      <c r="A1" s="360"/>
+      <c r="B1" s="358"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="345" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="346"/>
+      <c r="F1" s="347" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="346"/>
+      <c r="H1" s="347" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="336"/>
+      <c r="J1" s="347" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="336"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="A2" s="361"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="356" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="351" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="354" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="351" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="354" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="351" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="354" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="351" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="340" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="384"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="384"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="384"/>
+      <c r="I3" s="386"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="386"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="341"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="200"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="202"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="341"/>
+      <c r="B5" s="368"/>
+      <c r="C5" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="200"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="202"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="352"/>
+      <c r="B6" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="387"/>
+      <c r="E6" s="389"/>
+      <c r="F6" s="387"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="387"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="387"/>
+      <c r="K6" s="389"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
+      <c r="A7" s="353"/>
+      <c r="B7" s="366"/>
+      <c r="C7" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="228"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="340" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="201"/>
+      <c r="E8" s="386"/>
+      <c r="F8" s="384"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="384"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="384"/>
+      <c r="K8" s="386"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="341"/>
+      <c r="B9" s="368"/>
+      <c r="C9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="201"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="202"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="341"/>
+      <c r="B10" s="369"/>
+      <c r="C10" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="390"/>
+      <c r="E10" s="391"/>
+      <c r="F10" s="392"/>
+      <c r="G10" s="391"/>
+      <c r="H10" s="392"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="392"/>
+      <c r="K10" s="391"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="352"/>
+      <c r="B11" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="393"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="202"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" thickBot="1">
+      <c r="A12" s="353"/>
+      <c r="B12" s="366"/>
+      <c r="C12" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="393"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="228"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="340" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="384"/>
+      <c r="E13" s="385"/>
+      <c r="F13" s="384"/>
+      <c r="G13" s="385"/>
+      <c r="H13" s="384"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="384"/>
+      <c r="K13" s="386"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="341"/>
+      <c r="B14" s="368"/>
+      <c r="C14" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="202"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="341"/>
+      <c r="B15" s="368"/>
+      <c r="C15" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="202"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="352"/>
+      <c r="B16" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="387"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="387"/>
+      <c r="G16" s="388"/>
+      <c r="H16" s="387"/>
+      <c r="I16" s="389"/>
+      <c r="J16" s="387"/>
+      <c r="K16" s="389"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" thickBot="1">
+      <c r="A17" s="353"/>
+      <c r="B17" s="366"/>
+      <c r="C17" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="226"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="228"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="340" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="384"/>
+      <c r="E18" s="386"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="386"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="386"/>
+      <c r="J18" s="384"/>
+      <c r="K18" s="386"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="341"/>
+      <c r="B19" s="368"/>
+      <c r="C19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="404"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="404"/>
+      <c r="I19" s="405"/>
+      <c r="J19" s="404"/>
+      <c r="K19" s="405"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="341"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="392"/>
+      <c r="E20" s="390"/>
+      <c r="F20" s="392"/>
+      <c r="G20" s="391"/>
+      <c r="H20" s="392"/>
+      <c r="I20" s="391"/>
+      <c r="J20" s="392"/>
+      <c r="K20" s="391"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="352"/>
+      <c r="B21" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="200"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="202"/>
+    </row>
+    <row r="22" spans="1:14" ht="16" thickBot="1">
+      <c r="A22" s="353"/>
+      <c r="B22" s="366"/>
+      <c r="C22" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="226"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="228"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="228"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="340" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="334"/>
+      <c r="E23" s="336"/>
+      <c r="F23" s="334"/>
+      <c r="G23" s="336"/>
+      <c r="H23" s="334"/>
+      <c r="I23" s="336"/>
+      <c r="J23" s="384"/>
+      <c r="K23" s="386"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="341"/>
+      <c r="B24" s="368"/>
+      <c r="C24" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="348"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="348"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="404"/>
+      <c r="K24" s="405"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="341"/>
+      <c r="B25" s="368"/>
+      <c r="C25" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="223"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="202"/>
+      <c r="N25" s="412" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="352"/>
+      <c r="B26" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="363"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="363"/>
+      <c r="G26" s="365"/>
+      <c r="H26" s="363"/>
+      <c r="I26" s="365"/>
+      <c r="J26" s="387"/>
+      <c r="K26" s="389"/>
+      <c r="N26" s="412" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16" thickBot="1">
+      <c r="A27" s="353"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="337"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="337"/>
+      <c r="G27" s="339"/>
+      <c r="H27" s="337"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="228"/>
+      <c r="N27" s="412" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="340" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="413" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="341"/>
+      <c r="B29" s="368"/>
+      <c r="C29" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="277" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="412" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="341"/>
+      <c r="B30" s="369"/>
+      <c r="C30" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="373">
+        <v>16</v>
+      </c>
+      <c r="E30" s="371">
+        <v>16</v>
+      </c>
+      <c r="F30" s="373">
+        <v>16</v>
+      </c>
+      <c r="G30" s="372">
+        <v>16</v>
+      </c>
+      <c r="H30" s="373">
+        <v>16</v>
+      </c>
+      <c r="I30" s="372">
+        <v>16</v>
+      </c>
+      <c r="J30" s="373">
+        <v>16</v>
+      </c>
+      <c r="K30" s="372">
+        <v>16</v>
+      </c>
+      <c r="N30" s="412" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="352"/>
+      <c r="B31" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="223"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="118"/>
+      <c r="N31" s="412"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" thickBot="1">
+      <c r="A32" s="353"/>
+      <c r="B32" s="366"/>
+      <c r="C32" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="337"/>
+      <c r="E32" s="339"/>
+      <c r="F32" s="337"/>
+      <c r="G32" s="339"/>
+      <c r="H32" s="337"/>
+      <c r="I32" s="339"/>
+      <c r="J32" s="337"/>
+      <c r="K32" s="339"/>
+      <c r="N32" s="412"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="340" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="412"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="341"/>
+      <c r="B34" s="368"/>
+      <c r="C34" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="277" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="412"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="341"/>
+      <c r="B35" s="368"/>
+      <c r="C35" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="373">
+        <v>16</v>
+      </c>
+      <c r="E35" s="371">
+        <v>16</v>
+      </c>
+      <c r="F35" s="373">
+        <v>16</v>
+      </c>
+      <c r="G35" s="372">
+        <v>16</v>
+      </c>
+      <c r="H35" s="373">
+        <v>16</v>
+      </c>
+      <c r="I35" s="372">
+        <v>16</v>
+      </c>
+      <c r="J35" s="373">
+        <v>16</v>
+      </c>
+      <c r="K35" s="372">
+        <v>16</v>
+      </c>
+      <c r="N35" s="412"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="352"/>
+      <c r="B36" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="363"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="118"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" thickBot="1">
+      <c r="A37" s="353"/>
+      <c r="B37" s="366"/>
+      <c r="C37" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="337"/>
+      <c r="E37" s="339"/>
+      <c r="F37" s="337"/>
+      <c r="G37" s="339"/>
+      <c r="H37" s="337"/>
+      <c r="I37" s="339"/>
+      <c r="J37" s="337"/>
+      <c r="K37" s="339"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="340" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="336" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="341"/>
+      <c r="B39" s="368"/>
+      <c r="C39" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="277" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="341"/>
+      <c r="B40" s="369"/>
+      <c r="C40" s="370" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="373">
+        <v>16</v>
+      </c>
+      <c r="E40" s="371">
+        <v>16</v>
+      </c>
+      <c r="F40" s="373">
+        <v>16</v>
+      </c>
+      <c r="G40" s="372">
+        <v>16</v>
+      </c>
+      <c r="H40" s="373">
+        <v>16</v>
+      </c>
+      <c r="I40" s="372">
+        <v>16</v>
+      </c>
+      <c r="J40" s="373">
+        <v>16</v>
+      </c>
+      <c r="K40" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="352"/>
+      <c r="B41" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="223"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="223"/>
+      <c r="K41" s="118"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" thickBot="1">
+      <c r="A42" s="353"/>
+      <c r="B42" s="366"/>
+      <c r="C42" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="337"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="337"/>
+      <c r="G42" s="339"/>
+      <c r="H42" s="337"/>
+      <c r="I42" s="339"/>
+      <c r="J42" s="337"/>
+      <c r="K42" s="339"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="340" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="336" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="341"/>
+      <c r="B44" s="368"/>
+      <c r="C44" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="277" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="341"/>
+      <c r="B45" s="368"/>
+      <c r="C45" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="373">
+        <v>16</v>
+      </c>
+      <c r="E45" s="371">
+        <v>16</v>
+      </c>
+      <c r="F45" s="373">
+        <v>16</v>
+      </c>
+      <c r="G45" s="372">
+        <v>16</v>
+      </c>
+      <c r="H45" s="373">
+        <v>16</v>
+      </c>
+      <c r="I45" s="372">
+        <v>16</v>
+      </c>
+      <c r="J45" s="373">
+        <v>16</v>
+      </c>
+      <c r="K45" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="352"/>
+      <c r="B46" s="362" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="406"/>
+      <c r="E46" s="407"/>
+      <c r="F46" s="408"/>
+      <c r="G46" s="407"/>
+      <c r="H46" s="408"/>
+      <c r="I46" s="407"/>
+      <c r="J46" s="408"/>
+      <c r="K46" s="407"/>
+    </row>
+    <row r="47" spans="1:14" ht="16" thickBot="1">
+      <c r="A47" s="353"/>
+      <c r="B47" s="366"/>
+      <c r="C47" s="350" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="409"/>
+      <c r="E47" s="410"/>
+      <c r="F47" s="411"/>
+      <c r="G47" s="410"/>
+      <c r="H47" s="411"/>
+      <c r="I47" s="410"/>
+      <c r="J47" s="411"/>
+      <c r="K47" s="410"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="342" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" s="336" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="343"/>
+      <c r="B49" s="377"/>
+      <c r="C49" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="277" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="343"/>
+      <c r="B50" s="378"/>
+      <c r="C50" s="379" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="373">
+        <v>16</v>
+      </c>
+      <c r="E50" s="371">
+        <v>16</v>
+      </c>
+      <c r="F50" s="373">
+        <v>16</v>
+      </c>
+      <c r="G50" s="372">
+        <v>16</v>
+      </c>
+      <c r="H50" s="373">
+        <v>16</v>
+      </c>
+      <c r="I50" s="372">
+        <v>16</v>
+      </c>
+      <c r="J50" s="373">
+        <v>16</v>
+      </c>
+      <c r="K50" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="139"/>
+      <c r="B51" s="377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="223"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="223"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="223"/>
+      <c r="K51" s="118"/>
+    </row>
+    <row r="52" spans="1:11" ht="16" thickBot="1">
+      <c r="A52" s="344"/>
+      <c r="B52" s="380"/>
+      <c r="C52" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="337"/>
+      <c r="E52" s="339"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="339"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="339"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="339"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="342" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H53" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="336" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="343"/>
+      <c r="B54" s="377"/>
+      <c r="C54" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="277" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="343"/>
+      <c r="B55" s="377"/>
+      <c r="C55" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="373">
+        <v>16</v>
+      </c>
+      <c r="E55" s="371">
+        <v>16</v>
+      </c>
+      <c r="F55" s="373">
+        <v>16</v>
+      </c>
+      <c r="G55" s="372">
+        <v>16</v>
+      </c>
+      <c r="H55" s="373">
+        <v>16</v>
+      </c>
+      <c r="I55" s="372">
+        <v>16</v>
+      </c>
+      <c r="J55" s="373">
+        <v>16</v>
+      </c>
+      <c r="K55" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="139"/>
+      <c r="B56" s="382" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="383" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="363"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="223"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="223"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="223"/>
+      <c r="K56" s="118"/>
+    </row>
+    <row r="57" spans="1:11" ht="16" thickBot="1">
+      <c r="A57" s="344"/>
+      <c r="B57" s="380"/>
+      <c r="C57" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="337"/>
+      <c r="E57" s="339"/>
+      <c r="F57" s="337"/>
+      <c r="G57" s="339"/>
+      <c r="H57" s="337"/>
+      <c r="I57" s="339"/>
+      <c r="J57" s="337"/>
+      <c r="K57" s="339"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="342" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="H58" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="336" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="334" t="s">
+        <v>99</v>
+      </c>
+      <c r="K58" s="336" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="343"/>
+      <c r="B59" s="377"/>
+      <c r="C59" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="348" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="348" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="348" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="277" t="s">
+        <v>100</v>
+      </c>
+      <c r="J59" s="348" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" s="277" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="343"/>
+      <c r="B60" s="378"/>
+      <c r="C60" s="379" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="373">
+        <v>16</v>
+      </c>
+      <c r="E60" s="371">
+        <v>16</v>
+      </c>
+      <c r="F60" s="373">
+        <v>16</v>
+      </c>
+      <c r="G60" s="372">
+        <v>16</v>
+      </c>
+      <c r="H60" s="373">
+        <v>16</v>
+      </c>
+      <c r="I60" s="372">
+        <v>16</v>
+      </c>
+      <c r="J60" s="373">
+        <v>16</v>
+      </c>
+      <c r="K60" s="372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="139"/>
+      <c r="B61" s="377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="223"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="363"/>
+      <c r="G61" s="365"/>
+      <c r="H61" s="363"/>
+      <c r="I61" s="365"/>
+      <c r="J61" s="363"/>
+      <c r="K61" s="365"/>
+    </row>
+    <row r="62" spans="1:11" ht="16" thickBot="1">
+      <c r="A62" s="344"/>
+      <c r="B62" s="380"/>
+      <c r="C62" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="337"/>
+      <c r="E62" s="339"/>
+      <c r="F62" s="337"/>
+      <c r="G62" s="339"/>
+      <c r="H62" s="337"/>
+      <c r="I62" s="339"/>
+      <c r="J62" s="337"/>
+      <c r="K62" s="339"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="342" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="384"/>
+      <c r="E63" s="386"/>
+      <c r="F63" s="384"/>
+      <c r="G63" s="386"/>
+      <c r="H63" s="384"/>
+      <c r="I63" s="386"/>
+      <c r="J63" s="384"/>
+      <c r="K63" s="386"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="343"/>
+      <c r="B64" s="377"/>
+      <c r="C64" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="404"/>
+      <c r="E64" s="202"/>
+      <c r="F64" s="404"/>
+      <c r="G64" s="202"/>
+      <c r="H64" s="404"/>
+      <c r="I64" s="405"/>
+      <c r="J64" s="404"/>
+      <c r="K64" s="405"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="343"/>
+      <c r="B65" s="377"/>
+      <c r="C65" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="200"/>
+      <c r="E65" s="391"/>
+      <c r="F65" s="392"/>
+      <c r="G65" s="391"/>
+      <c r="H65" s="392"/>
+      <c r="I65" s="391"/>
+      <c r="J65" s="392"/>
+      <c r="K65" s="391"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="139"/>
+      <c r="B66" s="382" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="383" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="387"/>
+      <c r="E66" s="202"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="202"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="202"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="202"/>
+    </row>
+    <row r="67" spans="1:11" ht="16" thickBot="1">
+      <c r="A67" s="344"/>
+      <c r="B67" s="380"/>
+      <c r="C67" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="226"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="226"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="226"/>
+      <c r="K67" s="228"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="342" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="375" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="376" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="384"/>
+      <c r="E68" s="386"/>
+      <c r="F68" s="384"/>
+      <c r="G68" s="386"/>
+      <c r="H68" s="384"/>
+      <c r="I68" s="386"/>
+      <c r="J68" s="384"/>
+      <c r="K68" s="386"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="343"/>
+      <c r="B69" s="377"/>
+      <c r="C69" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="200"/>
+      <c r="E69" s="202"/>
+      <c r="F69" s="200"/>
+      <c r="G69" s="202"/>
+      <c r="H69" s="200"/>
+      <c r="I69" s="202"/>
+      <c r="J69" s="200"/>
+      <c r="K69" s="202"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="343"/>
+      <c r="B70" s="378"/>
+      <c r="C70" s="379" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="392"/>
+      <c r="E70" s="391"/>
+      <c r="F70" s="392"/>
+      <c r="G70" s="391"/>
+      <c r="H70" s="392"/>
+      <c r="I70" s="391"/>
+      <c r="J70" s="392"/>
+      <c r="K70" s="391"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="139"/>
+      <c r="B71" s="377" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="200"/>
+      <c r="E71" s="202"/>
+      <c r="F71" s="200"/>
+      <c r="G71" s="202"/>
+      <c r="H71" s="200"/>
+      <c r="I71" s="202"/>
+      <c r="J71" s="200"/>
+      <c r="K71" s="202"/>
+    </row>
+    <row r="72" spans="1:11" ht="16" thickBot="1">
+      <c r="A72" s="344"/>
+      <c r="B72" s="380"/>
+      <c r="C72" s="381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="226"/>
+      <c r="E72" s="228"/>
+      <c r="F72" s="226"/>
+      <c r="G72" s="228"/>
+      <c r="H72" s="226"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="226"/>
+      <c r="K72" s="228"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>